--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F07A99-8814-4237-B222-2246C84BAFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940297C3-95C6-4457-9EAA-9B772057489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="300">
   <si>
     <t>home</t>
   </si>
@@ -624,6 +624,318 @@
   </si>
   <si>
     <t xml:space="preserve"> SE Kindermann SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avispa Fukuoka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanfrecce Hiroshima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jubilo Iwata </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nagoya Grampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yokohama Marinos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shonan Bellmare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Seoul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pohang Steelers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEF United Ichihara Chiba </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oita Trinita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-Varen Nagasaki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tokushima Vortis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegalta Sendai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montedio Yamagata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreland City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manningham United Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nara Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matsumoto Yamaga FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canberra Olympic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yoogali SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyeongnam FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheongju FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daegu FC II </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daejeon Korail FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Central Coast Mariners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide University </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salisbury Inter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturt Lions </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> West Torrens Birkalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokyo Verdy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehime FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kagoshima United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iwaki FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shimizu S-Pulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Melbourne Sharks </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dandenong Thunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentine FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weston Workers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wolves FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingborough Lions United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Launceston City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Knights SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Armadale SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern District Football Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hong Kong Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chongqing Yongchuan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guangdong Meizhou Hakka FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wuhan Jianghan University </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zhejiang Hangzhou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Roar FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Newcastle United Jets FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henan Songshan Longmen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nantong Zhiyun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeju United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gimcheon Sangmu FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulsan Hyundai FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gangwon FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucheon FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seongnam Ilhwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busan I Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Anyang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maitland FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lake Macquarie FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southside Eagles </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> St George Willawong FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalian Zhixing FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liaoning Shenyang Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Concordia Chiajna </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSM Slatina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSM Alexandria </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACS Champions FC Arges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSM Resita </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metaloglobus Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altona Magic SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> St Albans Saints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hume City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dandenong City SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Kashmir </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Namdhari Sports Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marconi Stallions </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manly United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St George Saints FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wollongong Wolves FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redlands United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Milan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empoli FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagliari Calcio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atalanta BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benevento Calcio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ternana Calcio U19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spezia Calcio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cosenza Calcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreton City Excelsior FC 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ipswich FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Western Sydney Wanderers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Obolon Kiev </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Minaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF Os Belenenses </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Academico de Viseu FC</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,6 +5046,2138 @@
         <v>4</v>
       </c>
       <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92">
+        <v>5.47</v>
+      </c>
+      <c r="D92">
+        <v>1.77</v>
+      </c>
+      <c r="E92">
+        <v>3.7</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93">
+        <v>2.69</v>
+      </c>
+      <c r="D93">
+        <v>2.92</v>
+      </c>
+      <c r="E93">
+        <v>0.23</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94">
+        <v>2.11</v>
+      </c>
+      <c r="D94">
+        <v>3.47</v>
+      </c>
+      <c r="E94">
+        <v>1.36</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95">
+        <v>2.65</v>
+      </c>
+      <c r="D95">
+        <v>2.75</v>
+      </c>
+      <c r="E95">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96">
+        <v>1.85</v>
+      </c>
+      <c r="D96">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E96">
+        <v>2.25</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>11</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97">
+        <v>1.93</v>
+      </c>
+      <c r="D97">
+        <v>3.8</v>
+      </c>
+      <c r="E97">
+        <v>1.87</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>13</v>
+      </c>
+      <c r="L97">
+        <v>6</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98">
+        <v>2.4</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99">
+        <v>2.35</v>
+      </c>
+      <c r="D99">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E99">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100">
+        <v>2.7</v>
+      </c>
+      <c r="D100">
+        <v>2.5</v>
+      </c>
+      <c r="E100">
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>11</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101">
+        <v>1.3</v>
+      </c>
+      <c r="D101">
+        <v>7.2</v>
+      </c>
+      <c r="E101">
+        <v>5.9</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>13</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>3.25</v>
+      </c>
+      <c r="E102">
+        <v>1.25</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D103">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>12</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104">
+        <v>3.6</v>
+      </c>
+      <c r="D104">
+        <v>1.91</v>
+      </c>
+      <c r="E104">
+        <v>1.69</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>12</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>1.97</v>
+      </c>
+      <c r="E105">
+        <v>1.03</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>12</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106">
+        <v>4.75</v>
+      </c>
+      <c r="D106">
+        <v>1.53</v>
+      </c>
+      <c r="E106">
+        <v>3.22</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>12</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107">
+        <v>2.41</v>
+      </c>
+      <c r="D107">
+        <v>3.24</v>
+      </c>
+      <c r="E107">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D108">
+        <v>2.65</v>
+      </c>
+      <c r="E108">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>11</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109">
+        <v>3.6</v>
+      </c>
+      <c r="D109">
+        <v>1.97</v>
+      </c>
+      <c r="E109">
+        <v>1.63</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>12</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110">
+        <v>1.93</v>
+      </c>
+      <c r="D110">
+        <v>3.3</v>
+      </c>
+      <c r="E110">
+        <v>1.37</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111">
+        <v>3.7</v>
+      </c>
+      <c r="D111">
+        <v>1.75</v>
+      </c>
+      <c r="E111">
+        <v>1.95</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>13</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112">
+        <v>1.53</v>
+      </c>
+      <c r="D112">
+        <v>4.8</v>
+      </c>
+      <c r="E112">
+        <v>3.27</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>12</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113">
+        <v>1.17</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>8.83</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114">
+        <v>2.1</v>
+      </c>
+      <c r="D114">
+        <v>2.95</v>
+      </c>
+      <c r="E114">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>11</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115">
+        <v>1.6</v>
+      </c>
+      <c r="D115">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>13</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116">
+        <v>2.25</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
+        <v>0.75</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>13</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117">
+        <v>1.01</v>
+      </c>
+      <c r="D117">
+        <v>24</v>
+      </c>
+      <c r="E117">
+        <v>22.99</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>11</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118">
+        <v>1.7</v>
+      </c>
+      <c r="D118">
+        <v>4.2</v>
+      </c>
+      <c r="E118">
+        <v>2.5</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" t="s">
+        <v>12</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119">
+        <v>2.08</v>
+      </c>
+      <c r="D119">
+        <v>3.79</v>
+      </c>
+      <c r="E119">
+        <v>1.71</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>11</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120">
+        <v>2.35</v>
+      </c>
+      <c r="D120">
+        <v>3.1</v>
+      </c>
+      <c r="E120">
+        <v>0.75</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121">
+        <v>1.83</v>
+      </c>
+      <c r="D121">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E121">
+        <v>2.77</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>13</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122">
+        <v>2.15</v>
+      </c>
+      <c r="D122">
+        <v>3.2</v>
+      </c>
+      <c r="E122">
+        <v>1.05</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
+        <v>11</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" t="s">
+        <v>259</v>
+      </c>
+      <c r="C123">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D123">
+        <v>2.9</v>
+      </c>
+      <c r="E123">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>12</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124">
+        <v>1.03</v>
+      </c>
+      <c r="D124">
+        <v>16</v>
+      </c>
+      <c r="E124">
+        <v>14.97</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>11</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125">
+        <v>4.2</v>
+      </c>
+      <c r="D125">
+        <v>1.63</v>
+      </c>
+      <c r="E125">
+        <v>2.57</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125" t="s">
+        <v>12</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>264</v>
+      </c>
+      <c r="B126" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126">
+        <v>1.55</v>
+      </c>
+      <c r="D126">
+        <v>5.7</v>
+      </c>
+      <c r="E126">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126" t="s">
+        <v>13</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127">
+        <v>1.86</v>
+      </c>
+      <c r="D127">
+        <v>3.7</v>
+      </c>
+      <c r="E127">
+        <v>1.84</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127" t="s">
+        <v>13</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128">
+        <v>4.2</v>
+      </c>
+      <c r="D128">
+        <v>1.75</v>
+      </c>
+      <c r="E128">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128" t="s">
+        <v>12</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129">
+        <v>2.15</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129" t="s">
+        <v>13</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>272</v>
+      </c>
+      <c r="B130" t="s">
+        <v>273</v>
+      </c>
+      <c r="C130">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>13</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" t="s">
+        <v>275</v>
+      </c>
+      <c r="C131">
+        <v>1.92</v>
+      </c>
+      <c r="D131">
+        <v>3.25</v>
+      </c>
+      <c r="E131">
+        <v>1.33</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>11</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>276</v>
+      </c>
+      <c r="B132" t="s">
+        <v>277</v>
+      </c>
+      <c r="C132">
+        <v>1.39</v>
+      </c>
+      <c r="D132">
+        <v>6.9</v>
+      </c>
+      <c r="E132">
+        <v>5.5100000000000007</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132" t="s">
+        <v>12</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" t="s">
+        <v>279</v>
+      </c>
+      <c r="C133">
+        <v>1.47</v>
+      </c>
+      <c r="D133">
+        <v>5.3</v>
+      </c>
+      <c r="E133">
+        <v>3.83</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133" t="s">
+        <v>13</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134">
+        <v>3.4</v>
+      </c>
+      <c r="D134">
+        <v>1.83</v>
+      </c>
+      <c r="E134">
+        <v>1.57</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>282</v>
+      </c>
+      <c r="B135" t="s">
+        <v>283</v>
+      </c>
+      <c r="C135">
+        <v>1.55</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>3.45</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" t="s">
+        <v>13</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>284</v>
+      </c>
+      <c r="B136" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136">
+        <v>1.52</v>
+      </c>
+      <c r="D136">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E136">
+        <v>3.58</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" t="s">
+        <v>13</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>286</v>
+      </c>
+      <c r="B137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137">
+        <v>2.9</v>
+      </c>
+      <c r="D137">
+        <v>2.15</v>
+      </c>
+      <c r="E137">
+        <v>0.75</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>13</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>288</v>
+      </c>
+      <c r="B138" t="s">
+        <v>289</v>
+      </c>
+      <c r="C138">
+        <v>1.47</v>
+      </c>
+      <c r="D138">
+        <v>5.5</v>
+      </c>
+      <c r="E138">
+        <v>4.03</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" t="s">
+        <v>13</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>290</v>
+      </c>
+      <c r="B139" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>3.33</v>
+      </c>
+      <c r="E139">
+        <v>1.33</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139" t="s">
+        <v>11</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>292</v>
+      </c>
+      <c r="B140" t="s">
+        <v>293</v>
+      </c>
+      <c r="C140">
+        <v>1.62</v>
+      </c>
+      <c r="D140">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E140">
+        <v>2.78</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>11</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>294</v>
+      </c>
+      <c r="B141" t="s">
+        <v>295</v>
+      </c>
+      <c r="C141">
+        <v>1.66</v>
+      </c>
+      <c r="D141">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E141">
+        <v>2.74</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141" t="s">
+        <v>13</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>296</v>
+      </c>
+      <c r="B142" t="s">
+        <v>297</v>
+      </c>
+      <c r="C142">
+        <v>2.15</v>
+      </c>
+      <c r="D142">
+        <v>3.5</v>
+      </c>
+      <c r="E142">
+        <v>1.35</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" t="s">
+        <v>11</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>298</v>
+      </c>
+      <c r="B143" t="s">
+        <v>299</v>
+      </c>
+      <c r="C143">
+        <v>3.6</v>
+      </c>
+      <c r="D143">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E143">
+        <v>1.55</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>13</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
         <v>0</v>
       </c>
     </row>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940297C3-95C6-4457-9EAA-9B772057489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85432540-D96E-4CBB-8CF6-103509676D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="423">
   <si>
     <t>home</t>
   </si>
@@ -936,6 +936,375 @@
   </si>
   <si>
     <t xml:space="preserve"> Academico de Viseu FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strasbourg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Estepona </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Cartagena B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Manchego Ciudad Real </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Antoniano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria Lustenau </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCR Altach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Torino </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juventus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adana Demirspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kayserispor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besiktas Istanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samsunspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasteras SK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halmstads BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Baden </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Sion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Thun </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Bellinzona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinan-Lehon FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AF Virois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCM Aubervilliers </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorient 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC Grasse </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le Puy Foot 43 Auvergne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Toulon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olympique Ales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago Morning </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Antofagasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arandina CF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Aviles CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altay Izmir </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corum FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Hradec Kralove </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FC Slovacko Uherske Hradiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maghreb AS de Fes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Youssoufia Berrechid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harju JK Laagri </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tartu JK Welco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCI Levadia Tallinn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Nomme United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF Fuenlabrada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CF Rayo Majadahonda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultural Leonesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Sociedad San Sebastian B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS Trencin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Vion Zlate Moravce - Vrable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Kosice </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MFK Skalica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFk Dukla Banska Bystrica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MFK Zemplin Michalovce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODM Meknes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASS Association Sportive de Sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisla Plock </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wisla Krakow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almere City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoril Praia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Braga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levante </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SD Amorebieta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alianza Atletico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Union Comercio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porto Velho Ec/Ro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ji-Parana FC RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanraure Hachinohe FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Imabari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iga FC Kunoichi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sfida Setagaya FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albirex Niigata </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Omiya Ardija Ventus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Nagano Parceiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Orenburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Nizhny Novgorod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Carl Zeiss Jena </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamburger SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bayern Munich II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logan Lightning </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eastern Suburbs FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD Formentera </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UE Sant Andreu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getafe CF B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Sebastian Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viimsi JK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Elva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Basconia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SD Deusto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patacona CF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Jove Espanol San Vicente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD Parla </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CF Pozuelo de Alarcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Canillas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuc Villalba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atletic Club d'Escaldes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Ordino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crystal Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fulham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sassuolo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Milan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clermont Foot 63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montpellier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Utrecht </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortuna Sittard </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feyenoord Rotterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caykur Rizespor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antalyaspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatayspor Antakya </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Istanbulspor AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viking FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Brann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Zorya Lugansk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Chernomorets Odessa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asd Alcione Milano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Bra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asti Calcio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Gozzano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citta Di Varese </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pinerolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scd Ligorna 1922 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SSD Sanremese Calcio</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD143"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:XFD207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7179,6 +7548,2630 @@
       </c>
       <c r="M143">
         <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>300</v>
+      </c>
+      <c r="B144" t="s">
+        <v>301</v>
+      </c>
+      <c r="C144">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D144">
+        <v>2.98</v>
+      </c>
+      <c r="E144">
+        <v>0.48999999999999982</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" t="s">
+        <v>13</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>302</v>
+      </c>
+      <c r="B145" t="s">
+        <v>303</v>
+      </c>
+      <c r="C145">
+        <v>1.33</v>
+      </c>
+      <c r="D145">
+        <v>7.3</v>
+      </c>
+      <c r="E145">
+        <v>5.97</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145" t="s">
+        <v>13</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>304</v>
+      </c>
+      <c r="B146" t="s">
+        <v>305</v>
+      </c>
+      <c r="C146">
+        <v>1.96</v>
+      </c>
+      <c r="D146">
+        <v>3.6</v>
+      </c>
+      <c r="E146">
+        <v>1.64</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146" t="s">
+        <v>12</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>306</v>
+      </c>
+      <c r="B147" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147">
+        <v>4.5</v>
+      </c>
+      <c r="D147">
+        <v>1.84</v>
+      </c>
+      <c r="E147">
+        <v>2.66</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147" t="s">
+        <v>12</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148">
+        <v>3.86</v>
+      </c>
+      <c r="D148">
+        <v>2.37</v>
+      </c>
+      <c r="E148">
+        <v>1.49</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148" t="s">
+        <v>11</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>310</v>
+      </c>
+      <c r="B149" t="s">
+        <v>311</v>
+      </c>
+      <c r="C149">
+        <v>1.99</v>
+      </c>
+      <c r="D149">
+        <v>3.75</v>
+      </c>
+      <c r="E149">
+        <v>1.76</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" t="s">
+        <v>11</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>312</v>
+      </c>
+      <c r="B150" t="s">
+        <v>313</v>
+      </c>
+      <c r="C150">
+        <v>1.77</v>
+      </c>
+      <c r="D150">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E150">
+        <v>2.83</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>11</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>314</v>
+      </c>
+      <c r="B151" t="s">
+        <v>315</v>
+      </c>
+      <c r="C151">
+        <v>1.78</v>
+      </c>
+      <c r="D151">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E151">
+        <v>2.819999999999999</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>12</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>316</v>
+      </c>
+      <c r="B152" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152">
+        <v>6.25</v>
+      </c>
+      <c r="D152">
+        <v>1.47</v>
+      </c>
+      <c r="E152">
+        <v>4.78</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152" t="s">
+        <v>12</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>318</v>
+      </c>
+      <c r="B153" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153">
+        <v>1.39</v>
+      </c>
+      <c r="D153">
+        <v>7.1</v>
+      </c>
+      <c r="E153">
+        <v>5.71</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153" t="s">
+        <v>13</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>320</v>
+      </c>
+      <c r="B154" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154">
+        <v>2.15</v>
+      </c>
+      <c r="D154">
+        <v>3.1</v>
+      </c>
+      <c r="E154">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154" t="s">
+        <v>13</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155">
+        <v>1.89</v>
+      </c>
+      <c r="D155">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E155">
+        <v>2.21</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155" t="s">
+        <v>11</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>324</v>
+      </c>
+      <c r="B156" t="s">
+        <v>325</v>
+      </c>
+      <c r="C156">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156" t="s">
+        <v>12</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>326</v>
+      </c>
+      <c r="B157" t="s">
+        <v>327</v>
+      </c>
+      <c r="C157">
+        <v>1.63</v>
+      </c>
+      <c r="D157">
+        <v>5.2</v>
+      </c>
+      <c r="E157">
+        <v>3.57</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157" t="s">
+        <v>12</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>328</v>
+      </c>
+      <c r="B158" t="s">
+        <v>329</v>
+      </c>
+      <c r="C158">
+        <v>2.65</v>
+      </c>
+      <c r="D158">
+        <v>2.5</v>
+      </c>
+      <c r="E158">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" t="s">
+        <v>12</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>330</v>
+      </c>
+      <c r="B159" t="s">
+        <v>331</v>
+      </c>
+      <c r="C159">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D159">
+        <v>2.85</v>
+      </c>
+      <c r="E159">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>13</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>332</v>
+      </c>
+      <c r="B160" t="s">
+        <v>333</v>
+      </c>
+      <c r="C160">
+        <v>29</v>
+      </c>
+      <c r="D160">
+        <v>1.07</v>
+      </c>
+      <c r="E160">
+        <v>27.93</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160" t="s">
+        <v>12</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>334</v>
+      </c>
+      <c r="B161" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161">
+        <v>2.35</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" t="s">
+        <v>13</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>336</v>
+      </c>
+      <c r="B162" t="s">
+        <v>337</v>
+      </c>
+      <c r="C162">
+        <v>1.71</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>3.29</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" t="s">
+        <v>12</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>338</v>
+      </c>
+      <c r="B163" t="s">
+        <v>339</v>
+      </c>
+      <c r="C163">
+        <v>1.72</v>
+      </c>
+      <c r="D163">
+        <v>3.9</v>
+      </c>
+      <c r="E163">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163" t="s">
+        <v>11</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>340</v>
+      </c>
+      <c r="B164" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164">
+        <v>1.07</v>
+      </c>
+      <c r="D164">
+        <v>22</v>
+      </c>
+      <c r="E164">
+        <v>20.93</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164" t="s">
+        <v>13</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>342</v>
+      </c>
+      <c r="B165" t="s">
+        <v>343</v>
+      </c>
+      <c r="C165">
+        <v>1.64</v>
+      </c>
+      <c r="D165">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E165">
+        <v>3.46</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165" t="s">
+        <v>12</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>344</v>
+      </c>
+      <c r="B166" t="s">
+        <v>345</v>
+      </c>
+      <c r="C166">
+        <v>2.1</v>
+      </c>
+      <c r="D166">
+        <v>3.5</v>
+      </c>
+      <c r="E166">
+        <v>1.4</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>13</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>346</v>
+      </c>
+      <c r="B167" t="s">
+        <v>347</v>
+      </c>
+      <c r="C167">
+        <v>1.32</v>
+      </c>
+      <c r="D167">
+        <v>7.6</v>
+      </c>
+      <c r="E167">
+        <v>6.2799999999999994</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>13</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>348</v>
+      </c>
+      <c r="B168" t="s">
+        <v>349</v>
+      </c>
+      <c r="C168">
+        <v>1.99</v>
+      </c>
+      <c r="D168">
+        <v>3.75</v>
+      </c>
+      <c r="E168">
+        <v>1.76</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168" t="s">
+        <v>12</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>350</v>
+      </c>
+      <c r="B169" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169">
+        <v>1.89</v>
+      </c>
+      <c r="D169">
+        <v>3.7</v>
+      </c>
+      <c r="E169">
+        <v>1.81</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169" t="s">
+        <v>12</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>352</v>
+      </c>
+      <c r="B170" t="s">
+        <v>353</v>
+      </c>
+      <c r="C170">
+        <v>1.33</v>
+      </c>
+      <c r="D170">
+        <v>9.5</v>
+      </c>
+      <c r="E170">
+        <v>8.17</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>13</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>354</v>
+      </c>
+      <c r="B171" t="s">
+        <v>355</v>
+      </c>
+      <c r="C171">
+        <v>2.4</v>
+      </c>
+      <c r="D171">
+        <v>2.6</v>
+      </c>
+      <c r="E171">
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171" t="s">
+        <v>11</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>356</v>
+      </c>
+      <c r="B172" t="s">
+        <v>357</v>
+      </c>
+      <c r="C172">
+        <v>2.8</v>
+      </c>
+      <c r="D172">
+        <v>2.5</v>
+      </c>
+      <c r="E172">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172" t="s">
+        <v>12</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>358</v>
+      </c>
+      <c r="B173" t="s">
+        <v>359</v>
+      </c>
+      <c r="C173">
+        <v>4.5</v>
+      </c>
+      <c r="D173">
+        <v>1.73</v>
+      </c>
+      <c r="E173">
+        <v>2.77</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173" t="s">
+        <v>12</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>360</v>
+      </c>
+      <c r="B174" t="s">
+        <v>361</v>
+      </c>
+      <c r="C174">
+        <v>1.7</v>
+      </c>
+      <c r="D174">
+        <v>5.2</v>
+      </c>
+      <c r="E174">
+        <v>3.5</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174" t="s">
+        <v>12</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>362</v>
+      </c>
+      <c r="B175" t="s">
+        <v>363</v>
+      </c>
+      <c r="C175">
+        <v>1.63</v>
+      </c>
+      <c r="D175">
+        <v>5.5</v>
+      </c>
+      <c r="E175">
+        <v>3.87</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" t="s">
+        <v>13</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" t="s">
+        <v>359</v>
+      </c>
+      <c r="C176">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D176">
+        <v>1.71</v>
+      </c>
+      <c r="E176">
+        <v>2.89</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" t="s">
+        <v>12</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>364</v>
+      </c>
+      <c r="B177" t="s">
+        <v>365</v>
+      </c>
+      <c r="C177">
+        <v>1.58</v>
+      </c>
+      <c r="D177">
+        <v>4.3</v>
+      </c>
+      <c r="E177">
+        <v>2.72</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>13</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>366</v>
+      </c>
+      <c r="B178" t="s">
+        <v>367</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>2.35</v>
+      </c>
+      <c r="E178">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" t="s">
+        <v>12</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>368</v>
+      </c>
+      <c r="B179" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179">
+        <v>1.99</v>
+      </c>
+      <c r="D179">
+        <v>3.1</v>
+      </c>
+      <c r="E179">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" t="s">
+        <v>11</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>370</v>
+      </c>
+      <c r="B180" t="s">
+        <v>371</v>
+      </c>
+      <c r="C180">
+        <v>1.79</v>
+      </c>
+      <c r="D180">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E180">
+        <v>2.31</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180" t="s">
+        <v>12</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>204</v>
+      </c>
+      <c r="B181" t="s">
+        <v>372</v>
+      </c>
+      <c r="C181">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D181">
+        <v>2.7</v>
+      </c>
+      <c r="E181">
+        <v>0.25</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181" t="s">
+        <v>13</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>373</v>
+      </c>
+      <c r="B182" t="s">
+        <v>374</v>
+      </c>
+      <c r="C182">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D182">
+        <v>3.8</v>
+      </c>
+      <c r="E182">
+        <v>1.75</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>13</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>375</v>
+      </c>
+      <c r="B183" t="s">
+        <v>376</v>
+      </c>
+      <c r="C183">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D183">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E183">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183" t="s">
+        <v>13</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>167</v>
+      </c>
+      <c r="B184" t="s">
+        <v>377</v>
+      </c>
+      <c r="C184">
+        <v>2.95</v>
+      </c>
+      <c r="D184">
+        <v>2.15</v>
+      </c>
+      <c r="E184">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184" t="s">
+        <v>13</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>378</v>
+      </c>
+      <c r="B185" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185">
+        <v>2.8</v>
+      </c>
+      <c r="D185">
+        <v>2.15</v>
+      </c>
+      <c r="E185">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185" t="s">
+        <v>13</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>380</v>
+      </c>
+      <c r="B186" t="s">
+        <v>381</v>
+      </c>
+      <c r="C186">
+        <v>2.6</v>
+      </c>
+      <c r="D186">
+        <v>2.4</v>
+      </c>
+      <c r="E186">
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186" t="s">
+        <v>13</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>382</v>
+      </c>
+      <c r="B187" t="s">
+        <v>383</v>
+      </c>
+      <c r="C187">
+        <v>2.85</v>
+      </c>
+      <c r="D187">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E187">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187" t="s">
+        <v>13</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>384</v>
+      </c>
+      <c r="B188" t="s">
+        <v>385</v>
+      </c>
+      <c r="C188">
+        <v>1.36</v>
+      </c>
+      <c r="D188">
+        <v>6.5</v>
+      </c>
+      <c r="E188">
+        <v>5.14</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188" t="s">
+        <v>11</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>386</v>
+      </c>
+      <c r="B189" t="s">
+        <v>387</v>
+      </c>
+      <c r="C189">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D189">
+        <v>3.4</v>
+      </c>
+      <c r="E189">
+        <v>1.35</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189" t="s">
+        <v>13</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>388</v>
+      </c>
+      <c r="B190" t="s">
+        <v>389</v>
+      </c>
+      <c r="C190">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D190">
+        <v>1.72</v>
+      </c>
+      <c r="E190">
+        <v>2.88</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190" t="s">
+        <v>11</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" t="s">
+        <v>391</v>
+      </c>
+      <c r="C191">
+        <v>1.85</v>
+      </c>
+      <c r="D191">
+        <v>3.9</v>
+      </c>
+      <c r="E191">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" t="s">
+        <v>11</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192" t="s">
+        <v>393</v>
+      </c>
+      <c r="C192">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D192">
+        <v>3.1</v>
+      </c>
+      <c r="E192">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192" t="s">
+        <v>13</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>394</v>
+      </c>
+      <c r="B193" t="s">
+        <v>395</v>
+      </c>
+      <c r="C193">
+        <v>1.29</v>
+      </c>
+      <c r="D193">
+        <v>6.25</v>
+      </c>
+      <c r="E193">
+        <v>4.96</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193" t="s">
+        <v>13</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>73</v>
+      </c>
+      <c r="B194" t="s">
+        <v>396</v>
+      </c>
+      <c r="C194">
+        <v>1.23</v>
+      </c>
+      <c r="D194">
+        <v>12.28</v>
+      </c>
+      <c r="E194">
+        <v>11.05</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194" t="s">
+        <v>12</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>397</v>
+      </c>
+      <c r="B195" t="s">
+        <v>398</v>
+      </c>
+      <c r="C195">
+        <v>2.5</v>
+      </c>
+      <c r="D195">
+        <v>2.84</v>
+      </c>
+      <c r="E195">
+        <v>0.33999999999999991</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195" t="s">
+        <v>12</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>399</v>
+      </c>
+      <c r="B196" t="s">
+        <v>400</v>
+      </c>
+      <c r="C196">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D196">
+        <v>1.81</v>
+      </c>
+      <c r="E196">
+        <v>2.58</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196" t="s">
+        <v>11</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>401</v>
+      </c>
+      <c r="B197" t="s">
+        <v>402</v>
+      </c>
+      <c r="C197">
+        <v>3.31</v>
+      </c>
+      <c r="D197">
+        <v>2.23</v>
+      </c>
+      <c r="E197">
+        <v>1.08</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197" t="s">
+        <v>11</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>403</v>
+      </c>
+      <c r="B198" t="s">
+        <v>404</v>
+      </c>
+      <c r="C198">
+        <v>1.7</v>
+      </c>
+      <c r="D198">
+        <v>4.75</v>
+      </c>
+      <c r="E198">
+        <v>3.05</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198" t="s">
+        <v>13</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>405</v>
+      </c>
+      <c r="B199" t="s">
+        <v>406</v>
+      </c>
+      <c r="C199">
+        <v>8.1</v>
+      </c>
+      <c r="D199">
+        <v>1.34</v>
+      </c>
+      <c r="E199">
+        <v>6.76</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199" t="s">
+        <v>12</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>407</v>
+      </c>
+      <c r="B200" t="s">
+        <v>408</v>
+      </c>
+      <c r="C200">
+        <v>1.85</v>
+      </c>
+      <c r="D200">
+        <v>4</v>
+      </c>
+      <c r="E200">
+        <v>2.15</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200" t="s">
+        <v>13</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>409</v>
+      </c>
+      <c r="B201" t="s">
+        <v>410</v>
+      </c>
+      <c r="C201">
+        <v>1.4</v>
+      </c>
+      <c r="D201">
+        <v>7.4</v>
+      </c>
+      <c r="E201">
+        <v>6</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>12</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>411</v>
+      </c>
+      <c r="B202" t="s">
+        <v>412</v>
+      </c>
+      <c r="C202">
+        <v>2.75</v>
+      </c>
+      <c r="D202">
+        <v>2.4</v>
+      </c>
+      <c r="E202">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202" t="s">
+        <v>11</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>413</v>
+      </c>
+      <c r="B203" t="s">
+        <v>414</v>
+      </c>
+      <c r="C203">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D203">
+        <v>2.95</v>
+      </c>
+      <c r="E203">
+        <v>0.75</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>13</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>415</v>
+      </c>
+      <c r="B204" t="s">
+        <v>416</v>
+      </c>
+      <c r="C204">
+        <v>1.67</v>
+      </c>
+      <c r="D204">
+        <v>4.8</v>
+      </c>
+      <c r="E204">
+        <v>3.13</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204" t="s">
+        <v>13</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>417</v>
+      </c>
+      <c r="B205" t="s">
+        <v>418</v>
+      </c>
+      <c r="C205">
+        <v>1.83</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <v>2.17</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205" t="s">
+        <v>11</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>419</v>
+      </c>
+      <c r="B206" t="s">
+        <v>420</v>
+      </c>
+      <c r="C206">
+        <v>1.51</v>
+      </c>
+      <c r="D206">
+        <v>6.4</v>
+      </c>
+      <c r="E206">
+        <v>4.8900000000000006</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206" t="s">
+        <v>11</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>421</v>
+      </c>
+      <c r="B207" t="s">
+        <v>422</v>
+      </c>
+      <c r="C207">
+        <v>1.79</v>
+      </c>
+      <c r="D207">
+        <v>4.3</v>
+      </c>
+      <c r="E207">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207" t="s">
+        <v>12</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85432540-D96E-4CBB-8CF6-103509676D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA87FD-389C-46A4-8F7A-7E91B3DD6571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="706">
   <si>
     <t>home</t>
   </si>
@@ -1305,6 +1305,855 @@
   </si>
   <si>
     <t xml:space="preserve"> SSD Sanremese Calcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cagliari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Goianiense GO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CR Flamengo RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA Paranaense PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuiaba Esporte Clube MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR Vasco da Gama RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gremio FB Porto Alegrense RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA Sarmiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Platense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Metalist 1925 Kharkiv </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Dnipro-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Mokawloon Al Arab </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pyramids FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC CSKA 1948 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Lokomotiv 1929 Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Novi Pazar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Radnicki Nis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crewe Alexandra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ipswich Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watford FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rezeknes Fa/Bjss </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jfk Ventspils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masfoot Sports Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dibba Al-Hisn SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Samgurali Tskaltubo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Saburtalo Tbilisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accra Lions </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bibiani Gold Stars FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damash Gilan FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chador Malu Yazd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naft Gachsaran </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shahre Raz Shiraz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Ittihad SC Aleppo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tishreen SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chelsea </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiorentina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atalanta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Vizela </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GD Chaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Foot </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alanyaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Galatasaray Istanbul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFK Varnamo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jong FC Utrecht </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Den Bosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silkeborg IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aalesunds FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lyn 1896 FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kongsvinger IL Fotball </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Egersunds IK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mjondalen IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IK Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Safa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Taraji Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTC de Cajamarca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Chankas CYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adanaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BB Bodrumspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GKS Piast Gliwice </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KGHM Zaglebie Lubin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohemians Dublin FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dundalk FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenal London FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aston Villa FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leicester City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stoke City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottenham Hotspur FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wolverhampton Wanderers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cardiff City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fram Reykjavik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vikingur Reykjavik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasas FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kozarmisleny SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Branco FC AC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AD Vasco Da Gama AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swallows FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mamelodi Sundowns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesena FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD Recanatese 1923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juve Stabia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crotone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Paderborn 07 II </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Wegberg-Beeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langfang Glory City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beijing Institute of Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guangxi Hengchen FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quanzhou Yaxin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shenzhen Juniors FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guangxi Lanhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konyaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenerbahce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiangxi Dark Horse Junior </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hunan Xiangtao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Farense </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leixoes SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreense U23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estrela Amadora U23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Viena FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El Sekka El Hadid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanta FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wadi Degla SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URA FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEC FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magesi FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hungry Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtibwa Sugar FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kmc FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivers United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plateau United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Ahed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Nahda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSKA Moscow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Korea </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JK Tallinna Kalev </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FCI Levadia Tallinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Tukums 2000/TSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Riga FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Gagra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Dinamo Tbilisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Kolkheti-1913 Poti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Dila Gori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sporting Kristina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vasa IFK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakobstads Bollklubb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rovaniemen Palloseura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masku </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SalPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myllykosken Pallo -47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Vaajakoski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTP FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FF Jaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KaaPo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turun Palloseura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Shamal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Wakrah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Borac Banja Luka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NK Siroki Brijeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS Fortuna </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avion Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grulla Morioka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cerezo Osaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kashima Antlers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Imabari </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vissel Kobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giravanz Kitakyushu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Machida Zelvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daegu FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Mokpo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bucheon FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangwon FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hwaseong FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incheon United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gimhae FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheonan City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinju Citizen FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daejeon Citizen FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Strikers FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moreton City Excelsior FC 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borneo Samarinda </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madura United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irevan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shamakhi FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moik Baku </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Energetik Mingechevir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Dynamo Ceske Budejovice </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DUKLA PRAGUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Brann </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamarkameratene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doma United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remo Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Oleksandriya </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Obolon Kiev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNK Dinamo Zagreb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NK Varazdin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enppi Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El Daklyeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Zenit Saint Petersburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Spartak Moscow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aswan FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nogoom FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misr Lel Makasa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gomhoryet Shebin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Nasr Dubai CSC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shabab Al-Ahli Dubai FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Oriental de Football </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Albion FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Rigas Futbola Skola </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Metta / Lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFC CSKA Sofia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Botev Plovdiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukla Prague </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SFC Opava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mas Taborsko </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Viktoria Zizkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFK Chrudim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Varnsdorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparta Prague B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FK Pribram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Vlasim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Lisen Brno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Zbrojovka Brno </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Vysocina Jihlava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS Hercules </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oulun Luistinseura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampere United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Inter 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ararat Yerevan FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Pyunik Yerevan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Urartu Yerevan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umm-Salal SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Arabi Doha SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSK Zrinjski Mostar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Sloga Doboj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbit College FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pretoria Callies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdf Xi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jwaneng Galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VfV 06 Hildesheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FC Germania Egestorf/Langreder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramlingen-Ehlershausen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stk Eilvese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Buducnost </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Rudar Pljevlja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP/2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV Eichede </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Dornbreite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union de Santa Fe </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gimnasia Y Esgrima Mendoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gremio FB Porto Alegrense RS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Paranaense PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Bull Bragantino SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CR Vasco da Gama RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atletico Mineiro MG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Criciuma EC SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortaleza EC CE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cruzeiro EC MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE Palmeiras SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Internacional RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sao Paulo FC SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Atletico Rosario Central </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deportivo Riestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millonarios FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Junior FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atletico Nacional Medellin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CS Deportivo Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carolina Core FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Georgia Tormenta FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham Legion FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chattanooga Red Wolves SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masachapa FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art Municipal Jalapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moca FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Cristobal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vega Real </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Universidad O&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcílio Dias U20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avaí U20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boca Juniors </t>
   </si>
 </sst>
 </file>
@@ -1323,6 +2172,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1383,9 +2233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1423,7 +2273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1529,7 +2379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1671,7 +2521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1679,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:XFD207"/>
+    <sheetView tabSelected="1" topLeftCell="A337" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A335" sqref="A335:XFD352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10172,6 +11022,5951 @@
       </c>
       <c r="M207">
         <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>423</v>
+      </c>
+      <c r="B208" t="s">
+        <v>424</v>
+      </c>
+      <c r="C208">
+        <v>1.21</v>
+      </c>
+      <c r="D208">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>14.79</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208" t="s">
+        <v>11</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>425</v>
+      </c>
+      <c r="B209" t="s">
+        <v>426</v>
+      </c>
+      <c r="C209">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D209">
+        <v>3.67</v>
+      </c>
+      <c r="E209">
+        <v>1.49</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209" t="s">
+        <v>13</v>
+      </c>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>427</v>
+      </c>
+      <c r="B210" t="s">
+        <v>428</v>
+      </c>
+      <c r="C210">
+        <v>4.58</v>
+      </c>
+      <c r="D210">
+        <v>1.86</v>
+      </c>
+      <c r="E210">
+        <v>2.72</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" t="s">
+        <v>12</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>429</v>
+      </c>
+      <c r="B211" t="s">
+        <v>430</v>
+      </c>
+      <c r="C211">
+        <v>1.7</v>
+      </c>
+      <c r="D211">
+        <v>5.92</v>
+      </c>
+      <c r="E211">
+        <v>4.22</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211" t="s">
+        <v>13</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>431</v>
+      </c>
+      <c r="B212" t="s">
+        <v>432</v>
+      </c>
+      <c r="C212">
+        <v>2.31</v>
+      </c>
+      <c r="D212">
+        <v>3.33</v>
+      </c>
+      <c r="E212">
+        <v>1.02</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212" t="s">
+        <v>12</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>433</v>
+      </c>
+      <c r="B213" t="s">
+        <v>434</v>
+      </c>
+      <c r="C213">
+        <v>2.6</v>
+      </c>
+      <c r="D213">
+        <v>3.2</v>
+      </c>
+      <c r="E213">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213" t="s">
+        <v>12</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>435</v>
+      </c>
+      <c r="B214" t="s">
+        <v>436</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+      <c r="D214">
+        <v>1.9</v>
+      </c>
+      <c r="E214">
+        <v>2.1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>11</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>437</v>
+      </c>
+      <c r="B215" t="s">
+        <v>438</v>
+      </c>
+      <c r="C215">
+        <v>5.6</v>
+      </c>
+      <c r="D215">
+        <v>1.58</v>
+      </c>
+      <c r="E215">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215" t="s">
+        <v>12</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>439</v>
+      </c>
+      <c r="B216" t="s">
+        <v>440</v>
+      </c>
+      <c r="C216">
+        <v>1.62</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216">
+        <v>3.38</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216" t="s">
+        <v>11</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>441</v>
+      </c>
+      <c r="B217" t="s">
+        <v>442</v>
+      </c>
+      <c r="C217">
+        <v>1.47</v>
+      </c>
+      <c r="D217">
+        <v>6.75</v>
+      </c>
+      <c r="E217">
+        <v>5.28</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217" t="s">
+        <v>13</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>443</v>
+      </c>
+      <c r="B218" t="s">
+        <v>444</v>
+      </c>
+      <c r="C218">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D218">
+        <v>3.25</v>
+      </c>
+      <c r="E218">
+        <v>1.05</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218" t="s">
+        <v>11</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>445</v>
+      </c>
+      <c r="B219" t="s">
+        <v>446</v>
+      </c>
+      <c r="C219">
+        <v>7.7</v>
+      </c>
+      <c r="D219">
+        <v>1.26</v>
+      </c>
+      <c r="E219">
+        <v>6.44</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219" t="s">
+        <v>11</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>447</v>
+      </c>
+      <c r="B220" t="s">
+        <v>448</v>
+      </c>
+      <c r="C220">
+        <v>1.23</v>
+      </c>
+      <c r="D220">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E220">
+        <v>7.07</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220" t="s">
+        <v>13</v>
+      </c>
+      <c r="L220">
+        <v>5</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>449</v>
+      </c>
+      <c r="B221" t="s">
+        <v>450</v>
+      </c>
+      <c r="C221">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D221">
+        <v>1.49</v>
+      </c>
+      <c r="E221">
+        <v>3.609999999999999</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221" t="s">
+        <v>11</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>451</v>
+      </c>
+      <c r="B222" t="s">
+        <v>452</v>
+      </c>
+      <c r="C222">
+        <v>4.25</v>
+      </c>
+      <c r="D222">
+        <v>1.62</v>
+      </c>
+      <c r="E222">
+        <v>2.63</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222" t="s">
+        <v>12</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>453</v>
+      </c>
+      <c r="B223" t="s">
+        <v>454</v>
+      </c>
+      <c r="C223">
+        <v>3.3</v>
+      </c>
+      <c r="D223">
+        <v>1.96</v>
+      </c>
+      <c r="E223">
+        <v>1.34</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223" t="s">
+        <v>12</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>455</v>
+      </c>
+      <c r="B224" t="s">
+        <v>456</v>
+      </c>
+      <c r="C224">
+        <v>1.87</v>
+      </c>
+      <c r="D224">
+        <v>4</v>
+      </c>
+      <c r="E224">
+        <v>2.13</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224" t="s">
+        <v>13</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>457</v>
+      </c>
+      <c r="B225" t="s">
+        <v>458</v>
+      </c>
+      <c r="C225">
+        <v>3.8</v>
+      </c>
+      <c r="D225">
+        <v>1.91</v>
+      </c>
+      <c r="E225">
+        <v>1.89</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225" t="s">
+        <v>11</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>459</v>
+      </c>
+      <c r="B226" t="s">
+        <v>460</v>
+      </c>
+      <c r="C226">
+        <v>1.82</v>
+      </c>
+      <c r="D226">
+        <v>4.5</v>
+      </c>
+      <c r="E226">
+        <v>2.68</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226" t="s">
+        <v>12</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>461</v>
+      </c>
+      <c r="B227" t="s">
+        <v>462</v>
+      </c>
+      <c r="C227">
+        <v>1.94</v>
+      </c>
+      <c r="D227">
+        <v>3.8</v>
+      </c>
+      <c r="E227">
+        <v>1.86</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227" t="s">
+        <v>11</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>463</v>
+      </c>
+      <c r="B228" t="s">
+        <v>464</v>
+      </c>
+      <c r="C228">
+        <v>1.75</v>
+      </c>
+      <c r="D228">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E228">
+        <v>2.85</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228" t="s">
+        <v>13</v>
+      </c>
+      <c r="L228">
+        <v>6</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>465</v>
+      </c>
+      <c r="B229" t="s">
+        <v>466</v>
+      </c>
+      <c r="C229">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D229">
+        <v>4.22</v>
+      </c>
+      <c r="E229">
+        <v>2.21</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229" t="s">
+        <v>11</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>467</v>
+      </c>
+      <c r="B230" t="s">
+        <v>468</v>
+      </c>
+      <c r="C230">
+        <v>1.5</v>
+      </c>
+      <c r="D230">
+        <v>6.85</v>
+      </c>
+      <c r="E230">
+        <v>5.35</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230" t="s">
+        <v>11</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>469</v>
+      </c>
+      <c r="B231" t="s">
+        <v>470</v>
+      </c>
+      <c r="C231">
+        <v>2.1</v>
+      </c>
+      <c r="D231">
+        <v>3.5</v>
+      </c>
+      <c r="E231">
+        <v>1.4</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231" t="s">
+        <v>12</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>471</v>
+      </c>
+      <c r="B232" t="s">
+        <v>472</v>
+      </c>
+      <c r="C232">
+        <v>3.1</v>
+      </c>
+      <c r="D232">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E232">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232" t="s">
+        <v>11</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>473</v>
+      </c>
+      <c r="B233" t="s">
+        <v>474</v>
+      </c>
+      <c r="C233">
+        <v>5.4</v>
+      </c>
+      <c r="D233">
+        <v>1.52</v>
+      </c>
+      <c r="E233">
+        <v>3.88</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233" t="s">
+        <v>12</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>475</v>
+      </c>
+      <c r="B234" t="s">
+        <v>476</v>
+      </c>
+      <c r="C234">
+        <v>10.5</v>
+      </c>
+      <c r="D234">
+        <v>1.28</v>
+      </c>
+      <c r="E234">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234" t="s">
+        <v>12</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>477</v>
+      </c>
+      <c r="B235" t="s">
+        <v>478</v>
+      </c>
+      <c r="C235">
+        <v>2.25</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+      <c r="E235">
+        <v>0.75</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235" t="s">
+        <v>12</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>479</v>
+      </c>
+      <c r="B236" t="s">
+        <v>86</v>
+      </c>
+      <c r="C236">
+        <v>4</v>
+      </c>
+      <c r="D236">
+        <v>1.84</v>
+      </c>
+      <c r="E236">
+        <v>2.16</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236" t="s">
+        <v>12</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>480</v>
+      </c>
+      <c r="B237" t="s">
+        <v>481</v>
+      </c>
+      <c r="C237">
+        <v>1.59</v>
+      </c>
+      <c r="D237">
+        <v>5.4</v>
+      </c>
+      <c r="E237">
+        <v>3.81</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237" t="s">
+        <v>12</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>482</v>
+      </c>
+      <c r="B238" t="s">
+        <v>483</v>
+      </c>
+      <c r="C238">
+        <v>1.62</v>
+      </c>
+      <c r="D238">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E238">
+        <v>3.28</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238" t="s">
+        <v>11</v>
+      </c>
+      <c r="L238">
+        <v>3</v>
+      </c>
+      <c r="M238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>484</v>
+      </c>
+      <c r="B239" t="s">
+        <v>485</v>
+      </c>
+      <c r="C239">
+        <v>2.8</v>
+      </c>
+      <c r="D239">
+        <v>2.35</v>
+      </c>
+      <c r="E239">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239" t="s">
+        <v>11</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>486</v>
+      </c>
+      <c r="B240" t="s">
+        <v>487</v>
+      </c>
+      <c r="C240">
+        <v>1.47</v>
+      </c>
+      <c r="D240">
+        <v>6.4</v>
+      </c>
+      <c r="E240">
+        <v>4.9300000000000006</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240" t="s">
+        <v>13</v>
+      </c>
+      <c r="L240">
+        <v>4</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>488</v>
+      </c>
+      <c r="B241" t="s">
+        <v>489</v>
+      </c>
+      <c r="C241">
+        <v>1.78</v>
+      </c>
+      <c r="D241">
+        <v>4.25</v>
+      </c>
+      <c r="E241">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241" t="s">
+        <v>13</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>490</v>
+      </c>
+      <c r="B242" t="s">
+        <v>491</v>
+      </c>
+      <c r="C242">
+        <v>4.5</v>
+      </c>
+      <c r="D242">
+        <v>1.77</v>
+      </c>
+      <c r="E242">
+        <v>2.73</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242" t="s">
+        <v>11</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>492</v>
+      </c>
+      <c r="B243" t="s">
+        <v>493</v>
+      </c>
+      <c r="C243">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D243">
+        <v>3.4</v>
+      </c>
+      <c r="E243">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243" t="s">
+        <v>13</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>494</v>
+      </c>
+      <c r="B244" t="s">
+        <v>495</v>
+      </c>
+      <c r="C244">
+        <v>1.9</v>
+      </c>
+      <c r="D244">
+        <v>3.9</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244" t="s">
+        <v>13</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>496</v>
+      </c>
+      <c r="B245" t="s">
+        <v>497</v>
+      </c>
+      <c r="C245">
+        <v>1.64</v>
+      </c>
+      <c r="D245">
+        <v>3.9</v>
+      </c>
+      <c r="E245">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245" t="s">
+        <v>12</v>
+      </c>
+      <c r="L245">
+        <v>3</v>
+      </c>
+      <c r="M245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>498</v>
+      </c>
+      <c r="B246" t="s">
+        <v>499</v>
+      </c>
+      <c r="C246">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D246">
+        <v>2.8</v>
+      </c>
+      <c r="E246">
+        <v>0.75</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246" t="s">
+        <v>13</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>500</v>
+      </c>
+      <c r="B247" t="s">
+        <v>501</v>
+      </c>
+      <c r="C247">
+        <v>1.65</v>
+      </c>
+      <c r="D247">
+        <v>4</v>
+      </c>
+      <c r="E247">
+        <v>2.35</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247" t="s">
+        <v>13</v>
+      </c>
+      <c r="L247">
+        <v>5</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>502</v>
+      </c>
+      <c r="B248" t="s">
+        <v>503</v>
+      </c>
+      <c r="C248">
+        <v>1.58</v>
+      </c>
+      <c r="D248">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E248">
+        <v>2.82</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248" t="s">
+        <v>11</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>504</v>
+      </c>
+      <c r="B249" t="s">
+        <v>505</v>
+      </c>
+      <c r="C249">
+        <v>5.6</v>
+      </c>
+      <c r="D249">
+        <v>1.48</v>
+      </c>
+      <c r="E249">
+        <v>4.1199999999999992</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249" t="s">
+        <v>12</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>506</v>
+      </c>
+      <c r="B250" t="s">
+        <v>507</v>
+      </c>
+      <c r="C250">
+        <v>1.47</v>
+      </c>
+      <c r="D250">
+        <v>6.1</v>
+      </c>
+      <c r="E250">
+        <v>4.63</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250" t="s">
+        <v>13</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>508</v>
+      </c>
+      <c r="B251" t="s">
+        <v>509</v>
+      </c>
+      <c r="C251">
+        <v>1.57</v>
+      </c>
+      <c r="D251">
+        <v>4.75</v>
+      </c>
+      <c r="E251">
+        <v>3.18</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251" t="s">
+        <v>11</v>
+      </c>
+      <c r="L251">
+        <v>3</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>510</v>
+      </c>
+      <c r="B252" t="s">
+        <v>511</v>
+      </c>
+      <c r="C252">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D252">
+        <v>1.42</v>
+      </c>
+      <c r="E252">
+        <v>6.7799999999999994</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252" t="s">
+        <v>11</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>512</v>
+      </c>
+      <c r="B253" t="s">
+        <v>513</v>
+      </c>
+      <c r="C253">
+        <v>1.31</v>
+      </c>
+      <c r="D253">
+        <v>8.4</v>
+      </c>
+      <c r="E253">
+        <v>7.09</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253" t="s">
+        <v>13</v>
+      </c>
+      <c r="L253">
+        <v>3</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>514</v>
+      </c>
+      <c r="B254" t="s">
+        <v>515</v>
+      </c>
+      <c r="C254">
+        <v>2.1</v>
+      </c>
+      <c r="D254">
+        <v>3.5</v>
+      </c>
+      <c r="E254">
+        <v>1.4</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254" t="s">
+        <v>11</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>516</v>
+      </c>
+      <c r="B255" t="s">
+        <v>517</v>
+      </c>
+      <c r="C255">
+        <v>1.35</v>
+      </c>
+      <c r="D255">
+        <v>6.8</v>
+      </c>
+      <c r="E255">
+        <v>5.4499999999999993</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255" t="s">
+        <v>13</v>
+      </c>
+      <c r="L255">
+        <v>4</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>518</v>
+      </c>
+      <c r="B256" t="s">
+        <v>519</v>
+      </c>
+      <c r="C256">
+        <v>1.32</v>
+      </c>
+      <c r="D256">
+        <v>7.75</v>
+      </c>
+      <c r="E256">
+        <v>6.43</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256" t="s">
+        <v>13</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>520</v>
+      </c>
+      <c r="B257" t="s">
+        <v>521</v>
+      </c>
+      <c r="C257">
+        <v>2.15</v>
+      </c>
+      <c r="D257">
+        <v>2.95</v>
+      </c>
+      <c r="E257">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257" t="s">
+        <v>11</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>522</v>
+      </c>
+      <c r="B258" t="s">
+        <v>523</v>
+      </c>
+      <c r="C258">
+        <v>1.71</v>
+      </c>
+      <c r="D258">
+        <v>4.5</v>
+      </c>
+      <c r="E258">
+        <v>2.79</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258" t="s">
+        <v>13</v>
+      </c>
+      <c r="L258">
+        <v>5</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>524</v>
+      </c>
+      <c r="B259" t="s">
+        <v>525</v>
+      </c>
+      <c r="C259">
+        <v>2.25</v>
+      </c>
+      <c r="D259">
+        <v>3.1</v>
+      </c>
+      <c r="E259">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259" t="s">
+        <v>13</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>526</v>
+      </c>
+      <c r="B260" t="s">
+        <v>527</v>
+      </c>
+      <c r="C260">
+        <v>2.7</v>
+      </c>
+      <c r="D260">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E260">
+        <v>0.5</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260" t="s">
+        <v>13</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>528</v>
+      </c>
+      <c r="B261" t="s">
+        <v>529</v>
+      </c>
+      <c r="C261">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D261">
+        <v>2.85</v>
+      </c>
+      <c r="E261">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261" t="s">
+        <v>12</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>530</v>
+      </c>
+      <c r="B262" t="s">
+        <v>531</v>
+      </c>
+      <c r="C262">
+        <v>2.1</v>
+      </c>
+      <c r="D262">
+        <v>3.1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262" t="s">
+        <v>13</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>532</v>
+      </c>
+      <c r="B263" t="s">
+        <v>533</v>
+      </c>
+      <c r="C263">
+        <v>1.75</v>
+      </c>
+      <c r="D263">
+        <v>4</v>
+      </c>
+      <c r="E263">
+        <v>2.25</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263" t="s">
+        <v>13</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>534</v>
+      </c>
+      <c r="B264" t="s">
+        <v>535</v>
+      </c>
+      <c r="C264">
+        <v>1.19</v>
+      </c>
+      <c r="D264">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E264">
+        <v>8.6100000000000012</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264" t="s">
+        <v>13</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>536</v>
+      </c>
+      <c r="B265" t="s">
+        <v>537</v>
+      </c>
+      <c r="C265">
+        <v>1.98</v>
+      </c>
+      <c r="D265">
+        <v>3.8</v>
+      </c>
+      <c r="E265">
+        <v>1.82</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265" t="s">
+        <v>11</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>538</v>
+      </c>
+      <c r="B266" t="s">
+        <v>539</v>
+      </c>
+      <c r="C266">
+        <v>2.4</v>
+      </c>
+      <c r="D266">
+        <v>2.85</v>
+      </c>
+      <c r="E266">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266" t="s">
+        <v>11</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>540</v>
+      </c>
+      <c r="B267" t="s">
+        <v>541</v>
+      </c>
+      <c r="C267">
+        <v>2.35</v>
+      </c>
+      <c r="D267">
+        <v>2.9</v>
+      </c>
+      <c r="E267">
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267" t="s">
+        <v>13</v>
+      </c>
+      <c r="L267">
+        <v>2</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>542</v>
+      </c>
+      <c r="B268" t="s">
+        <v>543</v>
+      </c>
+      <c r="C268">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D268">
+        <v>3.6</v>
+      </c>
+      <c r="E268">
+        <v>1.55</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268" t="s">
+        <v>11</v>
+      </c>
+      <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>544</v>
+      </c>
+      <c r="B269" t="s">
+        <v>545</v>
+      </c>
+      <c r="C269">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D269">
+        <v>2.8</v>
+      </c>
+      <c r="E269">
+        <v>0.34999999999999959</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269" t="s">
+        <v>12</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>546</v>
+      </c>
+      <c r="B270" t="s">
+        <v>547</v>
+      </c>
+      <c r="C270">
+        <v>1.45</v>
+      </c>
+      <c r="D270">
+        <v>6.1</v>
+      </c>
+      <c r="E270">
+        <v>4.6499999999999986</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270" t="s">
+        <v>13</v>
+      </c>
+      <c r="L270">
+        <v>3</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>548</v>
+      </c>
+      <c r="B271" t="s">
+        <v>549</v>
+      </c>
+      <c r="C271">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D271">
+        <v>2.85</v>
+      </c>
+      <c r="E271">
+        <v>0.30000000000000032</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271" t="s">
+        <v>13</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>550</v>
+      </c>
+      <c r="B272" t="s">
+        <v>551</v>
+      </c>
+      <c r="C272">
+        <v>1.78</v>
+      </c>
+      <c r="D272">
+        <v>4.75</v>
+      </c>
+      <c r="E272">
+        <v>2.97</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272" t="s">
+        <v>13</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>552</v>
+      </c>
+      <c r="B273" t="s">
+        <v>553</v>
+      </c>
+      <c r="C273">
+        <v>1.49</v>
+      </c>
+      <c r="D273">
+        <v>6</v>
+      </c>
+      <c r="E273">
+        <v>4.51</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273" t="s">
+        <v>12</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>554</v>
+      </c>
+      <c r="B274" t="s">
+        <v>555</v>
+      </c>
+      <c r="C274">
+        <v>1.38</v>
+      </c>
+      <c r="D274">
+        <v>7.1</v>
+      </c>
+      <c r="E274">
+        <v>5.72</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274" t="s">
+        <v>13</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>556</v>
+      </c>
+      <c r="B275" t="s">
+        <v>557</v>
+      </c>
+      <c r="C275">
+        <v>19</v>
+      </c>
+      <c r="D275">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E275">
+        <v>17.88</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275" t="s">
+        <v>12</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>558</v>
+      </c>
+      <c r="B276" t="s">
+        <v>559</v>
+      </c>
+      <c r="C276">
+        <v>15.5</v>
+      </c>
+      <c r="D276">
+        <v>1.08</v>
+      </c>
+      <c r="E276">
+        <v>14.42</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276" t="s">
+        <v>13</v>
+      </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>560</v>
+      </c>
+      <c r="B277" t="s">
+        <v>561</v>
+      </c>
+      <c r="C277">
+        <v>3.8</v>
+      </c>
+      <c r="D277">
+        <v>1.79</v>
+      </c>
+      <c r="E277">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277" t="s">
+        <v>12</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>562</v>
+      </c>
+      <c r="B278" t="s">
+        <v>563</v>
+      </c>
+      <c r="C278">
+        <v>3.25</v>
+      </c>
+      <c r="D278">
+        <v>2.1</v>
+      </c>
+      <c r="E278">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278" t="s">
+        <v>12</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>564</v>
+      </c>
+      <c r="B279" t="s">
+        <v>565</v>
+      </c>
+      <c r="C279">
+        <v>9.4</v>
+      </c>
+      <c r="D279">
+        <v>1.21</v>
+      </c>
+      <c r="E279">
+        <v>8.1900000000000013</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279" t="s">
+        <v>12</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>566</v>
+      </c>
+      <c r="B280" t="s">
+        <v>567</v>
+      </c>
+      <c r="C280">
+        <v>3.8</v>
+      </c>
+      <c r="D280">
+        <v>1.8</v>
+      </c>
+      <c r="E280">
+        <v>2</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280" t="s">
+        <v>11</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>568</v>
+      </c>
+      <c r="B281" t="s">
+        <v>569</v>
+      </c>
+      <c r="C281">
+        <v>20</v>
+      </c>
+      <c r="D281">
+        <v>1.07</v>
+      </c>
+      <c r="E281">
+        <v>18.93</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281" t="s">
+        <v>12</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>570</v>
+      </c>
+      <c r="B282" t="s">
+        <v>571</v>
+      </c>
+      <c r="C282">
+        <v>4.8</v>
+      </c>
+      <c r="D282">
+        <v>1.54</v>
+      </c>
+      <c r="E282">
+        <v>3.26</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282" t="s">
+        <v>12</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>572</v>
+      </c>
+      <c r="B283" t="s">
+        <v>573</v>
+      </c>
+      <c r="C283">
+        <v>14</v>
+      </c>
+      <c r="D283">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E283">
+        <v>12.86</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283" t="s">
+        <v>12</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>574</v>
+      </c>
+      <c r="B284" t="s">
+        <v>575</v>
+      </c>
+      <c r="C284">
+        <v>17</v>
+      </c>
+      <c r="D284">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E284">
+        <v>15.9</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284" t="s">
+        <v>12</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>576</v>
+      </c>
+      <c r="B285" t="s">
+        <v>577</v>
+      </c>
+      <c r="C285">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D285">
+        <v>1.63</v>
+      </c>
+      <c r="E285">
+        <v>2.97</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285" t="s">
+        <v>11</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>578</v>
+      </c>
+      <c r="B286" t="s">
+        <v>579</v>
+      </c>
+      <c r="C286">
+        <v>1.33</v>
+      </c>
+      <c r="D286">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E286">
+        <v>6.8699999999999992</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286" t="s">
+        <v>13</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>580</v>
+      </c>
+      <c r="B287" t="s">
+        <v>581</v>
+      </c>
+      <c r="C287">
+        <v>1.95</v>
+      </c>
+      <c r="D287">
+        <v>3.8</v>
+      </c>
+      <c r="E287">
+        <v>1.85</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287" t="s">
+        <v>13</v>
+      </c>
+      <c r="L287">
+        <v>3</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>582</v>
+      </c>
+      <c r="B288" t="s">
+        <v>583</v>
+      </c>
+      <c r="C288">
+        <v>7</v>
+      </c>
+      <c r="D288">
+        <v>1.42</v>
+      </c>
+      <c r="E288">
+        <v>5.58</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288" t="s">
+        <v>12</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>366</v>
+      </c>
+      <c r="B289" t="s">
+        <v>584</v>
+      </c>
+      <c r="C289">
+        <v>8.1</v>
+      </c>
+      <c r="D289">
+        <v>1.4</v>
+      </c>
+      <c r="E289">
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289" t="s">
+        <v>11</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>585</v>
+      </c>
+      <c r="B290" t="s">
+        <v>586</v>
+      </c>
+      <c r="C290">
+        <v>6.6</v>
+      </c>
+      <c r="D290">
+        <v>1.45</v>
+      </c>
+      <c r="E290">
+        <v>5.1499999999999986</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290" t="s">
+        <v>11</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>587</v>
+      </c>
+      <c r="B291" t="s">
+        <v>588</v>
+      </c>
+      <c r="C291">
+        <v>7.2</v>
+      </c>
+      <c r="D291">
+        <v>1.45</v>
+      </c>
+      <c r="E291">
+        <v>5.75</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291" t="s">
+        <v>12</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>589</v>
+      </c>
+      <c r="B292" t="s">
+        <v>217</v>
+      </c>
+      <c r="C292">
+        <v>1.39</v>
+      </c>
+      <c r="D292">
+        <v>7.3</v>
+      </c>
+      <c r="E292">
+        <v>5.91</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292" t="s">
+        <v>11</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>590</v>
+      </c>
+      <c r="B293" t="s">
+        <v>591</v>
+      </c>
+      <c r="C293">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D293">
+        <v>1.72</v>
+      </c>
+      <c r="E293">
+        <v>2.680000000000001</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293" t="s">
+        <v>12</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>592</v>
+      </c>
+      <c r="B294" t="s">
+        <v>593</v>
+      </c>
+      <c r="C294">
+        <v>1.41</v>
+      </c>
+      <c r="D294">
+        <v>6.8</v>
+      </c>
+      <c r="E294">
+        <v>5.39</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294" t="s">
+        <v>11</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>594</v>
+      </c>
+      <c r="B295" t="s">
+        <v>595</v>
+      </c>
+      <c r="C295">
+        <v>1.29</v>
+      </c>
+      <c r="D295">
+        <v>8.6</v>
+      </c>
+      <c r="E295">
+        <v>7.31</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295" t="s">
+        <v>13</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>252</v>
+      </c>
+      <c r="B296" t="s">
+        <v>596</v>
+      </c>
+      <c r="C296">
+        <v>1.37</v>
+      </c>
+      <c r="D296">
+        <v>7.5</v>
+      </c>
+      <c r="E296">
+        <v>6.13</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296" t="s">
+        <v>11</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>597</v>
+      </c>
+      <c r="B297" t="s">
+        <v>598</v>
+      </c>
+      <c r="C297">
+        <v>18.5</v>
+      </c>
+      <c r="D297">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E297">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297" t="s">
+        <v>12</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>599</v>
+      </c>
+      <c r="B298" t="s">
+        <v>600</v>
+      </c>
+      <c r="C298">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D298">
+        <v>11</v>
+      </c>
+      <c r="E298">
+        <v>9.879999999999999</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298" t="s">
+        <v>13</v>
+      </c>
+      <c r="L298">
+        <v>4</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>601</v>
+      </c>
+      <c r="B299" t="s">
+        <v>602</v>
+      </c>
+      <c r="C299">
+        <v>1.75</v>
+      </c>
+      <c r="D299">
+        <v>4</v>
+      </c>
+      <c r="E299">
+        <v>2.25</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299" t="s">
+        <v>12</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>603</v>
+      </c>
+      <c r="B300" t="s">
+        <v>604</v>
+      </c>
+      <c r="C300">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D300">
+        <v>1.5</v>
+      </c>
+      <c r="E300">
+        <v>3.4</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300" t="s">
+        <v>12</v>
+      </c>
+      <c r="L300">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>605</v>
+      </c>
+      <c r="B301" t="s">
+        <v>606</v>
+      </c>
+      <c r="C301">
+        <v>1.29</v>
+      </c>
+      <c r="D301">
+        <v>8.6</v>
+      </c>
+      <c r="E301">
+        <v>7.31</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301" t="s">
+        <v>13</v>
+      </c>
+      <c r="L301">
+        <v>3</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>607</v>
+      </c>
+      <c r="B302" t="s">
+        <v>608</v>
+      </c>
+      <c r="C302">
+        <v>2.1</v>
+      </c>
+      <c r="D302">
+        <v>2.65</v>
+      </c>
+      <c r="E302">
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302" t="s">
+        <v>13</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>609</v>
+      </c>
+      <c r="B303" t="s">
+        <v>610</v>
+      </c>
+      <c r="C303">
+        <v>1.28</v>
+      </c>
+      <c r="D303">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E303">
+        <v>8.42</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303" t="s">
+        <v>13</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>611</v>
+      </c>
+      <c r="B304" t="s">
+        <v>612</v>
+      </c>
+      <c r="C304">
+        <v>1.86</v>
+      </c>
+      <c r="D304">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E304">
+        <v>2.54</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304" t="s">
+        <v>11</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>613</v>
+      </c>
+      <c r="B305" t="s">
+        <v>614</v>
+      </c>
+      <c r="C305">
+        <v>2.1</v>
+      </c>
+      <c r="D305">
+        <v>3.7</v>
+      </c>
+      <c r="E305">
+        <v>1.6</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>1</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305" t="s">
+        <v>11</v>
+      </c>
+      <c r="L305">
+        <v>2</v>
+      </c>
+      <c r="M305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306" t="s">
+        <v>616</v>
+      </c>
+      <c r="C306">
+        <v>1.17</v>
+      </c>
+      <c r="D306">
+        <v>14</v>
+      </c>
+      <c r="E306">
+        <v>12.83</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306" t="s">
+        <v>13</v>
+      </c>
+      <c r="L306">
+        <v>2</v>
+      </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>617</v>
+      </c>
+      <c r="B307" t="s">
+        <v>618</v>
+      </c>
+      <c r="C307">
+        <v>1.73</v>
+      </c>
+      <c r="D307">
+        <v>5.5</v>
+      </c>
+      <c r="E307">
+        <v>3.77</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307" t="s">
+        <v>11</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>619</v>
+      </c>
+      <c r="B308" t="s">
+        <v>620</v>
+      </c>
+      <c r="C308">
+        <v>1.79</v>
+      </c>
+      <c r="D308">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E308">
+        <v>2.61</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308" t="s">
+        <v>11</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>621</v>
+      </c>
+      <c r="B309" t="s">
+        <v>622</v>
+      </c>
+      <c r="C309">
+        <v>1.17</v>
+      </c>
+      <c r="D309">
+        <v>13.5</v>
+      </c>
+      <c r="E309">
+        <v>12.33</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+      <c r="K309" t="s">
+        <v>13</v>
+      </c>
+      <c r="L309">
+        <v>2</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>623</v>
+      </c>
+      <c r="B310" t="s">
+        <v>624</v>
+      </c>
+      <c r="C310">
+        <v>1.38</v>
+      </c>
+      <c r="D310">
+        <v>7.1</v>
+      </c>
+      <c r="E310">
+        <v>5.72</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310" t="s">
+        <v>13</v>
+      </c>
+      <c r="L310">
+        <v>3</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>625</v>
+      </c>
+      <c r="B311" t="s">
+        <v>626</v>
+      </c>
+      <c r="C311">
+        <v>3.9</v>
+      </c>
+      <c r="D311">
+        <v>1.88</v>
+      </c>
+      <c r="E311">
+        <v>2.02</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311" t="s">
+        <v>12</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+      <c r="M311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>627</v>
+      </c>
+      <c r="B312" t="s">
+        <v>628</v>
+      </c>
+      <c r="C312">
+        <v>3.75</v>
+      </c>
+      <c r="D312">
+        <v>1.83</v>
+      </c>
+      <c r="E312">
+        <v>1.92</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312" t="s">
+        <v>13</v>
+      </c>
+      <c r="L312">
+        <v>3</v>
+      </c>
+      <c r="M312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>629</v>
+      </c>
+      <c r="B313" t="s">
+        <v>630</v>
+      </c>
+      <c r="C313">
+        <v>2.4</v>
+      </c>
+      <c r="D313">
+        <v>2.8</v>
+      </c>
+      <c r="E313">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313" t="s">
+        <v>13</v>
+      </c>
+      <c r="L313">
+        <v>2</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>631</v>
+      </c>
+      <c r="B314" t="s">
+        <v>632</v>
+      </c>
+      <c r="C314">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D314">
+        <v>14</v>
+      </c>
+      <c r="E314">
+        <v>12.88</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314" t="s">
+        <v>13</v>
+      </c>
+      <c r="L314">
+        <v>2</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>633</v>
+      </c>
+      <c r="B315" t="s">
+        <v>634</v>
+      </c>
+      <c r="C315">
+        <v>1.59</v>
+      </c>
+      <c r="D315">
+        <v>5.5</v>
+      </c>
+      <c r="E315">
+        <v>3.91</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315" t="s">
+        <v>12</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+      <c r="M315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>635</v>
+      </c>
+      <c r="B316" t="s">
+        <v>636</v>
+      </c>
+      <c r="C316">
+        <v>1.72</v>
+      </c>
+      <c r="D316">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E316">
+        <v>2.680000000000001</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+      <c r="I316">
+        <v>1</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316" t="s">
+        <v>13</v>
+      </c>
+      <c r="L316">
+        <v>2</v>
+      </c>
+      <c r="M316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>637</v>
+      </c>
+      <c r="B317" t="s">
+        <v>638</v>
+      </c>
+      <c r="C317">
+        <v>1.75</v>
+      </c>
+      <c r="D317">
+        <v>4.2</v>
+      </c>
+      <c r="E317">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>1</v>
+      </c>
+      <c r="K317" t="s">
+        <v>13</v>
+      </c>
+      <c r="L317">
+        <v>5</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>639</v>
+      </c>
+      <c r="B318" t="s">
+        <v>640</v>
+      </c>
+      <c r="C318">
+        <v>1.91</v>
+      </c>
+      <c r="D318">
+        <v>3.6</v>
+      </c>
+      <c r="E318">
+        <v>1.69</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318" t="s">
+        <v>11</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>641</v>
+      </c>
+      <c r="B319" t="s">
+        <v>642</v>
+      </c>
+      <c r="C319">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D319">
+        <v>2.95</v>
+      </c>
+      <c r="E319">
+        <v>0.75</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319" t="s">
+        <v>13</v>
+      </c>
+      <c r="L319">
+        <v>5</v>
+      </c>
+      <c r="M319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>643</v>
+      </c>
+      <c r="B320" t="s">
+        <v>644</v>
+      </c>
+      <c r="C320">
+        <v>1.96</v>
+      </c>
+      <c r="D320">
+        <v>3.7</v>
+      </c>
+      <c r="E320">
+        <v>1.74</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320" t="s">
+        <v>13</v>
+      </c>
+      <c r="L320">
+        <v>4</v>
+      </c>
+      <c r="M320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>645</v>
+      </c>
+      <c r="B321" t="s">
+        <v>646</v>
+      </c>
+      <c r="C321">
+        <v>1.65</v>
+      </c>
+      <c r="D321">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E321">
+        <v>2.75</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321" t="s">
+        <v>13</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>647</v>
+      </c>
+      <c r="B322" t="s">
+        <v>648</v>
+      </c>
+      <c r="C322">
+        <v>17</v>
+      </c>
+      <c r="D322">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E322">
+        <v>15.87</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+      <c r="K322" t="s">
+        <v>12</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>649</v>
+      </c>
+      <c r="B323" t="s">
+        <v>650</v>
+      </c>
+      <c r="C323">
+        <v>1.77</v>
+      </c>
+      <c r="D323">
+        <v>3.9</v>
+      </c>
+      <c r="E323">
+        <v>2.13</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323" t="s">
+        <v>11</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>651</v>
+      </c>
+      <c r="B324" t="s">
+        <v>652</v>
+      </c>
+      <c r="C324">
+        <v>5</v>
+      </c>
+      <c r="D324">
+        <v>1.51</v>
+      </c>
+      <c r="E324">
+        <v>3.49</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>1</v>
+      </c>
+      <c r="K324" t="s">
+        <v>12</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>17</v>
+      </c>
+      <c r="B325" t="s">
+        <v>653</v>
+      </c>
+      <c r="C325">
+        <v>1.7</v>
+      </c>
+      <c r="D325">
+        <v>4.5</v>
+      </c>
+      <c r="E325">
+        <v>2.8</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325" t="s">
+        <v>13</v>
+      </c>
+      <c r="L325">
+        <v>2</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>654</v>
+      </c>
+      <c r="B326" t="s">
+        <v>655</v>
+      </c>
+      <c r="C326">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D326">
+        <v>1.76</v>
+      </c>
+      <c r="E326">
+        <v>2.34</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>1</v>
+      </c>
+      <c r="K326" t="s">
+        <v>13</v>
+      </c>
+      <c r="L326">
+        <v>2</v>
+      </c>
+      <c r="M326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>656</v>
+      </c>
+      <c r="B327" t="s">
+        <v>657</v>
+      </c>
+      <c r="C327">
+        <v>1.19</v>
+      </c>
+      <c r="D327">
+        <v>13</v>
+      </c>
+      <c r="E327">
+        <v>11.81</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327" t="s">
+        <v>13</v>
+      </c>
+      <c r="L327">
+        <v>3</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>658</v>
+      </c>
+      <c r="B328" t="s">
+        <v>659</v>
+      </c>
+      <c r="C328">
+        <v>1.81</v>
+      </c>
+      <c r="D328">
+        <v>4.2</v>
+      </c>
+      <c r="E328">
+        <v>2.39</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328" t="s">
+        <v>12</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+      <c r="M328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>660</v>
+      </c>
+      <c r="B329" t="s">
+        <v>661</v>
+      </c>
+      <c r="C329">
+        <v>5.9</v>
+      </c>
+      <c r="D329">
+        <v>1.47</v>
+      </c>
+      <c r="E329">
+        <v>4.4300000000000006</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329" t="s">
+        <v>12</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>662</v>
+      </c>
+      <c r="B330" t="s">
+        <v>663</v>
+      </c>
+      <c r="C330">
+        <v>1.79</v>
+      </c>
+      <c r="D330">
+        <v>3.9</v>
+      </c>
+      <c r="E330">
+        <v>2.11</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330" t="s">
+        <v>13</v>
+      </c>
+      <c r="L330">
+        <v>5</v>
+      </c>
+      <c r="M330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>664</v>
+      </c>
+      <c r="B331" t="s">
+        <v>665</v>
+      </c>
+      <c r="C331">
+        <v>1.86</v>
+      </c>
+      <c r="D331">
+        <v>3.3</v>
+      </c>
+      <c r="E331">
+        <v>1.44</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331" t="s">
+        <v>12</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>666</v>
+      </c>
+      <c r="B332" t="s">
+        <v>667</v>
+      </c>
+      <c r="C332">
+        <v>1.31</v>
+      </c>
+      <c r="D332">
+        <v>8.6</v>
+      </c>
+      <c r="E332">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+      <c r="K332" t="s">
+        <v>13</v>
+      </c>
+      <c r="L332">
+        <v>4</v>
+      </c>
+      <c r="M332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>668</v>
+      </c>
+      <c r="B333" t="s">
+        <v>669</v>
+      </c>
+      <c r="C333">
+        <v>1.63</v>
+      </c>
+      <c r="D333">
+        <v>4</v>
+      </c>
+      <c r="E333">
+        <v>2.37</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333" t="s">
+        <v>13</v>
+      </c>
+      <c r="L333">
+        <v>5</v>
+      </c>
+      <c r="M333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>670</v>
+      </c>
+      <c r="B334" t="s">
+        <v>671</v>
+      </c>
+      <c r="C334">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D334">
+        <v>13.5</v>
+      </c>
+      <c r="E334">
+        <v>12.37</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334" t="s">
+        <v>13</v>
+      </c>
+      <c r="L334">
+        <v>3</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>672</v>
+      </c>
+      <c r="B335" t="s">
+        <v>673</v>
+      </c>
+      <c r="C335">
+        <v>1.47</v>
+      </c>
+      <c r="D335">
+        <v>7.1</v>
+      </c>
+      <c r="E335">
+        <v>5.63</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335" t="s">
+        <v>12</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>674</v>
+      </c>
+      <c r="B336" t="s">
+        <v>675</v>
+      </c>
+      <c r="C336">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D336">
+        <v>2.97</v>
+      </c>
+      <c r="E336">
+        <v>0.44000000000000039</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336" t="s">
+        <v>13</v>
+      </c>
+      <c r="L336">
+        <v>2</v>
+      </c>
+      <c r="M336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>676</v>
+      </c>
+      <c r="B337" t="s">
+        <v>677</v>
+      </c>
+      <c r="C337">
+        <v>1.92</v>
+      </c>
+      <c r="D337">
+        <v>4.29</v>
+      </c>
+      <c r="E337">
+        <v>2.37</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337" t="s">
+        <v>13</v>
+      </c>
+      <c r="L337">
+        <v>2</v>
+      </c>
+      <c r="M337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>678</v>
+      </c>
+      <c r="B338" t="s">
+        <v>679</v>
+      </c>
+      <c r="C338">
+        <v>1.49</v>
+      </c>
+      <c r="D338">
+        <v>7.5</v>
+      </c>
+      <c r="E338">
+        <v>6.01</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338" t="s">
+        <v>11</v>
+      </c>
+      <c r="L338">
+        <v>1</v>
+      </c>
+      <c r="M338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>680</v>
+      </c>
+      <c r="B339" t="s">
+        <v>681</v>
+      </c>
+      <c r="C339">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D339">
+        <v>4.05</v>
+      </c>
+      <c r="E339">
+        <v>2</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339" t="s">
+        <v>11</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>682</v>
+      </c>
+      <c r="B340" t="s">
+        <v>683</v>
+      </c>
+      <c r="C340">
+        <v>1.73</v>
+      </c>
+      <c r="D340">
+        <v>5.57</v>
+      </c>
+      <c r="E340">
+        <v>3.84</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340" t="s">
+        <v>12</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>112</v>
+      </c>
+      <c r="B341" t="s">
+        <v>684</v>
+      </c>
+      <c r="C341">
+        <v>1.68</v>
+      </c>
+      <c r="D341">
+        <v>5.88</v>
+      </c>
+      <c r="E341">
+        <v>4.2</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341" t="s">
+        <v>13</v>
+      </c>
+      <c r="L341">
+        <v>2</v>
+      </c>
+      <c r="M341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>685</v>
+      </c>
+      <c r="B342" t="s">
+        <v>686</v>
+      </c>
+      <c r="C342">
+        <v>1.89</v>
+      </c>
+      <c r="D342">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E342">
+        <v>2.71</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342" t="s">
+        <v>11</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>687</v>
+      </c>
+      <c r="B343" t="s">
+        <v>688</v>
+      </c>
+      <c r="C343">
+        <v>1.57</v>
+      </c>
+      <c r="D343">
+        <v>5.8</v>
+      </c>
+      <c r="E343">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343" t="s">
+        <v>13</v>
+      </c>
+      <c r="L343">
+        <v>3</v>
+      </c>
+      <c r="M343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>689</v>
+      </c>
+      <c r="B344" t="s">
+        <v>690</v>
+      </c>
+      <c r="C344">
+        <v>1.74</v>
+      </c>
+      <c r="D344">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E344">
+        <v>2.859999999999999</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+      <c r="K344" t="s">
+        <v>12</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>691</v>
+      </c>
+      <c r="B345" t="s">
+        <v>692</v>
+      </c>
+      <c r="C345">
+        <v>1.57</v>
+      </c>
+      <c r="D345">
+        <v>5.2</v>
+      </c>
+      <c r="E345">
+        <v>3.63</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345" t="s">
+        <v>13</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>693</v>
+      </c>
+      <c r="B346" t="s">
+        <v>694</v>
+      </c>
+      <c r="C346">
+        <v>1.92</v>
+      </c>
+      <c r="D346">
+        <v>3.6</v>
+      </c>
+      <c r="E346">
+        <v>1.68</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346" t="s">
+        <v>12</v>
+      </c>
+      <c r="L346">
+        <v>2</v>
+      </c>
+      <c r="M346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>695</v>
+      </c>
+      <c r="B347" t="s">
+        <v>696</v>
+      </c>
+      <c r="C347">
+        <v>1.54</v>
+      </c>
+      <c r="D347">
+        <v>5.3</v>
+      </c>
+      <c r="E347">
+        <v>3.76</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>1</v>
+      </c>
+      <c r="H347">
+        <v>1</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347" t="s">
+        <v>11</v>
+      </c>
+      <c r="L347">
+        <v>2</v>
+      </c>
+      <c r="M347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>697</v>
+      </c>
+      <c r="B348" t="s">
+        <v>698</v>
+      </c>
+      <c r="C348">
+        <v>4.25</v>
+      </c>
+      <c r="D348">
+        <v>1.74</v>
+      </c>
+      <c r="E348">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F348">
+        <v>1</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348" t="s">
+        <v>12</v>
+      </c>
+      <c r="L348">
+        <v>2</v>
+      </c>
+      <c r="M348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>699</v>
+      </c>
+      <c r="B349" t="s">
+        <v>700</v>
+      </c>
+      <c r="C349">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D349">
+        <v>11.5</v>
+      </c>
+      <c r="E349">
+        <v>10.34</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349" t="s">
+        <v>13</v>
+      </c>
+      <c r="L349">
+        <v>5</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>701</v>
+      </c>
+      <c r="B350" t="s">
+        <v>702</v>
+      </c>
+      <c r="C350">
+        <v>7.9</v>
+      </c>
+      <c r="D350">
+        <v>1.26</v>
+      </c>
+      <c r="E350">
+        <v>6.6400000000000006</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350" t="s">
+        <v>12</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>703</v>
+      </c>
+      <c r="B351" t="s">
+        <v>704</v>
+      </c>
+      <c r="C351">
+        <v>6.5</v>
+      </c>
+      <c r="D351">
+        <v>1.42</v>
+      </c>
+      <c r="E351">
+        <v>5.08</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351" t="s">
+        <v>13</v>
+      </c>
+      <c r="L351">
+        <v>2</v>
+      </c>
+      <c r="M351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>705</v>
+      </c>
+      <c r="B352" t="s">
+        <v>434</v>
+      </c>
+      <c r="C352">
+        <v>1.3</v>
+      </c>
+      <c r="D352">
+        <v>8</v>
+      </c>
+      <c r="E352">
+        <v>6.7</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352" t="s">
+        <v>13</v>
+      </c>
+      <c r="L352">
+        <v>2</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA87FD-389C-46A4-8F7A-7E91B3DD6571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD67E71-93F5-4E4A-A3F3-F921FAB9D6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="763">
   <si>
     <t>home</t>
   </si>
@@ -2154,6 +2154,177 @@
   </si>
   <si>
     <t xml:space="preserve">Boca Juniors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaqatala FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Araz Saatli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokyo Verdy Beleza </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kanagawa Sagamihara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omiya Ardija Ventus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urawa Red Diamonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Viktoria Plzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shakhtar D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS Jelgava </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valmiera FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maroons FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Busoga United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Seeb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Wehda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Nasr SC (OMA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oman Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shabab AL Ahli Club U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Nasr SC U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapoel Petach-Tikva </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hapoel Katamon Jerusalem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES Setif U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Js Saoura U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr Belouizdad U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US Biskra U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nc Magra U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MC Alger U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Js Kabylie U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MC Oran U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usm Alger U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES Ben Aknoun U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liverpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leverkusen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenerbahce Istanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olympiacos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAOK Thessaloniki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brugge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiantes de Merida </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rayo Zuliano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botafogo FR RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Goianiense GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America de Cali </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AD Pasto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alianza Lima </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sport Boys Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSD Independiente del Valle </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mushuc Runa SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcelona SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD El Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Aurora </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independiente Petrolero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independente EC AP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oratorio AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Humaita AC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brazil</t>
   </si>
 </sst>
 </file>
@@ -2529,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M352"/>
+  <dimension ref="A1:M383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335:XFD352"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A353" sqref="A353:XFD383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16967,6 +17138,1277 @@
       </c>
       <c r="M352">
         <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>706</v>
+      </c>
+      <c r="B353" t="s">
+        <v>707</v>
+      </c>
+      <c r="C353">
+        <v>1.34</v>
+      </c>
+      <c r="D353">
+        <v>6.5</v>
+      </c>
+      <c r="E353">
+        <v>5.16</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>1</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353" t="s">
+        <v>13</v>
+      </c>
+      <c r="L353">
+        <v>2</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>708</v>
+      </c>
+      <c r="B354" t="s">
+        <v>709</v>
+      </c>
+      <c r="C354">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D354">
+        <v>12</v>
+      </c>
+      <c r="E354">
+        <v>10.85</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>1</v>
+      </c>
+      <c r="K354" t="s">
+        <v>13</v>
+      </c>
+      <c r="L354">
+        <v>3</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>710</v>
+      </c>
+      <c r="B355" t="s">
+        <v>711</v>
+      </c>
+      <c r="C355">
+        <v>8</v>
+      </c>
+      <c r="D355">
+        <v>1.28</v>
+      </c>
+      <c r="E355">
+        <v>6.72</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355" t="s">
+        <v>12</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>465</v>
+      </c>
+      <c r="B356" t="s">
+        <v>712</v>
+      </c>
+      <c r="C356">
+        <v>1.41</v>
+      </c>
+      <c r="D356">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="E356">
+        <v>7.56</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356" t="s">
+        <v>11</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>413</v>
+      </c>
+      <c r="B357" t="s">
+        <v>713</v>
+      </c>
+      <c r="C357">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D357">
+        <v>1.32</v>
+      </c>
+      <c r="E357">
+        <v>6.879999999999999</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+      <c r="K357" t="s">
+        <v>12</v>
+      </c>
+      <c r="L357">
+        <v>1</v>
+      </c>
+      <c r="M357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>714</v>
+      </c>
+      <c r="B358" t="s">
+        <v>715</v>
+      </c>
+      <c r="C358">
+        <v>8</v>
+      </c>
+      <c r="D358">
+        <v>1.3</v>
+      </c>
+      <c r="E358">
+        <v>6.7</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358" t="s">
+        <v>13</v>
+      </c>
+      <c r="L358">
+        <v>1</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>716</v>
+      </c>
+      <c r="B359" t="s">
+        <v>717</v>
+      </c>
+      <c r="C359">
+        <v>6.1</v>
+      </c>
+      <c r="D359">
+        <v>1.53</v>
+      </c>
+      <c r="E359">
+        <v>4.5699999999999994</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359" t="s">
+        <v>12</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>718</v>
+      </c>
+      <c r="B360" t="s">
+        <v>719</v>
+      </c>
+      <c r="C360">
+        <v>1.62</v>
+      </c>
+      <c r="D360">
+        <v>5.2</v>
+      </c>
+      <c r="E360">
+        <v>3.58</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360" t="s">
+        <v>13</v>
+      </c>
+      <c r="L360">
+        <v>3</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>720</v>
+      </c>
+      <c r="B361" t="s">
+        <v>721</v>
+      </c>
+      <c r="C361">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D361">
+        <v>14.5</v>
+      </c>
+      <c r="E361">
+        <v>13.36</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361" t="s">
+        <v>13</v>
+      </c>
+      <c r="L361">
+        <v>2</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>722</v>
+      </c>
+      <c r="B362" t="s">
+        <v>723</v>
+      </c>
+      <c r="C362">
+        <v>2.25</v>
+      </c>
+      <c r="D362">
+        <v>3.1</v>
+      </c>
+      <c r="E362">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>1</v>
+      </c>
+      <c r="K362" t="s">
+        <v>12</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+      <c r="M362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>724</v>
+      </c>
+      <c r="B363" t="s">
+        <v>725</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="D363">
+        <v>3.2</v>
+      </c>
+      <c r="E363">
+        <v>1.2</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>1</v>
+      </c>
+      <c r="K363" t="s">
+        <v>13</v>
+      </c>
+      <c r="L363">
+        <v>4</v>
+      </c>
+      <c r="M363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>726</v>
+      </c>
+      <c r="B364" t="s">
+        <v>727</v>
+      </c>
+      <c r="C364">
+        <v>6</v>
+      </c>
+      <c r="D364">
+        <v>1.37</v>
+      </c>
+      <c r="E364">
+        <v>4.63</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364" t="s">
+        <v>13</v>
+      </c>
+      <c r="L364">
+        <v>2</v>
+      </c>
+      <c r="M364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>728</v>
+      </c>
+      <c r="B365" t="s">
+        <v>729</v>
+      </c>
+      <c r="C365">
+        <v>1.84</v>
+      </c>
+      <c r="D365">
+        <v>3.75</v>
+      </c>
+      <c r="E365">
+        <v>1.91</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="H365">
+        <v>1</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365" t="s">
+        <v>11</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+      <c r="M365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>730</v>
+      </c>
+      <c r="B366" t="s">
+        <v>731</v>
+      </c>
+      <c r="C366">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D366">
+        <v>16</v>
+      </c>
+      <c r="E366">
+        <v>14.87</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366" t="s">
+        <v>13</v>
+      </c>
+      <c r="L366">
+        <v>2</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>732</v>
+      </c>
+      <c r="B367" t="s">
+        <v>733</v>
+      </c>
+      <c r="C367">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D367">
+        <v>1.3</v>
+      </c>
+      <c r="E367">
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367" t="s">
+        <v>12</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+      <c r="M367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>734</v>
+      </c>
+      <c r="B368" t="s">
+        <v>735</v>
+      </c>
+      <c r="C368">
+        <v>1.36</v>
+      </c>
+      <c r="D368">
+        <v>6.8</v>
+      </c>
+      <c r="E368">
+        <v>5.44</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>1</v>
+      </c>
+      <c r="K368" t="s">
+        <v>13</v>
+      </c>
+      <c r="L368">
+        <v>3</v>
+      </c>
+      <c r="M368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>736</v>
+      </c>
+      <c r="B369" t="s">
+        <v>737</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+      <c r="D369">
+        <v>3.33</v>
+      </c>
+      <c r="E369">
+        <v>1.33</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369" t="s">
+        <v>11</v>
+      </c>
+      <c r="L369">
+        <v>3</v>
+      </c>
+      <c r="M369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>467</v>
+      </c>
+      <c r="B370" t="s">
+        <v>738</v>
+      </c>
+      <c r="C370">
+        <v>5.19</v>
+      </c>
+      <c r="D370">
+        <v>1.58</v>
+      </c>
+      <c r="E370">
+        <v>3.61</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370" t="s">
+        <v>12</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+      <c r="M370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>397</v>
+      </c>
+      <c r="B371" t="s">
+        <v>739</v>
+      </c>
+      <c r="C371">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D371">
+        <v>1.92</v>
+      </c>
+      <c r="E371">
+        <v>2.1</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>1</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371" t="s">
+        <v>11</v>
+      </c>
+      <c r="L371">
+        <v>1</v>
+      </c>
+      <c r="M371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>740</v>
+      </c>
+      <c r="B372" t="s">
+        <v>741</v>
+      </c>
+      <c r="C372">
+        <v>1.62</v>
+      </c>
+      <c r="D372">
+        <v>5.41</v>
+      </c>
+      <c r="E372">
+        <v>3.79</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372" t="s">
+        <v>13</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>742</v>
+      </c>
+      <c r="B373" t="s">
+        <v>743</v>
+      </c>
+      <c r="C373">
+        <v>1.97</v>
+      </c>
+      <c r="D373">
+        <v>3.88</v>
+      </c>
+      <c r="E373">
+        <v>1.91</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373" t="s">
+        <v>12</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+      <c r="M373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>744</v>
+      </c>
+      <c r="B374" t="s">
+        <v>745</v>
+      </c>
+      <c r="C374">
+        <v>1.9</v>
+      </c>
+      <c r="D374">
+        <v>3.6</v>
+      </c>
+      <c r="E374">
+        <v>1.7</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374" t="s">
+        <v>13</v>
+      </c>
+      <c r="L374">
+        <v>2</v>
+      </c>
+      <c r="M374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>746</v>
+      </c>
+      <c r="B375" t="s">
+        <v>747</v>
+      </c>
+      <c r="C375">
+        <v>1.84</v>
+      </c>
+      <c r="D375">
+        <v>4.74</v>
+      </c>
+      <c r="E375">
+        <v>2.9</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="K375" t="s">
+        <v>13</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>748</v>
+      </c>
+      <c r="B376" t="s">
+        <v>749</v>
+      </c>
+      <c r="C376">
+        <v>1.42</v>
+      </c>
+      <c r="D376">
+        <v>7.5</v>
+      </c>
+      <c r="E376">
+        <v>6.08</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>1</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376" t="s">
+        <v>11</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>750</v>
+      </c>
+      <c r="B377" t="s">
+        <v>751</v>
+      </c>
+      <c r="C377">
+        <v>1.29</v>
+      </c>
+      <c r="D377">
+        <v>9.75</v>
+      </c>
+      <c r="E377">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377" t="s">
+        <v>13</v>
+      </c>
+      <c r="L377">
+        <v>3</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>752</v>
+      </c>
+      <c r="B378" t="s">
+        <v>753</v>
+      </c>
+      <c r="C378">
+        <v>1.32</v>
+      </c>
+      <c r="D378">
+        <v>7.4</v>
+      </c>
+      <c r="E378">
+        <v>6.08</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>1</v>
+      </c>
+      <c r="K378" t="s">
+        <v>13</v>
+      </c>
+      <c r="L378">
+        <v>2</v>
+      </c>
+      <c r="M378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>754</v>
+      </c>
+      <c r="B379" t="s">
+        <v>755</v>
+      </c>
+      <c r="C379">
+        <v>1.43</v>
+      </c>
+      <c r="D379">
+        <v>6.5</v>
+      </c>
+      <c r="E379">
+        <v>5.07</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379" t="s">
+        <v>13</v>
+      </c>
+      <c r="L379">
+        <v>1</v>
+      </c>
+      <c r="M379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>756</v>
+      </c>
+      <c r="B380" t="s">
+        <v>757</v>
+      </c>
+      <c r="C380">
+        <v>1.52</v>
+      </c>
+      <c r="D380">
+        <v>5.2</v>
+      </c>
+      <c r="E380">
+        <v>3.68</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+      <c r="K380" t="s">
+        <v>12</v>
+      </c>
+      <c r="L380">
+        <v>2</v>
+      </c>
+      <c r="M380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>758</v>
+      </c>
+      <c r="B381" t="s">
+        <v>759</v>
+      </c>
+      <c r="C381">
+        <v>1.77</v>
+      </c>
+      <c r="D381">
+        <v>4</v>
+      </c>
+      <c r="E381">
+        <v>2.23</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381" t="s">
+        <v>11</v>
+      </c>
+      <c r="L381">
+        <v>2</v>
+      </c>
+      <c r="M381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>760</v>
+      </c>
+      <c r="B382" t="s">
+        <v>509</v>
+      </c>
+      <c r="C382">
+        <v>1.62</v>
+      </c>
+      <c r="D382">
+        <v>4.2</v>
+      </c>
+      <c r="E382">
+        <v>2.58</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+      <c r="H382">
+        <v>1</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382" t="s">
+        <v>11</v>
+      </c>
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="M382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>761</v>
+      </c>
+      <c r="B383" t="s">
+        <v>762</v>
+      </c>
+      <c r="C383">
+        <v>17.5</v>
+      </c>
+      <c r="D383">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E383">
+        <v>16.41</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>1</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383" t="s">
+        <v>12</v>
+      </c>
+      <c r="L383">
+        <v>1</v>
+      </c>
+      <c r="M383">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD21A29B-4FC0-4835-8169-058F7F95D901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B3970-5FC6-41FB-A0E8-17E510F94CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="321">
   <si>
     <t>home</t>
   </si>
@@ -378,6 +378,627 @@
   </si>
   <si>
     <t xml:space="preserve"> CDM Leandro N. Alem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yokohama Marinos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ulsan Hyundai FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Nagano Parceiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyoto Sanga FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blaublitz Akita </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shonan Bellmare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fagiano Okayama </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yokohama FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Ryukyu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gamba Osaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kataller Toyama </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shimizu S-Pulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nara Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanfrecce Hiroshima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roasso Kumamoto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sagan Tosu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thespakusatsu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kashiwa Reysol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persebaya Surabaya </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bali United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Ska-Khabarovsk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rodina Moscow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Lorient </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Twente Enschede </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Almere City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IFK Varnamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF Brommapojkarna </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IK Sirius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFK Goteborg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hacken Gothenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Orenburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Dinamo Moscow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Nizhny Novgorod </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lokomotiv Moscow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Krasnodar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Zenit Saint Petersburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Rubin Kazan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talaea El Gaish </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enppi Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyramids FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Bank of Egypt SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAS Lamia 1964 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAOK Thessaloniki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aris Thessaloniki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olympiacos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEK Athens </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panathinaikos Athens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabzonspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fatih Karagumruk Istanbul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Stade Nyonnais </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Vaduz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Goa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mumbai City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Universitatea Cluj </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSM Politehnica Iasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Farul Constanta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rapid Bucuresti 1923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Bukiryah </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Qadisiyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Jabalain FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Najma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solihull Moors FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Halifax Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Austria Klagenfurt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salzburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSV Hartberg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LASK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baerum SK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stabaek IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eidsvold TF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mjondalen IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elverum </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamarkameratene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Mandalskameratene </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bryne FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fram IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arendal FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Froya Fotball </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sogndal IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF Floeya </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tromsoe IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Radnicki 1923 Kragujevac </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Vojvodina Novi Sad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Crvena Zvezda Belgrade </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Partizan Belgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seinajoen JK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HJK Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludogorets </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Hebar Pazardzhik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKS Znicz Pruszkow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MKS Arka Gdynia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisla Plock </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miedz Legnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC KTP Kotka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SJK Akatemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF Jaro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KaPa Kapylan Pallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SalPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikkelin Palloilijat </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JIPPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK-35 Helsinki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turun Palloseura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Alania Vladikavkaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PFC Kuban Krasnodar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Volgar Astrakhan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Torpedo Moscow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Akron Tolyatti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leningradets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Neftekhimik Nizhnekamsk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Shinnik Yaroslavl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Sokol Saratov </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Yenisey Krasnoyarsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Khimki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Kamaz Naberezhnye Chelny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Dynamo-Makhachkala </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PFK Arsenal Tula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karmiotissa FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Othellos Athienou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEL Limassol </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nea Salamina Famagusta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFK Dolny Kubin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Humenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFK Tatran Liptovsky Mikulas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Slavoj Trebisov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSK Povazska Bystrica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KFC Komarno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSK Puchov </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FC Tatran Presov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spartak Myjava </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Pohronie Ziar Nad Hronom Dolna Zdana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Viktoria Plzen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Fastav Zlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapoel Be`er Sheva FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maccabi Netanya FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Mioveni </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Unirea 2004 Slobozia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Arabi Doha SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Markhiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Rayyan SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Ahli Doha SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Wakrah </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Gharafa SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Shamal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Sadd SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muaither SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qatar SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umm-Salal SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Duhail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. FC Saarbrucken </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rot-Weiss Essen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Borac Banja Luka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NK Posusje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbus Crew </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CF Monterrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botafogo FR RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Universitario de Deportes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Nacional de Football </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deportivo Tachira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huachipato </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Strongest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Bolivar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CR Flamengo RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSD Independiente del Valle </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SE Palmeiras SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libertad Asuncion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA River Plate (ARG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Cartagena FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Atletico Huila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itagui Leones FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CS Deportivo Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independiente Santa Fe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coquimbo Unido </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing Club Avellaneda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danubio FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Paranaense PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Bull Bragantino SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sportivo Luqueno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Real Tomayapo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Belgrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlanta United 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chattanooga FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Carlos Stein </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pirata FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Celaya FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Tapatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Leones Del Norte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Antonio FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olancho FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Vida La Ceiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA Aparecidense GO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sampaio Correa FC MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportivo Achuapa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deportivo Mixco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Ocotal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HYH Sebaco FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alianza FC San Salvador </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veranopolis RS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CE Bento Goncalves RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passo Fundo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gremio Esportivo Gloria RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA Talleres de Cordoba Reserve </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Tigre Reserve</t>
   </si>
 </sst>
 </file>
@@ -753,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:XFD154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,6 +3430,4270 @@
       </c>
       <c r="M50">
         <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51">
+        <v>2.25</v>
+      </c>
+      <c r="D51">
+        <v>3.1</v>
+      </c>
+      <c r="E51">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52">
+        <v>3.9</v>
+      </c>
+      <c r="D52">
+        <v>1.9</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53">
+        <v>2.95</v>
+      </c>
+      <c r="D53">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E53">
+        <v>0.5</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54">
+        <v>2.95</v>
+      </c>
+      <c r="D54">
+        <v>2.5</v>
+      </c>
+      <c r="E54">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D55">
+        <v>1.72</v>
+      </c>
+      <c r="E55">
+        <v>2.38</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D56">
+        <v>1.71</v>
+      </c>
+      <c r="E56">
+        <v>3.39</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57">
+        <v>10.5</v>
+      </c>
+      <c r="D57">
+        <v>1.25</v>
+      </c>
+      <c r="E57">
+        <v>9.25</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58">
+        <v>2.5</v>
+      </c>
+      <c r="D58">
+        <v>2.6</v>
+      </c>
+      <c r="E58">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59">
+        <v>5.75</v>
+      </c>
+      <c r="D59">
+        <v>1.55</v>
+      </c>
+      <c r="E59">
+        <v>4.2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60">
+        <v>2.85</v>
+      </c>
+      <c r="D60">
+        <v>2.25</v>
+      </c>
+      <c r="E60">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61">
+        <v>2.5</v>
+      </c>
+      <c r="D61">
+        <v>2.8</v>
+      </c>
+      <c r="E61">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62">
+        <v>7.3</v>
+      </c>
+      <c r="D62">
+        <v>1.43</v>
+      </c>
+      <c r="E62">
+        <v>5.87</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63">
+        <v>1.31</v>
+      </c>
+      <c r="D63">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E63">
+        <v>7.99</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64">
+        <v>1.48</v>
+      </c>
+      <c r="D64">
+        <v>6.8</v>
+      </c>
+      <c r="E64">
+        <v>5.32</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D65">
+        <v>2.9</v>
+      </c>
+      <c r="E65">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66">
+        <v>2.4</v>
+      </c>
+      <c r="D66">
+        <v>2.7</v>
+      </c>
+      <c r="E66">
+        <v>0.30000000000000032</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67">
+        <v>2.65</v>
+      </c>
+      <c r="D67">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E67">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68">
+        <v>3.7</v>
+      </c>
+      <c r="D68">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E68">
+        <v>1.65</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69">
+        <v>1.75</v>
+      </c>
+      <c r="D69">
+        <v>4.8</v>
+      </c>
+      <c r="E69">
+        <v>3.05</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70">
+        <v>1.4</v>
+      </c>
+      <c r="D70">
+        <v>8.1</v>
+      </c>
+      <c r="E70">
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71">
+        <v>2.6</v>
+      </c>
+      <c r="D71">
+        <v>3.2</v>
+      </c>
+      <c r="E71">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>13</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72">
+        <v>1.37</v>
+      </c>
+      <c r="D72">
+        <v>7.9</v>
+      </c>
+      <c r="E72">
+        <v>6.53</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>1.19</v>
+      </c>
+      <c r="E73">
+        <v>11.81</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74">
+        <v>7.8</v>
+      </c>
+      <c r="D74">
+        <v>1.41</v>
+      </c>
+      <c r="E74">
+        <v>6.39</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75">
+        <v>1.85</v>
+      </c>
+      <c r="D75">
+        <v>4.2</v>
+      </c>
+      <c r="E75">
+        <v>2.35</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>13</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76">
+        <v>1.66</v>
+      </c>
+      <c r="D76">
+        <v>4.8</v>
+      </c>
+      <c r="E76">
+        <v>3.14</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>13</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77">
+        <v>2.5</v>
+      </c>
+      <c r="D77">
+        <v>2.5</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>3.2</v>
+      </c>
+      <c r="E78">
+        <v>1.2</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79">
+        <v>1.68</v>
+      </c>
+      <c r="D79">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E79">
+        <v>3.42</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>13</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80">
+        <v>2.9</v>
+      </c>
+      <c r="D80">
+        <v>2.4</v>
+      </c>
+      <c r="E80">
+        <v>0.5</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>13</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81">
+        <v>4.5</v>
+      </c>
+      <c r="D81">
+        <v>1.66</v>
+      </c>
+      <c r="E81">
+        <v>2.84</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82">
+        <v>2.1</v>
+      </c>
+      <c r="D82">
+        <v>3.25</v>
+      </c>
+      <c r="E82">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83">
+        <v>2.35</v>
+      </c>
+      <c r="D83">
+        <v>2.95</v>
+      </c>
+      <c r="E83">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>13</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84">
+        <v>7.7</v>
+      </c>
+      <c r="D84">
+        <v>1.39</v>
+      </c>
+      <c r="E84">
+        <v>6.31</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>13</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85">
+        <v>3.1</v>
+      </c>
+      <c r="D85">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E85">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>1.17</v>
+      </c>
+      <c r="E86">
+        <v>9.83</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87">
+        <v>3.7</v>
+      </c>
+      <c r="D87">
+        <v>1.75</v>
+      </c>
+      <c r="E87">
+        <v>1.95</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>13</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E88">
+        <v>9.84</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D89">
+        <v>1.24</v>
+      </c>
+      <c r="E89">
+        <v>7.56</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90">
+        <v>4.8</v>
+      </c>
+      <c r="D90">
+        <v>1.5</v>
+      </c>
+      <c r="E90">
+        <v>3.3</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91">
+        <v>15.5</v>
+      </c>
+      <c r="D91">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E91">
+        <v>14.38</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>1.04</v>
+      </c>
+      <c r="E92">
+        <v>13.96</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93">
+        <v>2.65</v>
+      </c>
+      <c r="D93">
+        <v>2.35</v>
+      </c>
+      <c r="E93">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94">
+        <v>1.29</v>
+      </c>
+      <c r="D94">
+        <v>7.9</v>
+      </c>
+      <c r="E94">
+        <v>6.61</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>13</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95">
+        <v>3.75</v>
+      </c>
+      <c r="D95">
+        <v>1.96</v>
+      </c>
+      <c r="E95">
+        <v>1.79</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>11</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>16.89</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>13</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97">
+        <v>4.2</v>
+      </c>
+      <c r="D97">
+        <v>1.82</v>
+      </c>
+      <c r="E97">
+        <v>2.38</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>13</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98">
+        <v>2.25</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>0.75</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99">
+        <v>1.61</v>
+      </c>
+      <c r="D99">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E99">
+        <v>3.29</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>13</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100">
+        <v>1.36</v>
+      </c>
+      <c r="D100">
+        <v>7.3</v>
+      </c>
+      <c r="E100">
+        <v>5.94</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>13</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101">
+        <v>2.25</v>
+      </c>
+      <c r="D101">
+        <v>2.9</v>
+      </c>
+      <c r="E101">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102">
+        <v>2.9</v>
+      </c>
+      <c r="D102">
+        <v>2.35</v>
+      </c>
+      <c r="E102">
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D103">
+        <v>2.6</v>
+      </c>
+      <c r="E103">
+        <v>5.0000000000000273E-2</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>11</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104">
+        <v>1.86</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>2.14</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105">
+        <v>2.6</v>
+      </c>
+      <c r="D105">
+        <v>2.7</v>
+      </c>
+      <c r="E105">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106">
+        <v>1.57</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>4.43</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107">
+        <v>1.92</v>
+      </c>
+      <c r="D107">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E107">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108">
+        <v>2.4</v>
+      </c>
+      <c r="D108">
+        <v>2.85</v>
+      </c>
+      <c r="E108">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109">
+        <v>1.5</v>
+      </c>
+      <c r="D109">
+        <v>6.75</v>
+      </c>
+      <c r="E109">
+        <v>5.25</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>13</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110">
+        <v>2.65</v>
+      </c>
+      <c r="D110">
+        <v>2.8</v>
+      </c>
+      <c r="E110">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111">
+        <v>1.79</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>2.21</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>11</v>
+      </c>
+      <c r="L111">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112">
+        <v>2.15</v>
+      </c>
+      <c r="D112">
+        <v>3.1</v>
+      </c>
+      <c r="E112">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>13</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113">
+        <v>4.8</v>
+      </c>
+      <c r="D113">
+        <v>1.61</v>
+      </c>
+      <c r="E113">
+        <v>3.19</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114">
+        <v>1.44</v>
+      </c>
+      <c r="D114">
+        <v>5.6</v>
+      </c>
+      <c r="E114">
+        <v>4.16</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115">
+        <v>3.7</v>
+      </c>
+      <c r="D115">
+        <v>1.83</v>
+      </c>
+      <c r="E115">
+        <v>1.87</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>11</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116">
+        <v>3.75</v>
+      </c>
+      <c r="D116">
+        <v>1.85</v>
+      </c>
+      <c r="E116">
+        <v>1.9</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>13</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117">
+        <v>1.91</v>
+      </c>
+      <c r="D117">
+        <v>3.5</v>
+      </c>
+      <c r="E117">
+        <v>1.59</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
+        <v>13</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118">
+        <v>1.27</v>
+      </c>
+      <c r="D118">
+        <v>9.1</v>
+      </c>
+      <c r="E118">
+        <v>7.83</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>13</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D119">
+        <v>3.1</v>
+      </c>
+      <c r="E119">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>13</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120">
+        <v>3.1</v>
+      </c>
+      <c r="D120">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E120">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121">
+        <v>1.63</v>
+      </c>
+      <c r="D121">
+        <v>4.3</v>
+      </c>
+      <c r="E121">
+        <v>2.67</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>12</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122">
+        <v>1.38</v>
+      </c>
+      <c r="D122">
+        <v>6.3</v>
+      </c>
+      <c r="E122">
+        <v>4.92</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>13</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" t="s">
+        <v>259</v>
+      </c>
+      <c r="C123">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D123">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E123">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>12</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124">
+        <v>12.5</v>
+      </c>
+      <c r="D124">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E124">
+        <v>11.35</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>12</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D125">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E125">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125" t="s">
+        <v>12</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>264</v>
+      </c>
+      <c r="B126" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126">
+        <v>5.7</v>
+      </c>
+      <c r="D126">
+        <v>1.46</v>
+      </c>
+      <c r="E126">
+        <v>4.24</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126" t="s">
+        <v>13</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127">
+        <v>1.68</v>
+      </c>
+      <c r="D127">
+        <v>4.5</v>
+      </c>
+      <c r="E127">
+        <v>2.82</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127" t="s">
+        <v>11</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128">
+        <v>1.26</v>
+      </c>
+      <c r="D128">
+        <v>11.5</v>
+      </c>
+      <c r="E128">
+        <v>10.24</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128" t="s">
+        <v>13</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129">
+        <v>2.4</v>
+      </c>
+      <c r="D129">
+        <v>2.95</v>
+      </c>
+      <c r="E129">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129" t="s">
+        <v>13</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>272</v>
+      </c>
+      <c r="B130" t="s">
+        <v>273</v>
+      </c>
+      <c r="C130">
+        <v>1.43</v>
+      </c>
+      <c r="D130">
+        <v>7.5</v>
+      </c>
+      <c r="E130">
+        <v>6.07</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>13</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" t="s">
+        <v>275</v>
+      </c>
+      <c r="C131">
+        <v>1.29</v>
+      </c>
+      <c r="D131">
+        <v>10.5</v>
+      </c>
+      <c r="E131">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>276</v>
+      </c>
+      <c r="B132" t="s">
+        <v>277</v>
+      </c>
+      <c r="C132">
+        <v>1.58</v>
+      </c>
+      <c r="D132">
+        <v>5.5</v>
+      </c>
+      <c r="E132">
+        <v>3.92</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132" t="s">
+        <v>11</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" t="s">
+        <v>279</v>
+      </c>
+      <c r="C133">
+        <v>1.91</v>
+      </c>
+      <c r="D133">
+        <v>3.9</v>
+      </c>
+      <c r="E133">
+        <v>1.99</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133" t="s">
+        <v>13</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134">
+        <v>2.4</v>
+      </c>
+      <c r="D134">
+        <v>3.1</v>
+      </c>
+      <c r="E134">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134" t="s">
+        <v>12</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>282</v>
+      </c>
+      <c r="B135" t="s">
+        <v>283</v>
+      </c>
+      <c r="C135">
+        <v>3.25</v>
+      </c>
+      <c r="D135">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E135">
+        <v>1.05</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135" t="s">
+        <v>12</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>284</v>
+      </c>
+      <c r="B136" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136">
+        <v>1.87</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>2.13</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" t="s">
+        <v>13</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>286</v>
+      </c>
+      <c r="B137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137">
+        <v>3.5</v>
+      </c>
+      <c r="D137">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E137">
+        <v>1.45</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137" t="s">
+        <v>11</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>288</v>
+      </c>
+      <c r="B138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138">
+        <v>1.27</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <v>8.73</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" t="s">
+        <v>13</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>289</v>
+      </c>
+      <c r="B139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C139">
+        <v>3.8</v>
+      </c>
+      <c r="D139">
+        <v>1.95</v>
+      </c>
+      <c r="E139">
+        <v>1.85</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139" t="s">
+        <v>12</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>291</v>
+      </c>
+      <c r="B140" t="s">
+        <v>292</v>
+      </c>
+      <c r="C140">
+        <v>3.8</v>
+      </c>
+      <c r="D140">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E140">
+        <v>1.75</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>12</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" t="s">
+        <v>294</v>
+      </c>
+      <c r="C141">
+        <v>1.37</v>
+      </c>
+      <c r="D141">
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <v>6.63</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141" t="s">
+        <v>13</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>295</v>
+      </c>
+      <c r="B142" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D142">
+        <v>1.74</v>
+      </c>
+      <c r="E142">
+        <v>3.16</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142" t="s">
+        <v>12</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>297</v>
+      </c>
+      <c r="B143" t="s">
+        <v>298</v>
+      </c>
+      <c r="C143">
+        <v>3.1</v>
+      </c>
+      <c r="D143">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E143">
+        <v>1.05</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>13</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>299</v>
+      </c>
+      <c r="B144" t="s">
+        <v>300</v>
+      </c>
+      <c r="C144">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D144">
+        <v>2.5</v>
+      </c>
+      <c r="E144">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144" t="s">
+        <v>12</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>301</v>
+      </c>
+      <c r="B145" t="s">
+        <v>302</v>
+      </c>
+      <c r="C145">
+        <v>1.92</v>
+      </c>
+      <c r="D145">
+        <v>3.33</v>
+      </c>
+      <c r="E145">
+        <v>1.41</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145" t="s">
+        <v>13</v>
+      </c>
+      <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" t="s">
+        <v>304</v>
+      </c>
+      <c r="C146">
+        <v>1.77</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>2.23</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146" t="s">
+        <v>12</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>305</v>
+      </c>
+      <c r="B147" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147">
+        <v>1.21</v>
+      </c>
+      <c r="D147">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>10.79</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147" t="s">
+        <v>11</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>307</v>
+      </c>
+      <c r="B148" t="s">
+        <v>308</v>
+      </c>
+      <c r="C148">
+        <v>2.35</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148" t="s">
+        <v>13</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>309</v>
+      </c>
+      <c r="B149" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149">
+        <v>1.83</v>
+      </c>
+      <c r="D149">
+        <v>3.9</v>
+      </c>
+      <c r="E149">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149" t="s">
+        <v>12</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>311</v>
+      </c>
+      <c r="B150" t="s">
+        <v>312</v>
+      </c>
+      <c r="C150">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D150">
+        <v>3.2</v>
+      </c>
+      <c r="E150">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150" t="s">
+        <v>13</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>313</v>
+      </c>
+      <c r="B151" t="s">
+        <v>314</v>
+      </c>
+      <c r="C151">
+        <v>1.61</v>
+      </c>
+      <c r="D151">
+        <v>5.3</v>
+      </c>
+      <c r="E151">
+        <v>3.69</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>13</v>
+      </c>
+      <c r="L151">
+        <v>6</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>315</v>
+      </c>
+      <c r="B152" t="s">
+        <v>316</v>
+      </c>
+      <c r="C152">
+        <v>2.75</v>
+      </c>
+      <c r="D152">
+        <v>2.6</v>
+      </c>
+      <c r="E152">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152" t="s">
+        <v>13</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>317</v>
+      </c>
+      <c r="B153" t="s">
+        <v>318</v>
+      </c>
+      <c r="C153">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D153">
+        <v>3.5</v>
+      </c>
+      <c r="E153">
+        <v>1.45</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153" t="s">
+        <v>11</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>319</v>
+      </c>
+      <c r="B154" t="s">
+        <v>320</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>3.3</v>
+      </c>
+      <c r="E154">
+        <v>1.3</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154" t="s">
+        <v>13</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B3970-5FC6-41FB-A0E8-17E510F94CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5078CB-F7B3-4F80-B592-62F55D136D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="394">
   <si>
     <t>home</t>
   </si>
@@ -999,6 +999,225 @@
   </si>
   <si>
     <t xml:space="preserve"> CA Tigre Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adamstown Rosebud FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weston Workers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White City FK Beograd </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Campbelltown City SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barito Putera </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bhayangkara FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Ural Yekaterinburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Rostov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Heerenveen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PSV Eindhoven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halmstads BK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hammarby IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalmar FF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasteras SK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mjallby AIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Fakel Voronezh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PFK Krylia Sovetov Samara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Uta Arad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASC Otelul Galati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Hermannstadt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Petrolul Ploiesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Fayha FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Tai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oppsal IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valerenga IF Oslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Eik Toensberg 871 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fredrikstad FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruk-Bet Termalica Nieciecza </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Odra Opole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKP Motor Lublin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chrobry Glogow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordoba CF B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Ciudad de Lucena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Urartu Yerevan 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Noah Yerevan 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haukar Hafnarfjordur </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IF Vestri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afturelding </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dalvik Reynir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikingur Reykjavik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UMF Vidir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IH Hafnarfjordur </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hafnir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Bahrain </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qalali Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Omnisports de Korhogo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASEC Mimosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadafi FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Villa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arenel Movers FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manica Diamonds FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kultsu FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KJP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP/2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Union Plaani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Töölön Taisto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIFK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Roar FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adelaide United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne Knights </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oakleigh Cannons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manly United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NWS Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sydney United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Adelaide FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Croydon Kings FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bentleigh Greens </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melbourne City FC</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:XFD154"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185:XFD191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,6 +7912,1523 @@
         <v>2</v>
       </c>
       <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>321</v>
+      </c>
+      <c r="B155" t="s">
+        <v>322</v>
+      </c>
+      <c r="C155">
+        <v>5.4</v>
+      </c>
+      <c r="D155">
+        <v>1.41</v>
+      </c>
+      <c r="E155">
+        <v>3.99</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155" t="s">
+        <v>12</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>323</v>
+      </c>
+      <c r="B156" t="s">
+        <v>324</v>
+      </c>
+      <c r="C156">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D156">
+        <v>1.56</v>
+      </c>
+      <c r="E156">
+        <v>3.04</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156" t="s">
+        <v>11</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>325</v>
+      </c>
+      <c r="B157" t="s">
+        <v>326</v>
+      </c>
+      <c r="C157">
+        <v>1.89</v>
+      </c>
+      <c r="D157">
+        <v>3.8</v>
+      </c>
+      <c r="E157">
+        <v>1.91</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" t="s">
+        <v>12</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>327</v>
+      </c>
+      <c r="B158" t="s">
+        <v>328</v>
+      </c>
+      <c r="C158">
+        <v>2.6</v>
+      </c>
+      <c r="D158">
+        <v>2.8</v>
+      </c>
+      <c r="E158">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" t="s">
+        <v>12</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>329</v>
+      </c>
+      <c r="B159" t="s">
+        <v>330</v>
+      </c>
+      <c r="C159">
+        <v>5.25</v>
+      </c>
+      <c r="D159">
+        <v>1.63</v>
+      </c>
+      <c r="E159">
+        <v>3.62</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>11</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>331</v>
+      </c>
+      <c r="B160" t="s">
+        <v>332</v>
+      </c>
+      <c r="C160">
+        <v>7.6</v>
+      </c>
+      <c r="D160">
+        <v>1.35</v>
+      </c>
+      <c r="E160">
+        <v>6.25</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160" t="s">
+        <v>12</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>333</v>
+      </c>
+      <c r="B161" t="s">
+        <v>334</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>1.91</v>
+      </c>
+      <c r="E161">
+        <v>2.09</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" t="s">
+        <v>13</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>335</v>
+      </c>
+      <c r="B162" t="s">
+        <v>336</v>
+      </c>
+      <c r="C162">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D162">
+        <v>3.25</v>
+      </c>
+      <c r="E162">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" t="s">
+        <v>12</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>337</v>
+      </c>
+      <c r="B163" t="s">
+        <v>338</v>
+      </c>
+      <c r="C163">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D163">
+        <v>3.33</v>
+      </c>
+      <c r="E163">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163" t="s">
+        <v>13</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164" t="s">
+        <v>340</v>
+      </c>
+      <c r="C164">
+        <v>2.5</v>
+      </c>
+      <c r="D164">
+        <v>2.95</v>
+      </c>
+      <c r="E164">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164" t="s">
+        <v>12</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>341</v>
+      </c>
+      <c r="B165" t="s">
+        <v>342</v>
+      </c>
+      <c r="C165">
+        <v>2.35</v>
+      </c>
+      <c r="D165">
+        <v>3.1</v>
+      </c>
+      <c r="E165">
+        <v>0.75</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165" t="s">
+        <v>13</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>343</v>
+      </c>
+      <c r="B166" t="s">
+        <v>344</v>
+      </c>
+      <c r="C166">
+        <v>2.15</v>
+      </c>
+      <c r="D166">
+        <v>3.5</v>
+      </c>
+      <c r="E166">
+        <v>1.35</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>13</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>345</v>
+      </c>
+      <c r="B167" t="s">
+        <v>346</v>
+      </c>
+      <c r="C167">
+        <v>2.25</v>
+      </c>
+      <c r="D167">
+        <v>3.1</v>
+      </c>
+      <c r="E167">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>13</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>347</v>
+      </c>
+      <c r="B168" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168">
+        <v>19</v>
+      </c>
+      <c r="D168">
+        <v>1.08</v>
+      </c>
+      <c r="E168">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168" t="s">
+        <v>12</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>349</v>
+      </c>
+      <c r="B169" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>1.28</v>
+      </c>
+      <c r="E169">
+        <v>6.72</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169" t="s">
+        <v>12</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>351</v>
+      </c>
+      <c r="B170" t="s">
+        <v>352</v>
+      </c>
+      <c r="C170">
+        <v>1.93</v>
+      </c>
+      <c r="D170">
+        <v>3.7</v>
+      </c>
+      <c r="E170">
+        <v>1.77</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>12</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>353</v>
+      </c>
+      <c r="B171" t="s">
+        <v>354</v>
+      </c>
+      <c r="C171">
+        <v>1.75</v>
+      </c>
+      <c r="D171">
+        <v>4.3</v>
+      </c>
+      <c r="E171">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" t="s">
+        <v>11</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>355</v>
+      </c>
+      <c r="B172" t="s">
+        <v>356</v>
+      </c>
+      <c r="C172">
+        <v>2.8</v>
+      </c>
+      <c r="D172">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E172">
+        <v>0.25</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172" t="s">
+        <v>12</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>357</v>
+      </c>
+      <c r="B173" t="s">
+        <v>358</v>
+      </c>
+      <c r="C173">
+        <v>1.85</v>
+      </c>
+      <c r="D173">
+        <v>3.7</v>
+      </c>
+      <c r="E173">
+        <v>1.85</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173" t="s">
+        <v>13</v>
+      </c>
+      <c r="L173">
+        <v>4</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>359</v>
+      </c>
+      <c r="B174" t="s">
+        <v>360</v>
+      </c>
+      <c r="C174">
+        <v>6.7</v>
+      </c>
+      <c r="D174">
+        <v>1.33</v>
+      </c>
+      <c r="E174">
+        <v>5.37</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>12</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>361</v>
+      </c>
+      <c r="B175" t="s">
+        <v>362</v>
+      </c>
+      <c r="C175">
+        <v>1.02</v>
+      </c>
+      <c r="D175">
+        <v>24</v>
+      </c>
+      <c r="E175">
+        <v>22.98</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" t="s">
+        <v>13</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>363</v>
+      </c>
+      <c r="B176" t="s">
+        <v>364</v>
+      </c>
+      <c r="C176">
+        <v>1.01</v>
+      </c>
+      <c r="D176">
+        <v>17</v>
+      </c>
+      <c r="E176">
+        <v>15.99</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" t="s">
+        <v>13</v>
+      </c>
+      <c r="L176">
+        <v>4</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>365</v>
+      </c>
+      <c r="B177" t="s">
+        <v>366</v>
+      </c>
+      <c r="C177">
+        <v>1.2</v>
+      </c>
+      <c r="D177">
+        <v>10.5</v>
+      </c>
+      <c r="E177">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>13</v>
+      </c>
+      <c r="L177">
+        <v>4</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>367</v>
+      </c>
+      <c r="B178" t="s">
+        <v>368</v>
+      </c>
+      <c r="C178">
+        <v>1.17</v>
+      </c>
+      <c r="D178">
+        <v>12.5</v>
+      </c>
+      <c r="E178">
+        <v>11.33</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178" t="s">
+        <v>13</v>
+      </c>
+      <c r="L178">
+        <v>4</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>369</v>
+      </c>
+      <c r="B179" t="s">
+        <v>370</v>
+      </c>
+      <c r="C179">
+        <v>6.5</v>
+      </c>
+      <c r="D179">
+        <v>1.53</v>
+      </c>
+      <c r="E179">
+        <v>4.97</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" t="s">
+        <v>11</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>371</v>
+      </c>
+      <c r="B180" t="s">
+        <v>372</v>
+      </c>
+      <c r="C180">
+        <v>5.3</v>
+      </c>
+      <c r="D180">
+        <v>1.6</v>
+      </c>
+      <c r="E180">
+        <v>3.7</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180" t="s">
+        <v>12</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>373</v>
+      </c>
+      <c r="B181" t="s">
+        <v>374</v>
+      </c>
+      <c r="C181">
+        <v>2.5</v>
+      </c>
+      <c r="D181">
+        <v>3.2</v>
+      </c>
+      <c r="E181">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>12</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>375</v>
+      </c>
+      <c r="B182" t="s">
+        <v>376</v>
+      </c>
+      <c r="C182">
+        <v>3.6</v>
+      </c>
+      <c r="D182">
+        <v>1.71</v>
+      </c>
+      <c r="E182">
+        <v>1.89</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>13</v>
+      </c>
+      <c r="L182">
+        <v>6</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>377</v>
+      </c>
+      <c r="B183" t="s">
+        <v>378</v>
+      </c>
+      <c r="C183">
+        <v>1.48</v>
+      </c>
+      <c r="D183">
+        <v>4.5</v>
+      </c>
+      <c r="E183">
+        <v>3.02</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183" t="s">
+        <v>12</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>379</v>
+      </c>
+      <c r="B184" t="s">
+        <v>380</v>
+      </c>
+      <c r="C184">
+        <v>1.43</v>
+      </c>
+      <c r="D184">
+        <v>5.5</v>
+      </c>
+      <c r="E184">
+        <v>4.07</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184" t="s">
+        <v>11</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>381</v>
+      </c>
+      <c r="B185" t="s">
+        <v>382</v>
+      </c>
+      <c r="C185">
+        <v>2.1</v>
+      </c>
+      <c r="D185">
+        <v>2.95</v>
+      </c>
+      <c r="E185">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185" t="s">
+        <v>12</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>383</v>
+      </c>
+      <c r="B186" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D186">
+        <v>1.61</v>
+      </c>
+      <c r="E186">
+        <v>2.4899999999999989</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186" t="s">
+        <v>12</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>385</v>
+      </c>
+      <c r="B187" t="s">
+        <v>386</v>
+      </c>
+      <c r="C187">
+        <v>2.25</v>
+      </c>
+      <c r="D187">
+        <v>2.75</v>
+      </c>
+      <c r="E187">
+        <v>0.5</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187" t="s">
+        <v>13</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>387</v>
+      </c>
+      <c r="B188" t="s">
+        <v>388</v>
+      </c>
+      <c r="C188">
+        <v>3.1</v>
+      </c>
+      <c r="D188">
+        <v>1.96</v>
+      </c>
+      <c r="E188">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188" t="s">
+        <v>12</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>389</v>
+      </c>
+      <c r="B189" t="s">
+        <v>382</v>
+      </c>
+      <c r="C189">
+        <v>1.9</v>
+      </c>
+      <c r="D189">
+        <v>3.25</v>
+      </c>
+      <c r="E189">
+        <v>1.35</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189" t="s">
+        <v>12</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>390</v>
+      </c>
+      <c r="B190" t="s">
+        <v>391</v>
+      </c>
+      <c r="C190">
+        <v>4.5</v>
+      </c>
+      <c r="D190">
+        <v>1.6</v>
+      </c>
+      <c r="E190">
+        <v>2.9</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>11</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>392</v>
+      </c>
+      <c r="B191" t="s">
+        <v>393</v>
+      </c>
+      <c r="C191">
+        <v>1.85</v>
+      </c>
+      <c r="D191">
+        <v>3.3</v>
+      </c>
+      <c r="E191">
+        <v>1.45</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" t="s">
+        <v>13</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
         <v>0</v>
       </c>
     </row>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5078CB-F7B3-4F80-B592-62F55D136D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D0C98-2460-41B6-AE3E-62A1B1D51C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="561">
   <si>
     <t>home</t>
   </si>
@@ -1218,6 +1218,507 @@
   </si>
   <si>
     <t xml:space="preserve"> Melbourne City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VfL Bochum </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoffenheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frosinone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US Salernitana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montpellier </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leeds United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gil Vicente Barcelos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Arouca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC St. Pauli </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hansa Rostock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hertha </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hannover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamelodi Sundowns </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esperance Sportive de Tunis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Ahly SC (Egy) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TP Mazembe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Andorra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Pisa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US Catanzaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezia FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US Cremonese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adana Demirspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Galatasaray Istanbul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Graafschap </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MVV Maastricht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP Oss </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jong AZ Alkmaar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAS Eupen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Royal Charleroi SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyngby BK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vejle BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airdrieonians FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dundee United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK Istra 1961 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NK Slaven Belupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamois Niort FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Martigues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dijon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Villefranche-Beaujolais </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US Avranches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy-Lorraine </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le Mans FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stade Olympique Choletais </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Rouen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Aarau </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Bellinzona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saumur Olympique </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les Herbiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Pirin Blagoevgrad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POFC Botev Vratsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jubilo Iwata </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Machida Zelvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niigata Albirex </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vissel Kobe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daejeon Citizen FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Seoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mito Hollyhock </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fujieda MYFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V-Varen Nagasaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegalta Sendai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JEF United Ichihara Chiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avondale FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Green Gully Cavaliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manningham United Blues </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dandenong City SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreland City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Altona Magic SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tegevajaro Miyazaki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Sagamihara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YSCC Yokohama </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nara Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seoul E-Land FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chungnam Asan FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busan Transportation Corporation FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daejeon Korail FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daegu FC II </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paju Citizen FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pocheon Citizen FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gimhae FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Lions SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caroline Springs George Cross FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton Wanderers AFC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bay Olympic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerezo Osaka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yokohama Marinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle United Jets FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Central Coast Mariners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellington Phoenix FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macarthur FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimcheon Sangmu FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gangwon FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwangju FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suwon FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehime FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ventforet Kofu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Melbourne Sharks </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Melbourne FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busan I Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ansan Greeners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aston Villa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atletico Madrid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Athletic Bilbao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le Havre AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hull City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ipswich Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitoria Guimarares </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boavista Porto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schalke </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fortuna D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR Vasco da Gama RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Criciuma EC SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Angeles Galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV Zulte Waregem </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lommel SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gent </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KVC Westerlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR Brasil AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazonas FC AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de Bolivar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Ferro Carril Oeste General Pico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crucero del Norte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boca Unidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independiente de Chivilcoy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sp. Belgrano de S. F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Sion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Lugano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charleston Battery </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Las Vegas Lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Khaleej Saihat FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Nassr FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport Boys Association </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Union Comercio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTC de Cajamarca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atletico Grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA Villa San Carlos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deportivo Armenio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Dock Sud </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Atletico Fenix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Italiano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Santa Cruz </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Antofagasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerro Largo FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Boston River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hassania Union Sport Agadir </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AS Far Rabat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC FC RN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nautico PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampaio Correa FC MA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Figueirense FC SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida RS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cascavel PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA Internacional Limeira SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pouso Alegre MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Atletico Cearense CE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACD Potiguar RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manauara EC AM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rio Branco FC AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC Alger </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paradou AC</t>
   </si>
 </sst>
 </file>
@@ -1593,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:M277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185:XFD191"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P272" sqref="P272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9429,6 +9930,3532 @@
         <v>1</v>
       </c>
       <c r="M191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>394</v>
+      </c>
+      <c r="B192" t="s">
+        <v>395</v>
+      </c>
+      <c r="C192">
+        <v>2.25</v>
+      </c>
+      <c r="D192">
+        <v>3.02</v>
+      </c>
+      <c r="E192">
+        <v>0.77</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192" t="s">
+        <v>13</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>396</v>
+      </c>
+      <c r="B193" t="s">
+        <v>397</v>
+      </c>
+      <c r="C193">
+        <v>1.49</v>
+      </c>
+      <c r="D193">
+        <v>6.74</v>
+      </c>
+      <c r="E193">
+        <v>5.25</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193" t="s">
+        <v>13</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>398</v>
+      </c>
+      <c r="B194" t="s">
+        <v>399</v>
+      </c>
+      <c r="C194">
+        <v>2.02</v>
+      </c>
+      <c r="D194">
+        <v>3.86</v>
+      </c>
+      <c r="E194">
+        <v>1.84</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194" t="s">
+        <v>11</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+      <c r="B195" t="s">
+        <v>400</v>
+      </c>
+      <c r="C195">
+        <v>5.4</v>
+      </c>
+      <c r="D195">
+        <v>1.58</v>
+      </c>
+      <c r="E195">
+        <v>3.82</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195" t="s">
+        <v>13</v>
+      </c>
+      <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>401</v>
+      </c>
+      <c r="B196" t="s">
+        <v>402</v>
+      </c>
+      <c r="C196">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D196">
+        <v>2.7</v>
+      </c>
+      <c r="E196">
+        <v>0.15000000000000041</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196" t="s">
+        <v>11</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" t="s">
+        <v>404</v>
+      </c>
+      <c r="C197">
+        <v>1.35</v>
+      </c>
+      <c r="D197">
+        <v>8.25</v>
+      </c>
+      <c r="E197">
+        <v>6.9</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197" t="s">
+        <v>13</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>405</v>
+      </c>
+      <c r="B198" t="s">
+        <v>406</v>
+      </c>
+      <c r="C198">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D198">
+        <v>2.9</v>
+      </c>
+      <c r="E198">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198" t="s">
+        <v>11</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>407</v>
+      </c>
+      <c r="B199" t="s">
+        <v>408</v>
+      </c>
+      <c r="C199">
+        <v>1.72</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+      <c r="E199">
+        <v>3.28</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199" t="s">
+        <v>12</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>409</v>
+      </c>
+      <c r="B200" t="s">
+        <v>410</v>
+      </c>
+      <c r="C200">
+        <v>1.39</v>
+      </c>
+      <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <v>7.61</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200" t="s">
+        <v>13</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>411</v>
+      </c>
+      <c r="B201" t="s">
+        <v>412</v>
+      </c>
+      <c r="C201">
+        <v>2.15</v>
+      </c>
+      <c r="D201">
+        <v>3.4</v>
+      </c>
+      <c r="E201">
+        <v>1.25</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>11</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>413</v>
+      </c>
+      <c r="B202" t="s">
+        <v>414</v>
+      </c>
+      <c r="C202">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D202">
+        <v>3.33</v>
+      </c>
+      <c r="E202">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202" t="s">
+        <v>11</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>415</v>
+      </c>
+      <c r="B203" t="s">
+        <v>416</v>
+      </c>
+      <c r="C203">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D203">
+        <v>3.1</v>
+      </c>
+      <c r="E203">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>13</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>417</v>
+      </c>
+      <c r="B204" t="s">
+        <v>418</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>1.46</v>
+      </c>
+      <c r="E204">
+        <v>4.54</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204" t="s">
+        <v>12</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>419</v>
+      </c>
+      <c r="B205" t="s">
+        <v>420</v>
+      </c>
+      <c r="C205">
+        <v>1.8</v>
+      </c>
+      <c r="D205">
+        <v>3.7</v>
+      </c>
+      <c r="E205">
+        <v>1.9</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205" t="s">
+        <v>13</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>421</v>
+      </c>
+      <c r="B206" t="s">
+        <v>422</v>
+      </c>
+      <c r="C206">
+        <v>2.75</v>
+      </c>
+      <c r="D206">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E206">
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206" t="s">
+        <v>11</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>423</v>
+      </c>
+      <c r="B207" t="s">
+        <v>424</v>
+      </c>
+      <c r="C207">
+        <v>3.4</v>
+      </c>
+      <c r="D207">
+        <v>2.25</v>
+      </c>
+      <c r="E207">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207" t="s">
+        <v>12</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>425</v>
+      </c>
+      <c r="B208" t="s">
+        <v>426</v>
+      </c>
+      <c r="C208">
+        <v>2.35</v>
+      </c>
+      <c r="D208">
+        <v>2.95</v>
+      </c>
+      <c r="E208">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208" t="s">
+        <v>11</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>427</v>
+      </c>
+      <c r="B209" t="s">
+        <v>428</v>
+      </c>
+      <c r="C209">
+        <v>5.6</v>
+      </c>
+      <c r="D209">
+        <v>1.56</v>
+      </c>
+      <c r="E209">
+        <v>4.0399999999999991</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209" t="s">
+        <v>11</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>429</v>
+      </c>
+      <c r="B210" t="s">
+        <v>430</v>
+      </c>
+      <c r="C210">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D210">
+        <v>3.9</v>
+      </c>
+      <c r="E210">
+        <v>1.85</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" t="s">
+        <v>13</v>
+      </c>
+      <c r="L210">
+        <v>3</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>431</v>
+      </c>
+      <c r="B211" t="s">
+        <v>432</v>
+      </c>
+      <c r="C211">
+        <v>2.35</v>
+      </c>
+      <c r="D211">
+        <v>3.1</v>
+      </c>
+      <c r="E211">
+        <v>0.75</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211" t="s">
+        <v>12</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>433</v>
+      </c>
+      <c r="B212" t="s">
+        <v>434</v>
+      </c>
+      <c r="C212">
+        <v>2.15</v>
+      </c>
+      <c r="D212">
+        <v>3.25</v>
+      </c>
+      <c r="E212">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212" t="s">
+        <v>13</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>435</v>
+      </c>
+      <c r="B213" t="s">
+        <v>436</v>
+      </c>
+      <c r="C213">
+        <v>1.64</v>
+      </c>
+      <c r="D213">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E213">
+        <v>3.46</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213" t="s">
+        <v>12</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>437</v>
+      </c>
+      <c r="B214" t="s">
+        <v>438</v>
+      </c>
+      <c r="C214">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D214">
+        <v>3.3</v>
+      </c>
+      <c r="E214">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>12</v>
+      </c>
+      <c r="L214">
+        <v>3</v>
+      </c>
+      <c r="M214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>439</v>
+      </c>
+      <c r="B215" t="s">
+        <v>440</v>
+      </c>
+      <c r="C215">
+        <v>2.8</v>
+      </c>
+      <c r="D215">
+        <v>2.5</v>
+      </c>
+      <c r="E215">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215" t="s">
+        <v>12</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>441</v>
+      </c>
+      <c r="B216" t="s">
+        <v>442</v>
+      </c>
+      <c r="C216">
+        <v>1.92</v>
+      </c>
+      <c r="D216">
+        <v>3.6</v>
+      </c>
+      <c r="E216">
+        <v>1.68</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216" t="s">
+        <v>12</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>443</v>
+      </c>
+      <c r="B217" t="s">
+        <v>444</v>
+      </c>
+      <c r="C217">
+        <v>2.15</v>
+      </c>
+      <c r="D217">
+        <v>3.1</v>
+      </c>
+      <c r="E217">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217" t="s">
+        <v>11</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>445</v>
+      </c>
+      <c r="B218" t="s">
+        <v>446</v>
+      </c>
+      <c r="C218">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D218">
+        <v>3.2</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218" t="s">
+        <v>12</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>447</v>
+      </c>
+      <c r="B219" t="s">
+        <v>448</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E219">
+        <v>0.4700000000000002</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219" t="s">
+        <v>13</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>449</v>
+      </c>
+      <c r="B220" t="s">
+        <v>450</v>
+      </c>
+      <c r="C220">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D220">
+        <v>3.35</v>
+      </c>
+      <c r="E220">
+        <v>1.05</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220" t="s">
+        <v>12</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>451</v>
+      </c>
+      <c r="B221" t="s">
+        <v>117</v>
+      </c>
+      <c r="C221">
+        <v>1.49</v>
+      </c>
+      <c r="D221">
+        <v>6.97</v>
+      </c>
+      <c r="E221">
+        <v>5.48</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221" t="s">
+        <v>12</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>452</v>
+      </c>
+      <c r="B222" t="s">
+        <v>453</v>
+      </c>
+      <c r="C222">
+        <v>2.75</v>
+      </c>
+      <c r="D222">
+        <v>2.25</v>
+      </c>
+      <c r="E222">
+        <v>0.5</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222" t="s">
+        <v>13</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>454</v>
+      </c>
+      <c r="B223" t="s">
+        <v>455</v>
+      </c>
+      <c r="C223">
+        <v>1.95</v>
+      </c>
+      <c r="D223">
+        <v>3.7</v>
+      </c>
+      <c r="E223">
+        <v>1.75</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223" t="s">
+        <v>12</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>130</v>
+      </c>
+      <c r="B224" t="s">
+        <v>456</v>
+      </c>
+      <c r="C224">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D224">
+        <v>1.66</v>
+      </c>
+      <c r="E224">
+        <v>3.44</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224" t="s">
+        <v>12</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>457</v>
+      </c>
+      <c r="B225" t="s">
+        <v>458</v>
+      </c>
+      <c r="C225">
+        <v>3.25</v>
+      </c>
+      <c r="D225">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E225">
+        <v>1.05</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225" t="s">
+        <v>12</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>459</v>
+      </c>
+      <c r="B226" t="s">
+        <v>460</v>
+      </c>
+      <c r="C226">
+        <v>1.29</v>
+      </c>
+      <c r="D226">
+        <v>7.5</v>
+      </c>
+      <c r="E226">
+        <v>6.21</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226" t="s">
+        <v>12</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>461</v>
+      </c>
+      <c r="B227" t="s">
+        <v>462</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>1.98</v>
+      </c>
+      <c r="E227">
+        <v>1.02</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227" t="s">
+        <v>12</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>463</v>
+      </c>
+      <c r="B228" t="s">
+        <v>464</v>
+      </c>
+      <c r="C228">
+        <v>2.8</v>
+      </c>
+      <c r="D228">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E228">
+        <v>0.75</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228" t="s">
+        <v>12</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>465</v>
+      </c>
+      <c r="B229" t="s">
+        <v>466</v>
+      </c>
+      <c r="C229">
+        <v>3.2</v>
+      </c>
+      <c r="D229">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E229">
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229" t="s">
+        <v>11</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>467</v>
+      </c>
+      <c r="B230" t="s">
+        <v>468</v>
+      </c>
+      <c r="C230">
+        <v>3.6</v>
+      </c>
+      <c r="D230">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E230">
+        <v>1.55</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230" t="s">
+        <v>11</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>469</v>
+      </c>
+      <c r="B231" t="s">
+        <v>470</v>
+      </c>
+      <c r="C231">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D231">
+        <v>2.85</v>
+      </c>
+      <c r="E231">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231" t="s">
+        <v>13</v>
+      </c>
+      <c r="L231">
+        <v>5</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>471</v>
+      </c>
+      <c r="B232" t="s">
+        <v>472</v>
+      </c>
+      <c r="C232">
+        <v>4</v>
+      </c>
+      <c r="D232">
+        <v>1.93</v>
+      </c>
+      <c r="E232">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232" t="s">
+        <v>11</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>473</v>
+      </c>
+      <c r="B233" t="s">
+        <v>474</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233">
+        <v>2.1</v>
+      </c>
+      <c r="E233">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233" t="s">
+        <v>12</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>475</v>
+      </c>
+      <c r="B234" t="s">
+        <v>476</v>
+      </c>
+      <c r="C234">
+        <v>4</v>
+      </c>
+      <c r="D234">
+        <v>1.8</v>
+      </c>
+      <c r="E234">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234" t="s">
+        <v>11</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>477</v>
+      </c>
+      <c r="B235" t="s">
+        <v>478</v>
+      </c>
+      <c r="C235">
+        <v>2.4</v>
+      </c>
+      <c r="D235">
+        <v>2.6</v>
+      </c>
+      <c r="E235">
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235" t="s">
+        <v>13</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>479</v>
+      </c>
+      <c r="B236" t="s">
+        <v>480</v>
+      </c>
+      <c r="C236">
+        <v>2.9</v>
+      </c>
+      <c r="D236">
+        <v>1.86</v>
+      </c>
+      <c r="E236">
+        <v>1.04</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236" t="s">
+        <v>12</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>481</v>
+      </c>
+      <c r="B237" t="s">
+        <v>482</v>
+      </c>
+      <c r="C237">
+        <v>2.06</v>
+      </c>
+      <c r="D237">
+        <v>3.71</v>
+      </c>
+      <c r="E237">
+        <v>1.65</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237" t="s">
+        <v>11</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>483</v>
+      </c>
+      <c r="B238" t="s">
+        <v>484</v>
+      </c>
+      <c r="C238">
+        <v>3.75</v>
+      </c>
+      <c r="D238">
+        <v>1.86</v>
+      </c>
+      <c r="E238">
+        <v>1.89</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238" t="s">
+        <v>12</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>485</v>
+      </c>
+      <c r="B239" t="s">
+        <v>486</v>
+      </c>
+      <c r="C239">
+        <v>1.65</v>
+      </c>
+      <c r="D239">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E239">
+        <v>2.95</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239" t="s">
+        <v>13</v>
+      </c>
+      <c r="L239">
+        <v>3</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>487</v>
+      </c>
+      <c r="B240" t="s">
+        <v>488</v>
+      </c>
+      <c r="C240">
+        <v>2.35</v>
+      </c>
+      <c r="D240">
+        <v>3.33</v>
+      </c>
+      <c r="E240">
+        <v>0.98</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240" t="s">
+        <v>13</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>489</v>
+      </c>
+      <c r="B241" t="s">
+        <v>490</v>
+      </c>
+      <c r="C241">
+        <v>2.25</v>
+      </c>
+      <c r="D241">
+        <v>3.5</v>
+      </c>
+      <c r="E241">
+        <v>1.25</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241" t="s">
+        <v>12</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>491</v>
+      </c>
+      <c r="B242" t="s">
+        <v>492</v>
+      </c>
+      <c r="C242">
+        <v>3.1</v>
+      </c>
+      <c r="D242">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E242">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242" t="s">
+        <v>13</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>493</v>
+      </c>
+      <c r="B243" t="s">
+        <v>494</v>
+      </c>
+      <c r="C243">
+        <v>4.3</v>
+      </c>
+      <c r="D243">
+        <v>1.63</v>
+      </c>
+      <c r="E243">
+        <v>2.67</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243" t="s">
+        <v>12</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>495</v>
+      </c>
+      <c r="B244" t="s">
+        <v>496</v>
+      </c>
+      <c r="C244">
+        <v>1.49</v>
+      </c>
+      <c r="D244">
+        <v>5.6</v>
+      </c>
+      <c r="E244">
+        <v>4.1099999999999994</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244" t="s">
+        <v>13</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>497</v>
+      </c>
+      <c r="B245" t="s">
+        <v>26</v>
+      </c>
+      <c r="C245">
+        <v>2.15</v>
+      </c>
+      <c r="D245">
+        <v>3.22</v>
+      </c>
+      <c r="E245">
+        <v>1.07</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245" t="s">
+        <v>11</v>
+      </c>
+      <c r="L245">
+        <v>2</v>
+      </c>
+      <c r="M245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>498</v>
+      </c>
+      <c r="B246" t="s">
+        <v>499</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>4.07</v>
+      </c>
+      <c r="E246">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246" t="s">
+        <v>13</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>59</v>
+      </c>
+      <c r="B247" t="s">
+        <v>500</v>
+      </c>
+      <c r="C247">
+        <v>1.7</v>
+      </c>
+      <c r="D247">
+        <v>5.58</v>
+      </c>
+      <c r="E247">
+        <v>3.88</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247" t="s">
+        <v>13</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>501</v>
+      </c>
+      <c r="B248" t="s">
+        <v>502</v>
+      </c>
+      <c r="C248">
+        <v>1.38</v>
+      </c>
+      <c r="D248">
+        <v>8.59</v>
+      </c>
+      <c r="E248">
+        <v>7.21</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248" t="s">
+        <v>11</v>
+      </c>
+      <c r="L248">
+        <v>3</v>
+      </c>
+      <c r="M248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>503</v>
+      </c>
+      <c r="B249" t="s">
+        <v>504</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E249">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249" t="s">
+        <v>11</v>
+      </c>
+      <c r="L249">
+        <v>3</v>
+      </c>
+      <c r="M249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>505</v>
+      </c>
+      <c r="B250" t="s">
+        <v>506</v>
+      </c>
+      <c r="C250">
+        <v>1.7</v>
+      </c>
+      <c r="D250">
+        <v>5</v>
+      </c>
+      <c r="E250">
+        <v>3.3</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250" t="s">
+        <v>13</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>507</v>
+      </c>
+      <c r="B251" t="s">
+        <v>508</v>
+      </c>
+      <c r="C251">
+        <v>2.75</v>
+      </c>
+      <c r="D251">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E251">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251" t="s">
+        <v>11</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>509</v>
+      </c>
+      <c r="B252" t="s">
+        <v>510</v>
+      </c>
+      <c r="C252">
+        <v>1.68</v>
+      </c>
+      <c r="D252">
+        <v>5.78</v>
+      </c>
+      <c r="E252">
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252" t="s">
+        <v>12</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>511</v>
+      </c>
+      <c r="B253" t="s">
+        <v>512</v>
+      </c>
+      <c r="C253">
+        <v>2.7</v>
+      </c>
+      <c r="D253">
+        <v>2.5</v>
+      </c>
+      <c r="E253">
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253" t="s">
+        <v>13</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>513</v>
+      </c>
+      <c r="B254" t="s">
+        <v>514</v>
+      </c>
+      <c r="C254">
+        <v>1.87</v>
+      </c>
+      <c r="D254">
+        <v>3.5</v>
+      </c>
+      <c r="E254">
+        <v>1.63</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254" t="s">
+        <v>11</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>515</v>
+      </c>
+      <c r="B255" t="s">
+        <v>516</v>
+      </c>
+      <c r="C255">
+        <v>1.31</v>
+      </c>
+      <c r="D255">
+        <v>8</v>
+      </c>
+      <c r="E255">
+        <v>6.69</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255" t="s">
+        <v>13</v>
+      </c>
+      <c r="L255">
+        <v>3</v>
+      </c>
+      <c r="M255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>517</v>
+      </c>
+      <c r="B256" t="s">
+        <v>518</v>
+      </c>
+      <c r="C256">
+        <v>1.56</v>
+      </c>
+      <c r="D256">
+        <v>6.75</v>
+      </c>
+      <c r="E256">
+        <v>5.19</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256" t="s">
+        <v>11</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>519</v>
+      </c>
+      <c r="B257" t="s">
+        <v>520</v>
+      </c>
+      <c r="C257">
+        <v>1.43</v>
+      </c>
+      <c r="D257">
+        <v>7.1</v>
+      </c>
+      <c r="E257">
+        <v>5.67</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257" t="s">
+        <v>13</v>
+      </c>
+      <c r="L257">
+        <v>3</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>521</v>
+      </c>
+      <c r="B258" t="s">
+        <v>522</v>
+      </c>
+      <c r="C258">
+        <v>1.99</v>
+      </c>
+      <c r="D258">
+        <v>3.9</v>
+      </c>
+      <c r="E258">
+        <v>1.91</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258" t="s">
+        <v>11</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>523</v>
+      </c>
+      <c r="B259" t="s">
+        <v>524</v>
+      </c>
+      <c r="C259">
+        <v>1.71</v>
+      </c>
+      <c r="D259">
+        <v>5.2</v>
+      </c>
+      <c r="E259">
+        <v>3.49</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259" t="s">
+        <v>12</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>525</v>
+      </c>
+      <c r="B260" t="s">
+        <v>526</v>
+      </c>
+      <c r="C260">
+        <v>3.1</v>
+      </c>
+      <c r="D260">
+        <v>2.35</v>
+      </c>
+      <c r="E260">
+        <v>0.75</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260" t="s">
+        <v>12</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>527</v>
+      </c>
+      <c r="B261" t="s">
+        <v>528</v>
+      </c>
+      <c r="C261">
+        <v>1.54</v>
+      </c>
+      <c r="D261">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E261">
+        <v>3.56</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261" t="s">
+        <v>13</v>
+      </c>
+      <c r="L261">
+        <v>6</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>529</v>
+      </c>
+      <c r="B262" t="s">
+        <v>530</v>
+      </c>
+      <c r="C262">
+        <v>6.9</v>
+      </c>
+      <c r="D262">
+        <v>1.37</v>
+      </c>
+      <c r="E262">
+        <v>5.53</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262" t="s">
+        <v>12</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>531</v>
+      </c>
+      <c r="B263" t="s">
+        <v>532</v>
+      </c>
+      <c r="C263">
+        <v>1.65</v>
+      </c>
+      <c r="D263">
+        <v>5.25</v>
+      </c>
+      <c r="E263">
+        <v>3.6</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263" t="s">
+        <v>11</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>533</v>
+      </c>
+      <c r="B264" t="s">
+        <v>534</v>
+      </c>
+      <c r="C264">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D264">
+        <v>3.3</v>
+      </c>
+      <c r="E264">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264" t="s">
+        <v>13</v>
+      </c>
+      <c r="L264">
+        <v>3</v>
+      </c>
+      <c r="M264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>535</v>
+      </c>
+      <c r="B265" t="s">
+        <v>536</v>
+      </c>
+      <c r="C265">
+        <v>3.9</v>
+      </c>
+      <c r="D265">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E265">
+        <v>1.85</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265" t="s">
+        <v>12</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>537</v>
+      </c>
+      <c r="B266" t="s">
+        <v>538</v>
+      </c>
+      <c r="C266">
+        <v>2.5</v>
+      </c>
+      <c r="D266">
+        <v>3.25</v>
+      </c>
+      <c r="E266">
+        <v>0.75</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266" t="s">
+        <v>11</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>539</v>
+      </c>
+      <c r="B267" t="s">
+        <v>540</v>
+      </c>
+      <c r="C267">
+        <v>3.25</v>
+      </c>
+      <c r="D267">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E267">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267" t="s">
+        <v>12</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>541</v>
+      </c>
+      <c r="B268" t="s">
+        <v>542</v>
+      </c>
+      <c r="C268">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D268">
+        <v>2.6</v>
+      </c>
+      <c r="E268">
+        <v>5.0000000000000273E-2</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268" t="s">
+        <v>13</v>
+      </c>
+      <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>543</v>
+      </c>
+      <c r="B269" t="s">
+        <v>544</v>
+      </c>
+      <c r="C269">
+        <v>2.7</v>
+      </c>
+      <c r="D269">
+        <v>2.7</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269" t="s">
+        <v>13</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>545</v>
+      </c>
+      <c r="B270" t="s">
+        <v>546</v>
+      </c>
+      <c r="C270">
+        <v>8.5</v>
+      </c>
+      <c r="D270">
+        <v>1.38</v>
+      </c>
+      <c r="E270">
+        <v>7.12</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270" t="s">
+        <v>13</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>547</v>
+      </c>
+      <c r="B271" t="s">
+        <v>548</v>
+      </c>
+      <c r="C271">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D271">
+        <v>3.2</v>
+      </c>
+      <c r="E271">
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271" t="s">
+        <v>12</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>549</v>
+      </c>
+      <c r="B272" t="s">
+        <v>550</v>
+      </c>
+      <c r="C272">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D272">
+        <v>3.33</v>
+      </c>
+      <c r="E272">
+        <v>1.03</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272" t="s">
+        <v>11</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>551</v>
+      </c>
+      <c r="B273" t="s">
+        <v>552</v>
+      </c>
+      <c r="C273">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D273">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E273">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273" t="s">
+        <v>12</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>553</v>
+      </c>
+      <c r="B274" t="s">
+        <v>554</v>
+      </c>
+      <c r="C274">
+        <v>1.61</v>
+      </c>
+      <c r="D274">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E274">
+        <v>3.4899999999999989</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274" t="s">
+        <v>13</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>555</v>
+      </c>
+      <c r="B275" t="s">
+        <v>556</v>
+      </c>
+      <c r="C275">
+        <v>3.3</v>
+      </c>
+      <c r="D275">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275" t="s">
+        <v>12</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>557</v>
+      </c>
+      <c r="B276" t="s">
+        <v>558</v>
+      </c>
+      <c r="C276">
+        <v>1.22</v>
+      </c>
+      <c r="D276">
+        <v>12</v>
+      </c>
+      <c r="E276">
+        <v>10.78</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276" t="s">
+        <v>13</v>
+      </c>
+      <c r="L276">
+        <v>3</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>559</v>
+      </c>
+      <c r="B277" t="s">
+        <v>560</v>
+      </c>
+      <c r="C277">
+        <v>1.37</v>
+      </c>
+      <c r="D277">
+        <v>7.7</v>
+      </c>
+      <c r="E277">
+        <v>6.33</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277" t="s">
+        <v>13</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277">
         <v>0</v>
       </c>
     </row>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D0C98-2460-41B6-AE3E-62A1B1D51C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8018FD-68B2-4BCC-8172-D923EE4CE6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="768">
   <si>
     <t>home</t>
   </si>
@@ -1719,6 +1719,627 @@
   </si>
   <si>
     <t xml:space="preserve"> Paradou AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanfrecce Hiroshima </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kawasaki Frontale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokyo Verdy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avispa Fukuoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perth Glory FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kagoshima United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renofa Yamaguchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokushima Vortis </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montedio Yamagata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fukushima United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grulla Morioka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matsumoto Yamaga FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kataller Toyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zweigen Kanazawa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Gifu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gungahlin United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monaro Panthers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeonnam Dragons </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Anyang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suwon Bluewings </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gyeongnam FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Coast Mariners Academy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sutherland Sharks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney Olympic FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blacktown City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sydney Wanderers Youth </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APIA Leichhardt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamba Osaka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kashima Antlers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kashiwa Reysol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urawa Red Diamonds </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nagoya Grampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Western United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulsan Hyundai FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeju United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Osaka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Azul Claro Numazu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheongju FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bucheon FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olympic FC Brisbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Queensland Lions FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeoju Citizen FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Changwon City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St George Willawong FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capalaba Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heilongjiang Ice City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shanghai Jiading City Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanbian Longding </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liaoning Shenyang Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wuxi Wugou </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nanjing City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanzhou Yaxin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guangxi Lanhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Yenisey Krasnoyarsk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Volgar Astrakhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taichung Futuro FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ming Chuan University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taipei Vikings </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Taipei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golik North District </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hong Kong Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sham Shui Po SA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eastern SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhejiang Hangzhou </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shaanxi Chang An Athletic FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souths United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mitchelton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RKC Waalwijk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Utrecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparta Rotterdam </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Volendam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sporting Gijon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Villarreal CF B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malmo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Hebar Pazardzhik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Lokomotiv 1929 Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mjondalen IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. FFC Turbine Potsdam 71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VfL Wolfsburg II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG 99 Andernach </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TSG Hoffenheim II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV Meppen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FSV Gutersloh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LASK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Rapid Wien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Austria Klagenfurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arsenal London FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skiljebo SK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IK Franke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bournemouth </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brighton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bologna </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Udinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toulouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strasbourg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alanyaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Istanbulspor AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendikspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kayserispor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Masry Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El Daklyeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Fezzanese 1930 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Gozzano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Ponte San Pietro-Isola </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Villa Dalme Valle Brembana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcio Caldiero Terme </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S.S.D. Virtus Ciseranobergamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piacenza Calcio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ssd Real Calepina FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris Saint-Germain W </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olympique Lyon W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Osasuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD Alcorcon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Deportivo Eldense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Oviedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tenerife CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR Flamengo RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Botafogo FR RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Dundee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Celtic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cercle Brugge </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSC Anderlecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Nordsjaelland </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Broendby IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenir S Marsa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US Tataouine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etoile Sahel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Africain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympique de Beja </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AS Soliman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiacos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAS Lamia 1964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATK Mohun Bagan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Odisha FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenice Amaranto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asd Sancataldese Calcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromley FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Altrincham FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brackley Town FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chorley FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worthing FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maidstone United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JK Narva Trans </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paide Linnameeskond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Alcoyano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CR Granada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordoba CF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malaga CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Mladost Gat </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Kolubara Lazarevac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kampaniakos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anagennisi Karditsas 1904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kozani FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P.O.T Iraklis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Dhaid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Hamriyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assyriska FF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taby FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC Juventude RS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortaleza EC CE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red Bull Bragantino SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carabobo FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portuguesa FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goias EC GO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AA Ponte Preta SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Once Caldas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> America de Cali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millonarios FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boyaca Chico FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colo-Colo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deportes Union La Calera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Santamarina Tandil </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cipolletti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York Red Bulls II </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Columbus Crew 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sporting Kansas City II </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minnesota United FC 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitario de Deportes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comerciantes Unidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBC Melgar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alianza Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA Cerro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Nacional de Football</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA All Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Chacarita Juniors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Olimpia Tegucigalpa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Victoria La Ceiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Real Sociedad Tocoa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real CD Espana San Pedro Sula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Vida La Ceiba </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Motagua Tegucigalpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportivo Saprissa San Jose </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AD Guanacasteca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS 2 de Mayo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Libertad Asuncion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botafogo FC PB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SER Caxias do Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volta Redonda FC RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Floresta EC CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independiente Petrolero </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Antonio Bulo Bulo</t>
   </si>
 </sst>
 </file>
@@ -2094,10 +2715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M277"/>
+  <dimension ref="A1:M385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P272" sqref="P272"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A364" sqref="A364:XFD385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13457,6 +14078,4434 @@
       </c>
       <c r="M277">
         <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>561</v>
+      </c>
+      <c r="B278" t="s">
+        <v>562</v>
+      </c>
+      <c r="C278">
+        <v>1.67</v>
+      </c>
+      <c r="D278">
+        <v>5.24</v>
+      </c>
+      <c r="E278">
+        <v>3.57</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278" t="s">
+        <v>11</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>563</v>
+      </c>
+      <c r="B279" t="s">
+        <v>564</v>
+      </c>
+      <c r="C279">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D279">
+        <v>3.31</v>
+      </c>
+      <c r="E279">
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279" t="s">
+        <v>11</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>387</v>
+      </c>
+      <c r="B280" t="s">
+        <v>565</v>
+      </c>
+      <c r="C280">
+        <v>1.35</v>
+      </c>
+      <c r="D280">
+        <v>6.8</v>
+      </c>
+      <c r="E280">
+        <v>5.4499999999999993</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280" t="s">
+        <v>13</v>
+      </c>
+      <c r="L280">
+        <v>7</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>118</v>
+      </c>
+      <c r="B281" t="s">
+        <v>121</v>
+      </c>
+      <c r="C281">
+        <v>3.3</v>
+      </c>
+      <c r="D281">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E281">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281" t="s">
+        <v>12</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>566</v>
+      </c>
+      <c r="B282" t="s">
+        <v>567</v>
+      </c>
+      <c r="C282">
+        <v>2.8</v>
+      </c>
+      <c r="D282">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E282">
+        <v>0.34999999999999959</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282" t="s">
+        <v>12</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>568</v>
+      </c>
+      <c r="B283" t="s">
+        <v>569</v>
+      </c>
+      <c r="C283">
+        <v>3.25</v>
+      </c>
+      <c r="D283">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E283">
+        <v>1.05</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283" t="s">
+        <v>13</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>570</v>
+      </c>
+      <c r="B284" t="s">
+        <v>571</v>
+      </c>
+      <c r="C284">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D284">
+        <v>3.5</v>
+      </c>
+      <c r="E284">
+        <v>1.45</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284" t="s">
+        <v>13</v>
+      </c>
+      <c r="L284">
+        <v>9</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>572</v>
+      </c>
+      <c r="B285" t="s">
+        <v>573</v>
+      </c>
+      <c r="C285">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D285">
+        <v>3.1</v>
+      </c>
+      <c r="E285">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285" t="s">
+        <v>13</v>
+      </c>
+      <c r="L285">
+        <v>3</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>574</v>
+      </c>
+      <c r="B286" t="s">
+        <v>575</v>
+      </c>
+      <c r="C286">
+        <v>2.25</v>
+      </c>
+      <c r="D286">
+        <v>3</v>
+      </c>
+      <c r="E286">
+        <v>0.75</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286" t="s">
+        <v>11</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>576</v>
+      </c>
+      <c r="B287" t="s">
+        <v>577</v>
+      </c>
+      <c r="C287">
+        <v>2.4</v>
+      </c>
+      <c r="D287">
+        <v>2.4</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287" t="s">
+        <v>13</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>578</v>
+      </c>
+      <c r="B288" t="s">
+        <v>579</v>
+      </c>
+      <c r="C288">
+        <v>2.7</v>
+      </c>
+      <c r="D288">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E288">
+        <v>0.40000000000000041</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288" t="s">
+        <v>12</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>580</v>
+      </c>
+      <c r="B289" t="s">
+        <v>581</v>
+      </c>
+      <c r="C289">
+        <v>1.62</v>
+      </c>
+      <c r="D289">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E289">
+        <v>2.98</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289" t="s">
+        <v>11</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>582</v>
+      </c>
+      <c r="B290" t="s">
+        <v>583</v>
+      </c>
+      <c r="C290">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D290">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290" t="s">
+        <v>13</v>
+      </c>
+      <c r="L290">
+        <v>3</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>584</v>
+      </c>
+      <c r="B291" t="s">
+        <v>585</v>
+      </c>
+      <c r="C291">
+        <v>2.9</v>
+      </c>
+      <c r="D291">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E291">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291" t="s">
+        <v>11</v>
+      </c>
+      <c r="L291">
+        <v>3</v>
+      </c>
+      <c r="M291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>586</v>
+      </c>
+      <c r="B292" t="s">
+        <v>587</v>
+      </c>
+      <c r="C292">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D292">
+        <v>2.5</v>
+      </c>
+      <c r="E292">
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292" t="s">
+        <v>12</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>588</v>
+      </c>
+      <c r="B293" t="s">
+        <v>589</v>
+      </c>
+      <c r="C293">
+        <v>2.86</v>
+      </c>
+      <c r="D293">
+        <v>2.64</v>
+      </c>
+      <c r="E293">
+        <v>0.21999999999999981</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293" t="s">
+        <v>12</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>590</v>
+      </c>
+      <c r="B294" t="s">
+        <v>129</v>
+      </c>
+      <c r="C294">
+        <v>1.67</v>
+      </c>
+      <c r="D294">
+        <v>5.35</v>
+      </c>
+      <c r="E294">
+        <v>3.68</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294" t="s">
+        <v>11</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>591</v>
+      </c>
+      <c r="B295" t="s">
+        <v>592</v>
+      </c>
+      <c r="C295">
+        <v>1.93</v>
+      </c>
+      <c r="D295">
+        <v>4.42</v>
+      </c>
+      <c r="E295">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295" t="s">
+        <v>13</v>
+      </c>
+      <c r="L295">
+        <v>2</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>593</v>
+      </c>
+      <c r="B296" t="s">
+        <v>594</v>
+      </c>
+      <c r="C296">
+        <v>1.39</v>
+      </c>
+      <c r="D296">
+        <v>6.4</v>
+      </c>
+      <c r="E296">
+        <v>5.0100000000000007</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296" t="s">
+        <v>13</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>595</v>
+      </c>
+      <c r="B297" t="s">
+        <v>596</v>
+      </c>
+      <c r="C297">
+        <v>1.69</v>
+      </c>
+      <c r="D297">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E297">
+        <v>3.41</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297" t="s">
+        <v>13</v>
+      </c>
+      <c r="L297">
+        <v>3</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>597</v>
+      </c>
+      <c r="B298" t="s">
+        <v>598</v>
+      </c>
+      <c r="C298">
+        <v>2.25</v>
+      </c>
+      <c r="D298">
+        <v>3.33</v>
+      </c>
+      <c r="E298">
+        <v>1.08</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298" t="s">
+        <v>11</v>
+      </c>
+      <c r="L298">
+        <v>2</v>
+      </c>
+      <c r="M298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>599</v>
+      </c>
+      <c r="B299" t="s">
+        <v>600</v>
+      </c>
+      <c r="C299">
+        <v>2.6</v>
+      </c>
+      <c r="D299">
+        <v>2.6</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299" t="s">
+        <v>11</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>381</v>
+      </c>
+      <c r="B300" t="s">
+        <v>601</v>
+      </c>
+      <c r="C300">
+        <v>2.35</v>
+      </c>
+      <c r="D300">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E300">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300" t="s">
+        <v>13</v>
+      </c>
+      <c r="L300">
+        <v>3</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>602</v>
+      </c>
+      <c r="B301" t="s">
+        <v>603</v>
+      </c>
+      <c r="C301">
+        <v>3.25</v>
+      </c>
+      <c r="D301">
+        <v>1.97</v>
+      </c>
+      <c r="E301">
+        <v>1.28</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301" t="s">
+        <v>13</v>
+      </c>
+      <c r="L301">
+        <v>3</v>
+      </c>
+      <c r="M301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>604</v>
+      </c>
+      <c r="B302" t="s">
+        <v>605</v>
+      </c>
+      <c r="C302">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D302">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302" t="s">
+        <v>12</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>606</v>
+      </c>
+      <c r="B303" t="s">
+        <v>607</v>
+      </c>
+      <c r="C303">
+        <v>1.26</v>
+      </c>
+      <c r="D303">
+        <v>7.25</v>
+      </c>
+      <c r="E303">
+        <v>5.99</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303" t="s">
+        <v>11</v>
+      </c>
+      <c r="L303">
+        <v>2</v>
+      </c>
+      <c r="M303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>608</v>
+      </c>
+      <c r="B304" t="s">
+        <v>609</v>
+      </c>
+      <c r="C304">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D304">
+        <v>3.33</v>
+      </c>
+      <c r="E304">
+        <v>1.28</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304" t="s">
+        <v>11</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>610</v>
+      </c>
+      <c r="B305" t="s">
+        <v>611</v>
+      </c>
+      <c r="C305">
+        <v>2.1</v>
+      </c>
+      <c r="D305">
+        <v>3.6</v>
+      </c>
+      <c r="E305">
+        <v>1.5</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305" t="s">
+        <v>11</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>612</v>
+      </c>
+      <c r="B306" t="s">
+        <v>613</v>
+      </c>
+      <c r="C306">
+        <v>3.25</v>
+      </c>
+      <c r="D306">
+        <v>2.15</v>
+      </c>
+      <c r="E306">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306" t="s">
+        <v>11</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>614</v>
+      </c>
+      <c r="B307" t="s">
+        <v>615</v>
+      </c>
+      <c r="C307">
+        <v>3.2</v>
+      </c>
+      <c r="D307">
+        <v>2.15</v>
+      </c>
+      <c r="E307">
+        <v>1.05</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307" t="s">
+        <v>13</v>
+      </c>
+      <c r="L307">
+        <v>2</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>616</v>
+      </c>
+      <c r="B308" t="s">
+        <v>617</v>
+      </c>
+      <c r="C308">
+        <v>1.96</v>
+      </c>
+      <c r="D308">
+        <v>3.9</v>
+      </c>
+      <c r="E308">
+        <v>1.94</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308" t="s">
+        <v>11</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>618</v>
+      </c>
+      <c r="B309" t="s">
+        <v>619</v>
+      </c>
+      <c r="C309">
+        <v>1.23</v>
+      </c>
+      <c r="D309">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E309">
+        <v>8.07</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309" t="s">
+        <v>13</v>
+      </c>
+      <c r="L309">
+        <v>4</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>620</v>
+      </c>
+      <c r="B310" t="s">
+        <v>621</v>
+      </c>
+      <c r="C310">
+        <v>2.15</v>
+      </c>
+      <c r="D310">
+        <v>2.95</v>
+      </c>
+      <c r="E310">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310" t="s">
+        <v>12</v>
+      </c>
+      <c r="L310">
+        <v>2</v>
+      </c>
+      <c r="M310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>622</v>
+      </c>
+      <c r="B311" t="s">
+        <v>623</v>
+      </c>
+      <c r="C311">
+        <v>3.2</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>1.2</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311" t="s">
+        <v>12</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>624</v>
+      </c>
+      <c r="B312" t="s">
+        <v>625</v>
+      </c>
+      <c r="C312">
+        <v>18</v>
+      </c>
+      <c r="D312">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E312">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312" t="s">
+        <v>12</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="M312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>626</v>
+      </c>
+      <c r="B313" t="s">
+        <v>627</v>
+      </c>
+      <c r="C313">
+        <v>2.25</v>
+      </c>
+      <c r="D313">
+        <v>3.1</v>
+      </c>
+      <c r="E313">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313" t="s">
+        <v>12</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+      <c r="M313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>628</v>
+      </c>
+      <c r="B314" t="s">
+        <v>629</v>
+      </c>
+      <c r="C314">
+        <v>2.15</v>
+      </c>
+      <c r="D314">
+        <v>2.7</v>
+      </c>
+      <c r="E314">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314" t="s">
+        <v>13</v>
+      </c>
+      <c r="L314">
+        <v>3</v>
+      </c>
+      <c r="M314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>630</v>
+      </c>
+      <c r="B315" t="s">
+        <v>631</v>
+      </c>
+      <c r="C315">
+        <v>3.3</v>
+      </c>
+      <c r="D315">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E315">
+        <v>1.25</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315" t="s">
+        <v>11</v>
+      </c>
+      <c r="L315">
+        <v>2</v>
+      </c>
+      <c r="M315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>632</v>
+      </c>
+      <c r="B316" t="s">
+        <v>633</v>
+      </c>
+      <c r="C316">
+        <v>1.23</v>
+      </c>
+      <c r="D316">
+        <v>11.5</v>
+      </c>
+      <c r="E316">
+        <v>10.27</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316" t="s">
+        <v>13</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+      <c r="M316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>634</v>
+      </c>
+      <c r="B317" t="s">
+        <v>635</v>
+      </c>
+      <c r="C317">
+        <v>1.65</v>
+      </c>
+      <c r="D317">
+        <v>5.75</v>
+      </c>
+      <c r="E317">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>1</v>
+      </c>
+      <c r="K317" t="s">
+        <v>12</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+      <c r="M317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>636</v>
+      </c>
+      <c r="B318" t="s">
+        <v>637</v>
+      </c>
+      <c r="C318">
+        <v>1.55</v>
+      </c>
+      <c r="D318">
+        <v>5.8</v>
+      </c>
+      <c r="E318">
+        <v>4.25</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318" t="s">
+        <v>13</v>
+      </c>
+      <c r="L318">
+        <v>5</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>638</v>
+      </c>
+      <c r="B319" t="s">
+        <v>639</v>
+      </c>
+      <c r="C319">
+        <v>1.97</v>
+      </c>
+      <c r="D319">
+        <v>3.75</v>
+      </c>
+      <c r="E319">
+        <v>1.78</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319" t="s">
+        <v>12</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>640</v>
+      </c>
+      <c r="B320" t="s">
+        <v>348</v>
+      </c>
+      <c r="C320">
+        <v>5.8</v>
+      </c>
+      <c r="D320">
+        <v>1.52</v>
+      </c>
+      <c r="E320">
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320" t="s">
+        <v>13</v>
+      </c>
+      <c r="L320">
+        <v>5</v>
+      </c>
+      <c r="M320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>641</v>
+      </c>
+      <c r="B321" t="s">
+        <v>642</v>
+      </c>
+      <c r="C321">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D321">
+        <v>17.5</v>
+      </c>
+      <c r="E321">
+        <v>16.41</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321" t="s">
+        <v>13</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>643</v>
+      </c>
+      <c r="B322" t="s">
+        <v>644</v>
+      </c>
+      <c r="C322">
+        <v>1.03</v>
+      </c>
+      <c r="D322">
+        <v>28</v>
+      </c>
+      <c r="E322">
+        <v>26.97</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+      <c r="K322" t="s">
+        <v>11</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>645</v>
+      </c>
+      <c r="B323" t="s">
+        <v>646</v>
+      </c>
+      <c r="C323">
+        <v>1.46</v>
+      </c>
+      <c r="D323">
+        <v>5.6</v>
+      </c>
+      <c r="E323">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323" t="s">
+        <v>12</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>647</v>
+      </c>
+      <c r="B324" t="s">
+        <v>648</v>
+      </c>
+      <c r="C324">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D324">
+        <v>2.8</v>
+      </c>
+      <c r="E324">
+        <v>0.34999999999999959</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>1</v>
+      </c>
+      <c r="K324" t="s">
+        <v>13</v>
+      </c>
+      <c r="L324">
+        <v>5</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>182</v>
+      </c>
+      <c r="B325" t="s">
+        <v>649</v>
+      </c>
+      <c r="C325">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D325">
+        <v>3</v>
+      </c>
+      <c r="E325">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325" t="s">
+        <v>13</v>
+      </c>
+      <c r="L325">
+        <v>3</v>
+      </c>
+      <c r="M325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>650</v>
+      </c>
+      <c r="B326" t="s">
+        <v>651</v>
+      </c>
+      <c r="C326">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D326">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E326">
+        <v>0.15000000000000041</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326" t="s">
+        <v>12</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="M326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>652</v>
+      </c>
+      <c r="B327" t="s">
+        <v>653</v>
+      </c>
+      <c r="C327">
+        <v>1.9</v>
+      </c>
+      <c r="D327">
+        <v>3.3</v>
+      </c>
+      <c r="E327">
+        <v>1.4</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>1</v>
+      </c>
+      <c r="K327" t="s">
+        <v>12</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>654</v>
+      </c>
+      <c r="B328" t="s">
+        <v>655</v>
+      </c>
+      <c r="C328">
+        <v>2.06</v>
+      </c>
+      <c r="D328">
+        <v>3.4</v>
+      </c>
+      <c r="E328">
+        <v>1.34</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328" t="s">
+        <v>13</v>
+      </c>
+      <c r="L328">
+        <v>3</v>
+      </c>
+      <c r="M328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>656</v>
+      </c>
+      <c r="B329" t="s">
+        <v>657</v>
+      </c>
+      <c r="C329">
+        <v>1.63</v>
+      </c>
+      <c r="D329">
+        <v>6.33</v>
+      </c>
+      <c r="E329">
+        <v>4.7</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329" t="s">
+        <v>11</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>136</v>
+      </c>
+      <c r="B330" t="s">
+        <v>658</v>
+      </c>
+      <c r="C330">
+        <v>2.59</v>
+      </c>
+      <c r="D330">
+        <v>2.83</v>
+      </c>
+      <c r="E330">
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330" t="s">
+        <v>12</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="M330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>659</v>
+      </c>
+      <c r="B331" t="s">
+        <v>660</v>
+      </c>
+      <c r="C331">
+        <v>3.29</v>
+      </c>
+      <c r="D331">
+        <v>2.36</v>
+      </c>
+      <c r="E331">
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>1</v>
+      </c>
+      <c r="K331" t="s">
+        <v>12</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>661</v>
+      </c>
+      <c r="B332" t="s">
+        <v>662</v>
+      </c>
+      <c r="C332">
+        <v>1.33</v>
+      </c>
+      <c r="D332">
+        <v>8.4</v>
+      </c>
+      <c r="E332">
+        <v>7.07</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332" t="s">
+        <v>13</v>
+      </c>
+      <c r="L332">
+        <v>6</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>663</v>
+      </c>
+      <c r="B333" t="s">
+        <v>664</v>
+      </c>
+      <c r="C333">
+        <v>1.99</v>
+      </c>
+      <c r="D333">
+        <v>3.6</v>
+      </c>
+      <c r="E333">
+        <v>1.61</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333" t="s">
+        <v>12</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="M333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>665</v>
+      </c>
+      <c r="B334" t="s">
+        <v>666</v>
+      </c>
+      <c r="C334">
+        <v>1.55</v>
+      </c>
+      <c r="D334">
+        <v>6.5</v>
+      </c>
+      <c r="E334">
+        <v>4.95</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334" t="s">
+        <v>13</v>
+      </c>
+      <c r="L334">
+        <v>1</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>667</v>
+      </c>
+      <c r="B335" t="s">
+        <v>668</v>
+      </c>
+      <c r="C335">
+        <v>2.9</v>
+      </c>
+      <c r="D335">
+        <v>2.25</v>
+      </c>
+      <c r="E335">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+      <c r="K335" t="s">
+        <v>12</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>669</v>
+      </c>
+      <c r="B336" t="s">
+        <v>670</v>
+      </c>
+      <c r="C336">
+        <v>3.2</v>
+      </c>
+      <c r="D336">
+        <v>1.97</v>
+      </c>
+      <c r="E336">
+        <v>1.23</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336" t="s">
+        <v>12</v>
+      </c>
+      <c r="L336">
+        <v>2</v>
+      </c>
+      <c r="M336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>671</v>
+      </c>
+      <c r="B337" t="s">
+        <v>672</v>
+      </c>
+      <c r="C337">
+        <v>1.3</v>
+      </c>
+      <c r="D337">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E337">
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>1</v>
+      </c>
+      <c r="K337" t="s">
+        <v>13</v>
+      </c>
+      <c r="L337">
+        <v>3</v>
+      </c>
+      <c r="M337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>673</v>
+      </c>
+      <c r="B338" t="s">
+        <v>674</v>
+      </c>
+      <c r="C338">
+        <v>1.41</v>
+      </c>
+      <c r="D338">
+        <v>6.2</v>
+      </c>
+      <c r="E338">
+        <v>4.79</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338" t="s">
+        <v>13</v>
+      </c>
+      <c r="L338">
+        <v>3</v>
+      </c>
+      <c r="M338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>675</v>
+      </c>
+      <c r="B339" t="s">
+        <v>676</v>
+      </c>
+      <c r="C339">
+        <v>4.3</v>
+      </c>
+      <c r="D339">
+        <v>1.79</v>
+      </c>
+      <c r="E339">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>1</v>
+      </c>
+      <c r="K339" t="s">
+        <v>12</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>677</v>
+      </c>
+      <c r="B340" t="s">
+        <v>678</v>
+      </c>
+      <c r="C340">
+        <v>2.5</v>
+      </c>
+      <c r="D340">
+        <v>3.3</v>
+      </c>
+      <c r="E340">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340" t="s">
+        <v>13</v>
+      </c>
+      <c r="L340">
+        <v>3</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>679</v>
+      </c>
+      <c r="B341" t="s">
+        <v>680</v>
+      </c>
+      <c r="C341">
+        <v>2.35</v>
+      </c>
+      <c r="D341">
+        <v>3.4</v>
+      </c>
+      <c r="E341">
+        <v>1.05</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341" t="s">
+        <v>11</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>681</v>
+      </c>
+      <c r="B342" t="s">
+        <v>682</v>
+      </c>
+      <c r="C342">
+        <v>1.8</v>
+      </c>
+      <c r="D342">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E342">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342" t="s">
+        <v>12</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>683</v>
+      </c>
+      <c r="B343" t="s">
+        <v>684</v>
+      </c>
+      <c r="C343">
+        <v>1.67</v>
+      </c>
+      <c r="D343">
+        <v>5.38</v>
+      </c>
+      <c r="E343">
+        <v>3.71</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>1</v>
+      </c>
+      <c r="K343" t="s">
+        <v>12</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="M343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>685</v>
+      </c>
+      <c r="B344" t="s">
+        <v>686</v>
+      </c>
+      <c r="C344">
+        <v>10.5</v>
+      </c>
+      <c r="D344">
+        <v>1.23</v>
+      </c>
+      <c r="E344">
+        <v>9.27</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344" t="s">
+        <v>12</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+      <c r="M344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>687</v>
+      </c>
+      <c r="B345" t="s">
+        <v>688</v>
+      </c>
+      <c r="C345">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D345">
+        <v>2.8</v>
+      </c>
+      <c r="E345">
+        <v>0.34999999999999959</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345" t="s">
+        <v>11</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>689</v>
+      </c>
+      <c r="B346" t="s">
+        <v>690</v>
+      </c>
+      <c r="C346">
+        <v>1.98</v>
+      </c>
+      <c r="D346">
+        <v>3.6</v>
+      </c>
+      <c r="E346">
+        <v>1.62</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346" t="s">
+        <v>11</v>
+      </c>
+      <c r="L346">
+        <v>1</v>
+      </c>
+      <c r="M346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>691</v>
+      </c>
+      <c r="B347" t="s">
+        <v>692</v>
+      </c>
+      <c r="C347">
+        <v>2.4</v>
+      </c>
+      <c r="D347">
+        <v>3.33</v>
+      </c>
+      <c r="E347">
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347" t="s">
+        <v>13</v>
+      </c>
+      <c r="L347">
+        <v>3</v>
+      </c>
+      <c r="M347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>693</v>
+      </c>
+      <c r="B348" t="s">
+        <v>694</v>
+      </c>
+      <c r="C348">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D348">
+        <v>3.6</v>
+      </c>
+      <c r="E348">
+        <v>1.3</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>1</v>
+      </c>
+      <c r="K348" t="s">
+        <v>11</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+      <c r="M348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>695</v>
+      </c>
+      <c r="B349" t="s">
+        <v>696</v>
+      </c>
+      <c r="C349">
+        <v>1.67</v>
+      </c>
+      <c r="D349">
+        <v>5.3</v>
+      </c>
+      <c r="E349">
+        <v>3.63</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349" t="s">
+        <v>13</v>
+      </c>
+      <c r="L349">
+        <v>3</v>
+      </c>
+      <c r="M349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>697</v>
+      </c>
+      <c r="B350" t="s">
+        <v>698</v>
+      </c>
+      <c r="C350">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D350">
+        <v>19.5</v>
+      </c>
+      <c r="E350">
+        <v>18.39</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350" t="s">
+        <v>13</v>
+      </c>
+      <c r="L350">
+        <v>4</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>699</v>
+      </c>
+      <c r="B351" t="s">
+        <v>700</v>
+      </c>
+      <c r="C351">
+        <v>1.75</v>
+      </c>
+      <c r="D351">
+        <v>4</v>
+      </c>
+      <c r="E351">
+        <v>2.25</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351" t="s">
+        <v>13</v>
+      </c>
+      <c r="L351">
+        <v>2</v>
+      </c>
+      <c r="M351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>701</v>
+      </c>
+      <c r="B352" t="s">
+        <v>702</v>
+      </c>
+      <c r="C352">
+        <v>1.23</v>
+      </c>
+      <c r="D352">
+        <v>10.5</v>
+      </c>
+      <c r="E352">
+        <v>9.27</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352" t="s">
+        <v>13</v>
+      </c>
+      <c r="L352">
+        <v>2</v>
+      </c>
+      <c r="M352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>703</v>
+      </c>
+      <c r="B353" t="s">
+        <v>704</v>
+      </c>
+      <c r="C353">
+        <v>1.99</v>
+      </c>
+      <c r="D353">
+        <v>3.5</v>
+      </c>
+      <c r="E353">
+        <v>1.51</v>
+      </c>
+      <c r="F353">
+        <v>1</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353" t="s">
+        <v>13</v>
+      </c>
+      <c r="L353">
+        <v>3</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>705</v>
+      </c>
+      <c r="B354" t="s">
+        <v>706</v>
+      </c>
+      <c r="C354">
+        <v>2.15</v>
+      </c>
+      <c r="D354">
+        <v>3.25</v>
+      </c>
+      <c r="E354">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>1</v>
+      </c>
+      <c r="K354" t="s">
+        <v>13</v>
+      </c>
+      <c r="L354">
+        <v>1</v>
+      </c>
+      <c r="M354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>707</v>
+      </c>
+      <c r="B355" t="s">
+        <v>708</v>
+      </c>
+      <c r="C355">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D355">
+        <v>2.6</v>
+      </c>
+      <c r="E355">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F355">
+        <v>1</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355" t="s">
+        <v>13</v>
+      </c>
+      <c r="L355">
+        <v>2</v>
+      </c>
+      <c r="M355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>709</v>
+      </c>
+      <c r="B356" t="s">
+        <v>710</v>
+      </c>
+      <c r="C356">
+        <v>7.2</v>
+      </c>
+      <c r="D356">
+        <v>1.37</v>
+      </c>
+      <c r="E356">
+        <v>5.83</v>
+      </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356" t="s">
+        <v>11</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>711</v>
+      </c>
+      <c r="B357" t="s">
+        <v>712</v>
+      </c>
+      <c r="C357">
+        <v>1.71</v>
+      </c>
+      <c r="D357">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E357">
+        <v>2.89</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357" t="s">
+        <v>12</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+      <c r="M357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>713</v>
+      </c>
+      <c r="B358" t="s">
+        <v>714</v>
+      </c>
+      <c r="C358">
+        <v>1.82</v>
+      </c>
+      <c r="D358">
+        <v>3.9</v>
+      </c>
+      <c r="E358">
+        <v>2.08</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358" t="s">
+        <v>13</v>
+      </c>
+      <c r="L358">
+        <v>1</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>715</v>
+      </c>
+      <c r="B359" t="s">
+        <v>716</v>
+      </c>
+      <c r="C359">
+        <v>1.47</v>
+      </c>
+      <c r="D359">
+        <v>6.5</v>
+      </c>
+      <c r="E359">
+        <v>5.03</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359" t="s">
+        <v>11</v>
+      </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
+      <c r="M359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>717</v>
+      </c>
+      <c r="B360" t="s">
+        <v>718</v>
+      </c>
+      <c r="C360">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D360">
+        <v>3</v>
+      </c>
+      <c r="E360">
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="F360">
+        <v>1</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360" t="s">
+        <v>11</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>719</v>
+      </c>
+      <c r="B361" t="s">
+        <v>720</v>
+      </c>
+      <c r="C361">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D361">
+        <v>3.2</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361" t="s">
+        <v>11</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>721</v>
+      </c>
+      <c r="B362" t="s">
+        <v>722</v>
+      </c>
+      <c r="C362">
+        <v>2.15</v>
+      </c>
+      <c r="D362">
+        <v>2.85</v>
+      </c>
+      <c r="E362">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362" t="s">
+        <v>12</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>723</v>
+      </c>
+      <c r="B363" t="s">
+        <v>724</v>
+      </c>
+      <c r="C363">
+        <v>2.65</v>
+      </c>
+      <c r="D363">
+        <v>2.35</v>
+      </c>
+      <c r="E363">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363" t="s">
+        <v>13</v>
+      </c>
+      <c r="L363">
+        <v>3</v>
+      </c>
+      <c r="M363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>725</v>
+      </c>
+      <c r="B364" t="s">
+        <v>292</v>
+      </c>
+      <c r="C364">
+        <v>3.4</v>
+      </c>
+      <c r="D364">
+        <v>2.36</v>
+      </c>
+      <c r="E364">
+        <v>1.04</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364" t="s">
+        <v>11</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>726</v>
+      </c>
+      <c r="B365" t="s">
+        <v>727</v>
+      </c>
+      <c r="C365">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D365">
+        <v>4.07</v>
+      </c>
+      <c r="E365">
+        <v>2.04</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365" t="s">
+        <v>11</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>728</v>
+      </c>
+      <c r="B366" t="s">
+        <v>729</v>
+      </c>
+      <c r="C366">
+        <v>1.67</v>
+      </c>
+      <c r="D366">
+        <v>5.4</v>
+      </c>
+      <c r="E366">
+        <v>3.73</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>1</v>
+      </c>
+      <c r="K366" t="s">
+        <v>13</v>
+      </c>
+      <c r="L366">
+        <v>2</v>
+      </c>
+      <c r="M366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>730</v>
+      </c>
+      <c r="B367" t="s">
+        <v>731</v>
+      </c>
+      <c r="C367">
+        <v>1.64</v>
+      </c>
+      <c r="D367">
+        <v>6</v>
+      </c>
+      <c r="E367">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367" t="s">
+        <v>13</v>
+      </c>
+      <c r="L367">
+        <v>3</v>
+      </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>732</v>
+      </c>
+      <c r="B368" t="s">
+        <v>733</v>
+      </c>
+      <c r="C368">
+        <v>2.25</v>
+      </c>
+      <c r="D368">
+        <v>3.3</v>
+      </c>
+      <c r="E368">
+        <v>1.05</v>
+      </c>
+      <c r="F368">
+        <v>1</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368" t="s">
+        <v>11</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+      <c r="M368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>734</v>
+      </c>
+      <c r="B369" t="s">
+        <v>735</v>
+      </c>
+      <c r="C369">
+        <v>1.39</v>
+      </c>
+      <c r="D369">
+        <v>8</v>
+      </c>
+      <c r="E369">
+        <v>6.61</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369" t="s">
+        <v>13</v>
+      </c>
+      <c r="L369">
+        <v>3</v>
+      </c>
+      <c r="M369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>736</v>
+      </c>
+      <c r="B370" t="s">
+        <v>737</v>
+      </c>
+      <c r="C370">
+        <v>1.43</v>
+      </c>
+      <c r="D370">
+        <v>6.9</v>
+      </c>
+      <c r="E370">
+        <v>5.4700000000000006</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370" t="s">
+        <v>13</v>
+      </c>
+      <c r="L370">
+        <v>3</v>
+      </c>
+      <c r="M370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>738</v>
+      </c>
+      <c r="B371" t="s">
+        <v>739</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+      <c r="D371">
+        <v>4</v>
+      </c>
+      <c r="E371">
+        <v>2</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371" t="s">
+        <v>11</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+      <c r="M371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>740</v>
+      </c>
+      <c r="B372" t="s">
+        <v>741</v>
+      </c>
+      <c r="C372">
+        <v>1.52</v>
+      </c>
+      <c r="D372">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E372">
+        <v>3.38</v>
+      </c>
+      <c r="F372">
+        <v>1</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372" t="s">
+        <v>12</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+      <c r="M372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>742</v>
+      </c>
+      <c r="B373" t="s">
+        <v>743</v>
+      </c>
+      <c r="C373">
+        <v>1.32</v>
+      </c>
+      <c r="D373">
+        <v>7.1</v>
+      </c>
+      <c r="E373">
+        <v>5.7799999999999994</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>1</v>
+      </c>
+      <c r="K373" t="s">
+        <v>13</v>
+      </c>
+      <c r="L373">
+        <v>4</v>
+      </c>
+      <c r="M373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>744</v>
+      </c>
+      <c r="B374" t="s">
+        <v>745</v>
+      </c>
+      <c r="C374">
+        <v>1.17</v>
+      </c>
+      <c r="D374">
+        <v>14.5</v>
+      </c>
+      <c r="E374">
+        <v>13.33</v>
+      </c>
+      <c r="F374">
+        <v>1</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+      <c r="K374" t="s">
+        <v>13</v>
+      </c>
+      <c r="L374">
+        <v>6</v>
+      </c>
+      <c r="M374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>746</v>
+      </c>
+      <c r="B375" t="s">
+        <v>747</v>
+      </c>
+      <c r="C375">
+        <v>1.73</v>
+      </c>
+      <c r="D375">
+        <v>4.7</v>
+      </c>
+      <c r="E375">
+        <v>2.97</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375" t="s">
+        <v>13</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>748</v>
+      </c>
+      <c r="B376" t="s">
+        <v>749</v>
+      </c>
+      <c r="C376">
+        <v>5.2</v>
+      </c>
+      <c r="D376">
+        <v>1.66</v>
+      </c>
+      <c r="E376">
+        <v>3.54</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376" t="s">
+        <v>12</v>
+      </c>
+      <c r="L376">
+        <v>1</v>
+      </c>
+      <c r="M376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>750</v>
+      </c>
+      <c r="B377" t="s">
+        <v>751</v>
+      </c>
+      <c r="C377">
+        <v>3.4</v>
+      </c>
+      <c r="D377">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E377">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>1</v>
+      </c>
+      <c r="K377" t="s">
+        <v>11</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>752</v>
+      </c>
+      <c r="B378" t="s">
+        <v>753</v>
+      </c>
+      <c r="C378">
+        <v>1.17</v>
+      </c>
+      <c r="D378">
+        <v>14</v>
+      </c>
+      <c r="E378">
+        <v>12.83</v>
+      </c>
+      <c r="F378">
+        <v>1</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378" t="s">
+        <v>13</v>
+      </c>
+      <c r="L378">
+        <v>2</v>
+      </c>
+      <c r="M378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>754</v>
+      </c>
+      <c r="B379" t="s">
+        <v>755</v>
+      </c>
+      <c r="C379">
+        <v>3</v>
+      </c>
+      <c r="D379">
+        <v>2.25</v>
+      </c>
+      <c r="E379">
+        <v>0.75</v>
+      </c>
+      <c r="F379">
+        <v>1</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379" t="s">
+        <v>13</v>
+      </c>
+      <c r="L379">
+        <v>2</v>
+      </c>
+      <c r="M379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>756</v>
+      </c>
+      <c r="B380" t="s">
+        <v>757</v>
+      </c>
+      <c r="C380">
+        <v>6.3</v>
+      </c>
+      <c r="D380">
+        <v>1.46</v>
+      </c>
+      <c r="E380">
+        <v>4.84</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380" t="s">
+        <v>12</v>
+      </c>
+      <c r="L380">
+        <v>1</v>
+      </c>
+      <c r="M380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>758</v>
+      </c>
+      <c r="B381" t="s">
+        <v>759</v>
+      </c>
+      <c r="C381">
+        <v>1.27</v>
+      </c>
+      <c r="D381">
+        <v>9.5</v>
+      </c>
+      <c r="E381">
+        <v>8.23</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
+      </c>
+      <c r="G381">
+        <v>1</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381" t="s">
+        <v>13</v>
+      </c>
+      <c r="L381">
+        <v>4</v>
+      </c>
+      <c r="M381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>760</v>
+      </c>
+      <c r="B382" t="s">
+        <v>761</v>
+      </c>
+      <c r="C382">
+        <v>3.5</v>
+      </c>
+      <c r="D382">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E382">
+        <v>1.45</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>1</v>
+      </c>
+      <c r="K382" t="s">
+        <v>13</v>
+      </c>
+      <c r="L382">
+        <v>2</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>762</v>
+      </c>
+      <c r="B383" t="s">
+        <v>763</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383">
+        <v>3.8</v>
+      </c>
+      <c r="E383">
+        <v>1.8</v>
+      </c>
+      <c r="F383">
+        <v>1</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>1</v>
+      </c>
+      <c r="K383" t="s">
+        <v>11</v>
+      </c>
+      <c r="L383">
+        <v>1</v>
+      </c>
+      <c r="M383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>764</v>
+      </c>
+      <c r="B384" t="s">
+        <v>765</v>
+      </c>
+      <c r="C384">
+        <v>1.77</v>
+      </c>
+      <c r="D384">
+        <v>4.5</v>
+      </c>
+      <c r="E384">
+        <v>2.73</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>1</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384" t="s">
+        <v>13</v>
+      </c>
+      <c r="L384">
+        <v>2</v>
+      </c>
+      <c r="M384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>766</v>
+      </c>
+      <c r="B385" t="s">
+        <v>767</v>
+      </c>
+      <c r="C385">
+        <v>1.6</v>
+      </c>
+      <c r="D385">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E385">
+        <v>3</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>1</v>
+      </c>
+      <c r="I385">
+        <v>1</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385" t="s">
+        <v>13</v>
+      </c>
+      <c r="L385">
+        <v>3</v>
+      </c>
+      <c r="M385">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8018FD-68B2-4BCC-8172-D923EE4CE6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826D1A0C-72A9-477E-81FA-06BC4C85DD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="925">
   <si>
     <t>home</t>
   </si>
@@ -2340,6 +2340,477 @@
   </si>
   <si>
     <t xml:space="preserve"> San Antonio Bulo Bulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFK Krylia Sovetov Samara </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Krasnodar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persikabo 1973 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barito Putera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield Wednesday </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Swansea City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Rubin Kazan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Ural Yekaterinburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Sochi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Fakel Voronezh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayelsa United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rivers United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Polissya </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Vorskla Poltava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceramica Cleopatra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pharco FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Goa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Petrolul Ploiesti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Botosani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazl Kafr Eldwar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proxy SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrojet FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wadi Degla SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanta FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haras El Hodood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Arabi (SA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ohud Medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Ain FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC Sampdoria </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AS Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juventus Turin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Torino FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southampton U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manchester United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ionikos Nikea FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kallithea FC AthÃ©n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrobry Glogow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wisla Plock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odra Opole </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LKP Motor Lublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJK Akatemia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Chernomorets Novorossiysk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Dynamo-Makhachkala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKS Lodz II </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olimpia Grudziadz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomil Olsztyn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lech II Poznan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mura Murska Sobota </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aluminij Kidricevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Tuzla City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Igman Konjic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangkok United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prachuap FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Banga B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Panevezys B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hegelmann Litauen B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Kauno Zalgiris B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sola FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Odds BK 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillestrom SK 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stroemsgodset 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jkt Tanzania </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mtibwa Sugar FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazma SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Shabab Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zira FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Araz Nakhchivan PFK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Paulo FC SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirassol FC SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ceara SC CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audax Italiano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cobresal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportes Limache </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deportes La Serena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA Penarol Montevideo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA River Plate (URU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC San Marcos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Carlos Stein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD El Nacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delfin SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Olimpia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sportivo Ameliano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC Sao Jose RS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AD Confianca SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferroviario AC CE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AA Aparecidense GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maringa FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EC Santo Andre SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portmore United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arnett Gardens FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportivo Toluca FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Tijuana de Caliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queretaro FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atlas FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shandong Taishan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nantong Zhiyun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maitland FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lambton Jaffas FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhayangkara FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Persis Solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewa United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Borneo Samarinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madura United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arema FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persita Tangerang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSM Makassar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rans Nusantara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSS Sleman </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Persib Bandung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tianjin Jinmen Tiger </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beijing Guoan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meizhou Hakka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qingdao Zhongchuang Hengtai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhejiang Professional </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Henan Songshan Longmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Qadisiyah </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Qaisoma FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Queens Park Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleetwood Town Reserve </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colchester United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Wasl FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Ittihad Kalba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodina Moscow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Tyumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam Dinh FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B. Binh Duong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namungo FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simba SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampere United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TPV Tampere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Alfa Modrica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Leotar Trebinje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF Pachuca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CF America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC Bahia BA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operario Ferroviario EC PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gremio FB Porto Alegrense RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Cortulua </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atletico FC Cali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigres FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bogota FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirata FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Ada Jaen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuniburo FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manta FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real RR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sao Raimundo EC RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afturelding/Hviti/Alaf U19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fylkir/Ellidi U19</t>
   </si>
 </sst>
 </file>
@@ -2715,10 +3186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M385"/>
+  <dimension ref="A1:M466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A364" sqref="A364:XFD385"/>
+    <sheetView tabSelected="1" topLeftCell="A455" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O468" sqref="O468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18505,6 +18976,3327 @@
         <v>3</v>
       </c>
       <c r="M385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>768</v>
+      </c>
+      <c r="B386" t="s">
+        <v>769</v>
+      </c>
+      <c r="C386">
+        <v>3.1</v>
+      </c>
+      <c r="D386">
+        <v>2.25</v>
+      </c>
+      <c r="E386">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+      <c r="H386">
+        <v>1</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+      <c r="K386" t="s">
+        <v>11</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="M386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>770</v>
+      </c>
+      <c r="B387" t="s">
+        <v>771</v>
+      </c>
+      <c r="C387">
+        <v>3.2</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+      <c r="E387">
+        <v>1.2</v>
+      </c>
+      <c r="F387">
+        <v>1</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>1</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387" t="s">
+        <v>12</v>
+      </c>
+      <c r="L387">
+        <v>3</v>
+      </c>
+      <c r="M387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>772</v>
+      </c>
+      <c r="B388" t="s">
+        <v>773</v>
+      </c>
+      <c r="C388">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D388">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E388">
+        <v>0.25</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+      <c r="H388">
+        <v>1</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388" t="s">
+        <v>12</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+      <c r="M388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>774</v>
+      </c>
+      <c r="B389" t="s">
+        <v>775</v>
+      </c>
+      <c r="C389">
+        <v>2.35</v>
+      </c>
+      <c r="D389">
+        <v>3.2</v>
+      </c>
+      <c r="E389">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+      <c r="I389">
+        <v>1</v>
+      </c>
+      <c r="J389">
+        <v>1</v>
+      </c>
+      <c r="K389" t="s">
+        <v>11</v>
+      </c>
+      <c r="L389">
+        <v>1</v>
+      </c>
+      <c r="M389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>776</v>
+      </c>
+      <c r="B390" t="s">
+        <v>777</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+      <c r="D390">
+        <v>3.9</v>
+      </c>
+      <c r="E390">
+        <v>1.9</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+      <c r="I390">
+        <v>1</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390" t="s">
+        <v>11</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+      <c r="M390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>778</v>
+      </c>
+      <c r="B391" t="s">
+        <v>779</v>
+      </c>
+      <c r="C391">
+        <v>1.86</v>
+      </c>
+      <c r="D391">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E391">
+        <v>2.2399999999999989</v>
+      </c>
+      <c r="F391">
+        <v>1</v>
+      </c>
+      <c r="G391">
+        <v>1</v>
+      </c>
+      <c r="H391">
+        <v>1</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391" t="s">
+        <v>13</v>
+      </c>
+      <c r="L391">
+        <v>1</v>
+      </c>
+      <c r="M391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>780</v>
+      </c>
+      <c r="B392" t="s">
+        <v>781</v>
+      </c>
+      <c r="C392">
+        <v>2.6</v>
+      </c>
+      <c r="D392">
+        <v>2.75</v>
+      </c>
+      <c r="E392">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>1</v>
+      </c>
+      <c r="K392" t="s">
+        <v>13</v>
+      </c>
+      <c r="L392">
+        <v>1</v>
+      </c>
+      <c r="M392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>782</v>
+      </c>
+      <c r="B393" t="s">
+        <v>783</v>
+      </c>
+      <c r="C393">
+        <v>1.88</v>
+      </c>
+      <c r="D393">
+        <v>4.5</v>
+      </c>
+      <c r="E393">
+        <v>2.62</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
+        <v>1</v>
+      </c>
+      <c r="J393">
+        <v>1</v>
+      </c>
+      <c r="K393" t="s">
+        <v>11</v>
+      </c>
+      <c r="L393">
+        <v>1</v>
+      </c>
+      <c r="M393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>784</v>
+      </c>
+      <c r="B394" t="s">
+        <v>785</v>
+      </c>
+      <c r="C394">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D394">
+        <v>1.62</v>
+      </c>
+      <c r="E394">
+        <v>2.98</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>1</v>
+      </c>
+      <c r="K394" t="s">
+        <v>12</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+      <c r="M394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>786</v>
+      </c>
+      <c r="B395" t="s">
+        <v>787</v>
+      </c>
+      <c r="C395">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D395">
+        <v>2.7</v>
+      </c>
+      <c r="E395">
+        <v>0.40000000000000041</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395">
+        <v>1</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>1</v>
+      </c>
+      <c r="K395" t="s">
+        <v>13</v>
+      </c>
+      <c r="L395">
+        <v>2</v>
+      </c>
+      <c r="M395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>788</v>
+      </c>
+      <c r="B396" t="s">
+        <v>789</v>
+      </c>
+      <c r="C396">
+        <v>2.25</v>
+      </c>
+      <c r="D396">
+        <v>3</v>
+      </c>
+      <c r="E396">
+        <v>0.75</v>
+      </c>
+      <c r="F396">
+        <v>1</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>1</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>1</v>
+      </c>
+      <c r="K396" t="s">
+        <v>12</v>
+      </c>
+      <c r="L396">
+        <v>1</v>
+      </c>
+      <c r="M396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>790</v>
+      </c>
+      <c r="B397" t="s">
+        <v>791</v>
+      </c>
+      <c r="C397">
+        <v>2.15</v>
+      </c>
+      <c r="D397">
+        <v>3.5</v>
+      </c>
+      <c r="E397">
+        <v>1.35</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397" t="s">
+        <v>11</v>
+      </c>
+      <c r="L397">
+        <v>1</v>
+      </c>
+      <c r="M397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>792</v>
+      </c>
+      <c r="B398" t="s">
+        <v>793</v>
+      </c>
+      <c r="C398">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D398">
+        <v>2.9</v>
+      </c>
+      <c r="E398">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F398">
+        <v>1</v>
+      </c>
+      <c r="G398">
+        <v>1</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+      <c r="I398">
+        <v>1</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398" t="s">
+        <v>13</v>
+      </c>
+      <c r="L398">
+        <v>3</v>
+      </c>
+      <c r="M398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>794</v>
+      </c>
+      <c r="B399" t="s">
+        <v>795</v>
+      </c>
+      <c r="C399">
+        <v>3.6</v>
+      </c>
+      <c r="D399">
+        <v>2.15</v>
+      </c>
+      <c r="E399">
+        <v>1.45</v>
+      </c>
+      <c r="F399">
+        <v>1</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+      <c r="I399">
+        <v>1</v>
+      </c>
+      <c r="J399">
+        <v>1</v>
+      </c>
+      <c r="K399" t="s">
+        <v>12</v>
+      </c>
+      <c r="L399">
+        <v>0</v>
+      </c>
+      <c r="M399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>796</v>
+      </c>
+      <c r="B400" t="s">
+        <v>797</v>
+      </c>
+      <c r="C400">
+        <v>1.44</v>
+      </c>
+      <c r="D400">
+        <v>5.8</v>
+      </c>
+      <c r="E400">
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="F400">
+        <v>1</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>1</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>1</v>
+      </c>
+      <c r="K400" t="s">
+        <v>13</v>
+      </c>
+      <c r="L400">
+        <v>3</v>
+      </c>
+      <c r="M400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>95</v>
+      </c>
+      <c r="B401" t="s">
+        <v>798</v>
+      </c>
+      <c r="C401">
+        <v>1.44</v>
+      </c>
+      <c r="D401">
+        <v>5.8</v>
+      </c>
+      <c r="E401">
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>1</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>1</v>
+      </c>
+      <c r="K401" t="s">
+        <v>12</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+      <c r="M401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>799</v>
+      </c>
+      <c r="B402" t="s">
+        <v>800</v>
+      </c>
+      <c r="C402">
+        <v>4.8</v>
+      </c>
+      <c r="D402">
+        <v>1.49</v>
+      </c>
+      <c r="E402">
+        <v>3.31</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402" t="s">
+        <v>12</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>801</v>
+      </c>
+      <c r="B403" t="s">
+        <v>802</v>
+      </c>
+      <c r="C403">
+        <v>2.35</v>
+      </c>
+      <c r="D403">
+        <v>2.6</v>
+      </c>
+      <c r="E403">
+        <v>0.25</v>
+      </c>
+      <c r="F403">
+        <v>1</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>0</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+      <c r="J403">
+        <v>1</v>
+      </c>
+      <c r="K403" t="s">
+        <v>13</v>
+      </c>
+      <c r="L403">
+        <v>2</v>
+      </c>
+      <c r="M403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>803</v>
+      </c>
+      <c r="B404" t="s">
+        <v>804</v>
+      </c>
+      <c r="C404">
+        <v>1.76</v>
+      </c>
+      <c r="D404">
+        <v>3.25</v>
+      </c>
+      <c r="E404">
+        <v>1.49</v>
+      </c>
+      <c r="F404">
+        <v>1</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>1</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404" t="s">
+        <v>12</v>
+      </c>
+      <c r="L404">
+        <v>3</v>
+      </c>
+      <c r="M404">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>805</v>
+      </c>
+      <c r="B405" t="s">
+        <v>806</v>
+      </c>
+      <c r="C405">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D405">
+        <v>1.3</v>
+      </c>
+      <c r="E405">
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
+        <v>1</v>
+      </c>
+      <c r="J405">
+        <v>1</v>
+      </c>
+      <c r="K405" t="s">
+        <v>12</v>
+      </c>
+      <c r="L405">
+        <v>0</v>
+      </c>
+      <c r="M405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>807</v>
+      </c>
+      <c r="B406" t="s">
+        <v>808</v>
+      </c>
+      <c r="C406">
+        <v>3</v>
+      </c>
+      <c r="D406">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E406">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F406">
+        <v>1</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406" t="s">
+        <v>12</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+      <c r="M406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>809</v>
+      </c>
+      <c r="B407" t="s">
+        <v>810</v>
+      </c>
+      <c r="C407">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D407">
+        <v>2.8</v>
+      </c>
+      <c r="E407">
+        <v>0.34999999999999959</v>
+      </c>
+      <c r="F407">
+        <v>1</v>
+      </c>
+      <c r="G407">
+        <v>1</v>
+      </c>
+      <c r="H407">
+        <v>1</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407" t="s">
+        <v>12</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+      <c r="M407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>811</v>
+      </c>
+      <c r="B408" t="s">
+        <v>219</v>
+      </c>
+      <c r="C408">
+        <v>2.7</v>
+      </c>
+      <c r="D408">
+        <v>2.5</v>
+      </c>
+      <c r="E408">
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="F408">
+        <v>1</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408">
+        <v>1</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408" t="s">
+        <v>12</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+      <c r="M408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>812</v>
+      </c>
+      <c r="B409" t="s">
+        <v>813</v>
+      </c>
+      <c r="C409">
+        <v>3.6</v>
+      </c>
+      <c r="D409">
+        <v>2.25</v>
+      </c>
+      <c r="E409">
+        <v>1.35</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>1</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
+        <v>1</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409" t="s">
+        <v>11</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
+      </c>
+      <c r="M409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>814</v>
+      </c>
+      <c r="B410" t="s">
+        <v>815</v>
+      </c>
+      <c r="C410">
+        <v>3</v>
+      </c>
+      <c r="D410">
+        <v>2.35</v>
+      </c>
+      <c r="E410">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>1</v>
+      </c>
+      <c r="H410">
+        <v>1</v>
+      </c>
+      <c r="I410">
+        <v>1</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410" t="s">
+        <v>11</v>
+      </c>
+      <c r="L410">
+        <v>1</v>
+      </c>
+      <c r="M410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>816</v>
+      </c>
+      <c r="B411" t="s">
+        <v>817</v>
+      </c>
+      <c r="C411">
+        <v>2.25</v>
+      </c>
+      <c r="D411">
+        <v>3.25</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+      <c r="H411">
+        <v>0</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>1</v>
+      </c>
+      <c r="K411" t="s">
+        <v>13</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>818</v>
+      </c>
+      <c r="B412" t="s">
+        <v>819</v>
+      </c>
+      <c r="C412">
+        <v>1.96</v>
+      </c>
+      <c r="D412">
+        <v>3.6</v>
+      </c>
+      <c r="E412">
+        <v>1.64</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>1</v>
+      </c>
+      <c r="I412">
+        <v>1</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412" t="s">
+        <v>13</v>
+      </c>
+      <c r="L412">
+        <v>3</v>
+      </c>
+      <c r="M412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>820</v>
+      </c>
+      <c r="B413" t="s">
+        <v>821</v>
+      </c>
+      <c r="C413">
+        <v>1.59</v>
+      </c>
+      <c r="D413">
+        <v>4.7</v>
+      </c>
+      <c r="E413">
+        <v>3.11</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+      <c r="I413">
+        <v>1</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413" t="s">
+        <v>12</v>
+      </c>
+      <c r="L413">
+        <v>1</v>
+      </c>
+      <c r="M413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>822</v>
+      </c>
+      <c r="B414" t="s">
+        <v>823</v>
+      </c>
+      <c r="C414">
+        <v>1.4</v>
+      </c>
+      <c r="D414">
+        <v>6.4</v>
+      </c>
+      <c r="E414">
+        <v>5</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>1</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>1</v>
+      </c>
+      <c r="K414" t="s">
+        <v>11</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+      <c r="M414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>824</v>
+      </c>
+      <c r="B415" t="s">
+        <v>825</v>
+      </c>
+      <c r="C415">
+        <v>2.6</v>
+      </c>
+      <c r="D415">
+        <v>2.25</v>
+      </c>
+      <c r="E415">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>1</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415" t="s">
+        <v>12</v>
+      </c>
+      <c r="L415">
+        <v>1</v>
+      </c>
+      <c r="M415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>826</v>
+      </c>
+      <c r="B416" t="s">
+        <v>827</v>
+      </c>
+      <c r="C416">
+        <v>2.1</v>
+      </c>
+      <c r="D416">
+        <v>2.75</v>
+      </c>
+      <c r="E416">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="F416">
+        <v>1</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>1</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>1</v>
+      </c>
+      <c r="K416" t="s">
+        <v>12</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+      <c r="M416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>828</v>
+      </c>
+      <c r="B417" t="s">
+        <v>829</v>
+      </c>
+      <c r="C417">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D417">
+        <v>2.8</v>
+      </c>
+      <c r="E417">
+        <v>0.75</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>1</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>1</v>
+      </c>
+      <c r="K417" t="s">
+        <v>13</v>
+      </c>
+      <c r="L417">
+        <v>2</v>
+      </c>
+      <c r="M417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>830</v>
+      </c>
+      <c r="B418" t="s">
+        <v>831</v>
+      </c>
+      <c r="C418">
+        <v>3.3</v>
+      </c>
+      <c r="D418">
+        <v>1.76</v>
+      </c>
+      <c r="E418">
+        <v>1.54</v>
+      </c>
+      <c r="F418">
+        <v>1</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>1</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418" t="s">
+        <v>12</v>
+      </c>
+      <c r="L418">
+        <v>1</v>
+      </c>
+      <c r="M418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>832</v>
+      </c>
+      <c r="B419" t="s">
+        <v>833</v>
+      </c>
+      <c r="C419">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D419">
+        <v>3.4</v>
+      </c>
+      <c r="E419">
+        <v>1.2</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>1</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>1</v>
+      </c>
+      <c r="K419" t="s">
+        <v>13</v>
+      </c>
+      <c r="L419">
+        <v>2</v>
+      </c>
+      <c r="M419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>834</v>
+      </c>
+      <c r="B420" t="s">
+        <v>835</v>
+      </c>
+      <c r="C420">
+        <v>1.52</v>
+      </c>
+      <c r="D420">
+        <v>6.1</v>
+      </c>
+      <c r="E420">
+        <v>4.58</v>
+      </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+      <c r="I420">
+        <v>1</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420" t="s">
+        <v>13</v>
+      </c>
+      <c r="L420">
+        <v>2</v>
+      </c>
+      <c r="M420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>836</v>
+      </c>
+      <c r="B421" t="s">
+        <v>837</v>
+      </c>
+      <c r="C421">
+        <v>1.54</v>
+      </c>
+      <c r="D421">
+        <v>5.7</v>
+      </c>
+      <c r="E421">
+        <v>4.16</v>
+      </c>
+      <c r="F421">
+        <v>1</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+      <c r="H421">
+        <v>1</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421" t="s">
+        <v>12</v>
+      </c>
+      <c r="L421">
+        <v>0</v>
+      </c>
+      <c r="M421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>838</v>
+      </c>
+      <c r="B422" t="s">
+        <v>281</v>
+      </c>
+      <c r="C422">
+        <v>2.64</v>
+      </c>
+      <c r="D422">
+        <v>3.12</v>
+      </c>
+      <c r="E422">
+        <v>0.48</v>
+      </c>
+      <c r="F422">
+        <v>1</v>
+      </c>
+      <c r="G422">
+        <v>1</v>
+      </c>
+      <c r="H422">
+        <v>0</v>
+      </c>
+      <c r="I422">
+        <v>1</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422" t="s">
+        <v>11</v>
+      </c>
+      <c r="L422">
+        <v>0</v>
+      </c>
+      <c r="M422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>839</v>
+      </c>
+      <c r="B423" t="s">
+        <v>840</v>
+      </c>
+      <c r="C423">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D423">
+        <v>3.75</v>
+      </c>
+      <c r="E423">
+        <v>1.7</v>
+      </c>
+      <c r="F423">
+        <v>1</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+      <c r="H423">
+        <v>1</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423" t="s">
+        <v>13</v>
+      </c>
+      <c r="L423">
+        <v>3</v>
+      </c>
+      <c r="M423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>841</v>
+      </c>
+      <c r="B424" t="s">
+        <v>842</v>
+      </c>
+      <c r="C424">
+        <v>1.79</v>
+      </c>
+      <c r="D424">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E424">
+        <v>2.31</v>
+      </c>
+      <c r="F424">
+        <v>1</v>
+      </c>
+      <c r="G424">
+        <v>1</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>1</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424" t="s">
+        <v>12</v>
+      </c>
+      <c r="L424">
+        <v>0</v>
+      </c>
+      <c r="M424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>843</v>
+      </c>
+      <c r="B425" t="s">
+        <v>844</v>
+      </c>
+      <c r="C425">
+        <v>2.1</v>
+      </c>
+      <c r="D425">
+        <v>3.25</v>
+      </c>
+      <c r="E425">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>1</v>
+      </c>
+      <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>1</v>
+      </c>
+      <c r="K425" t="s">
+        <v>13</v>
+      </c>
+      <c r="L425">
+        <v>1</v>
+      </c>
+      <c r="M425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>845</v>
+      </c>
+      <c r="B426" t="s">
+        <v>846</v>
+      </c>
+      <c r="C426">
+        <v>1.35</v>
+      </c>
+      <c r="D426">
+        <v>8.6</v>
+      </c>
+      <c r="E426">
+        <v>7.25</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+      <c r="G426">
+        <v>1</v>
+      </c>
+      <c r="H426">
+        <v>1</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426" t="s">
+        <v>13</v>
+      </c>
+      <c r="L426">
+        <v>3</v>
+      </c>
+      <c r="M426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>847</v>
+      </c>
+      <c r="B427" t="s">
+        <v>848</v>
+      </c>
+      <c r="C427">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D427">
+        <v>16.5</v>
+      </c>
+      <c r="E427">
+        <v>15.39</v>
+      </c>
+      <c r="F427">
+        <v>1</v>
+      </c>
+      <c r="G427">
+        <v>1</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427" t="s">
+        <v>13</v>
+      </c>
+      <c r="L427">
+        <v>3</v>
+      </c>
+      <c r="M427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>849</v>
+      </c>
+      <c r="B428" t="s">
+        <v>850</v>
+      </c>
+      <c r="C428">
+        <v>1.79</v>
+      </c>
+      <c r="D428">
+        <v>4.25</v>
+      </c>
+      <c r="E428">
+        <v>2.46</v>
+      </c>
+      <c r="F428">
+        <v>1</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>1</v>
+      </c>
+      <c r="I428">
+        <v>1</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428" t="s">
+        <v>13</v>
+      </c>
+      <c r="L428">
+        <v>1</v>
+      </c>
+      <c r="M428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>851</v>
+      </c>
+      <c r="B429" t="s">
+        <v>852</v>
+      </c>
+      <c r="C429">
+        <v>1.83</v>
+      </c>
+      <c r="D429">
+        <v>4.2</v>
+      </c>
+      <c r="E429">
+        <v>2.37</v>
+      </c>
+      <c r="F429">
+        <v>1</v>
+      </c>
+      <c r="G429">
+        <v>1</v>
+      </c>
+      <c r="H429">
+        <v>1</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429" t="s">
+        <v>12</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+      <c r="M429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>853</v>
+      </c>
+      <c r="B430" t="s">
+        <v>854</v>
+      </c>
+      <c r="C430">
+        <v>1.72</v>
+      </c>
+      <c r="D430">
+        <v>4.7</v>
+      </c>
+      <c r="E430">
+        <v>2.98</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <v>1</v>
+      </c>
+      <c r="H430">
+        <v>1</v>
+      </c>
+      <c r="I430">
+        <v>1</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430" t="s">
+        <v>12</v>
+      </c>
+      <c r="L430">
+        <v>1</v>
+      </c>
+      <c r="M430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>855</v>
+      </c>
+      <c r="B431" t="s">
+        <v>856</v>
+      </c>
+      <c r="C431">
+        <v>2.1</v>
+      </c>
+      <c r="D431">
+        <v>3.6</v>
+      </c>
+      <c r="E431">
+        <v>1.5</v>
+      </c>
+      <c r="F431">
+        <v>1</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>1</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>1</v>
+      </c>
+      <c r="K431" t="s">
+        <v>11</v>
+      </c>
+      <c r="L431">
+        <v>2</v>
+      </c>
+      <c r="M431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>857</v>
+      </c>
+      <c r="B432" t="s">
+        <v>858</v>
+      </c>
+      <c r="C432">
+        <v>1.48</v>
+      </c>
+      <c r="D432">
+        <v>7.1</v>
+      </c>
+      <c r="E432">
+        <v>5.6199999999999992</v>
+      </c>
+      <c r="F432">
+        <v>1</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>1</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432" t="s">
+        <v>13</v>
+      </c>
+      <c r="L432">
+        <v>2</v>
+      </c>
+      <c r="M432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>859</v>
+      </c>
+      <c r="B433" t="s">
+        <v>860</v>
+      </c>
+      <c r="C433">
+        <v>6.8</v>
+      </c>
+      <c r="D433">
+        <v>1.35</v>
+      </c>
+      <c r="E433">
+        <v>5.4499999999999993</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+      <c r="I433">
+        <v>1</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433" t="s">
+        <v>12</v>
+      </c>
+      <c r="L433">
+        <v>1</v>
+      </c>
+      <c r="M433">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>861</v>
+      </c>
+      <c r="B434" t="s">
+        <v>862</v>
+      </c>
+      <c r="C434">
+        <v>1.68</v>
+      </c>
+      <c r="D434">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E434">
+        <v>2.42</v>
+      </c>
+      <c r="F434">
+        <v>1</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+      <c r="I434">
+        <v>1</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434" t="s">
+        <v>13</v>
+      </c>
+      <c r="L434">
+        <v>1</v>
+      </c>
+      <c r="M434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>863</v>
+      </c>
+      <c r="B435" t="s">
+        <v>864</v>
+      </c>
+      <c r="C435">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D435">
+        <v>3</v>
+      </c>
+      <c r="E435">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
+      <c r="H435">
+        <v>1</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>1</v>
+      </c>
+      <c r="K435" t="s">
+        <v>12</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+      <c r="M435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>865</v>
+      </c>
+      <c r="B436" t="s">
+        <v>866</v>
+      </c>
+      <c r="C436">
+        <v>2.4</v>
+      </c>
+      <c r="D436">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E436">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F436">
+        <v>1</v>
+      </c>
+      <c r="G436">
+        <v>1</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+      <c r="I436">
+        <v>1</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436" t="s">
+        <v>13</v>
+      </c>
+      <c r="L436">
+        <v>2</v>
+      </c>
+      <c r="M436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>867</v>
+      </c>
+      <c r="B437" t="s">
+        <v>868</v>
+      </c>
+      <c r="C437">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D437">
+        <v>3.1</v>
+      </c>
+      <c r="E437">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+      <c r="G437">
+        <v>1</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>1</v>
+      </c>
+      <c r="K437" t="s">
+        <v>12</v>
+      </c>
+      <c r="L437">
+        <v>0</v>
+      </c>
+      <c r="M437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>869</v>
+      </c>
+      <c r="B438" t="s">
+        <v>870</v>
+      </c>
+      <c r="C438">
+        <v>1.36</v>
+      </c>
+      <c r="D438">
+        <v>8.94</v>
+      </c>
+      <c r="E438">
+        <v>7.5799999999999992</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+      <c r="G438">
+        <v>1</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438" t="s">
+        <v>13</v>
+      </c>
+      <c r="L438">
+        <v>3</v>
+      </c>
+      <c r="M438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>871</v>
+      </c>
+      <c r="B439" t="s">
+        <v>872</v>
+      </c>
+      <c r="C439">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D439">
+        <v>1.54</v>
+      </c>
+      <c r="E439">
+        <v>3.06</v>
+      </c>
+      <c r="F439">
+        <v>1</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439" t="s">
+        <v>12</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
+      <c r="M439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>873</v>
+      </c>
+      <c r="B440" t="s">
+        <v>874</v>
+      </c>
+      <c r="C440">
+        <v>1.93</v>
+      </c>
+      <c r="D440">
+        <v>3.2</v>
+      </c>
+      <c r="E440">
+        <v>1.27</v>
+      </c>
+      <c r="F440">
+        <v>1</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440" t="s">
+        <v>12</v>
+      </c>
+      <c r="L440">
+        <v>0</v>
+      </c>
+      <c r="M440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>875</v>
+      </c>
+      <c r="B441" t="s">
+        <v>876</v>
+      </c>
+      <c r="C441">
+        <v>1.84</v>
+      </c>
+      <c r="D441">
+        <v>3.6</v>
+      </c>
+      <c r="E441">
+        <v>1.76</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+      <c r="I441">
+        <v>1</v>
+      </c>
+      <c r="J441">
+        <v>1</v>
+      </c>
+      <c r="K441" t="s">
+        <v>13</v>
+      </c>
+      <c r="L441">
+        <v>2</v>
+      </c>
+      <c r="M441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>877</v>
+      </c>
+      <c r="B442" t="s">
+        <v>878</v>
+      </c>
+      <c r="C442">
+        <v>1.64</v>
+      </c>
+      <c r="D442">
+        <v>4.25</v>
+      </c>
+      <c r="E442">
+        <v>2.61</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>1</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>1</v>
+      </c>
+      <c r="K442" t="s">
+        <v>11</v>
+      </c>
+      <c r="L442">
+        <v>0</v>
+      </c>
+      <c r="M442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>879</v>
+      </c>
+      <c r="B443" t="s">
+        <v>133</v>
+      </c>
+      <c r="C443">
+        <v>1.65</v>
+      </c>
+      <c r="D443">
+        <v>4.2</v>
+      </c>
+      <c r="E443">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443" t="s">
+        <v>13</v>
+      </c>
+      <c r="L443">
+        <v>4</v>
+      </c>
+      <c r="M443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>880</v>
+      </c>
+      <c r="B444" t="s">
+        <v>881</v>
+      </c>
+      <c r="C444">
+        <v>1.95</v>
+      </c>
+      <c r="D444">
+        <v>2.9</v>
+      </c>
+      <c r="E444">
+        <v>0.95</v>
+      </c>
+      <c r="F444">
+        <v>1</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>1</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444" t="s">
+        <v>13</v>
+      </c>
+      <c r="L444">
+        <v>3</v>
+      </c>
+      <c r="M444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>882</v>
+      </c>
+      <c r="B445" t="s">
+        <v>883</v>
+      </c>
+      <c r="C445">
+        <v>2.1</v>
+      </c>
+      <c r="D445">
+        <v>2.85</v>
+      </c>
+      <c r="E445">
+        <v>0.75</v>
+      </c>
+      <c r="F445">
+        <v>1</v>
+      </c>
+      <c r="G445">
+        <v>1</v>
+      </c>
+      <c r="H445">
+        <v>1</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445" t="s">
+        <v>13</v>
+      </c>
+      <c r="L445">
+        <v>1</v>
+      </c>
+      <c r="M445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>884</v>
+      </c>
+      <c r="B446" t="s">
+        <v>885</v>
+      </c>
+      <c r="C446">
+        <v>3.1</v>
+      </c>
+      <c r="D446">
+        <v>2.35</v>
+      </c>
+      <c r="E446">
+        <v>0.75</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>1</v>
+      </c>
+      <c r="H446">
+        <v>1</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>1</v>
+      </c>
+      <c r="K446" t="s">
+        <v>12</v>
+      </c>
+      <c r="L446">
+        <v>0</v>
+      </c>
+      <c r="M446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>886</v>
+      </c>
+      <c r="B447" t="s">
+        <v>887</v>
+      </c>
+      <c r="C447">
+        <v>1.99</v>
+      </c>
+      <c r="D447">
+        <v>3.96</v>
+      </c>
+      <c r="E447">
+        <v>1.97</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>1</v>
+      </c>
+      <c r="K447" t="s">
+        <v>11</v>
+      </c>
+      <c r="L447">
+        <v>1</v>
+      </c>
+      <c r="M447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>888</v>
+      </c>
+      <c r="B448" t="s">
+        <v>889</v>
+      </c>
+      <c r="C448">
+        <v>1.66</v>
+      </c>
+      <c r="D448">
+        <v>4.91</v>
+      </c>
+      <c r="E448">
+        <v>3.25</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+      <c r="H448">
+        <v>1</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448" t="s">
+        <v>13</v>
+      </c>
+      <c r="L448">
+        <v>4</v>
+      </c>
+      <c r="M448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>890</v>
+      </c>
+      <c r="B449" t="s">
+        <v>891</v>
+      </c>
+      <c r="C449">
+        <v>1.29</v>
+      </c>
+      <c r="D449">
+        <v>8.5</v>
+      </c>
+      <c r="E449">
+        <v>7.21</v>
+      </c>
+      <c r="F449">
+        <v>1</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449" t="s">
+        <v>13</v>
+      </c>
+      <c r="L449">
+        <v>3</v>
+      </c>
+      <c r="M449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>892</v>
+      </c>
+      <c r="B450" t="s">
+        <v>893</v>
+      </c>
+      <c r="C450">
+        <v>1.69</v>
+      </c>
+      <c r="D450">
+        <v>3.5</v>
+      </c>
+      <c r="E450">
+        <v>1.81</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+      <c r="H450">
+        <v>1</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450" t="s">
+        <v>12</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+      <c r="M450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>894</v>
+      </c>
+      <c r="B451" t="s">
+        <v>895</v>
+      </c>
+      <c r="C451">
+        <v>1.5</v>
+      </c>
+      <c r="D451">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E451">
+        <v>3.1</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+      <c r="I451">
+        <v>1</v>
+      </c>
+      <c r="J451">
+        <v>1</v>
+      </c>
+      <c r="K451" t="s">
+        <v>12</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+      <c r="M451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>896</v>
+      </c>
+      <c r="B452" t="s">
+        <v>897</v>
+      </c>
+      <c r="C452">
+        <v>1.44</v>
+      </c>
+      <c r="D452">
+        <v>5.8</v>
+      </c>
+      <c r="E452">
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>1</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>1</v>
+      </c>
+      <c r="K452" t="s">
+        <v>13</v>
+      </c>
+      <c r="L452">
+        <v>4</v>
+      </c>
+      <c r="M452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>898</v>
+      </c>
+      <c r="B453" t="s">
+        <v>899</v>
+      </c>
+      <c r="C453">
+        <v>1.57</v>
+      </c>
+      <c r="D453">
+        <v>5.7</v>
+      </c>
+      <c r="E453">
+        <v>4.13</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+      <c r="H453">
+        <v>0</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453" t="s">
+        <v>11</v>
+      </c>
+      <c r="L453">
+        <v>1</v>
+      </c>
+      <c r="M453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>900</v>
+      </c>
+      <c r="B454" t="s">
+        <v>901</v>
+      </c>
+      <c r="C454">
+        <v>1.35</v>
+      </c>
+      <c r="D454">
+        <v>7.25</v>
+      </c>
+      <c r="E454">
+        <v>5.9</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+      <c r="H454">
+        <v>1</v>
+      </c>
+      <c r="I454">
+        <v>1</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454" t="s">
+        <v>11</v>
+      </c>
+      <c r="L454">
+        <v>1</v>
+      </c>
+      <c r="M454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>902</v>
+      </c>
+      <c r="B455" t="s">
+        <v>903</v>
+      </c>
+      <c r="C455">
+        <v>4</v>
+      </c>
+      <c r="D455">
+        <v>1.81</v>
+      </c>
+      <c r="E455">
+        <v>2.19</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+      <c r="G455">
+        <v>1</v>
+      </c>
+      <c r="H455">
+        <v>1</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>1</v>
+      </c>
+      <c r="K455" t="s">
+        <v>11</v>
+      </c>
+      <c r="L455">
+        <v>2</v>
+      </c>
+      <c r="M455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>904</v>
+      </c>
+      <c r="B456" t="s">
+        <v>905</v>
+      </c>
+      <c r="C456">
+        <v>1.45</v>
+      </c>
+      <c r="D456">
+        <v>5.9</v>
+      </c>
+      <c r="E456">
+        <v>4.45</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456">
+        <v>0</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456" t="s">
+        <v>12</v>
+      </c>
+      <c r="L456">
+        <v>1</v>
+      </c>
+      <c r="M456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>906</v>
+      </c>
+      <c r="B457" t="s">
+        <v>907</v>
+      </c>
+      <c r="C457">
+        <v>1.21</v>
+      </c>
+      <c r="D457">
+        <v>10.5</v>
+      </c>
+      <c r="E457">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
+      <c r="H457">
+        <v>1</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>1</v>
+      </c>
+      <c r="K457" t="s">
+        <v>13</v>
+      </c>
+      <c r="L457">
+        <v>2</v>
+      </c>
+      <c r="M457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>908</v>
+      </c>
+      <c r="B458" t="s">
+        <v>909</v>
+      </c>
+      <c r="C458">
+        <v>3.1</v>
+      </c>
+      <c r="D458">
+        <v>2.25</v>
+      </c>
+      <c r="E458">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458">
+        <v>1</v>
+      </c>
+      <c r="H458">
+        <v>1</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458" t="s">
+        <v>13</v>
+      </c>
+      <c r="L458">
+        <v>2</v>
+      </c>
+      <c r="M458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>910</v>
+      </c>
+      <c r="B459" t="s">
+        <v>510</v>
+      </c>
+      <c r="C459">
+        <v>1.51</v>
+      </c>
+      <c r="D459">
+        <v>5.9</v>
+      </c>
+      <c r="E459">
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+      <c r="H459">
+        <v>1</v>
+      </c>
+      <c r="I459">
+        <v>1</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459" t="s">
+        <v>13</v>
+      </c>
+      <c r="L459">
+        <v>1</v>
+      </c>
+      <c r="M459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>911</v>
+      </c>
+      <c r="B460" t="s">
+        <v>912</v>
+      </c>
+      <c r="C460">
+        <v>3.6</v>
+      </c>
+      <c r="D460">
+        <v>2</v>
+      </c>
+      <c r="E460">
+        <v>1.6</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+      <c r="H460">
+        <v>1</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460" t="s">
+        <v>11</v>
+      </c>
+      <c r="L460">
+        <v>0</v>
+      </c>
+      <c r="M460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>913</v>
+      </c>
+      <c r="B461" t="s">
+        <v>914</v>
+      </c>
+      <c r="C461">
+        <v>1.46</v>
+      </c>
+      <c r="D461">
+        <v>6.2</v>
+      </c>
+      <c r="E461">
+        <v>4.74</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>1</v>
+      </c>
+      <c r="I461">
+        <v>1</v>
+      </c>
+      <c r="J461">
+        <v>1</v>
+      </c>
+      <c r="K461" t="s">
+        <v>13</v>
+      </c>
+      <c r="L461">
+        <v>3</v>
+      </c>
+      <c r="M461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>915</v>
+      </c>
+      <c r="B462" t="s">
+        <v>916</v>
+      </c>
+      <c r="C462">
+        <v>1.5</v>
+      </c>
+      <c r="D462">
+        <v>5.75</v>
+      </c>
+      <c r="E462">
+        <v>4.25</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+      <c r="H462">
+        <v>1</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>1</v>
+      </c>
+      <c r="K462" t="s">
+        <v>11</v>
+      </c>
+      <c r="L462">
+        <v>0</v>
+      </c>
+      <c r="M462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>917</v>
+      </c>
+      <c r="B463" t="s">
+        <v>918</v>
+      </c>
+      <c r="C463">
+        <v>2.35</v>
+      </c>
+      <c r="D463">
+        <v>2.7</v>
+      </c>
+      <c r="E463">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+      <c r="H463">
+        <v>1</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463" t="s">
+        <v>13</v>
+      </c>
+      <c r="L463">
+        <v>2</v>
+      </c>
+      <c r="M463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>919</v>
+      </c>
+      <c r="B464" t="s">
+        <v>920</v>
+      </c>
+      <c r="C464">
+        <v>1.67</v>
+      </c>
+      <c r="D464">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E464">
+        <v>2.93</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+      <c r="H464">
+        <v>0</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464" t="s">
+        <v>13</v>
+      </c>
+      <c r="L464">
+        <v>2</v>
+      </c>
+      <c r="M464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>921</v>
+      </c>
+      <c r="B465" t="s">
+        <v>922</v>
+      </c>
+      <c r="C465">
+        <v>6.25</v>
+      </c>
+      <c r="D465">
+        <v>1.33</v>
+      </c>
+      <c r="E465">
+        <v>4.92</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465" t="s">
+        <v>11</v>
+      </c>
+      <c r="L465">
+        <v>0</v>
+      </c>
+      <c r="M465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>923</v>
+      </c>
+      <c r="B466" t="s">
+        <v>924</v>
+      </c>
+      <c r="C466">
+        <v>1.86</v>
+      </c>
+      <c r="D466">
+        <v>2.85</v>
+      </c>
+      <c r="E466">
+        <v>0.99</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>1</v>
+      </c>
+      <c r="H466">
+        <v>1</v>
+      </c>
+      <c r="I466">
+        <v>1</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466" t="s">
+        <v>13</v>
+      </c>
+      <c r="L466">
+        <v>5</v>
+      </c>
+      <c r="M466">
         <v>1</v>
       </c>
     </row>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826D1A0C-72A9-477E-81FA-06BC4C85DD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F5484D-B4DF-4426-B1C1-F9958FECBC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1027">
   <si>
     <t>home</t>
   </si>
@@ -2811,6 +2811,312 @@
   </si>
   <si>
     <t xml:space="preserve"> Fylkir/Ellidi U19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Cremonese </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Pisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Coast Mariners </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changchun Yatai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sichuan Jiuniu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qingdao Hainiu FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shanghai Port FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daegu FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangwon FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pohang Steelers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incheon United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeonbuk Hyundai Motors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeju United FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gwangju FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Varea </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SD Oyonesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE Prat </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Girona FC B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE Rapitenca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UE Tona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patacona CF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Athletic Torrellano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF Gandia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Burriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trival Valderas A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CDF Tres Cantos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonia Moscardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Canillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSD Alcala </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AD Torrejon CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedania Gdansk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pogon Szczecin II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFk Karvina B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. SC Znojmo FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wofoo Tai Po </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sham Shui Po SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wurzburger FV </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. SC Feucht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blumenthaler SV </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KSV Vatan Sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borussia Monchengladbach </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MSV Duisburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slavia Prague </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Zbrojovka Brno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASD Pomigliano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Milan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter Milano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACF Fiorentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CS Maritimo Madeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malmo FF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mallbackens IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bollstanas SK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IK Uppsala Fotboll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eskilstuna United DFF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Umea IK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamla Upsala SK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jitex Molndal BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lidkopings FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sunnanaa SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguesa FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Academia Puerto Cabello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angostura FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carabobo FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brusque FC SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Goianiense GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluminense FC RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sousa EC PB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ypiranga FC RS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CR Vasco da Gama RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America FC RN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Corinthians SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Universidad Catolica del Ecuador </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barcelona SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gualaceo SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guayaquil City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Cartagines </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perez Zeledon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atletico Ottawa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valour FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Dragon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Once Deportivo de Ahuachapan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Tecla FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AD Isidro Metapan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD FAS Santa Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlántico FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delfines Del Este</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cibao CF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Universidad O&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moca FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Atletico Pantoja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atletico Mineiro MG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando Pride </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> North Carolina Courage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Red Stars </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Washington Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter Playa Del Carmen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tampico Madero FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artesanos Metepec FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aguacateros CD Uruapan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Inca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Csd Vendaval</t>
   </si>
 </sst>
 </file>
@@ -3186,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M466"/>
+  <dimension ref="A1:M522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O468" sqref="O468"/>
+    <sheetView tabSelected="1" topLeftCell="A512" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A498" sqref="A498:XFD523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22298,6 +22604,2302 @@
       </c>
       <c r="M466">
         <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>925</v>
+      </c>
+      <c r="B467" t="s">
+        <v>926</v>
+      </c>
+      <c r="C467">
+        <v>1.83</v>
+      </c>
+      <c r="D467">
+        <v>4.3</v>
+      </c>
+      <c r="E467">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>1</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>1</v>
+      </c>
+      <c r="K467" t="s">
+        <v>13</v>
+      </c>
+      <c r="L467">
+        <v>2</v>
+      </c>
+      <c r="M467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>927</v>
+      </c>
+      <c r="B468" t="s">
+        <v>382</v>
+      </c>
+      <c r="C468">
+        <v>1.59</v>
+      </c>
+      <c r="D468">
+        <v>4.7</v>
+      </c>
+      <c r="E468">
+        <v>3.11</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>1</v>
+      </c>
+      <c r="I468">
+        <v>1</v>
+      </c>
+      <c r="J468">
+        <v>1</v>
+      </c>
+      <c r="K468" t="s">
+        <v>13</v>
+      </c>
+      <c r="L468">
+        <v>2</v>
+      </c>
+      <c r="M468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>928</v>
+      </c>
+      <c r="B469" t="s">
+        <v>929</v>
+      </c>
+      <c r="C469">
+        <v>2.39</v>
+      </c>
+      <c r="D469">
+        <v>3</v>
+      </c>
+      <c r="E469">
+        <v>0.60999999999999988</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469">
+        <v>1</v>
+      </c>
+      <c r="H469">
+        <v>1</v>
+      </c>
+      <c r="I469">
+        <v>1</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469" t="s">
+        <v>11</v>
+      </c>
+      <c r="L469">
+        <v>1</v>
+      </c>
+      <c r="M469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>930</v>
+      </c>
+      <c r="B470" t="s">
+        <v>931</v>
+      </c>
+      <c r="C470">
+        <v>9.73</v>
+      </c>
+      <c r="D470">
+        <v>1.32</v>
+      </c>
+      <c r="E470">
+        <v>8.41</v>
+      </c>
+      <c r="F470">
+        <v>1</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470" t="s">
+        <v>12</v>
+      </c>
+      <c r="L470">
+        <v>0</v>
+      </c>
+      <c r="M470">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>932</v>
+      </c>
+      <c r="B471" t="s">
+        <v>115</v>
+      </c>
+      <c r="C471">
+        <v>3.9</v>
+      </c>
+      <c r="D471">
+        <v>1.95</v>
+      </c>
+      <c r="E471">
+        <v>1.95</v>
+      </c>
+      <c r="F471">
+        <v>1</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+      <c r="I471">
+        <v>1</v>
+      </c>
+      <c r="J471">
+        <v>1</v>
+      </c>
+      <c r="K471" t="s">
+        <v>12</v>
+      </c>
+      <c r="L471">
+        <v>1</v>
+      </c>
+      <c r="M471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>933</v>
+      </c>
+      <c r="B472" t="s">
+        <v>934</v>
+      </c>
+      <c r="C472">
+        <v>2.95</v>
+      </c>
+      <c r="D472">
+        <v>2.6</v>
+      </c>
+      <c r="E472">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F472">
+        <v>1</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>0</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472" t="s">
+        <v>12</v>
+      </c>
+      <c r="L472">
+        <v>2</v>
+      </c>
+      <c r="M472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>935</v>
+      </c>
+      <c r="B473" t="s">
+        <v>936</v>
+      </c>
+      <c r="C473">
+        <v>2.75</v>
+      </c>
+      <c r="D473">
+        <v>2.65</v>
+      </c>
+      <c r="E473">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+      <c r="G473">
+        <v>1</v>
+      </c>
+      <c r="H473">
+        <v>0</v>
+      </c>
+      <c r="I473">
+        <v>1</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473" t="s">
+        <v>13</v>
+      </c>
+      <c r="L473">
+        <v>3</v>
+      </c>
+      <c r="M473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>937</v>
+      </c>
+      <c r="B474" t="s">
+        <v>938</v>
+      </c>
+      <c r="C474">
+        <v>2.7</v>
+      </c>
+      <c r="D474">
+        <v>2.7</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>0</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>1</v>
+      </c>
+      <c r="J474">
+        <v>1</v>
+      </c>
+      <c r="K474" t="s">
+        <v>12</v>
+      </c>
+      <c r="L474">
+        <v>1</v>
+      </c>
+      <c r="M474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>939</v>
+      </c>
+      <c r="B475" t="s">
+        <v>940</v>
+      </c>
+      <c r="C475">
+        <v>1.83</v>
+      </c>
+      <c r="D475">
+        <v>4.2</v>
+      </c>
+      <c r="E475">
+        <v>2.37</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="K475" t="s">
+        <v>11</v>
+      </c>
+      <c r="L475">
+        <v>0</v>
+      </c>
+      <c r="M475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>941</v>
+      </c>
+      <c r="B476" t="s">
+        <v>942</v>
+      </c>
+      <c r="C476">
+        <v>1.92</v>
+      </c>
+      <c r="D476">
+        <v>4</v>
+      </c>
+      <c r="E476">
+        <v>2.08</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+      <c r="I476">
+        <v>1</v>
+      </c>
+      <c r="J476">
+        <v>1</v>
+      </c>
+      <c r="K476" t="s">
+        <v>12</v>
+      </c>
+      <c r="L476">
+        <v>1</v>
+      </c>
+      <c r="M476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>943</v>
+      </c>
+      <c r="B477" t="s">
+        <v>944</v>
+      </c>
+      <c r="C477">
+        <v>2.65</v>
+      </c>
+      <c r="D477">
+        <v>2.6</v>
+      </c>
+      <c r="E477">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>1</v>
+      </c>
+      <c r="K477" t="s">
+        <v>12</v>
+      </c>
+      <c r="L477">
+        <v>1</v>
+      </c>
+      <c r="M477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>945</v>
+      </c>
+      <c r="B478" t="s">
+        <v>946</v>
+      </c>
+      <c r="C478">
+        <v>2.35</v>
+      </c>
+      <c r="D478">
+        <v>2.95</v>
+      </c>
+      <c r="E478">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F478">
+        <v>1</v>
+      </c>
+      <c r="G478">
+        <v>0</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478" t="s">
+        <v>11</v>
+      </c>
+      <c r="L478">
+        <v>0</v>
+      </c>
+      <c r="M478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>947</v>
+      </c>
+      <c r="B479" t="s">
+        <v>948</v>
+      </c>
+      <c r="C479">
+        <v>1.83</v>
+      </c>
+      <c r="D479">
+        <v>4.3</v>
+      </c>
+      <c r="E479">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>0</v>
+      </c>
+      <c r="I479">
+        <v>1</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479" t="s">
+        <v>13</v>
+      </c>
+      <c r="L479">
+        <v>5</v>
+      </c>
+      <c r="M479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>949</v>
+      </c>
+      <c r="B480" t="s">
+        <v>950</v>
+      </c>
+      <c r="C480">
+        <v>2.4</v>
+      </c>
+      <c r="D480">
+        <v>2.75</v>
+      </c>
+      <c r="E480">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>0</v>
+      </c>
+      <c r="H480">
+        <v>1</v>
+      </c>
+      <c r="I480">
+        <v>1</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480" t="s">
+        <v>11</v>
+      </c>
+      <c r="L480">
+        <v>1</v>
+      </c>
+      <c r="M480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>951</v>
+      </c>
+      <c r="B481" t="s">
+        <v>952</v>
+      </c>
+      <c r="C481">
+        <v>1.85</v>
+      </c>
+      <c r="D481">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E481">
+        <v>2.25</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+      <c r="H481">
+        <v>1</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>1</v>
+      </c>
+      <c r="K481" t="s">
+        <v>13</v>
+      </c>
+      <c r="L481">
+        <v>3</v>
+      </c>
+      <c r="M481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>953</v>
+      </c>
+      <c r="B482" t="s">
+        <v>954</v>
+      </c>
+      <c r="C482">
+        <v>2.1</v>
+      </c>
+      <c r="D482">
+        <v>3.2</v>
+      </c>
+      <c r="E482">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482" t="s">
+        <v>11</v>
+      </c>
+      <c r="L482">
+        <v>3</v>
+      </c>
+      <c r="M482">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>955</v>
+      </c>
+      <c r="B483" t="s">
+        <v>956</v>
+      </c>
+      <c r="C483">
+        <v>3</v>
+      </c>
+      <c r="D483">
+        <v>1.97</v>
+      </c>
+      <c r="E483">
+        <v>1.03</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>1</v>
+      </c>
+      <c r="K483" t="s">
+        <v>13</v>
+      </c>
+      <c r="L483">
+        <v>2</v>
+      </c>
+      <c r="M483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>957</v>
+      </c>
+      <c r="B484" t="s">
+        <v>958</v>
+      </c>
+      <c r="C484">
+        <v>2.35</v>
+      </c>
+      <c r="D484">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E484">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F484">
+        <v>1</v>
+      </c>
+      <c r="G484">
+        <v>0</v>
+      </c>
+      <c r="H484">
+        <v>1</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
+      </c>
+      <c r="K484" t="s">
+        <v>13</v>
+      </c>
+      <c r="L484">
+        <v>5</v>
+      </c>
+      <c r="M484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>959</v>
+      </c>
+      <c r="B485" t="s">
+        <v>960</v>
+      </c>
+      <c r="C485">
+        <v>1.19</v>
+      </c>
+      <c r="D485">
+        <v>10.5</v>
+      </c>
+      <c r="E485">
+        <v>9.31</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>1</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="J485">
+        <v>1</v>
+      </c>
+      <c r="K485" t="s">
+        <v>13</v>
+      </c>
+      <c r="L485">
+        <v>2</v>
+      </c>
+      <c r="M485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>961</v>
+      </c>
+      <c r="B486" t="s">
+        <v>962</v>
+      </c>
+      <c r="C486">
+        <v>1.24</v>
+      </c>
+      <c r="D486">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E486">
+        <v>6.9599999999999991</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486">
+        <v>1</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>1</v>
+      </c>
+      <c r="K486" t="s">
+        <v>13</v>
+      </c>
+      <c r="L486">
+        <v>6</v>
+      </c>
+      <c r="M486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>963</v>
+      </c>
+      <c r="B487" t="s">
+        <v>964</v>
+      </c>
+      <c r="C487">
+        <v>1.59</v>
+      </c>
+      <c r="D487">
+        <v>3.6</v>
+      </c>
+      <c r="E487">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>1</v>
+      </c>
+      <c r="H487">
+        <v>1</v>
+      </c>
+      <c r="I487">
+        <v>0</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487" t="s">
+        <v>13</v>
+      </c>
+      <c r="L487">
+        <v>7</v>
+      </c>
+      <c r="M487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>965</v>
+      </c>
+      <c r="B488" t="s">
+        <v>966</v>
+      </c>
+      <c r="C488">
+        <v>1.43</v>
+      </c>
+      <c r="D488">
+        <v>5.4</v>
+      </c>
+      <c r="E488">
+        <v>3.9700000000000011</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+      <c r="H488">
+        <v>1</v>
+      </c>
+      <c r="I488">
+        <v>1</v>
+      </c>
+      <c r="J488">
+        <v>1</v>
+      </c>
+      <c r="K488" t="s">
+        <v>13</v>
+      </c>
+      <c r="L488">
+        <v>3</v>
+      </c>
+      <c r="M488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>967</v>
+      </c>
+      <c r="B489" t="s">
+        <v>968</v>
+      </c>
+      <c r="C489">
+        <v>1.44</v>
+      </c>
+      <c r="D489">
+        <v>5</v>
+      </c>
+      <c r="E489">
+        <v>3.56</v>
+      </c>
+      <c r="F489">
+        <v>1</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>1</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>1</v>
+      </c>
+      <c r="K489" t="s">
+        <v>12</v>
+      </c>
+      <c r="L489">
+        <v>1</v>
+      </c>
+      <c r="M489">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>969</v>
+      </c>
+      <c r="B490" t="s">
+        <v>970</v>
+      </c>
+      <c r="C490">
+        <v>12</v>
+      </c>
+      <c r="D490">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E490">
+        <v>10.85</v>
+      </c>
+      <c r="F490">
+        <v>1</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>1</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490" t="s">
+        <v>11</v>
+      </c>
+      <c r="L490">
+        <v>2</v>
+      </c>
+      <c r="M490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>971</v>
+      </c>
+      <c r="B491" t="s">
+        <v>972</v>
+      </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491">
+        <v>3.2</v>
+      </c>
+      <c r="E491">
+        <v>1.2</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+      <c r="I491">
+        <v>1</v>
+      </c>
+      <c r="J491">
+        <v>1</v>
+      </c>
+      <c r="K491" t="s">
+        <v>11</v>
+      </c>
+      <c r="L491">
+        <v>2</v>
+      </c>
+      <c r="M491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>973</v>
+      </c>
+      <c r="B492" t="s">
+        <v>974</v>
+      </c>
+      <c r="C492">
+        <v>1.23</v>
+      </c>
+      <c r="D492">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E492">
+        <v>7.9699999999999989</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+      <c r="G492">
+        <v>0</v>
+      </c>
+      <c r="H492">
+        <v>1</v>
+      </c>
+      <c r="I492">
+        <v>1</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492" t="s">
+        <v>13</v>
+      </c>
+      <c r="L492">
+        <v>3</v>
+      </c>
+      <c r="M492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>975</v>
+      </c>
+      <c r="B493" t="s">
+        <v>976</v>
+      </c>
+      <c r="C493">
+        <v>1.34</v>
+      </c>
+      <c r="D493">
+        <v>6.4</v>
+      </c>
+      <c r="E493">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>1</v>
+      </c>
+      <c r="I493">
+        <v>1</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493" t="s">
+        <v>12</v>
+      </c>
+      <c r="L493">
+        <v>1</v>
+      </c>
+      <c r="M493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>977</v>
+      </c>
+      <c r="B494" t="s">
+        <v>978</v>
+      </c>
+      <c r="C494">
+        <v>2.25</v>
+      </c>
+      <c r="D494">
+        <v>2.6</v>
+      </c>
+      <c r="E494">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F494">
+        <v>0</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>1</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494" t="s">
+        <v>13</v>
+      </c>
+      <c r="L494">
+        <v>2</v>
+      </c>
+      <c r="M494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>979</v>
+      </c>
+      <c r="B495" t="s">
+        <v>980</v>
+      </c>
+      <c r="C495">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D495">
+        <v>2.25</v>
+      </c>
+      <c r="E495">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+      <c r="H495">
+        <v>1</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495" t="s">
+        <v>12</v>
+      </c>
+      <c r="L495">
+        <v>1</v>
+      </c>
+      <c r="M495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>981</v>
+      </c>
+      <c r="B496" t="s">
+        <v>982</v>
+      </c>
+      <c r="C496">
+        <v>1.71</v>
+      </c>
+      <c r="D496">
+        <v>3.5</v>
+      </c>
+      <c r="E496">
+        <v>1.79</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>1</v>
+      </c>
+      <c r="K496" t="s">
+        <v>13</v>
+      </c>
+      <c r="L496">
+        <v>3</v>
+      </c>
+      <c r="M496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>983</v>
+      </c>
+      <c r="B497" t="s">
+        <v>984</v>
+      </c>
+      <c r="C497">
+        <v>1.31</v>
+      </c>
+      <c r="D497">
+        <v>6.75</v>
+      </c>
+      <c r="E497">
+        <v>5.44</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+      <c r="H497">
+        <v>0</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497" t="s">
+        <v>13</v>
+      </c>
+      <c r="L497">
+        <v>3</v>
+      </c>
+      <c r="M497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>985</v>
+      </c>
+      <c r="B498" t="s">
+        <v>986</v>
+      </c>
+      <c r="C498">
+        <v>3.2</v>
+      </c>
+      <c r="D498">
+        <v>2.35</v>
+      </c>
+      <c r="E498">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F498">
+        <v>1</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>1</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498" t="s">
+        <v>11</v>
+      </c>
+      <c r="L498">
+        <v>1</v>
+      </c>
+      <c r="M498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>987</v>
+      </c>
+      <c r="B499" t="s">
+        <v>988</v>
+      </c>
+      <c r="C499">
+        <v>3</v>
+      </c>
+      <c r="D499">
+        <v>2.4</v>
+      </c>
+      <c r="E499">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+      <c r="I499">
+        <v>1</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499" t="s">
+        <v>11</v>
+      </c>
+      <c r="L499">
+        <v>1</v>
+      </c>
+      <c r="M499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>989</v>
+      </c>
+      <c r="B500" t="s">
+        <v>990</v>
+      </c>
+      <c r="C500">
+        <v>3.6</v>
+      </c>
+      <c r="D500">
+        <v>2.1</v>
+      </c>
+      <c r="E500">
+        <v>1.5</v>
+      </c>
+      <c r="F500">
+        <v>1</v>
+      </c>
+      <c r="G500">
+        <v>1</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>1</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500" t="s">
+        <v>12</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
+      <c r="M500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>549</v>
+      </c>
+      <c r="B501" t="s">
+        <v>991</v>
+      </c>
+      <c r="C501">
+        <v>7.75</v>
+      </c>
+      <c r="D501">
+        <v>1.37</v>
+      </c>
+      <c r="E501">
+        <v>6.38</v>
+      </c>
+      <c r="F501">
+        <v>1</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
+        <v>1</v>
+      </c>
+      <c r="J501">
+        <v>1</v>
+      </c>
+      <c r="K501" t="s">
+        <v>12</v>
+      </c>
+      <c r="L501">
+        <v>0</v>
+      </c>
+      <c r="M501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>992</v>
+      </c>
+      <c r="B502" t="s">
+        <v>727</v>
+      </c>
+      <c r="C502">
+        <v>5.7</v>
+      </c>
+      <c r="D502">
+        <v>1.54</v>
+      </c>
+      <c r="E502">
+        <v>4.16</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502">
+        <v>0</v>
+      </c>
+      <c r="I502">
+        <v>1</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502" t="s">
+        <v>11</v>
+      </c>
+      <c r="L502">
+        <v>1</v>
+      </c>
+      <c r="M502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>993</v>
+      </c>
+      <c r="B503" t="s">
+        <v>292</v>
+      </c>
+      <c r="C503">
+        <v>5.8</v>
+      </c>
+      <c r="D503">
+        <v>1.57</v>
+      </c>
+      <c r="E503">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F503">
+        <v>1</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503">
+        <v>1</v>
+      </c>
+      <c r="I503">
+        <v>1</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503" t="s">
+        <v>13</v>
+      </c>
+      <c r="L503">
+        <v>2</v>
+      </c>
+      <c r="M503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>726</v>
+      </c>
+      <c r="B504" t="s">
+        <v>994</v>
+      </c>
+      <c r="C504">
+        <v>1.62</v>
+      </c>
+      <c r="D504">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E504">
+        <v>3.28</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>1</v>
+      </c>
+      <c r="K504" t="s">
+        <v>11</v>
+      </c>
+      <c r="L504">
+        <v>0</v>
+      </c>
+      <c r="M504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>995</v>
+      </c>
+      <c r="B505" t="s">
+        <v>996</v>
+      </c>
+      <c r="C505">
+        <v>6.25</v>
+      </c>
+      <c r="D505">
+        <v>1.54</v>
+      </c>
+      <c r="E505">
+        <v>4.71</v>
+      </c>
+      <c r="F505">
+        <v>1</v>
+      </c>
+      <c r="G505">
+        <v>0</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>1</v>
+      </c>
+      <c r="K505" t="s">
+        <v>12</v>
+      </c>
+      <c r="L505">
+        <v>1</v>
+      </c>
+      <c r="M505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>683</v>
+      </c>
+      <c r="B506" t="s">
+        <v>518</v>
+      </c>
+      <c r="C506">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D506">
+        <v>18</v>
+      </c>
+      <c r="E506">
+        <v>16.89</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>1</v>
+      </c>
+      <c r="K506" t="s">
+        <v>13</v>
+      </c>
+      <c r="L506">
+        <v>1</v>
+      </c>
+      <c r="M506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>997</v>
+      </c>
+      <c r="B507" t="s">
+        <v>998</v>
+      </c>
+      <c r="C507">
+        <v>1.72</v>
+      </c>
+      <c r="D507">
+        <v>4.25</v>
+      </c>
+      <c r="E507">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F507">
+        <v>0</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507">
+        <v>1</v>
+      </c>
+      <c r="I507">
+        <v>1</v>
+      </c>
+      <c r="J507">
+        <v>0</v>
+      </c>
+      <c r="K507" t="s">
+        <v>12</v>
+      </c>
+      <c r="L507">
+        <v>0</v>
+      </c>
+      <c r="M507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>999</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C508">
+        <v>1.78</v>
+      </c>
+      <c r="D508">
+        <v>4.8</v>
+      </c>
+      <c r="E508">
+        <v>3.02</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>1</v>
+      </c>
+      <c r="H508">
+        <v>0</v>
+      </c>
+      <c r="I508">
+        <v>1</v>
+      </c>
+      <c r="J508">
+        <v>1</v>
+      </c>
+      <c r="K508" t="s">
+        <v>12</v>
+      </c>
+      <c r="L508">
+        <v>0</v>
+      </c>
+      <c r="M508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C509">
+        <v>1.58</v>
+      </c>
+      <c r="D509">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E509">
+        <v>3.52</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+      <c r="H509">
+        <v>1</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
+      <c r="K509" t="s">
+        <v>12</v>
+      </c>
+      <c r="L509">
+        <v>0</v>
+      </c>
+      <c r="M509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C510">
+        <v>1.7</v>
+      </c>
+      <c r="D510">
+        <v>4.2</v>
+      </c>
+      <c r="E510">
+        <v>2.5</v>
+      </c>
+      <c r="F510">
+        <v>0</v>
+      </c>
+      <c r="G510">
+        <v>1</v>
+      </c>
+      <c r="H510">
+        <v>1</v>
+      </c>
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+      <c r="K510" t="s">
+        <v>13</v>
+      </c>
+      <c r="L510">
+        <v>7</v>
+      </c>
+      <c r="M510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C511">
+        <v>2.4</v>
+      </c>
+      <c r="D511">
+        <v>2.65</v>
+      </c>
+      <c r="E511">
+        <v>0.25</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+      <c r="G511">
+        <v>0</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511" t="s">
+        <v>13</v>
+      </c>
+      <c r="L511">
+        <v>3</v>
+      </c>
+      <c r="M511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C512">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D512">
+        <v>1.68</v>
+      </c>
+      <c r="E512">
+        <v>2.42</v>
+      </c>
+      <c r="F512">
+        <v>1</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>0</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512" t="s">
+        <v>12</v>
+      </c>
+      <c r="L512">
+        <v>0</v>
+      </c>
+      <c r="M512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>313</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C513">
+        <v>1.55</v>
+      </c>
+      <c r="D513">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E513">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="F513">
+        <v>1</v>
+      </c>
+      <c r="G513">
+        <v>0</v>
+      </c>
+      <c r="H513">
+        <v>1</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>1</v>
+      </c>
+      <c r="K513" t="s">
+        <v>11</v>
+      </c>
+      <c r="L513">
+        <v>0</v>
+      </c>
+      <c r="M513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C514">
+        <v>1.99</v>
+      </c>
+      <c r="D514">
+        <v>3.2</v>
+      </c>
+      <c r="E514">
+        <v>1.21</v>
+      </c>
+      <c r="F514">
+        <v>0</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+      <c r="I514">
+        <v>1</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514" t="s">
+        <v>11</v>
+      </c>
+      <c r="L514">
+        <v>1</v>
+      </c>
+      <c r="M514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C515">
+        <v>1.68</v>
+      </c>
+      <c r="D515">
+        <v>4.2</v>
+      </c>
+      <c r="E515">
+        <v>2.52</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <v>0</v>
+      </c>
+      <c r="H515">
+        <v>1</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
+      <c r="K515" t="s">
+        <v>13</v>
+      </c>
+      <c r="L515">
+        <v>1</v>
+      </c>
+      <c r="M515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C516">
+        <v>1.91</v>
+      </c>
+      <c r="D516">
+        <v>3.3</v>
+      </c>
+      <c r="E516">
+        <v>1.39</v>
+      </c>
+      <c r="F516">
+        <v>1</v>
+      </c>
+      <c r="G516">
+        <v>0</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516" t="s">
+        <v>11</v>
+      </c>
+      <c r="L516">
+        <v>0</v>
+      </c>
+      <c r="M516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B517" t="s">
+        <v>912</v>
+      </c>
+      <c r="C517">
+        <v>2.25</v>
+      </c>
+      <c r="D517">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E517">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>1</v>
+      </c>
+      <c r="I517">
+        <v>1</v>
+      </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
+      <c r="K517" t="s">
+        <v>12</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
+      </c>
+      <c r="M517">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C518">
+        <v>2.25</v>
+      </c>
+      <c r="D518">
+        <v>3</v>
+      </c>
+      <c r="E518">
+        <v>0.75</v>
+      </c>
+      <c r="F518">
+        <v>1</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+      <c r="H518">
+        <v>1</v>
+      </c>
+      <c r="I518">
+        <v>1</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518" t="s">
+        <v>13</v>
+      </c>
+      <c r="L518">
+        <v>4</v>
+      </c>
+      <c r="M518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C519">
+        <v>2.85</v>
+      </c>
+      <c r="D519">
+        <v>2.25</v>
+      </c>
+      <c r="E519">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F519">
+        <v>1</v>
+      </c>
+      <c r="G519">
+        <v>1</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>1</v>
+      </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
+      <c r="K519" t="s">
+        <v>12</v>
+      </c>
+      <c r="L519">
+        <v>2</v>
+      </c>
+      <c r="M519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C520">
+        <v>2.95</v>
+      </c>
+      <c r="D520">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E520">
+        <v>0.75</v>
+      </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
+      <c r="G520">
+        <v>0</v>
+      </c>
+      <c r="H520">
+        <v>1</v>
+      </c>
+      <c r="I520">
+        <v>1</v>
+      </c>
+      <c r="J520">
+        <v>1</v>
+      </c>
+      <c r="K520" t="s">
+        <v>12</v>
+      </c>
+      <c r="L520">
+        <v>0</v>
+      </c>
+      <c r="M520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C521">
+        <v>1.83</v>
+      </c>
+      <c r="D521">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E521">
+        <v>2.27</v>
+      </c>
+      <c r="F521">
+        <v>1</v>
+      </c>
+      <c r="G521">
+        <v>0</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521" t="s">
+        <v>11</v>
+      </c>
+      <c r="L521">
+        <v>0</v>
+      </c>
+      <c r="M521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C522">
+        <v>1.07</v>
+      </c>
+      <c r="D522">
+        <v>21</v>
+      </c>
+      <c r="E522">
+        <v>19.93</v>
+      </c>
+      <c r="F522">
+        <v>1</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+      <c r="H522">
+        <v>1</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522" t="s">
+        <v>13</v>
+      </c>
+      <c r="L522">
+        <v>3</v>
+      </c>
+      <c r="M522">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFB3250-08FE-4D2B-9D93-79C5363AA47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C951C-250F-4367-9F18-DD524AB065F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1831">
   <si>
     <t>home</t>
   </si>
@@ -5055,6 +5055,480 @@
   </si>
   <si>
     <t xml:space="preserve"> CR Brasil AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Tulsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Palestino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Universidad Cesar Vallejo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independiente Medellin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Dynamo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detroit City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Junior FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always Ready </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defensa y Justicia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammedan SC Dhaka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangladesh Police FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charlton Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barnsley FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BFC Daugavpils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Riteriai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Banga Gargzdai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Tekstilac Odzaci </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Radnicki Sremska Mitrovica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFK Graficar Beograd </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Jedinstvo UB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Othellos Athienou </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doxa Katokopias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bnei Yehuda Tel Aviv FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maccabi Kabilio Jaffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapoel Acre FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hapoel Ramat Gan Givatayim FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapoel Nof Hagalil FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hapoel Nir Ramat Hasharon FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapoel Umm AL Fahm </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maccabi Herzliya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Faisaly FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VfL 1899 Osnabruck </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schalke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Wahda FC (UAE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Nasr Dubai CSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Weiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USV Weindorf St. Anna am Aigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wuppertaler SV </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fortuna Dusseldorf II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besiktas Istanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MKE Ankaragucu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaizer Chiefs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS Galaxy FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watford FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir/Lettir </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selfoss/Ham/Aeg/Ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SE Kindermann SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atalanta BC U23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Trento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audace Cerignola </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Giugliano 1928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delfino Pescara </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US Citta Di Pontedera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juventus FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SS Arezzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK Kopavogur </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spartans FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peterhead FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsb Berkane </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moghreb Athletic de Tetouan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Independiente Juniors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracas FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Penarol Montevideo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racing Club Montevideo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Argentinos Juniors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellington Phoenix FC Reserve </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Island Bay United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.SK Prostejov </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FK Pribram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quang Nam FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cong An Nhan Dan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando City B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New York Red Bulls II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phoenix Rising FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Omaha SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LDU Quito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sao Paulo FC SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Georgia Tormenta FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown Legacy FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New England Revolution II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa Bay Rowdies </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Birmingham Legion FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America FC MG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vila Nova FC GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuiaba Esporte Clube MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolitanos FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fortaleza FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportivo Trinidense </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boca Juniors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Salt Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos de Guapiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liga Deportiva Alajuelense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara Chivas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Bolivar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Vegas Lights </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Angeles FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seattle Sounders </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Louisville City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Herediano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puntarenas FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparta Prague B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Lisen Brno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giouchtas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panathinaikos B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Telecom Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Viena FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tanta FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFK Vrsac </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Metalac Gornji Milanovac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paide Linnameeskond </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nomme Kalju FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFk Vyskov </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Vysocina Jihlava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oulun Luistinseura </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seinajoen JK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Varnsdorf </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Hanacka Slavia Kromeriz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFK Chrudim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dukla Prague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Honka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PK-35 Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Vojvodina Novi Sad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Cukaricki Belgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysekloster </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KFUM Oslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molde FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarpsborg 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raufoss IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stabaek IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valerenga IF Oslo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Vlasim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Sigma Olomouc B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Zbrojovka Brno </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Viktoria Zizkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lahden Reipas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Haka Valkeakoski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VJS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IF Gnistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Mladost Lucani </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Crvena Zvezda Belgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Eskilstuna </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Stockholm Internazionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF Karlstad Fotbol </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karlbergs BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levanger FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viking FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenal de Sarandi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estudiantes Rio Cuarto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oxford United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guayaquil City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuniburo FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envigado FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Cartagena FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Atletico Los Andes</t>
   </si>
 </sst>
 </file>
@@ -5430,10 +5904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M890"/>
+  <dimension ref="A1:M982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A874" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O885" sqref="O885"/>
+    <sheetView tabSelected="1" topLeftCell="A916" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A930" sqref="A930:XFD982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41926,6 +42400,3778 @@
       </c>
       <c r="M890">
         <v>2</v>
+      </c>
+    </row>
+    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C891">
+        <v>1.5</v>
+      </c>
+      <c r="D891">
+        <v>6</v>
+      </c>
+      <c r="E891">
+        <v>4.5</v>
+      </c>
+      <c r="F891">
+        <v>1</v>
+      </c>
+      <c r="G891">
+        <v>1</v>
+      </c>
+      <c r="H891">
+        <v>0</v>
+      </c>
+      <c r="I891">
+        <v>0</v>
+      </c>
+      <c r="J891">
+        <v>1</v>
+      </c>
+      <c r="K891" t="s">
+        <v>12</v>
+      </c>
+      <c r="L891">
+        <v>0</v>
+      </c>
+      <c r="M891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B892" t="s">
+        <v>279</v>
+      </c>
+      <c r="C892">
+        <v>6.8</v>
+      </c>
+      <c r="D892">
+        <v>1.52</v>
+      </c>
+      <c r="E892">
+        <v>5.2799999999999994</v>
+      </c>
+      <c r="F892">
+        <v>1</v>
+      </c>
+      <c r="G892">
+        <v>0</v>
+      </c>
+      <c r="H892">
+        <v>0</v>
+      </c>
+      <c r="I892">
+        <v>0</v>
+      </c>
+      <c r="J892">
+        <v>0</v>
+      </c>
+      <c r="K892" t="s">
+        <v>13</v>
+      </c>
+      <c r="L892">
+        <v>1</v>
+      </c>
+      <c r="M892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C893">
+        <v>3.3</v>
+      </c>
+      <c r="D893">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E893">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F893">
+        <v>1</v>
+      </c>
+      <c r="G893">
+        <v>0</v>
+      </c>
+      <c r="H893">
+        <v>0</v>
+      </c>
+      <c r="I893">
+        <v>1</v>
+      </c>
+      <c r="J893">
+        <v>0</v>
+      </c>
+      <c r="K893" t="s">
+        <v>12</v>
+      </c>
+      <c r="L893">
+        <v>1</v>
+      </c>
+      <c r="M893">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C894">
+        <v>1.38</v>
+      </c>
+      <c r="D894">
+        <v>8.25</v>
+      </c>
+      <c r="E894">
+        <v>6.87</v>
+      </c>
+      <c r="F894">
+        <v>0</v>
+      </c>
+      <c r="G894">
+        <v>0</v>
+      </c>
+      <c r="H894">
+        <v>0</v>
+      </c>
+      <c r="I894">
+        <v>1</v>
+      </c>
+      <c r="J894">
+        <v>1</v>
+      </c>
+      <c r="K894" t="s">
+        <v>11</v>
+      </c>
+      <c r="L894">
+        <v>3</v>
+      </c>
+      <c r="M894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>744</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C895">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D895">
+        <v>3.4</v>
+      </c>
+      <c r="E895">
+        <v>1.2</v>
+      </c>
+      <c r="F895">
+        <v>1</v>
+      </c>
+      <c r="G895">
+        <v>0</v>
+      </c>
+      <c r="H895">
+        <v>0</v>
+      </c>
+      <c r="I895">
+        <v>1</v>
+      </c>
+      <c r="J895">
+        <v>0</v>
+      </c>
+      <c r="K895" t="s">
+        <v>11</v>
+      </c>
+      <c r="L895">
+        <v>1</v>
+      </c>
+      <c r="M895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C896">
+        <v>1.57</v>
+      </c>
+      <c r="D896">
+        <v>5.7</v>
+      </c>
+      <c r="E896">
+        <v>4.13</v>
+      </c>
+      <c r="F896">
+        <v>1</v>
+      </c>
+      <c r="G896">
+        <v>0</v>
+      </c>
+      <c r="H896">
+        <v>0</v>
+      </c>
+      <c r="I896">
+        <v>1</v>
+      </c>
+      <c r="J896">
+        <v>0</v>
+      </c>
+      <c r="K896" t="s">
+        <v>13</v>
+      </c>
+      <c r="L896">
+        <v>3</v>
+      </c>
+      <c r="M896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C897">
+        <v>1.74</v>
+      </c>
+      <c r="D897">
+        <v>4.5</v>
+      </c>
+      <c r="E897">
+        <v>2.76</v>
+      </c>
+      <c r="F897">
+        <v>1</v>
+      </c>
+      <c r="G897">
+        <v>0</v>
+      </c>
+      <c r="H897">
+        <v>0</v>
+      </c>
+      <c r="I897">
+        <v>1</v>
+      </c>
+      <c r="J897">
+        <v>0</v>
+      </c>
+      <c r="K897" t="s">
+        <v>13</v>
+      </c>
+      <c r="L897">
+        <v>2</v>
+      </c>
+      <c r="M897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>45</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C898">
+        <v>2.1</v>
+      </c>
+      <c r="D898">
+        <v>2.65</v>
+      </c>
+      <c r="E898">
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="F898">
+        <v>1</v>
+      </c>
+      <c r="G898">
+        <v>0</v>
+      </c>
+      <c r="H898">
+        <v>0</v>
+      </c>
+      <c r="I898">
+        <v>0</v>
+      </c>
+      <c r="J898">
+        <v>1</v>
+      </c>
+      <c r="K898" t="s">
+        <v>13</v>
+      </c>
+      <c r="L898">
+        <v>4</v>
+      </c>
+      <c r="M898">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>27</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C899">
+        <v>1.77</v>
+      </c>
+      <c r="D899">
+        <v>3.33</v>
+      </c>
+      <c r="E899">
+        <v>1.56</v>
+      </c>
+      <c r="F899">
+        <v>0</v>
+      </c>
+      <c r="G899">
+        <v>1</v>
+      </c>
+      <c r="H899">
+        <v>1</v>
+      </c>
+      <c r="I899">
+        <v>0</v>
+      </c>
+      <c r="J899">
+        <v>0</v>
+      </c>
+      <c r="K899" t="s">
+        <v>12</v>
+      </c>
+      <c r="L899">
+        <v>0</v>
+      </c>
+      <c r="M899">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>41</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C900">
+        <v>3.6</v>
+      </c>
+      <c r="D900">
+        <v>1.95</v>
+      </c>
+      <c r="E900">
+        <v>1.65</v>
+      </c>
+      <c r="F900">
+        <v>1</v>
+      </c>
+      <c r="G900">
+        <v>0</v>
+      </c>
+      <c r="H900">
+        <v>1</v>
+      </c>
+      <c r="I900">
+        <v>0</v>
+      </c>
+      <c r="J900">
+        <v>1</v>
+      </c>
+      <c r="K900" t="s">
+        <v>12</v>
+      </c>
+      <c r="L900">
+        <v>1</v>
+      </c>
+      <c r="M900">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C901">
+        <v>2.85</v>
+      </c>
+      <c r="D901">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E901">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="F901">
+        <v>1</v>
+      </c>
+      <c r="G901">
+        <v>0</v>
+      </c>
+      <c r="H901">
+        <v>0</v>
+      </c>
+      <c r="I901">
+        <v>1</v>
+      </c>
+      <c r="J901">
+        <v>0</v>
+      </c>
+      <c r="K901" t="s">
+        <v>11</v>
+      </c>
+      <c r="L901">
+        <v>3</v>
+      </c>
+      <c r="M901">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C902">
+        <v>1.86</v>
+      </c>
+      <c r="D902">
+        <v>4</v>
+      </c>
+      <c r="E902">
+        <v>2.14</v>
+      </c>
+      <c r="F902">
+        <v>0</v>
+      </c>
+      <c r="G902">
+        <v>1</v>
+      </c>
+      <c r="H902">
+        <v>1</v>
+      </c>
+      <c r="I902">
+        <v>1</v>
+      </c>
+      <c r="J902">
+        <v>0</v>
+      </c>
+      <c r="K902" t="s">
+        <v>13</v>
+      </c>
+      <c r="L902">
+        <v>2</v>
+      </c>
+      <c r="M902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C903">
+        <v>2.35</v>
+      </c>
+      <c r="D903">
+        <v>2.7</v>
+      </c>
+      <c r="E903">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F903">
+        <v>1</v>
+      </c>
+      <c r="G903">
+        <v>1</v>
+      </c>
+      <c r="H903">
+        <v>1</v>
+      </c>
+      <c r="I903">
+        <v>0</v>
+      </c>
+      <c r="J903">
+        <v>0</v>
+      </c>
+      <c r="K903" t="s">
+        <v>12</v>
+      </c>
+      <c r="L903">
+        <v>2</v>
+      </c>
+      <c r="M903">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>234</v>
+      </c>
+      <c r="B904" t="s">
+        <v>237</v>
+      </c>
+      <c r="C904">
+        <v>2.25</v>
+      </c>
+      <c r="D904">
+        <v>2.65</v>
+      </c>
+      <c r="E904">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F904">
+        <v>0</v>
+      </c>
+      <c r="G904">
+        <v>1</v>
+      </c>
+      <c r="H904">
+        <v>0</v>
+      </c>
+      <c r="I904">
+        <v>0</v>
+      </c>
+      <c r="J904">
+        <v>1</v>
+      </c>
+      <c r="K904" t="s">
+        <v>12</v>
+      </c>
+      <c r="L904">
+        <v>1</v>
+      </c>
+      <c r="M904">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C905">
+        <v>2.15</v>
+      </c>
+      <c r="D905">
+        <v>2.85</v>
+      </c>
+      <c r="E905">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F905">
+        <v>1</v>
+      </c>
+      <c r="G905">
+        <v>0</v>
+      </c>
+      <c r="H905">
+        <v>0</v>
+      </c>
+      <c r="I905">
+        <v>1</v>
+      </c>
+      <c r="J905">
+        <v>0</v>
+      </c>
+      <c r="K905" t="s">
+        <v>13</v>
+      </c>
+      <c r="L905">
+        <v>3</v>
+      </c>
+      <c r="M905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C906">
+        <v>1.67</v>
+      </c>
+      <c r="D906">
+        <v>3.9</v>
+      </c>
+      <c r="E906">
+        <v>2.23</v>
+      </c>
+      <c r="F906">
+        <v>1</v>
+      </c>
+      <c r="G906">
+        <v>1</v>
+      </c>
+      <c r="H906">
+        <v>1</v>
+      </c>
+      <c r="I906">
+        <v>0</v>
+      </c>
+      <c r="J906">
+        <v>0</v>
+      </c>
+      <c r="K906" t="s">
+        <v>13</v>
+      </c>
+      <c r="L906">
+        <v>3</v>
+      </c>
+      <c r="M906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C907">
+        <v>3.9</v>
+      </c>
+      <c r="D907">
+        <v>1.82</v>
+      </c>
+      <c r="E907">
+        <v>2.08</v>
+      </c>
+      <c r="F907">
+        <v>1</v>
+      </c>
+      <c r="G907">
+        <v>0</v>
+      </c>
+      <c r="H907">
+        <v>0</v>
+      </c>
+      <c r="I907">
+        <v>1</v>
+      </c>
+      <c r="J907">
+        <v>0</v>
+      </c>
+      <c r="K907" t="s">
+        <v>12</v>
+      </c>
+      <c r="L907">
+        <v>1</v>
+      </c>
+      <c r="M907">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C908">
+        <v>1.88</v>
+      </c>
+      <c r="D908">
+        <v>3.4</v>
+      </c>
+      <c r="E908">
+        <v>1.52</v>
+      </c>
+      <c r="F908">
+        <v>1</v>
+      </c>
+      <c r="G908">
+        <v>1</v>
+      </c>
+      <c r="H908">
+        <v>0</v>
+      </c>
+      <c r="I908">
+        <v>0</v>
+      </c>
+      <c r="J908">
+        <v>0</v>
+      </c>
+      <c r="K908" t="s">
+        <v>13</v>
+      </c>
+      <c r="L908">
+        <v>2</v>
+      </c>
+      <c r="M908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C909">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D909">
+        <v>2.95</v>
+      </c>
+      <c r="E909">
+        <v>0.75</v>
+      </c>
+      <c r="F909">
+        <v>0</v>
+      </c>
+      <c r="G909">
+        <v>1</v>
+      </c>
+      <c r="H909">
+        <v>1</v>
+      </c>
+      <c r="I909">
+        <v>0</v>
+      </c>
+      <c r="J909">
+        <v>0</v>
+      </c>
+      <c r="K909" t="s">
+        <v>12</v>
+      </c>
+      <c r="L909">
+        <v>1</v>
+      </c>
+      <c r="M909">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C910">
+        <v>3.75</v>
+      </c>
+      <c r="D910">
+        <v>1.8</v>
+      </c>
+      <c r="E910">
+        <v>1.95</v>
+      </c>
+      <c r="F910">
+        <v>0</v>
+      </c>
+      <c r="G910">
+        <v>1</v>
+      </c>
+      <c r="H910">
+        <v>0</v>
+      </c>
+      <c r="I910">
+        <v>1</v>
+      </c>
+      <c r="J910">
+        <v>1</v>
+      </c>
+      <c r="K910" t="s">
+        <v>13</v>
+      </c>
+      <c r="L910">
+        <v>1</v>
+      </c>
+      <c r="M910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C911">
+        <v>4</v>
+      </c>
+      <c r="D911">
+        <v>1.84</v>
+      </c>
+      <c r="E911">
+        <v>2.16</v>
+      </c>
+      <c r="F911">
+        <v>0</v>
+      </c>
+      <c r="G911">
+        <v>1</v>
+      </c>
+      <c r="H911">
+        <v>1</v>
+      </c>
+      <c r="I911">
+        <v>1</v>
+      </c>
+      <c r="J911">
+        <v>0</v>
+      </c>
+      <c r="K911" t="s">
+        <v>12</v>
+      </c>
+      <c r="L911">
+        <v>0</v>
+      </c>
+      <c r="M911">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C912">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D912">
+        <v>2.75</v>
+      </c>
+      <c r="E912">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F912">
+        <v>0</v>
+      </c>
+      <c r="G912">
+        <v>0</v>
+      </c>
+      <c r="H912">
+        <v>1</v>
+      </c>
+      <c r="I912">
+        <v>0</v>
+      </c>
+      <c r="J912">
+        <v>1</v>
+      </c>
+      <c r="K912" t="s">
+        <v>13</v>
+      </c>
+      <c r="L912">
+        <v>1</v>
+      </c>
+      <c r="M912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C913">
+        <v>1.89</v>
+      </c>
+      <c r="D913">
+        <v>3.1</v>
+      </c>
+      <c r="E913">
+        <v>1.21</v>
+      </c>
+      <c r="F913">
+        <v>1</v>
+      </c>
+      <c r="G913">
+        <v>1</v>
+      </c>
+      <c r="H913">
+        <v>0</v>
+      </c>
+      <c r="I913">
+        <v>1</v>
+      </c>
+      <c r="J913">
+        <v>0</v>
+      </c>
+      <c r="K913" t="s">
+        <v>11</v>
+      </c>
+      <c r="L913">
+        <v>2</v>
+      </c>
+      <c r="M913">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C914">
+        <v>1.39</v>
+      </c>
+      <c r="D914">
+        <v>5.8</v>
+      </c>
+      <c r="E914">
+        <v>4.41</v>
+      </c>
+      <c r="F914">
+        <v>1</v>
+      </c>
+      <c r="G914">
+        <v>1</v>
+      </c>
+      <c r="H914">
+        <v>1</v>
+      </c>
+      <c r="I914">
+        <v>0</v>
+      </c>
+      <c r="J914">
+        <v>0</v>
+      </c>
+      <c r="K914" t="s">
+        <v>13</v>
+      </c>
+      <c r="L914">
+        <v>1</v>
+      </c>
+      <c r="M914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C915">
+        <v>1.61</v>
+      </c>
+      <c r="D915">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E915">
+        <v>3.4899999999999989</v>
+      </c>
+      <c r="F915">
+        <v>1</v>
+      </c>
+      <c r="G915">
+        <v>0</v>
+      </c>
+      <c r="H915">
+        <v>1</v>
+      </c>
+      <c r="I915">
+        <v>0</v>
+      </c>
+      <c r="J915">
+        <v>0</v>
+      </c>
+      <c r="K915" t="s">
+        <v>13</v>
+      </c>
+      <c r="L915">
+        <v>1</v>
+      </c>
+      <c r="M915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C916">
+        <v>2.25</v>
+      </c>
+      <c r="D916">
+        <v>3.4</v>
+      </c>
+      <c r="E916">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F916">
+        <v>1</v>
+      </c>
+      <c r="G916">
+        <v>0</v>
+      </c>
+      <c r="H916">
+        <v>0</v>
+      </c>
+      <c r="I916">
+        <v>1</v>
+      </c>
+      <c r="J916">
+        <v>0</v>
+      </c>
+      <c r="K916" t="s">
+        <v>11</v>
+      </c>
+      <c r="L916">
+        <v>2</v>
+      </c>
+      <c r="M916">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>25</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C917">
+        <v>1.98</v>
+      </c>
+      <c r="D917">
+        <v>2.9</v>
+      </c>
+      <c r="E917">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="F917">
+        <v>1</v>
+      </c>
+      <c r="G917">
+        <v>0</v>
+      </c>
+      <c r="H917">
+        <v>0</v>
+      </c>
+      <c r="I917">
+        <v>1</v>
+      </c>
+      <c r="J917">
+        <v>0</v>
+      </c>
+      <c r="K917" t="s">
+        <v>13</v>
+      </c>
+      <c r="L917">
+        <v>2</v>
+      </c>
+      <c r="M917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C918">
+        <v>7.1</v>
+      </c>
+      <c r="D918">
+        <v>1.27</v>
+      </c>
+      <c r="E918">
+        <v>5.83</v>
+      </c>
+      <c r="F918">
+        <v>1</v>
+      </c>
+      <c r="G918">
+        <v>1</v>
+      </c>
+      <c r="H918">
+        <v>1</v>
+      </c>
+      <c r="I918">
+        <v>0</v>
+      </c>
+      <c r="J918">
+        <v>0</v>
+      </c>
+      <c r="K918" t="s">
+        <v>12</v>
+      </c>
+      <c r="L918">
+        <v>1</v>
+      </c>
+      <c r="M918">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="919" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C919">
+        <v>1.32</v>
+      </c>
+      <c r="D919">
+        <v>6.3</v>
+      </c>
+      <c r="E919">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F919">
+        <v>1</v>
+      </c>
+      <c r="G919">
+        <v>0</v>
+      </c>
+      <c r="H919">
+        <v>1</v>
+      </c>
+      <c r="I919">
+        <v>0</v>
+      </c>
+      <c r="J919">
+        <v>0</v>
+      </c>
+      <c r="K919" t="s">
+        <v>13</v>
+      </c>
+      <c r="L919">
+        <v>1</v>
+      </c>
+      <c r="M919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C920">
+        <v>1.92</v>
+      </c>
+      <c r="D920">
+        <v>3.9</v>
+      </c>
+      <c r="E920">
+        <v>1.98</v>
+      </c>
+      <c r="F920">
+        <v>1</v>
+      </c>
+      <c r="G920">
+        <v>0</v>
+      </c>
+      <c r="H920">
+        <v>0</v>
+      </c>
+      <c r="I920">
+        <v>0</v>
+      </c>
+      <c r="J920">
+        <v>1</v>
+      </c>
+      <c r="K920" t="s">
+        <v>13</v>
+      </c>
+      <c r="L920">
+        <v>3</v>
+      </c>
+      <c r="M920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C921">
+        <v>1.76</v>
+      </c>
+      <c r="D921">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E921">
+        <v>2.640000000000001</v>
+      </c>
+      <c r="F921">
+        <v>1</v>
+      </c>
+      <c r="G921">
+        <v>0</v>
+      </c>
+      <c r="H921">
+        <v>0</v>
+      </c>
+      <c r="I921">
+        <v>1</v>
+      </c>
+      <c r="J921">
+        <v>0</v>
+      </c>
+      <c r="K921" t="s">
+        <v>11</v>
+      </c>
+      <c r="L921">
+        <v>1</v>
+      </c>
+      <c r="M921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C922">
+        <v>1.91</v>
+      </c>
+      <c r="D922">
+        <v>3.7</v>
+      </c>
+      <c r="E922">
+        <v>1.79</v>
+      </c>
+      <c r="F922">
+        <v>1</v>
+      </c>
+      <c r="G922">
+        <v>0</v>
+      </c>
+      <c r="H922">
+        <v>0</v>
+      </c>
+      <c r="I922">
+        <v>1</v>
+      </c>
+      <c r="J922">
+        <v>0</v>
+      </c>
+      <c r="K922" t="s">
+        <v>11</v>
+      </c>
+      <c r="L922">
+        <v>2</v>
+      </c>
+      <c r="M922">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="923" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C923">
+        <v>2.35</v>
+      </c>
+      <c r="D923">
+        <v>2.9</v>
+      </c>
+      <c r="E923">
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="F923">
+        <v>1</v>
+      </c>
+      <c r="G923">
+        <v>1</v>
+      </c>
+      <c r="H923">
+        <v>0</v>
+      </c>
+      <c r="I923">
+        <v>1</v>
+      </c>
+      <c r="J923">
+        <v>0</v>
+      </c>
+      <c r="K923" t="s">
+        <v>13</v>
+      </c>
+      <c r="L923">
+        <v>2</v>
+      </c>
+      <c r="M923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C924">
+        <v>1.86</v>
+      </c>
+      <c r="D924">
+        <v>2.75</v>
+      </c>
+      <c r="E924">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="F924">
+        <v>0</v>
+      </c>
+      <c r="G924">
+        <v>1</v>
+      </c>
+      <c r="H924">
+        <v>1</v>
+      </c>
+      <c r="I924">
+        <v>0</v>
+      </c>
+      <c r="J924">
+        <v>0</v>
+      </c>
+      <c r="K924" t="s">
+        <v>11</v>
+      </c>
+      <c r="L924">
+        <v>3</v>
+      </c>
+      <c r="M924">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C925">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D925">
+        <v>2.95</v>
+      </c>
+      <c r="E925">
+        <v>0.75</v>
+      </c>
+      <c r="F925">
+        <v>1</v>
+      </c>
+      <c r="G925">
+        <v>0</v>
+      </c>
+      <c r="H925">
+        <v>1</v>
+      </c>
+      <c r="I925">
+        <v>0</v>
+      </c>
+      <c r="J925">
+        <v>0</v>
+      </c>
+      <c r="K925" t="s">
+        <v>13</v>
+      </c>
+      <c r="L925">
+        <v>2</v>
+      </c>
+      <c r="M925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C926">
+        <v>1.77</v>
+      </c>
+      <c r="D926">
+        <v>4.7</v>
+      </c>
+      <c r="E926">
+        <v>2.93</v>
+      </c>
+      <c r="F926">
+        <v>1</v>
+      </c>
+      <c r="G926">
+        <v>0</v>
+      </c>
+      <c r="H926">
+        <v>0</v>
+      </c>
+      <c r="I926">
+        <v>1</v>
+      </c>
+      <c r="J926">
+        <v>1</v>
+      </c>
+      <c r="K926" t="s">
+        <v>13</v>
+      </c>
+      <c r="L926">
+        <v>3</v>
+      </c>
+      <c r="M926">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="927" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>303</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C927">
+        <v>3.33</v>
+      </c>
+      <c r="D927">
+        <v>2.15</v>
+      </c>
+      <c r="E927">
+        <v>1.18</v>
+      </c>
+      <c r="F927">
+        <v>1</v>
+      </c>
+      <c r="G927">
+        <v>1</v>
+      </c>
+      <c r="H927">
+        <v>0</v>
+      </c>
+      <c r="I927">
+        <v>0</v>
+      </c>
+      <c r="J927">
+        <v>0</v>
+      </c>
+      <c r="K927" t="s">
+        <v>11</v>
+      </c>
+      <c r="L927">
+        <v>1</v>
+      </c>
+      <c r="M927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C928">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D928">
+        <v>1.72</v>
+      </c>
+      <c r="E928">
+        <v>3.38</v>
+      </c>
+      <c r="F928">
+        <v>1</v>
+      </c>
+      <c r="G928">
+        <v>0</v>
+      </c>
+      <c r="H928">
+        <v>1</v>
+      </c>
+      <c r="I928">
+        <v>0</v>
+      </c>
+      <c r="J928">
+        <v>0</v>
+      </c>
+      <c r="K928" t="s">
+        <v>12</v>
+      </c>
+      <c r="L928">
+        <v>0</v>
+      </c>
+      <c r="M928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C929">
+        <v>3.5</v>
+      </c>
+      <c r="D929">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E929">
+        <v>1.3</v>
+      </c>
+      <c r="F929">
+        <v>1</v>
+      </c>
+      <c r="G929">
+        <v>1</v>
+      </c>
+      <c r="H929">
+        <v>0</v>
+      </c>
+      <c r="I929">
+        <v>0</v>
+      </c>
+      <c r="J929">
+        <v>0</v>
+      </c>
+      <c r="K929" t="s">
+        <v>13</v>
+      </c>
+      <c r="L929">
+        <v>2</v>
+      </c>
+      <c r="M929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C930">
+        <v>1.33</v>
+      </c>
+      <c r="D930">
+        <v>6.1</v>
+      </c>
+      <c r="E930">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F930">
+        <v>1</v>
+      </c>
+      <c r="G930">
+        <v>1</v>
+      </c>
+      <c r="H930">
+        <v>0</v>
+      </c>
+      <c r="I930">
+        <v>0</v>
+      </c>
+      <c r="J930">
+        <v>0</v>
+      </c>
+      <c r="K930" t="s">
+        <v>13</v>
+      </c>
+      <c r="L930">
+        <v>2</v>
+      </c>
+      <c r="M930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C931">
+        <v>1.93</v>
+      </c>
+      <c r="D931">
+        <v>3.3</v>
+      </c>
+      <c r="E931">
+        <v>1.37</v>
+      </c>
+      <c r="F931">
+        <v>0</v>
+      </c>
+      <c r="G931">
+        <v>0</v>
+      </c>
+      <c r="H931">
+        <v>1</v>
+      </c>
+      <c r="I931">
+        <v>1</v>
+      </c>
+      <c r="J931">
+        <v>0</v>
+      </c>
+      <c r="K931" t="s">
+        <v>13</v>
+      </c>
+      <c r="L931">
+        <v>2</v>
+      </c>
+      <c r="M931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C932">
+        <v>3.33</v>
+      </c>
+      <c r="D932">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E932">
+        <v>1.28</v>
+      </c>
+      <c r="F932">
+        <v>1</v>
+      </c>
+      <c r="G932">
+        <v>0</v>
+      </c>
+      <c r="H932">
+        <v>1</v>
+      </c>
+      <c r="I932">
+        <v>0</v>
+      </c>
+      <c r="J932">
+        <v>0</v>
+      </c>
+      <c r="K932" t="s">
+        <v>13</v>
+      </c>
+      <c r="L932">
+        <v>2</v>
+      </c>
+      <c r="M932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C933">
+        <v>3.2</v>
+      </c>
+      <c r="D933">
+        <v>1.94</v>
+      </c>
+      <c r="E933">
+        <v>1.26</v>
+      </c>
+      <c r="F933">
+        <v>0</v>
+      </c>
+      <c r="G933">
+        <v>1</v>
+      </c>
+      <c r="H933">
+        <v>0</v>
+      </c>
+      <c r="I933">
+        <v>1</v>
+      </c>
+      <c r="J933">
+        <v>1</v>
+      </c>
+      <c r="K933" t="s">
+        <v>13</v>
+      </c>
+      <c r="L933">
+        <v>3</v>
+      </c>
+      <c r="M933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C934">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D934">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E934">
+        <v>0</v>
+      </c>
+      <c r="F934">
+        <v>1</v>
+      </c>
+      <c r="G934">
+        <v>1</v>
+      </c>
+      <c r="H934">
+        <v>0</v>
+      </c>
+      <c r="I934">
+        <v>0</v>
+      </c>
+      <c r="J934">
+        <v>1</v>
+      </c>
+      <c r="K934" t="s">
+        <v>11</v>
+      </c>
+      <c r="L934">
+        <v>1</v>
+      </c>
+      <c r="M934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C935">
+        <v>7.4</v>
+      </c>
+      <c r="D935">
+        <v>1.37</v>
+      </c>
+      <c r="E935">
+        <v>6.03</v>
+      </c>
+      <c r="F935">
+        <v>1</v>
+      </c>
+      <c r="G935">
+        <v>1</v>
+      </c>
+      <c r="H935">
+        <v>0</v>
+      </c>
+      <c r="I935">
+        <v>1</v>
+      </c>
+      <c r="J935">
+        <v>0</v>
+      </c>
+      <c r="K935" t="s">
+        <v>11</v>
+      </c>
+      <c r="L935">
+        <v>1</v>
+      </c>
+      <c r="M935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>272</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C936">
+        <v>1.65</v>
+      </c>
+      <c r="D936">
+        <v>5.4</v>
+      </c>
+      <c r="E936">
+        <v>3.75</v>
+      </c>
+      <c r="F936">
+        <v>1</v>
+      </c>
+      <c r="G936">
+        <v>0</v>
+      </c>
+      <c r="H936">
+        <v>0</v>
+      </c>
+      <c r="I936">
+        <v>0</v>
+      </c>
+      <c r="J936">
+        <v>1</v>
+      </c>
+      <c r="K936" t="s">
+        <v>13</v>
+      </c>
+      <c r="L936">
+        <v>2</v>
+      </c>
+      <c r="M936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C937">
+        <v>6.4</v>
+      </c>
+      <c r="D937">
+        <v>1.54</v>
+      </c>
+      <c r="E937">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F937">
+        <v>1</v>
+      </c>
+      <c r="G937">
+        <v>1</v>
+      </c>
+      <c r="H937">
+        <v>0</v>
+      </c>
+      <c r="I937">
+        <v>0</v>
+      </c>
+      <c r="J937">
+        <v>0</v>
+      </c>
+      <c r="K937" t="s">
+        <v>12</v>
+      </c>
+      <c r="L937">
+        <v>1</v>
+      </c>
+      <c r="M937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>527</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C938">
+        <v>1.45</v>
+      </c>
+      <c r="D938">
+        <v>6.6</v>
+      </c>
+      <c r="E938">
+        <v>5.1499999999999986</v>
+      </c>
+      <c r="F938">
+        <v>1</v>
+      </c>
+      <c r="G938">
+        <v>0</v>
+      </c>
+      <c r="H938">
+        <v>0</v>
+      </c>
+      <c r="I938">
+        <v>1</v>
+      </c>
+      <c r="J938">
+        <v>0</v>
+      </c>
+      <c r="K938" t="s">
+        <v>11</v>
+      </c>
+      <c r="L938">
+        <v>2</v>
+      </c>
+      <c r="M938">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C939">
+        <v>1.83</v>
+      </c>
+      <c r="D939">
+        <v>3.6</v>
+      </c>
+      <c r="E939">
+        <v>1.77</v>
+      </c>
+      <c r="F939">
+        <v>0</v>
+      </c>
+      <c r="G939">
+        <v>0</v>
+      </c>
+      <c r="H939">
+        <v>1</v>
+      </c>
+      <c r="I939">
+        <v>1</v>
+      </c>
+      <c r="J939">
+        <v>0</v>
+      </c>
+      <c r="K939" t="s">
+        <v>13</v>
+      </c>
+      <c r="L939">
+        <v>2</v>
+      </c>
+      <c r="M939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C940">
+        <v>1.78</v>
+      </c>
+      <c r="D940">
+        <v>4.3</v>
+      </c>
+      <c r="E940">
+        <v>2.52</v>
+      </c>
+      <c r="F940">
+        <v>1</v>
+      </c>
+      <c r="G940">
+        <v>0</v>
+      </c>
+      <c r="H940">
+        <v>0</v>
+      </c>
+      <c r="I940">
+        <v>0</v>
+      </c>
+      <c r="J940">
+        <v>0</v>
+      </c>
+      <c r="K940" t="s">
+        <v>11</v>
+      </c>
+      <c r="L940">
+        <v>4</v>
+      </c>
+      <c r="M940">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C941">
+        <v>1.68</v>
+      </c>
+      <c r="D941">
+        <v>5.5</v>
+      </c>
+      <c r="E941">
+        <v>3.82</v>
+      </c>
+      <c r="F941">
+        <v>1</v>
+      </c>
+      <c r="G941">
+        <v>1</v>
+      </c>
+      <c r="H941">
+        <v>1</v>
+      </c>
+      <c r="I941">
+        <v>0</v>
+      </c>
+      <c r="J941">
+        <v>0</v>
+      </c>
+      <c r="K941" t="s">
+        <v>13</v>
+      </c>
+      <c r="L941">
+        <v>3</v>
+      </c>
+      <c r="M941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C942">
+        <v>1.26</v>
+      </c>
+      <c r="D942">
+        <v>12</v>
+      </c>
+      <c r="E942">
+        <v>10.74</v>
+      </c>
+      <c r="F942">
+        <v>1</v>
+      </c>
+      <c r="G942">
+        <v>1</v>
+      </c>
+      <c r="H942">
+        <v>0</v>
+      </c>
+      <c r="I942">
+        <v>1</v>
+      </c>
+      <c r="J942">
+        <v>0</v>
+      </c>
+      <c r="K942" t="s">
+        <v>13</v>
+      </c>
+      <c r="L942">
+        <v>3</v>
+      </c>
+      <c r="M942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C943">
+        <v>1.92</v>
+      </c>
+      <c r="D943">
+        <v>3.75</v>
+      </c>
+      <c r="E943">
+        <v>1.83</v>
+      </c>
+      <c r="F943">
+        <v>1</v>
+      </c>
+      <c r="G943">
+        <v>1</v>
+      </c>
+      <c r="H943">
+        <v>0</v>
+      </c>
+      <c r="I943">
+        <v>0</v>
+      </c>
+      <c r="J943">
+        <v>1</v>
+      </c>
+      <c r="K943" t="s">
+        <v>12</v>
+      </c>
+      <c r="L943">
+        <v>0</v>
+      </c>
+      <c r="M943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C944">
+        <v>7.3</v>
+      </c>
+      <c r="D944">
+        <v>1.46</v>
+      </c>
+      <c r="E944">
+        <v>5.84</v>
+      </c>
+      <c r="F944">
+        <v>1</v>
+      </c>
+      <c r="G944">
+        <v>0</v>
+      </c>
+      <c r="H944">
+        <v>0</v>
+      </c>
+      <c r="I944">
+        <v>1</v>
+      </c>
+      <c r="J944">
+        <v>0</v>
+      </c>
+      <c r="K944" t="s">
+        <v>12</v>
+      </c>
+      <c r="L944">
+        <v>1</v>
+      </c>
+      <c r="M944">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C945">
+        <v>3.6</v>
+      </c>
+      <c r="D945">
+        <v>1.94</v>
+      </c>
+      <c r="E945">
+        <v>1.66</v>
+      </c>
+      <c r="F945">
+        <v>1</v>
+      </c>
+      <c r="G945">
+        <v>0</v>
+      </c>
+      <c r="H945">
+        <v>0</v>
+      </c>
+      <c r="I945">
+        <v>1</v>
+      </c>
+      <c r="J945">
+        <v>1</v>
+      </c>
+      <c r="K945" t="s">
+        <v>13</v>
+      </c>
+      <c r="L945">
+        <v>4</v>
+      </c>
+      <c r="M945">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C946">
+        <v>5.25</v>
+      </c>
+      <c r="D946">
+        <v>1.57</v>
+      </c>
+      <c r="E946">
+        <v>3.68</v>
+      </c>
+      <c r="F946">
+        <v>1</v>
+      </c>
+      <c r="G946">
+        <v>1</v>
+      </c>
+      <c r="H946">
+        <v>0</v>
+      </c>
+      <c r="I946">
+        <v>0</v>
+      </c>
+      <c r="J946">
+        <v>1</v>
+      </c>
+      <c r="K946" t="s">
+        <v>12</v>
+      </c>
+      <c r="L946">
+        <v>0</v>
+      </c>
+      <c r="M946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C947">
+        <v>2.35</v>
+      </c>
+      <c r="D947">
+        <v>2.8</v>
+      </c>
+      <c r="E947">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F947">
+        <v>1</v>
+      </c>
+      <c r="G947">
+        <v>1</v>
+      </c>
+      <c r="H947">
+        <v>0</v>
+      </c>
+      <c r="I947">
+        <v>0</v>
+      </c>
+      <c r="J947">
+        <v>1</v>
+      </c>
+      <c r="K947" t="s">
+        <v>13</v>
+      </c>
+      <c r="L947">
+        <v>1</v>
+      </c>
+      <c r="M947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>734</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C948">
+        <v>1.55</v>
+      </c>
+      <c r="D948">
+        <v>5.9</v>
+      </c>
+      <c r="E948">
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="F948">
+        <v>1</v>
+      </c>
+      <c r="G948">
+        <v>1</v>
+      </c>
+      <c r="H948">
+        <v>0</v>
+      </c>
+      <c r="I948">
+        <v>0</v>
+      </c>
+      <c r="J948">
+        <v>0</v>
+      </c>
+      <c r="K948" t="s">
+        <v>13</v>
+      </c>
+      <c r="L948">
+        <v>1</v>
+      </c>
+      <c r="M948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C949">
+        <v>4.8</v>
+      </c>
+      <c r="D949">
+        <v>1.62</v>
+      </c>
+      <c r="E949">
+        <v>3.18</v>
+      </c>
+      <c r="F949">
+        <v>1</v>
+      </c>
+      <c r="G949">
+        <v>0</v>
+      </c>
+      <c r="H949">
+        <v>0</v>
+      </c>
+      <c r="I949">
+        <v>0</v>
+      </c>
+      <c r="J949">
+        <v>1</v>
+      </c>
+      <c r="K949" t="s">
+        <v>11</v>
+      </c>
+      <c r="L949">
+        <v>0</v>
+      </c>
+      <c r="M949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C950">
+        <v>1.56</v>
+      </c>
+      <c r="D950">
+        <v>5.3</v>
+      </c>
+      <c r="E950">
+        <v>3.74</v>
+      </c>
+      <c r="F950">
+        <v>1</v>
+      </c>
+      <c r="G950">
+        <v>0</v>
+      </c>
+      <c r="H950">
+        <v>0</v>
+      </c>
+      <c r="I950">
+        <v>0</v>
+      </c>
+      <c r="J950">
+        <v>0</v>
+      </c>
+      <c r="K950" t="s">
+        <v>13</v>
+      </c>
+      <c r="L950">
+        <v>1</v>
+      </c>
+      <c r="M950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C951">
+        <v>1.37</v>
+      </c>
+      <c r="D951">
+        <v>7.1</v>
+      </c>
+      <c r="E951">
+        <v>5.73</v>
+      </c>
+      <c r="F951">
+        <v>1</v>
+      </c>
+      <c r="G951">
+        <v>1</v>
+      </c>
+      <c r="H951">
+        <v>0</v>
+      </c>
+      <c r="I951">
+        <v>0</v>
+      </c>
+      <c r="J951">
+        <v>1</v>
+      </c>
+      <c r="K951" t="s">
+        <v>13</v>
+      </c>
+      <c r="L951">
+        <v>2</v>
+      </c>
+      <c r="M951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C952">
+        <v>1.91</v>
+      </c>
+      <c r="D952">
+        <v>3.6</v>
+      </c>
+      <c r="E952">
+        <v>1.69</v>
+      </c>
+      <c r="F952">
+        <v>1</v>
+      </c>
+      <c r="G952">
+        <v>1</v>
+      </c>
+      <c r="H952">
+        <v>0</v>
+      </c>
+      <c r="I952">
+        <v>0</v>
+      </c>
+      <c r="J952">
+        <v>0</v>
+      </c>
+      <c r="K952" t="s">
+        <v>12</v>
+      </c>
+      <c r="L952">
+        <v>1</v>
+      </c>
+      <c r="M952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C953">
+        <v>3.4</v>
+      </c>
+      <c r="D953">
+        <v>1.96</v>
+      </c>
+      <c r="E953">
+        <v>1.44</v>
+      </c>
+      <c r="F953">
+        <v>1</v>
+      </c>
+      <c r="G953">
+        <v>1</v>
+      </c>
+      <c r="H953">
+        <v>0</v>
+      </c>
+      <c r="I953">
+        <v>1</v>
+      </c>
+      <c r="J953">
+        <v>0</v>
+      </c>
+      <c r="K953" t="s">
+        <v>13</v>
+      </c>
+      <c r="L953">
+        <v>2</v>
+      </c>
+      <c r="M953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>43</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C954">
+        <v>2.1</v>
+      </c>
+      <c r="D954">
+        <v>3.75</v>
+      </c>
+      <c r="E954">
+        <v>1.65</v>
+      </c>
+      <c r="F954">
+        <v>0</v>
+      </c>
+      <c r="G954">
+        <v>0</v>
+      </c>
+      <c r="H954">
+        <v>1</v>
+      </c>
+      <c r="I954">
+        <v>1</v>
+      </c>
+      <c r="J954">
+        <v>1</v>
+      </c>
+      <c r="K954" t="s">
+        <v>13</v>
+      </c>
+      <c r="L954">
+        <v>2</v>
+      </c>
+      <c r="M954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C955">
+        <v>1.57</v>
+      </c>
+      <c r="D955">
+        <v>5.7</v>
+      </c>
+      <c r="E955">
+        <v>4.13</v>
+      </c>
+      <c r="F955">
+        <v>0</v>
+      </c>
+      <c r="G955">
+        <v>0</v>
+      </c>
+      <c r="H955">
+        <v>0</v>
+      </c>
+      <c r="I955">
+        <v>1</v>
+      </c>
+      <c r="J955">
+        <v>1</v>
+      </c>
+      <c r="K955" t="s">
+        <v>13</v>
+      </c>
+      <c r="L955">
+        <v>2</v>
+      </c>
+      <c r="M955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>220</v>
+      </c>
+      <c r="B956" t="s">
+        <v>135</v>
+      </c>
+      <c r="C956">
+        <v>3.75</v>
+      </c>
+      <c r="D956">
+        <v>1.86</v>
+      </c>
+      <c r="E956">
+        <v>1.89</v>
+      </c>
+      <c r="F956">
+        <v>1</v>
+      </c>
+      <c r="G956">
+        <v>1</v>
+      </c>
+      <c r="H956">
+        <v>0</v>
+      </c>
+      <c r="I956">
+        <v>1</v>
+      </c>
+      <c r="J956">
+        <v>0</v>
+      </c>
+      <c r="K956" t="s">
+        <v>12</v>
+      </c>
+      <c r="L956">
+        <v>1</v>
+      </c>
+      <c r="M956">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C957">
+        <v>2</v>
+      </c>
+      <c r="D957">
+        <v>3.8</v>
+      </c>
+      <c r="E957">
+        <v>1.8</v>
+      </c>
+      <c r="F957">
+        <v>1</v>
+      </c>
+      <c r="G957">
+        <v>0</v>
+      </c>
+      <c r="H957">
+        <v>1</v>
+      </c>
+      <c r="I957">
+        <v>0</v>
+      </c>
+      <c r="J957">
+        <v>1</v>
+      </c>
+      <c r="K957" t="s">
+        <v>13</v>
+      </c>
+      <c r="L957">
+        <v>1</v>
+      </c>
+      <c r="M957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C958">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D958">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E958">
+        <v>0</v>
+      </c>
+      <c r="F958">
+        <v>1</v>
+      </c>
+      <c r="G958">
+        <v>1</v>
+      </c>
+      <c r="H958">
+        <v>0</v>
+      </c>
+      <c r="I958">
+        <v>1</v>
+      </c>
+      <c r="J958">
+        <v>0</v>
+      </c>
+      <c r="K958" t="s">
+        <v>13</v>
+      </c>
+      <c r="L958">
+        <v>3</v>
+      </c>
+      <c r="M958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C959">
+        <v>1.64</v>
+      </c>
+      <c r="D959">
+        <v>4.7</v>
+      </c>
+      <c r="E959">
+        <v>3.06</v>
+      </c>
+      <c r="F959">
+        <v>1</v>
+      </c>
+      <c r="G959">
+        <v>0</v>
+      </c>
+      <c r="H959">
+        <v>1</v>
+      </c>
+      <c r="I959">
+        <v>0</v>
+      </c>
+      <c r="J959">
+        <v>0</v>
+      </c>
+      <c r="K959" t="s">
+        <v>12</v>
+      </c>
+      <c r="L959">
+        <v>0</v>
+      </c>
+      <c r="M959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C960">
+        <v>10</v>
+      </c>
+      <c r="D960">
+        <v>1.21</v>
+      </c>
+      <c r="E960">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F960">
+        <v>1</v>
+      </c>
+      <c r="G960">
+        <v>1</v>
+      </c>
+      <c r="H960">
+        <v>1</v>
+      </c>
+      <c r="I960">
+        <v>0</v>
+      </c>
+      <c r="J960">
+        <v>0</v>
+      </c>
+      <c r="K960" t="s">
+        <v>12</v>
+      </c>
+      <c r="L960">
+        <v>1</v>
+      </c>
+      <c r="M960">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C961">
+        <v>1.59</v>
+      </c>
+      <c r="D961">
+        <v>4.7</v>
+      </c>
+      <c r="E961">
+        <v>3.11</v>
+      </c>
+      <c r="F961">
+        <v>1</v>
+      </c>
+      <c r="G961">
+        <v>0</v>
+      </c>
+      <c r="H961">
+        <v>0</v>
+      </c>
+      <c r="I961">
+        <v>0</v>
+      </c>
+      <c r="J961">
+        <v>1</v>
+      </c>
+      <c r="K961" t="s">
+        <v>13</v>
+      </c>
+      <c r="L961">
+        <v>3</v>
+      </c>
+      <c r="M961">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C962">
+        <v>4</v>
+      </c>
+      <c r="D962">
+        <v>1.78</v>
+      </c>
+      <c r="E962">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F962">
+        <v>1</v>
+      </c>
+      <c r="G962">
+        <v>0</v>
+      </c>
+      <c r="H962">
+        <v>1</v>
+      </c>
+      <c r="I962">
+        <v>0</v>
+      </c>
+      <c r="J962">
+        <v>0</v>
+      </c>
+      <c r="K962" t="s">
+        <v>12</v>
+      </c>
+      <c r="L962">
+        <v>0</v>
+      </c>
+      <c r="M962">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C963">
+        <v>10.5</v>
+      </c>
+      <c r="D963">
+        <v>1.23</v>
+      </c>
+      <c r="E963">
+        <v>9.27</v>
+      </c>
+      <c r="F963">
+        <v>0</v>
+      </c>
+      <c r="G963">
+        <v>1</v>
+      </c>
+      <c r="H963">
+        <v>0</v>
+      </c>
+      <c r="I963">
+        <v>1</v>
+      </c>
+      <c r="J963">
+        <v>0</v>
+      </c>
+      <c r="K963" t="s">
+        <v>12</v>
+      </c>
+      <c r="L963">
+        <v>1</v>
+      </c>
+      <c r="M963">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C964">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D964">
+        <v>2.95</v>
+      </c>
+      <c r="E964">
+        <v>0.75</v>
+      </c>
+      <c r="F964">
+        <v>1</v>
+      </c>
+      <c r="G964">
+        <v>0</v>
+      </c>
+      <c r="H964">
+        <v>1</v>
+      </c>
+      <c r="I964">
+        <v>1</v>
+      </c>
+      <c r="J964">
+        <v>0</v>
+      </c>
+      <c r="K964" t="s">
+        <v>12</v>
+      </c>
+      <c r="L964">
+        <v>2</v>
+      </c>
+      <c r="M964">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C965">
+        <v>5.2</v>
+      </c>
+      <c r="D965">
+        <v>1.44</v>
+      </c>
+      <c r="E965">
+        <v>3.76</v>
+      </c>
+      <c r="F965">
+        <v>1</v>
+      </c>
+      <c r="G965">
+        <v>0</v>
+      </c>
+      <c r="H965">
+        <v>0</v>
+      </c>
+      <c r="I965">
+        <v>0</v>
+      </c>
+      <c r="J965">
+        <v>1</v>
+      </c>
+      <c r="K965" t="s">
+        <v>11</v>
+      </c>
+      <c r="L965">
+        <v>2</v>
+      </c>
+      <c r="M965">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C966">
+        <v>1.52</v>
+      </c>
+      <c r="D966">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E966">
+        <v>3.38</v>
+      </c>
+      <c r="F966">
+        <v>1</v>
+      </c>
+      <c r="G966">
+        <v>1</v>
+      </c>
+      <c r="H966">
+        <v>0</v>
+      </c>
+      <c r="I966">
+        <v>0</v>
+      </c>
+      <c r="J966">
+        <v>1</v>
+      </c>
+      <c r="K966" t="s">
+        <v>13</v>
+      </c>
+      <c r="L966">
+        <v>4</v>
+      </c>
+      <c r="M966">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B967" t="s">
+        <v>350</v>
+      </c>
+      <c r="C967">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D967">
+        <v>1.63</v>
+      </c>
+      <c r="E967">
+        <v>2.77</v>
+      </c>
+      <c r="F967">
+        <v>0</v>
+      </c>
+      <c r="G967">
+        <v>1</v>
+      </c>
+      <c r="H967">
+        <v>1</v>
+      </c>
+      <c r="I967">
+        <v>0</v>
+      </c>
+      <c r="J967">
+        <v>0</v>
+      </c>
+      <c r="K967" t="s">
+        <v>12</v>
+      </c>
+      <c r="L967">
+        <v>2</v>
+      </c>
+      <c r="M967">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B968" t="s">
+        <v>191</v>
+      </c>
+      <c r="C968">
+        <v>1.78</v>
+      </c>
+      <c r="D968">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E968">
+        <v>2.319999999999999</v>
+      </c>
+      <c r="F968">
+        <v>0</v>
+      </c>
+      <c r="G968">
+        <v>1</v>
+      </c>
+      <c r="H968">
+        <v>1</v>
+      </c>
+      <c r="I968">
+        <v>0</v>
+      </c>
+      <c r="J968">
+        <v>1</v>
+      </c>
+      <c r="K968" t="s">
+        <v>13</v>
+      </c>
+      <c r="L968">
+        <v>5</v>
+      </c>
+      <c r="M968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B969" t="s">
+        <v>189</v>
+      </c>
+      <c r="C969">
+        <v>2.25</v>
+      </c>
+      <c r="D969">
+        <v>2.8</v>
+      </c>
+      <c r="E969">
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="F969">
+        <v>0</v>
+      </c>
+      <c r="G969">
+        <v>1</v>
+      </c>
+      <c r="H969">
+        <v>1</v>
+      </c>
+      <c r="I969">
+        <v>0</v>
+      </c>
+      <c r="J969">
+        <v>0</v>
+      </c>
+      <c r="K969" t="s">
+        <v>11</v>
+      </c>
+      <c r="L969">
+        <v>2</v>
+      </c>
+      <c r="M969">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C970">
+        <v>2.15</v>
+      </c>
+      <c r="D970">
+        <v>3</v>
+      </c>
+      <c r="E970">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F970">
+        <v>1</v>
+      </c>
+      <c r="G970">
+        <v>1</v>
+      </c>
+      <c r="H970">
+        <v>1</v>
+      </c>
+      <c r="I970">
+        <v>0</v>
+      </c>
+      <c r="J970">
+        <v>0</v>
+      </c>
+      <c r="K970" t="s">
+        <v>12</v>
+      </c>
+      <c r="L970">
+        <v>0</v>
+      </c>
+      <c r="M970">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C971">
+        <v>1.68</v>
+      </c>
+      <c r="D971">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E971">
+        <v>2.7200000000000011</v>
+      </c>
+      <c r="F971">
+        <v>1</v>
+      </c>
+      <c r="G971">
+        <v>0</v>
+      </c>
+      <c r="H971">
+        <v>1</v>
+      </c>
+      <c r="I971">
+        <v>0</v>
+      </c>
+      <c r="J971">
+        <v>0</v>
+      </c>
+      <c r="K971" t="s">
+        <v>12</v>
+      </c>
+      <c r="L971">
+        <v>0</v>
+      </c>
+      <c r="M971">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C972">
+        <v>23</v>
+      </c>
+      <c r="D972">
+        <v>1.07</v>
+      </c>
+      <c r="E972">
+        <v>21.93</v>
+      </c>
+      <c r="F972">
+        <v>1</v>
+      </c>
+      <c r="G972">
+        <v>1</v>
+      </c>
+      <c r="H972">
+        <v>0</v>
+      </c>
+      <c r="I972">
+        <v>0</v>
+      </c>
+      <c r="J972">
+        <v>1</v>
+      </c>
+      <c r="K972" t="s">
+        <v>12</v>
+      </c>
+      <c r="L972">
+        <v>1</v>
+      </c>
+      <c r="M972">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C973">
+        <v>12.5</v>
+      </c>
+      <c r="D973">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E973">
+        <v>11.35</v>
+      </c>
+      <c r="F973">
+        <v>1</v>
+      </c>
+      <c r="G973">
+        <v>1</v>
+      </c>
+      <c r="H973">
+        <v>0</v>
+      </c>
+      <c r="I973">
+        <v>1</v>
+      </c>
+      <c r="J973">
+        <v>0</v>
+      </c>
+      <c r="K973" t="s">
+        <v>13</v>
+      </c>
+      <c r="L973">
+        <v>3</v>
+      </c>
+      <c r="M973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C974">
+        <v>10</v>
+      </c>
+      <c r="D974">
+        <v>1.21</v>
+      </c>
+      <c r="E974">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F974">
+        <v>1</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
+      </c>
+      <c r="H974">
+        <v>1</v>
+      </c>
+      <c r="I974">
+        <v>0</v>
+      </c>
+      <c r="J974">
+        <v>0</v>
+      </c>
+      <c r="K974" t="s">
+        <v>12</v>
+      </c>
+      <c r="L974">
+        <v>0</v>
+      </c>
+      <c r="M974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C975">
+        <v>3.5</v>
+      </c>
+      <c r="D975">
+        <v>1.91</v>
+      </c>
+      <c r="E975">
+        <v>1.59</v>
+      </c>
+      <c r="F975">
+        <v>1</v>
+      </c>
+      <c r="G975">
+        <v>1</v>
+      </c>
+      <c r="H975">
+        <v>0</v>
+      </c>
+      <c r="I975">
+        <v>1</v>
+      </c>
+      <c r="J975">
+        <v>0</v>
+      </c>
+      <c r="K975" t="s">
+        <v>11</v>
+      </c>
+      <c r="L975">
+        <v>3</v>
+      </c>
+      <c r="M975">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C976">
+        <v>1.77</v>
+      </c>
+      <c r="D976">
+        <v>3.9</v>
+      </c>
+      <c r="E976">
+        <v>2.13</v>
+      </c>
+      <c r="F976">
+        <v>0</v>
+      </c>
+      <c r="G976">
+        <v>1</v>
+      </c>
+      <c r="H976">
+        <v>1</v>
+      </c>
+      <c r="I976">
+        <v>0</v>
+      </c>
+      <c r="J976">
+        <v>1</v>
+      </c>
+      <c r="K976" t="s">
+        <v>13</v>
+      </c>
+      <c r="L976">
+        <v>2</v>
+      </c>
+      <c r="M976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C977">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D977">
+        <v>1.64</v>
+      </c>
+      <c r="E977">
+        <v>2.7600000000000011</v>
+      </c>
+      <c r="F977">
+        <v>1</v>
+      </c>
+      <c r="G977">
+        <v>1</v>
+      </c>
+      <c r="H977">
+        <v>0</v>
+      </c>
+      <c r="I977">
+        <v>0</v>
+      </c>
+      <c r="J977">
+        <v>0</v>
+      </c>
+      <c r="K977" t="s">
+        <v>11</v>
+      </c>
+      <c r="L977">
+        <v>2</v>
+      </c>
+      <c r="M977">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C978">
+        <v>2.7</v>
+      </c>
+      <c r="D978">
+        <v>2.85</v>
+      </c>
+      <c r="E978">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F978">
+        <v>1</v>
+      </c>
+      <c r="G978">
+        <v>0</v>
+      </c>
+      <c r="H978">
+        <v>0</v>
+      </c>
+      <c r="I978">
+        <v>1</v>
+      </c>
+      <c r="J978">
+        <v>1</v>
+      </c>
+      <c r="K978" t="s">
+        <v>13</v>
+      </c>
+      <c r="L978">
+        <v>1</v>
+      </c>
+      <c r="M978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C979">
+        <v>2</v>
+      </c>
+      <c r="D979">
+        <v>3.5</v>
+      </c>
+      <c r="E979">
+        <v>1.5</v>
+      </c>
+      <c r="F979">
+        <v>1</v>
+      </c>
+      <c r="G979">
+        <v>0</v>
+      </c>
+      <c r="H979">
+        <v>0</v>
+      </c>
+      <c r="I979">
+        <v>0</v>
+      </c>
+      <c r="J979">
+        <v>0</v>
+      </c>
+      <c r="K979" t="s">
+        <v>11</v>
+      </c>
+      <c r="L979">
+        <v>1</v>
+      </c>
+      <c r="M979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C980">
+        <v>1.65</v>
+      </c>
+      <c r="D980">
+        <v>5.25</v>
+      </c>
+      <c r="E980">
+        <v>3.6</v>
+      </c>
+      <c r="F980">
+        <v>1</v>
+      </c>
+      <c r="G980">
+        <v>0</v>
+      </c>
+      <c r="H980">
+        <v>0</v>
+      </c>
+      <c r="I980">
+        <v>1</v>
+      </c>
+      <c r="J980">
+        <v>1</v>
+      </c>
+      <c r="K980" t="s">
+        <v>12</v>
+      </c>
+      <c r="L980">
+        <v>0</v>
+      </c>
+      <c r="M980">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C981">
+        <v>1.82</v>
+      </c>
+      <c r="D981">
+        <v>4.5</v>
+      </c>
+      <c r="E981">
+        <v>2.68</v>
+      </c>
+      <c r="F981">
+        <v>0</v>
+      </c>
+      <c r="G981">
+        <v>0</v>
+      </c>
+      <c r="H981">
+        <v>0</v>
+      </c>
+      <c r="I981">
+        <v>1</v>
+      </c>
+      <c r="J981">
+        <v>1</v>
+      </c>
+      <c r="K981" t="s">
+        <v>13</v>
+      </c>
+      <c r="L981">
+        <v>2</v>
+      </c>
+      <c r="M981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C982">
+        <v>1.44</v>
+      </c>
+      <c r="D982">
+        <v>6.9</v>
+      </c>
+      <c r="E982">
+        <v>5.4600000000000009</v>
+      </c>
+      <c r="F982">
+        <v>0</v>
+      </c>
+      <c r="G982">
+        <v>1</v>
+      </c>
+      <c r="H982">
+        <v>0</v>
+      </c>
+      <c r="I982">
+        <v>1</v>
+      </c>
+      <c r="J982">
+        <v>0</v>
+      </c>
+      <c r="K982" t="s">
+        <v>13</v>
+      </c>
+      <c r="L982">
+        <v>2</v>
+      </c>
+      <c r="M982">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C951C-250F-4367-9F18-DD524AB065F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA469D4-A7A8-49CB-93CD-F91A9E528BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="2078">
   <si>
     <t>home</t>
   </si>
@@ -5529,6 +5529,747 @@
   </si>
   <si>
     <t xml:space="preserve"> Club Atletico Los Andes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umea FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IFK Stocksund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoang Anh Gia Lai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Song Lam Nghe An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK Olympic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angelholms FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torslanda IK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Falkenbergs FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tvaakers IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norrby IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stord FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Floro SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friska Viljor FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assyriska FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torns IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonkopings Sodra IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Pyunik Yerevan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Van Charentsavan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hekimoglu Trabzon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ankaraspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismaily SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Prishtina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KF Drita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Saint-Gilloise </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Royal Antwerp FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomhoryet Shebin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aswan FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CfR Pforzheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FV Ravensburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSV 08 Bissingen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Nottingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VfR Mannheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Holzhausen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Bischofshofen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Pinzgau Saalfelden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Sadd SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Fateh SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ararat Yerevan FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Noah Yerevan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Wil 1900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Baden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thor Akureyri </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afturelding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMF Njardvik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maccabi Bney Reine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Khor SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24Erzincanspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menemen Belediyespor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Icel Idmanyurdu Spor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Akhdood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverkusen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aston Villa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Platense Municipal Zacatecoluca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Municipal Limeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool Montevideo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dandenong City SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heidelberg United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talaea El Gaish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC CSKA 1948 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PFC Slavia Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. FC Magdeburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greuther Furth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paderborn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Monastir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACS Sepsi OSK Sfantu Gheorghe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Emmen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> De Graafschap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVV Maastricht </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VVV Venlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Cambuur </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Helmond Sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willem II Tilburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Telstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascoli Calcio 1898 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcio Lecco 1912 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modena FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feralpisalo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ternana Calcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venezia FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSC Bari </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brescia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Luzern </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grasshopper Club Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lausanne-Sport </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportivo Camioneros </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gutierrez SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiens </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AJ Auxerre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guingamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pau FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Bastia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Etienne </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rodez Aveyron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Concarneau </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bordeaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USL Dunkerque </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quevilly-Rouen Metropole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick Thistle FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaves </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Girona FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epinal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Villefranche-Beaujolais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Versailles 78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marignane Gignac FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sochaux-Montbeliard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Famalicao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speranza Osaka-Takatsuki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iga FC Kunoichi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambton Jaffas FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adamstown Rosebud FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimizu S-Pulse </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kagoshima United</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thespakusatsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Port Melbourne Sharks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canberra Olympic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canberra Croatia FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gyeongju FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orca Kamogawa FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nippatsu Yokohama FC Seagulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoogali SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide Comets FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide Croatia Raiders SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modbury Jets SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbelltown City SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Para Hills Knights SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawasaki Frontale </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hokkaido Consadole Sapporo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Olympic FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clarence Zebras FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launceston City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Hobart FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast Knights </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redlands United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moreton City Excelsior FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalian Kun City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taian Tiankuang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Man FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiangxi Beidamen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dalian Zhixing FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tuggeranong Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipswich FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Broadbeach United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchelton FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Southside Eagles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Chindia Targoviste </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSM Slatina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csa Steaua Bucuresti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CS Concordia Chiajna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Unirea Dej </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSM Alexandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolves FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Jablonec B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Arsenal Ceska Lipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Fotbal Trinec </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Hranice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZCE Plzen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Horovicko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. Byskovice </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cesky Brod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Kladno </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Ostrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagliari Calcio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genoa CFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreton City Excelsior FC 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logan Lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St George City FA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daejeon Citizen FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Vorskla Poltava </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Minaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansan Greeners </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seoul E-Land FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheonan City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shanghai Shenhua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vejgaard BK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vanloese IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS Lazio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inter Milano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Man City</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanjing City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzhou Dongwu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizhao Yuqi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA 2000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thisted FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racing Santander </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Mirandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beijing Guoan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meizhou Hakka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SonderjyskE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aalborg BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aarhus Fremad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AB Gladsaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK Fremad Amager </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brabrand IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middelfart BK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nykoebing FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheveningen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Banik Ostrava </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FC Slovacko Uherske Hradiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amsterdamsche FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACV Assen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijnsburgse Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Lisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varbergs BoIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Orgryte IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atalanta BC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hellas Verona FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adanaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bandirmaspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kocaelispor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sakaryaspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanliurfaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manisa Futbol Kulubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS Gornik Zabrze </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FKS Stal Mielec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borussia M </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eintracht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freiburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FC Heidenheim 1846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leipzig </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Werder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Spartak Moscow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everton </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sheffield Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottenham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burnley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luton Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montrose FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stirling Albion FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dumbarton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aalesunds FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asane Fotball </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IK Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moss FK </t>
   </si>
 </sst>
 </file>
@@ -5904,10 +6645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M982"/>
+  <dimension ref="A1:M1137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A916" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A930" sqref="A930:XFD982"/>
+    <sheetView tabSelected="1" topLeftCell="A1045" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1053" sqref="A1053:XFD1137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46172,6 +46913,6361 @@
       </c>
       <c r="M982">
         <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C983">
+        <v>1.7</v>
+      </c>
+      <c r="D983">
+        <v>4</v>
+      </c>
+      <c r="E983">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F983">
+        <v>1</v>
+      </c>
+      <c r="G983">
+        <v>1</v>
+      </c>
+      <c r="H983">
+        <v>1</v>
+      </c>
+      <c r="I983">
+        <v>0</v>
+      </c>
+      <c r="J983">
+        <v>0</v>
+      </c>
+      <c r="K983" t="s">
+        <v>13</v>
+      </c>
+      <c r="L983">
+        <v>4</v>
+      </c>
+      <c r="M983">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C984">
+        <v>1.78</v>
+      </c>
+      <c r="D984">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E984">
+        <v>2.62</v>
+      </c>
+      <c r="F984">
+        <v>1</v>
+      </c>
+      <c r="G984">
+        <v>0</v>
+      </c>
+      <c r="H984">
+        <v>1</v>
+      </c>
+      <c r="I984">
+        <v>0</v>
+      </c>
+      <c r="J984">
+        <v>1</v>
+      </c>
+      <c r="K984" t="s">
+        <v>13</v>
+      </c>
+      <c r="L984">
+        <v>1</v>
+      </c>
+      <c r="M984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C985">
+        <v>1.74</v>
+      </c>
+      <c r="D985">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E985">
+        <v>2.359999999999999</v>
+      </c>
+      <c r="F985">
+        <v>0</v>
+      </c>
+      <c r="G985">
+        <v>0</v>
+      </c>
+      <c r="H985">
+        <v>1</v>
+      </c>
+      <c r="I985">
+        <v>1</v>
+      </c>
+      <c r="J985">
+        <v>1</v>
+      </c>
+      <c r="K985" t="s">
+        <v>12</v>
+      </c>
+      <c r="L985">
+        <v>1</v>
+      </c>
+      <c r="M985">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="986" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C986">
+        <v>5</v>
+      </c>
+      <c r="D986">
+        <v>1.55</v>
+      </c>
+      <c r="E986">
+        <v>3.45</v>
+      </c>
+      <c r="F986">
+        <v>0</v>
+      </c>
+      <c r="G986">
+        <v>1</v>
+      </c>
+      <c r="H986">
+        <v>0</v>
+      </c>
+      <c r="I986">
+        <v>0</v>
+      </c>
+      <c r="J986">
+        <v>1</v>
+      </c>
+      <c r="K986" t="s">
+        <v>12</v>
+      </c>
+      <c r="L986">
+        <v>2</v>
+      </c>
+      <c r="M986">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C987">
+        <v>3.8</v>
+      </c>
+      <c r="D987">
+        <v>1.86</v>
+      </c>
+      <c r="E987">
+        <v>1.94</v>
+      </c>
+      <c r="F987">
+        <v>0</v>
+      </c>
+      <c r="G987">
+        <v>1</v>
+      </c>
+      <c r="H987">
+        <v>1</v>
+      </c>
+      <c r="I987">
+        <v>0</v>
+      </c>
+      <c r="J987">
+        <v>1</v>
+      </c>
+      <c r="K987" t="s">
+        <v>13</v>
+      </c>
+      <c r="L987">
+        <v>3</v>
+      </c>
+      <c r="M987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C988">
+        <v>1.51</v>
+      </c>
+      <c r="D988">
+        <v>4.7</v>
+      </c>
+      <c r="E988">
+        <v>3.19</v>
+      </c>
+      <c r="F988">
+        <v>1</v>
+      </c>
+      <c r="G988">
+        <v>1</v>
+      </c>
+      <c r="H988">
+        <v>0</v>
+      </c>
+      <c r="I988">
+        <v>0</v>
+      </c>
+      <c r="J988">
+        <v>0</v>
+      </c>
+      <c r="K988" t="s">
+        <v>13</v>
+      </c>
+      <c r="L988">
+        <v>5</v>
+      </c>
+      <c r="M988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C989">
+        <v>3.75</v>
+      </c>
+      <c r="D989">
+        <v>1.8</v>
+      </c>
+      <c r="E989">
+        <v>1.95</v>
+      </c>
+      <c r="F989">
+        <v>1</v>
+      </c>
+      <c r="G989">
+        <v>1</v>
+      </c>
+      <c r="H989">
+        <v>0</v>
+      </c>
+      <c r="I989">
+        <v>0</v>
+      </c>
+      <c r="J989">
+        <v>1</v>
+      </c>
+      <c r="K989" t="s">
+        <v>12</v>
+      </c>
+      <c r="L989">
+        <v>2</v>
+      </c>
+      <c r="M989">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C990">
+        <v>3.2</v>
+      </c>
+      <c r="D990">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E990">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F990">
+        <v>1</v>
+      </c>
+      <c r="G990">
+        <v>0</v>
+      </c>
+      <c r="H990">
+        <v>1</v>
+      </c>
+      <c r="I990">
+        <v>0</v>
+      </c>
+      <c r="J990">
+        <v>1</v>
+      </c>
+      <c r="K990" t="s">
+        <v>13</v>
+      </c>
+      <c r="L990">
+        <v>4</v>
+      </c>
+      <c r="M990">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="991" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C991">
+        <v>1.18</v>
+      </c>
+      <c r="D991">
+        <v>11</v>
+      </c>
+      <c r="E991">
+        <v>9.82</v>
+      </c>
+      <c r="F991">
+        <v>1</v>
+      </c>
+      <c r="G991">
+        <v>0</v>
+      </c>
+      <c r="H991">
+        <v>0</v>
+      </c>
+      <c r="I991">
+        <v>0</v>
+      </c>
+      <c r="J991">
+        <v>1</v>
+      </c>
+      <c r="K991" t="s">
+        <v>13</v>
+      </c>
+      <c r="L991">
+        <v>3</v>
+      </c>
+      <c r="M991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C992">
+        <v>1.57</v>
+      </c>
+      <c r="D992">
+        <v>5.5</v>
+      </c>
+      <c r="E992">
+        <v>3.93</v>
+      </c>
+      <c r="F992">
+        <v>1</v>
+      </c>
+      <c r="G992">
+        <v>1</v>
+      </c>
+      <c r="H992">
+        <v>1</v>
+      </c>
+      <c r="I992">
+        <v>0</v>
+      </c>
+      <c r="J992">
+        <v>0</v>
+      </c>
+      <c r="K992" t="s">
+        <v>13</v>
+      </c>
+      <c r="L992">
+        <v>4</v>
+      </c>
+      <c r="M992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B993" t="s">
+        <v>666</v>
+      </c>
+      <c r="C993">
+        <v>1.62</v>
+      </c>
+      <c r="D993">
+        <v>5.9</v>
+      </c>
+      <c r="E993">
+        <v>4.28</v>
+      </c>
+      <c r="F993">
+        <v>1</v>
+      </c>
+      <c r="G993">
+        <v>0</v>
+      </c>
+      <c r="H993">
+        <v>1</v>
+      </c>
+      <c r="I993">
+        <v>1</v>
+      </c>
+      <c r="J993">
+        <v>0</v>
+      </c>
+      <c r="K993" t="s">
+        <v>13</v>
+      </c>
+      <c r="L993">
+        <v>1</v>
+      </c>
+      <c r="M993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C994">
+        <v>3.6</v>
+      </c>
+      <c r="D994">
+        <v>2</v>
+      </c>
+      <c r="E994">
+        <v>1.6</v>
+      </c>
+      <c r="F994">
+        <v>0</v>
+      </c>
+      <c r="G994">
+        <v>1</v>
+      </c>
+      <c r="H994">
+        <v>0</v>
+      </c>
+      <c r="I994">
+        <v>1</v>
+      </c>
+      <c r="J994">
+        <v>0</v>
+      </c>
+      <c r="K994" t="s">
+        <v>12</v>
+      </c>
+      <c r="L994">
+        <v>1</v>
+      </c>
+      <c r="M994">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="995" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C995">
+        <v>1.79</v>
+      </c>
+      <c r="D995">
+        <v>3.9</v>
+      </c>
+      <c r="E995">
+        <v>2.11</v>
+      </c>
+      <c r="F995">
+        <v>0</v>
+      </c>
+      <c r="G995">
+        <v>0</v>
+      </c>
+      <c r="H995">
+        <v>1</v>
+      </c>
+      <c r="I995">
+        <v>1</v>
+      </c>
+      <c r="J995">
+        <v>0</v>
+      </c>
+      <c r="K995" t="s">
+        <v>13</v>
+      </c>
+      <c r="L995">
+        <v>1</v>
+      </c>
+      <c r="M995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C996">
+        <v>4.8</v>
+      </c>
+      <c r="D996">
+        <v>2</v>
+      </c>
+      <c r="E996">
+        <v>2.8</v>
+      </c>
+      <c r="F996">
+        <v>0</v>
+      </c>
+      <c r="G996">
+        <v>0</v>
+      </c>
+      <c r="H996">
+        <v>1</v>
+      </c>
+      <c r="I996">
+        <v>1</v>
+      </c>
+      <c r="J996">
+        <v>1</v>
+      </c>
+      <c r="K996" t="s">
+        <v>12</v>
+      </c>
+      <c r="L996">
+        <v>1</v>
+      </c>
+      <c r="M996">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="997" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C997">
+        <v>1.32</v>
+      </c>
+      <c r="D997">
+        <v>7</v>
+      </c>
+      <c r="E997">
+        <v>5.68</v>
+      </c>
+      <c r="F997">
+        <v>1</v>
+      </c>
+      <c r="G997">
+        <v>0</v>
+      </c>
+      <c r="H997">
+        <v>0</v>
+      </c>
+      <c r="I997">
+        <v>1</v>
+      </c>
+      <c r="J997">
+        <v>1</v>
+      </c>
+      <c r="K997" t="s">
+        <v>13</v>
+      </c>
+      <c r="L997">
+        <v>3</v>
+      </c>
+      <c r="M997">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="998" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C998">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D998">
+        <v>2.1</v>
+      </c>
+      <c r="E998">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F998">
+        <v>1</v>
+      </c>
+      <c r="G998">
+        <v>0</v>
+      </c>
+      <c r="H998">
+        <v>0</v>
+      </c>
+      <c r="I998">
+        <v>1</v>
+      </c>
+      <c r="J998">
+        <v>0</v>
+      </c>
+      <c r="K998" t="s">
+        <v>12</v>
+      </c>
+      <c r="L998">
+        <v>0</v>
+      </c>
+      <c r="M998">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C999">
+        <v>2.1</v>
+      </c>
+      <c r="D999">
+        <v>2.6</v>
+      </c>
+      <c r="E999">
+        <v>0.5</v>
+      </c>
+      <c r="F999">
+        <v>0</v>
+      </c>
+      <c r="G999">
+        <v>1</v>
+      </c>
+      <c r="H999">
+        <v>0</v>
+      </c>
+      <c r="I999">
+        <v>1</v>
+      </c>
+      <c r="J999">
+        <v>0</v>
+      </c>
+      <c r="K999" t="s">
+        <v>12</v>
+      </c>
+      <c r="L999">
+        <v>0</v>
+      </c>
+      <c r="M999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1000">
+        <v>2.1</v>
+      </c>
+      <c r="D1000">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E1000">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F1000">
+        <v>1</v>
+      </c>
+      <c r="G1000">
+        <v>0</v>
+      </c>
+      <c r="H1000">
+        <v>0</v>
+      </c>
+      <c r="I1000">
+        <v>1</v>
+      </c>
+      <c r="J1000">
+        <v>1</v>
+      </c>
+      <c r="K1000" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1000">
+        <v>2</v>
+      </c>
+      <c r="M1000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1001">
+        <v>1.21</v>
+      </c>
+      <c r="D1001">
+        <v>8.9</v>
+      </c>
+      <c r="E1001">
+        <v>7.69</v>
+      </c>
+      <c r="F1001">
+        <v>0</v>
+      </c>
+      <c r="G1001">
+        <v>0</v>
+      </c>
+      <c r="H1001">
+        <v>0</v>
+      </c>
+      <c r="I1001">
+        <v>1</v>
+      </c>
+      <c r="J1001">
+        <v>0</v>
+      </c>
+      <c r="K1001" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1001">
+        <v>3</v>
+      </c>
+      <c r="M1001">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1002">
+        <v>2.6</v>
+      </c>
+      <c r="D1002">
+        <v>2.5</v>
+      </c>
+      <c r="E1002">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F1002">
+        <v>0</v>
+      </c>
+      <c r="G1002">
+        <v>1</v>
+      </c>
+      <c r="H1002">
+        <v>0</v>
+      </c>
+      <c r="I1002">
+        <v>1</v>
+      </c>
+      <c r="J1002">
+        <v>1</v>
+      </c>
+      <c r="K1002" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1002">
+        <v>2</v>
+      </c>
+      <c r="M1002">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1003">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D1003">
+        <v>1.58</v>
+      </c>
+      <c r="E1003">
+        <v>3.52</v>
+      </c>
+      <c r="F1003">
+        <v>1</v>
+      </c>
+      <c r="G1003">
+        <v>0</v>
+      </c>
+      <c r="H1003">
+        <v>0</v>
+      </c>
+      <c r="I1003">
+        <v>0</v>
+      </c>
+      <c r="J1003">
+        <v>1</v>
+      </c>
+      <c r="K1003" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1003">
+        <v>0</v>
+      </c>
+      <c r="M1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1004">
+        <v>1.66</v>
+      </c>
+      <c r="D1004">
+        <v>4.7</v>
+      </c>
+      <c r="E1004">
+        <v>3.04</v>
+      </c>
+      <c r="F1004">
+        <v>1</v>
+      </c>
+      <c r="G1004">
+        <v>0</v>
+      </c>
+      <c r="H1004">
+        <v>0</v>
+      </c>
+      <c r="I1004">
+        <v>0</v>
+      </c>
+      <c r="J1004">
+        <v>0</v>
+      </c>
+      <c r="K1004" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1004">
+        <v>3</v>
+      </c>
+      <c r="M1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C1005">
+        <v>2.25</v>
+      </c>
+      <c r="D1005">
+        <v>2.7</v>
+      </c>
+      <c r="E1005">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F1005">
+        <v>0</v>
+      </c>
+      <c r="G1005">
+        <v>0</v>
+      </c>
+      <c r="H1005">
+        <v>0</v>
+      </c>
+      <c r="I1005">
+        <v>1</v>
+      </c>
+      <c r="J1005">
+        <v>1</v>
+      </c>
+      <c r="K1005" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1005">
+        <v>4</v>
+      </c>
+      <c r="M1005">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1006">
+        <v>1.69</v>
+      </c>
+      <c r="D1006">
+        <v>3.9</v>
+      </c>
+      <c r="E1006">
+        <v>2.21</v>
+      </c>
+      <c r="F1006">
+        <v>0</v>
+      </c>
+      <c r="G1006">
+        <v>1</v>
+      </c>
+      <c r="H1006">
+        <v>1</v>
+      </c>
+      <c r="I1006">
+        <v>1</v>
+      </c>
+      <c r="J1006">
+        <v>0</v>
+      </c>
+      <c r="K1006" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1006">
+        <v>3</v>
+      </c>
+      <c r="M1006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1007">
+        <v>1.5</v>
+      </c>
+      <c r="D1007">
+        <v>6.4</v>
+      </c>
+      <c r="E1007">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F1007">
+        <v>1</v>
+      </c>
+      <c r="G1007">
+        <v>0</v>
+      </c>
+      <c r="H1007">
+        <v>1</v>
+      </c>
+      <c r="I1007">
+        <v>1</v>
+      </c>
+      <c r="J1007">
+        <v>0</v>
+      </c>
+      <c r="K1007" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1007">
+        <v>2</v>
+      </c>
+      <c r="M1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1008">
+        <v>1.18</v>
+      </c>
+      <c r="D1008">
+        <v>10</v>
+      </c>
+      <c r="E1008">
+        <v>8.82</v>
+      </c>
+      <c r="F1008">
+        <v>1</v>
+      </c>
+      <c r="G1008">
+        <v>0</v>
+      </c>
+      <c r="H1008">
+        <v>0</v>
+      </c>
+      <c r="I1008">
+        <v>1</v>
+      </c>
+      <c r="J1008">
+        <v>0</v>
+      </c>
+      <c r="K1008" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1008">
+        <v>4</v>
+      </c>
+      <c r="M1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1009">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1009">
+        <v>3.1</v>
+      </c>
+      <c r="E1009">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1009">
+        <v>0</v>
+      </c>
+      <c r="G1009">
+        <v>1</v>
+      </c>
+      <c r="H1009">
+        <v>1</v>
+      </c>
+      <c r="I1009">
+        <v>1</v>
+      </c>
+      <c r="J1009">
+        <v>0</v>
+      </c>
+      <c r="K1009" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1009">
+        <v>2</v>
+      </c>
+      <c r="M1009">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1010">
+        <v>1.83</v>
+      </c>
+      <c r="D1010">
+        <v>3.75</v>
+      </c>
+      <c r="E1010">
+        <v>1.92</v>
+      </c>
+      <c r="F1010">
+        <v>1</v>
+      </c>
+      <c r="G1010">
+        <v>0</v>
+      </c>
+      <c r="H1010">
+        <v>0</v>
+      </c>
+      <c r="I1010">
+        <v>0</v>
+      </c>
+      <c r="J1010">
+        <v>1</v>
+      </c>
+      <c r="K1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1010">
+        <v>0</v>
+      </c>
+      <c r="M1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1011">
+        <v>8.5</v>
+      </c>
+      <c r="D1011">
+        <v>1.28</v>
+      </c>
+      <c r="E1011">
+        <v>7.22</v>
+      </c>
+      <c r="F1011">
+        <v>1</v>
+      </c>
+      <c r="G1011">
+        <v>1</v>
+      </c>
+      <c r="H1011">
+        <v>0</v>
+      </c>
+      <c r="I1011">
+        <v>1</v>
+      </c>
+      <c r="J1011">
+        <v>0</v>
+      </c>
+      <c r="K1011" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1011">
+        <v>2</v>
+      </c>
+      <c r="M1011">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1012">
+        <v>1.53</v>
+      </c>
+      <c r="D1012">
+        <v>6.4</v>
+      </c>
+      <c r="E1012">
+        <v>4.87</v>
+      </c>
+      <c r="F1012">
+        <v>1</v>
+      </c>
+      <c r="G1012">
+        <v>0</v>
+      </c>
+      <c r="H1012">
+        <v>0</v>
+      </c>
+      <c r="I1012">
+        <v>1</v>
+      </c>
+      <c r="J1012">
+        <v>0</v>
+      </c>
+      <c r="K1012" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1012">
+        <v>2</v>
+      </c>
+      <c r="M1012">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1013">
+        <v>3.69</v>
+      </c>
+      <c r="D1013">
+        <v>1.98</v>
+      </c>
+      <c r="E1013">
+        <v>1.71</v>
+      </c>
+      <c r="F1013">
+        <v>1</v>
+      </c>
+      <c r="G1013">
+        <v>0</v>
+      </c>
+      <c r="H1013">
+        <v>0</v>
+      </c>
+      <c r="I1013">
+        <v>1</v>
+      </c>
+      <c r="J1013">
+        <v>0</v>
+      </c>
+      <c r="K1013" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1013">
+        <v>2</v>
+      </c>
+      <c r="M1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1014">
+        <v>2.4</v>
+      </c>
+      <c r="D1014">
+        <v>2.85</v>
+      </c>
+      <c r="E1014">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F1014">
+        <v>1</v>
+      </c>
+      <c r="G1014">
+        <v>1</v>
+      </c>
+      <c r="H1014">
+        <v>0</v>
+      </c>
+      <c r="I1014">
+        <v>0</v>
+      </c>
+      <c r="J1014">
+        <v>0</v>
+      </c>
+      <c r="K1014" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1014">
+        <v>0</v>
+      </c>
+      <c r="M1014">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1015">
+        <v>7.2</v>
+      </c>
+      <c r="D1015">
+        <v>1.5</v>
+      </c>
+      <c r="E1015">
+        <v>5.7</v>
+      </c>
+      <c r="F1015">
+        <v>1</v>
+      </c>
+      <c r="G1015">
+        <v>1</v>
+      </c>
+      <c r="H1015">
+        <v>0</v>
+      </c>
+      <c r="I1015">
+        <v>0</v>
+      </c>
+      <c r="J1015">
+        <v>0</v>
+      </c>
+      <c r="K1015" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1015">
+        <v>0</v>
+      </c>
+      <c r="M1015">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1016">
+        <v>2.15</v>
+      </c>
+      <c r="D1016">
+        <v>2.9</v>
+      </c>
+      <c r="E1016">
+        <v>0.75</v>
+      </c>
+      <c r="F1016">
+        <v>0</v>
+      </c>
+      <c r="G1016">
+        <v>1</v>
+      </c>
+      <c r="H1016">
+        <v>0</v>
+      </c>
+      <c r="I1016">
+        <v>0</v>
+      </c>
+      <c r="J1016">
+        <v>1</v>
+      </c>
+      <c r="K1016" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1016">
+        <v>3</v>
+      </c>
+      <c r="M1016">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1017">
+        <v>3.4</v>
+      </c>
+      <c r="D1017">
+        <v>1.86</v>
+      </c>
+      <c r="E1017">
+        <v>1.54</v>
+      </c>
+      <c r="F1017">
+        <v>1</v>
+      </c>
+      <c r="G1017">
+        <v>1</v>
+      </c>
+      <c r="H1017">
+        <v>0</v>
+      </c>
+      <c r="I1017">
+        <v>1</v>
+      </c>
+      <c r="J1017">
+        <v>0</v>
+      </c>
+      <c r="K1017" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1017">
+        <v>1</v>
+      </c>
+      <c r="M1017">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C1018">
+        <v>1.9</v>
+      </c>
+      <c r="D1018">
+        <v>4.7</v>
+      </c>
+      <c r="E1018">
+        <v>2.8</v>
+      </c>
+      <c r="F1018">
+        <v>1</v>
+      </c>
+      <c r="G1018">
+        <v>0</v>
+      </c>
+      <c r="H1018">
+        <v>0</v>
+      </c>
+      <c r="I1018">
+        <v>1</v>
+      </c>
+      <c r="J1018">
+        <v>0</v>
+      </c>
+      <c r="K1018" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1018">
+        <v>2</v>
+      </c>
+      <c r="M1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1019">
+        <v>2.4</v>
+      </c>
+      <c r="D1019">
+        <v>3.1</v>
+      </c>
+      <c r="E1019">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1019">
+        <v>1</v>
+      </c>
+      <c r="G1019">
+        <v>0</v>
+      </c>
+      <c r="H1019">
+        <v>0</v>
+      </c>
+      <c r="I1019">
+        <v>0</v>
+      </c>
+      <c r="J1019">
+        <v>1</v>
+      </c>
+      <c r="K1019" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1019">
+        <v>0</v>
+      </c>
+      <c r="M1019">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1020">
+        <v>1.99</v>
+      </c>
+      <c r="D1020">
+        <v>3.6</v>
+      </c>
+      <c r="E1020">
+        <v>1.61</v>
+      </c>
+      <c r="F1020">
+        <v>1</v>
+      </c>
+      <c r="G1020">
+        <v>0</v>
+      </c>
+      <c r="H1020">
+        <v>1</v>
+      </c>
+      <c r="I1020">
+        <v>0</v>
+      </c>
+      <c r="J1020">
+        <v>0</v>
+      </c>
+      <c r="K1020" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1020">
+        <v>0</v>
+      </c>
+      <c r="M1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1021">
+        <v>3.7</v>
+      </c>
+      <c r="D1021">
+        <v>1.86</v>
+      </c>
+      <c r="E1021">
+        <v>1.84</v>
+      </c>
+      <c r="F1021">
+        <v>1</v>
+      </c>
+      <c r="G1021">
+        <v>0</v>
+      </c>
+      <c r="H1021">
+        <v>1</v>
+      </c>
+      <c r="I1021">
+        <v>0</v>
+      </c>
+      <c r="J1021">
+        <v>0</v>
+      </c>
+      <c r="K1021" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1021">
+        <v>1</v>
+      </c>
+      <c r="M1021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1022">
+        <v>1.89</v>
+      </c>
+      <c r="D1022">
+        <v>4.75</v>
+      </c>
+      <c r="E1022">
+        <v>2.86</v>
+      </c>
+      <c r="F1022">
+        <v>1</v>
+      </c>
+      <c r="G1022">
+        <v>1</v>
+      </c>
+      <c r="H1022">
+        <v>1</v>
+      </c>
+      <c r="I1022">
+        <v>0</v>
+      </c>
+      <c r="J1022">
+        <v>0</v>
+      </c>
+      <c r="K1022" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1022">
+        <v>4</v>
+      </c>
+      <c r="M1022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1023">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D1023">
+        <v>2.65</v>
+      </c>
+      <c r="E1023">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F1023">
+        <v>1</v>
+      </c>
+      <c r="G1023">
+        <v>1</v>
+      </c>
+      <c r="H1023">
+        <v>0</v>
+      </c>
+      <c r="I1023">
+        <v>1</v>
+      </c>
+      <c r="J1023">
+        <v>0</v>
+      </c>
+      <c r="K1023" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1023">
+        <v>3</v>
+      </c>
+      <c r="M1023">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1024">
+        <v>1.91</v>
+      </c>
+      <c r="D1024">
+        <v>3.6</v>
+      </c>
+      <c r="E1024">
+        <v>1.69</v>
+      </c>
+      <c r="F1024">
+        <v>1</v>
+      </c>
+      <c r="G1024">
+        <v>0</v>
+      </c>
+      <c r="H1024">
+        <v>0</v>
+      </c>
+      <c r="I1024">
+        <v>1</v>
+      </c>
+      <c r="J1024">
+        <v>0</v>
+      </c>
+      <c r="K1024" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1024">
+        <v>2</v>
+      </c>
+      <c r="M1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C1025">
+        <v>1.79</v>
+      </c>
+      <c r="D1025">
+        <v>3.8</v>
+      </c>
+      <c r="E1025">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F1025">
+        <v>1</v>
+      </c>
+      <c r="G1025">
+        <v>0</v>
+      </c>
+      <c r="H1025">
+        <v>1</v>
+      </c>
+      <c r="I1025">
+        <v>1</v>
+      </c>
+      <c r="J1025">
+        <v>0</v>
+      </c>
+      <c r="K1025" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1025">
+        <v>2</v>
+      </c>
+      <c r="M1025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C1026">
+        <v>1.91</v>
+      </c>
+      <c r="D1026">
+        <v>3.5</v>
+      </c>
+      <c r="E1026">
+        <v>1.59</v>
+      </c>
+      <c r="F1026">
+        <v>1</v>
+      </c>
+      <c r="G1026">
+        <v>0</v>
+      </c>
+      <c r="H1026">
+        <v>0</v>
+      </c>
+      <c r="I1026">
+        <v>0</v>
+      </c>
+      <c r="J1026">
+        <v>1</v>
+      </c>
+      <c r="K1026" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1026">
+        <v>1</v>
+      </c>
+      <c r="M1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C1027">
+        <v>1.38</v>
+      </c>
+      <c r="D1027">
+        <v>7</v>
+      </c>
+      <c r="E1027">
+        <v>5.62</v>
+      </c>
+      <c r="F1027">
+        <v>1</v>
+      </c>
+      <c r="G1027">
+        <v>0</v>
+      </c>
+      <c r="H1027">
+        <v>0</v>
+      </c>
+      <c r="I1027">
+        <v>1</v>
+      </c>
+      <c r="J1027">
+        <v>0</v>
+      </c>
+      <c r="K1027" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1027">
+        <v>3</v>
+      </c>
+      <c r="M1027">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1028">
+        <v>1.63</v>
+      </c>
+      <c r="D1028">
+        <v>5.7</v>
+      </c>
+      <c r="E1028">
+        <v>4.07</v>
+      </c>
+      <c r="F1028">
+        <v>0</v>
+      </c>
+      <c r="G1028">
+        <v>0</v>
+      </c>
+      <c r="H1028">
+        <v>1</v>
+      </c>
+      <c r="I1028">
+        <v>0</v>
+      </c>
+      <c r="J1028">
+        <v>1</v>
+      </c>
+      <c r="K1028" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1028">
+        <v>2</v>
+      </c>
+      <c r="M1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1029">
+        <v>3.5</v>
+      </c>
+      <c r="D1029">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E1029">
+        <v>1.45</v>
+      </c>
+      <c r="F1029">
+        <v>1</v>
+      </c>
+      <c r="G1029">
+        <v>0</v>
+      </c>
+      <c r="H1029">
+        <v>0</v>
+      </c>
+      <c r="I1029">
+        <v>1</v>
+      </c>
+      <c r="J1029">
+        <v>0</v>
+      </c>
+      <c r="K1029" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1029">
+        <v>2</v>
+      </c>
+      <c r="M1029">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C1030">
+        <v>5.4</v>
+      </c>
+      <c r="D1030">
+        <v>1.58</v>
+      </c>
+      <c r="E1030">
+        <v>3.82</v>
+      </c>
+      <c r="F1030">
+        <v>0</v>
+      </c>
+      <c r="G1030">
+        <v>1</v>
+      </c>
+      <c r="H1030">
+        <v>1</v>
+      </c>
+      <c r="I1030">
+        <v>0</v>
+      </c>
+      <c r="J1030">
+        <v>1</v>
+      </c>
+      <c r="K1030" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1030">
+        <v>0</v>
+      </c>
+      <c r="M1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1031">
+        <v>2.15</v>
+      </c>
+      <c r="D1031">
+        <v>3.25</v>
+      </c>
+      <c r="E1031">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1031">
+        <v>0</v>
+      </c>
+      <c r="G1031">
+        <v>1</v>
+      </c>
+      <c r="H1031">
+        <v>0</v>
+      </c>
+      <c r="I1031">
+        <v>1</v>
+      </c>
+      <c r="J1031">
+        <v>1</v>
+      </c>
+      <c r="K1031" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1031">
+        <v>2</v>
+      </c>
+      <c r="M1031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1032">
+        <v>1.48</v>
+      </c>
+      <c r="D1032">
+        <v>6.9</v>
+      </c>
+      <c r="E1032">
+        <v>5.42</v>
+      </c>
+      <c r="F1032">
+        <v>1</v>
+      </c>
+      <c r="G1032">
+        <v>0</v>
+      </c>
+      <c r="H1032">
+        <v>0</v>
+      </c>
+      <c r="I1032">
+        <v>0</v>
+      </c>
+      <c r="J1032">
+        <v>1</v>
+      </c>
+      <c r="K1032" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1032">
+        <v>2</v>
+      </c>
+      <c r="M1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1033">
+        <v>1.83</v>
+      </c>
+      <c r="D1033">
+        <v>4</v>
+      </c>
+      <c r="E1033">
+        <v>2.17</v>
+      </c>
+      <c r="F1033">
+        <v>1</v>
+      </c>
+      <c r="G1033">
+        <v>1</v>
+      </c>
+      <c r="H1033">
+        <v>0</v>
+      </c>
+      <c r="I1033">
+        <v>1</v>
+      </c>
+      <c r="J1033">
+        <v>0</v>
+      </c>
+      <c r="K1033" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1033">
+        <v>1</v>
+      </c>
+      <c r="M1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1034">
+        <v>2.25</v>
+      </c>
+      <c r="D1034">
+        <v>3.1</v>
+      </c>
+      <c r="E1034">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F1034">
+        <v>1</v>
+      </c>
+      <c r="G1034">
+        <v>0</v>
+      </c>
+      <c r="H1034">
+        <v>0</v>
+      </c>
+      <c r="I1034">
+        <v>0</v>
+      </c>
+      <c r="J1034">
+        <v>0</v>
+      </c>
+      <c r="K1034" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1034">
+        <v>0</v>
+      </c>
+      <c r="M1034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C1035">
+        <v>2.4</v>
+      </c>
+      <c r="D1035">
+        <v>3.1</v>
+      </c>
+      <c r="E1035">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1035">
+        <v>0</v>
+      </c>
+      <c r="G1035">
+        <v>1</v>
+      </c>
+      <c r="H1035">
+        <v>1</v>
+      </c>
+      <c r="I1035">
+        <v>1</v>
+      </c>
+      <c r="J1035">
+        <v>0</v>
+      </c>
+      <c r="K1035" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1035">
+        <v>0</v>
+      </c>
+      <c r="M1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C1036">
+        <v>5.09</v>
+      </c>
+      <c r="D1036">
+        <v>1.66</v>
+      </c>
+      <c r="E1036">
+        <v>3.43</v>
+      </c>
+      <c r="F1036">
+        <v>1</v>
+      </c>
+      <c r="G1036">
+        <v>1</v>
+      </c>
+      <c r="H1036">
+        <v>0</v>
+      </c>
+      <c r="I1036">
+        <v>1</v>
+      </c>
+      <c r="J1036">
+        <v>0</v>
+      </c>
+      <c r="K1036" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1036">
+        <v>0</v>
+      </c>
+      <c r="M1036">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1037">
+        <v>4</v>
+      </c>
+      <c r="D1037">
+        <v>1.97</v>
+      </c>
+      <c r="E1037">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F1037">
+        <v>0</v>
+      </c>
+      <c r="G1037">
+        <v>1</v>
+      </c>
+      <c r="H1037">
+        <v>1</v>
+      </c>
+      <c r="I1037">
+        <v>0</v>
+      </c>
+      <c r="J1037">
+        <v>1</v>
+      </c>
+      <c r="K1037" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1037">
+        <v>0</v>
+      </c>
+      <c r="M1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C1038">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1038">
+        <v>3.5</v>
+      </c>
+      <c r="E1038">
+        <v>1.3</v>
+      </c>
+      <c r="F1038">
+        <v>1</v>
+      </c>
+      <c r="G1038">
+        <v>0</v>
+      </c>
+      <c r="H1038">
+        <v>0</v>
+      </c>
+      <c r="I1038">
+        <v>0</v>
+      </c>
+      <c r="J1038">
+        <v>1</v>
+      </c>
+      <c r="K1038" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1038">
+        <v>2</v>
+      </c>
+      <c r="M1038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1039">
+        <v>1.97</v>
+      </c>
+      <c r="D1039">
+        <v>3.75</v>
+      </c>
+      <c r="E1039">
+        <v>1.78</v>
+      </c>
+      <c r="F1039">
+        <v>1</v>
+      </c>
+      <c r="G1039">
+        <v>1</v>
+      </c>
+      <c r="H1039">
+        <v>0</v>
+      </c>
+      <c r="I1039">
+        <v>0</v>
+      </c>
+      <c r="J1039">
+        <v>0</v>
+      </c>
+      <c r="K1039" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1039">
+        <v>1</v>
+      </c>
+      <c r="M1039">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1040">
+        <v>1.72</v>
+      </c>
+      <c r="D1040">
+        <v>4.5</v>
+      </c>
+      <c r="E1040">
+        <v>2.78</v>
+      </c>
+      <c r="F1040">
+        <v>0</v>
+      </c>
+      <c r="G1040">
+        <v>1</v>
+      </c>
+      <c r="H1040">
+        <v>1</v>
+      </c>
+      <c r="I1040">
+        <v>0</v>
+      </c>
+      <c r="J1040">
+        <v>1</v>
+      </c>
+      <c r="K1040" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1040">
+        <v>1</v>
+      </c>
+      <c r="M1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C1041">
+        <v>3.1</v>
+      </c>
+      <c r="D1041">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E1041">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1041">
+        <v>0</v>
+      </c>
+      <c r="G1041">
+        <v>1</v>
+      </c>
+      <c r="H1041">
+        <v>1</v>
+      </c>
+      <c r="I1041">
+        <v>1</v>
+      </c>
+      <c r="J1041">
+        <v>0</v>
+      </c>
+      <c r="K1041" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1041">
+        <v>4</v>
+      </c>
+      <c r="M1041">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C1042">
+        <v>3.75</v>
+      </c>
+      <c r="D1042">
+        <v>1.97</v>
+      </c>
+      <c r="E1042">
+        <v>1.78</v>
+      </c>
+      <c r="F1042">
+        <v>0</v>
+      </c>
+      <c r="G1042">
+        <v>1</v>
+      </c>
+      <c r="H1042">
+        <v>1</v>
+      </c>
+      <c r="I1042">
+        <v>0</v>
+      </c>
+      <c r="J1042">
+        <v>0</v>
+      </c>
+      <c r="K1042" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1042">
+        <v>2</v>
+      </c>
+      <c r="M1042">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1043">
+        <v>3.6</v>
+      </c>
+      <c r="D1043">
+        <v>2</v>
+      </c>
+      <c r="E1043">
+        <v>1.6</v>
+      </c>
+      <c r="F1043">
+        <v>1</v>
+      </c>
+      <c r="G1043">
+        <v>0</v>
+      </c>
+      <c r="H1043">
+        <v>1</v>
+      </c>
+      <c r="I1043">
+        <v>0</v>
+      </c>
+      <c r="J1043">
+        <v>1</v>
+      </c>
+      <c r="K1043" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1043">
+        <v>2</v>
+      </c>
+      <c r="M1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1044">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1044">
+        <v>3.25</v>
+      </c>
+      <c r="E1044">
+        <v>1.05</v>
+      </c>
+      <c r="F1044">
+        <v>1</v>
+      </c>
+      <c r="G1044">
+        <v>0</v>
+      </c>
+      <c r="H1044">
+        <v>1</v>
+      </c>
+      <c r="I1044">
+        <v>0</v>
+      </c>
+      <c r="J1044">
+        <v>1</v>
+      </c>
+      <c r="K1044" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1044">
+        <v>2</v>
+      </c>
+      <c r="M1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1045">
+        <v>3.79</v>
+      </c>
+      <c r="D1045">
+        <v>2.06</v>
+      </c>
+      <c r="E1045">
+        <v>1.73</v>
+      </c>
+      <c r="F1045">
+        <v>0</v>
+      </c>
+      <c r="G1045">
+        <v>1</v>
+      </c>
+      <c r="H1045">
+        <v>1</v>
+      </c>
+      <c r="I1045">
+        <v>1</v>
+      </c>
+      <c r="J1045">
+        <v>0</v>
+      </c>
+      <c r="K1045" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1045">
+        <v>2</v>
+      </c>
+      <c r="M1045">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1046">
+        <v>1.74</v>
+      </c>
+      <c r="D1046">
+        <v>4.92</v>
+      </c>
+      <c r="E1046">
+        <v>3.18</v>
+      </c>
+      <c r="F1046">
+        <v>1</v>
+      </c>
+      <c r="G1046">
+        <v>1</v>
+      </c>
+      <c r="H1046">
+        <v>0</v>
+      </c>
+      <c r="I1046">
+        <v>0</v>
+      </c>
+      <c r="J1046">
+        <v>0</v>
+      </c>
+      <c r="K1046" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1046">
+        <v>1</v>
+      </c>
+      <c r="M1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1047">
+        <v>1.57</v>
+      </c>
+      <c r="D1047">
+        <v>6.56</v>
+      </c>
+      <c r="E1047">
+        <v>4.9899999999999993</v>
+      </c>
+      <c r="F1047">
+        <v>0</v>
+      </c>
+      <c r="G1047">
+        <v>1</v>
+      </c>
+      <c r="H1047">
+        <v>0</v>
+      </c>
+      <c r="I1047">
+        <v>1</v>
+      </c>
+      <c r="J1047">
+        <v>1</v>
+      </c>
+      <c r="K1047" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1047">
+        <v>1</v>
+      </c>
+      <c r="M1047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C1048">
+        <v>3.4</v>
+      </c>
+      <c r="D1048">
+        <v>1.98</v>
+      </c>
+      <c r="E1048">
+        <v>1.42</v>
+      </c>
+      <c r="F1048">
+        <v>0</v>
+      </c>
+      <c r="G1048">
+        <v>1</v>
+      </c>
+      <c r="H1048">
+        <v>1</v>
+      </c>
+      <c r="I1048">
+        <v>0</v>
+      </c>
+      <c r="J1048">
+        <v>1</v>
+      </c>
+      <c r="K1048" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1048">
+        <v>1</v>
+      </c>
+      <c r="M1048">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1049">
+        <v>2.1</v>
+      </c>
+      <c r="D1049">
+        <v>3.25</v>
+      </c>
+      <c r="E1049">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F1049">
+        <v>1</v>
+      </c>
+      <c r="G1049">
+        <v>0</v>
+      </c>
+      <c r="H1049">
+        <v>1</v>
+      </c>
+      <c r="I1049">
+        <v>0</v>
+      </c>
+      <c r="J1049">
+        <v>1</v>
+      </c>
+      <c r="K1049" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1049">
+        <v>0</v>
+      </c>
+      <c r="M1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1050">
+        <v>2.8</v>
+      </c>
+      <c r="D1050">
+        <v>2.35</v>
+      </c>
+      <c r="E1050">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F1050">
+        <v>0</v>
+      </c>
+      <c r="G1050">
+        <v>1</v>
+      </c>
+      <c r="H1050">
+        <v>1</v>
+      </c>
+      <c r="I1050">
+        <v>0</v>
+      </c>
+      <c r="J1050">
+        <v>1</v>
+      </c>
+      <c r="K1050" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1050">
+        <v>2</v>
+      </c>
+      <c r="M1050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1051">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1051">
+        <v>3</v>
+      </c>
+      <c r="E1051">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1051">
+        <v>0</v>
+      </c>
+      <c r="G1051">
+        <v>1</v>
+      </c>
+      <c r="H1051">
+        <v>1</v>
+      </c>
+      <c r="I1051">
+        <v>1</v>
+      </c>
+      <c r="J1051">
+        <v>0</v>
+      </c>
+      <c r="K1051" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1051">
+        <v>4</v>
+      </c>
+      <c r="M1051">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C1052">
+        <v>2.65</v>
+      </c>
+      <c r="D1052">
+        <v>2.7</v>
+      </c>
+      <c r="E1052">
+        <v>5.0000000000000273E-2</v>
+      </c>
+      <c r="F1052">
+        <v>1</v>
+      </c>
+      <c r="G1052">
+        <v>1</v>
+      </c>
+      <c r="H1052">
+        <v>0</v>
+      </c>
+      <c r="I1052">
+        <v>0</v>
+      </c>
+      <c r="J1052">
+        <v>1</v>
+      </c>
+      <c r="K1052" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1052">
+        <v>0</v>
+      </c>
+      <c r="M1052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1053">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D1053">
+        <v>1.74</v>
+      </c>
+      <c r="E1053">
+        <v>2.359999999999999</v>
+      </c>
+      <c r="F1053">
+        <v>1</v>
+      </c>
+      <c r="G1053">
+        <v>0</v>
+      </c>
+      <c r="H1053">
+        <v>0</v>
+      </c>
+      <c r="I1053">
+        <v>1</v>
+      </c>
+      <c r="J1053">
+        <v>0</v>
+      </c>
+      <c r="K1053" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1053">
+        <v>1</v>
+      </c>
+      <c r="M1053">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1054">
+        <v>1.06</v>
+      </c>
+      <c r="D1054">
+        <v>19.5</v>
+      </c>
+      <c r="E1054">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="F1054">
+        <v>0</v>
+      </c>
+      <c r="G1054">
+        <v>1</v>
+      </c>
+      <c r="H1054">
+        <v>1</v>
+      </c>
+      <c r="I1054">
+        <v>0</v>
+      </c>
+      <c r="J1054">
+        <v>0</v>
+      </c>
+      <c r="K1054" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1054">
+        <v>7</v>
+      </c>
+      <c r="M1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C1055">
+        <v>1.45</v>
+      </c>
+      <c r="D1055">
+        <v>6.3</v>
+      </c>
+      <c r="E1055">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F1055">
+        <v>1</v>
+      </c>
+      <c r="G1055">
+        <v>1</v>
+      </c>
+      <c r="H1055">
+        <v>0</v>
+      </c>
+      <c r="I1055">
+        <v>1</v>
+      </c>
+      <c r="J1055">
+        <v>0</v>
+      </c>
+      <c r="K1055" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1055">
+        <v>4</v>
+      </c>
+      <c r="M1055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C1056">
+        <v>1.59</v>
+      </c>
+      <c r="D1056">
+        <v>5.9</v>
+      </c>
+      <c r="E1056">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F1056">
+        <v>1</v>
+      </c>
+      <c r="G1056">
+        <v>0</v>
+      </c>
+      <c r="H1056">
+        <v>1</v>
+      </c>
+      <c r="I1056">
+        <v>0</v>
+      </c>
+      <c r="J1056">
+        <v>1</v>
+      </c>
+      <c r="K1056" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1056">
+        <v>2</v>
+      </c>
+      <c r="M1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1057">
+        <v>1.49</v>
+      </c>
+      <c r="D1057">
+        <v>4.8</v>
+      </c>
+      <c r="E1057">
+        <v>3.31</v>
+      </c>
+      <c r="F1057">
+        <v>0</v>
+      </c>
+      <c r="G1057">
+        <v>1</v>
+      </c>
+      <c r="H1057">
+        <v>1</v>
+      </c>
+      <c r="I1057">
+        <v>1</v>
+      </c>
+      <c r="J1057">
+        <v>0</v>
+      </c>
+      <c r="K1057" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1057">
+        <v>5</v>
+      </c>
+      <c r="M1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1058">
+        <v>3.8</v>
+      </c>
+      <c r="D1058">
+        <v>1.67</v>
+      </c>
+      <c r="E1058">
+        <v>2.13</v>
+      </c>
+      <c r="F1058">
+        <v>1</v>
+      </c>
+      <c r="G1058">
+        <v>0</v>
+      </c>
+      <c r="H1058">
+        <v>0</v>
+      </c>
+      <c r="I1058">
+        <v>0</v>
+      </c>
+      <c r="J1058">
+        <v>1</v>
+      </c>
+      <c r="K1058" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1058">
+        <v>1</v>
+      </c>
+      <c r="M1058">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1059">
+        <v>3.8</v>
+      </c>
+      <c r="D1059">
+        <v>1.97</v>
+      </c>
+      <c r="E1059">
+        <v>1.83</v>
+      </c>
+      <c r="F1059">
+        <v>1</v>
+      </c>
+      <c r="G1059">
+        <v>1</v>
+      </c>
+      <c r="H1059">
+        <v>0</v>
+      </c>
+      <c r="I1059">
+        <v>0</v>
+      </c>
+      <c r="J1059">
+        <v>0</v>
+      </c>
+      <c r="K1059" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1059">
+        <v>3</v>
+      </c>
+      <c r="M1059">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1060">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1060">
+        <v>2.65</v>
+      </c>
+      <c r="E1060">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F1060">
+        <v>1</v>
+      </c>
+      <c r="G1060">
+        <v>1</v>
+      </c>
+      <c r="H1060">
+        <v>0</v>
+      </c>
+      <c r="I1060">
+        <v>1</v>
+      </c>
+      <c r="J1060">
+        <v>0</v>
+      </c>
+      <c r="K1060" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1060">
+        <v>0</v>
+      </c>
+      <c r="M1060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1061">
+        <v>10.5</v>
+      </c>
+      <c r="D1061">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E1061">
+        <v>9.36</v>
+      </c>
+      <c r="F1061">
+        <v>1</v>
+      </c>
+      <c r="G1061">
+        <v>1</v>
+      </c>
+      <c r="H1061">
+        <v>0</v>
+      </c>
+      <c r="I1061">
+        <v>1</v>
+      </c>
+      <c r="J1061">
+        <v>0</v>
+      </c>
+      <c r="K1061" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1061">
+        <v>0</v>
+      </c>
+      <c r="M1061">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1062">
+        <v>1.35</v>
+      </c>
+      <c r="D1062">
+        <v>6.9</v>
+      </c>
+      <c r="E1062">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="F1062">
+        <v>0</v>
+      </c>
+      <c r="G1062">
+        <v>1</v>
+      </c>
+      <c r="H1062">
+        <v>0</v>
+      </c>
+      <c r="I1062">
+        <v>0</v>
+      </c>
+      <c r="J1062">
+        <v>1</v>
+      </c>
+      <c r="K1062" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1062">
+        <v>0</v>
+      </c>
+      <c r="M1062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1063">
+        <v>2.9</v>
+      </c>
+      <c r="D1063">
+        <v>1.99</v>
+      </c>
+      <c r="E1063">
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="F1063">
+        <v>1</v>
+      </c>
+      <c r="G1063">
+        <v>0</v>
+      </c>
+      <c r="H1063">
+        <v>0</v>
+      </c>
+      <c r="I1063">
+        <v>1</v>
+      </c>
+      <c r="J1063">
+        <v>1</v>
+      </c>
+      <c r="K1063" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1063">
+        <v>2</v>
+      </c>
+      <c r="M1063">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1064">
+        <v>1.34</v>
+      </c>
+      <c r="D1064">
+        <v>6.2</v>
+      </c>
+      <c r="E1064">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F1064">
+        <v>0</v>
+      </c>
+      <c r="G1064">
+        <v>0</v>
+      </c>
+      <c r="H1064">
+        <v>0</v>
+      </c>
+      <c r="I1064">
+        <v>1</v>
+      </c>
+      <c r="J1064">
+        <v>1</v>
+      </c>
+      <c r="K1064" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1064">
+        <v>2</v>
+      </c>
+      <c r="M1064">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1065">
+        <v>1.85</v>
+      </c>
+      <c r="D1065">
+        <v>4.16</v>
+      </c>
+      <c r="E1065">
+        <v>2.31</v>
+      </c>
+      <c r="F1065">
+        <v>1</v>
+      </c>
+      <c r="G1065">
+        <v>1</v>
+      </c>
+      <c r="H1065">
+        <v>0</v>
+      </c>
+      <c r="I1065">
+        <v>1</v>
+      </c>
+      <c r="J1065">
+        <v>0</v>
+      </c>
+      <c r="K1065" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1065">
+        <v>3</v>
+      </c>
+      <c r="M1065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1066">
+        <v>3.51</v>
+      </c>
+      <c r="D1066">
+        <v>2.23</v>
+      </c>
+      <c r="E1066">
+        <v>1.28</v>
+      </c>
+      <c r="F1066">
+        <v>1</v>
+      </c>
+      <c r="G1066">
+        <v>1</v>
+      </c>
+      <c r="H1066">
+        <v>0</v>
+      </c>
+      <c r="I1066">
+        <v>1</v>
+      </c>
+      <c r="J1066">
+        <v>0</v>
+      </c>
+      <c r="K1066" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1066">
+        <v>0</v>
+      </c>
+      <c r="M1066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1067">
+        <v>3.6</v>
+      </c>
+      <c r="D1067">
+        <v>1.69</v>
+      </c>
+      <c r="E1067">
+        <v>1.91</v>
+      </c>
+      <c r="F1067">
+        <v>1</v>
+      </c>
+      <c r="G1067">
+        <v>1</v>
+      </c>
+      <c r="H1067">
+        <v>0</v>
+      </c>
+      <c r="I1067">
+        <v>1</v>
+      </c>
+      <c r="J1067">
+        <v>0</v>
+      </c>
+      <c r="K1067" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1067">
+        <v>1</v>
+      </c>
+      <c r="M1067">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C1068">
+        <v>6</v>
+      </c>
+      <c r="D1068">
+        <v>1.36</v>
+      </c>
+      <c r="E1068">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F1068">
+        <v>1</v>
+      </c>
+      <c r="G1068">
+        <v>1</v>
+      </c>
+      <c r="H1068">
+        <v>0</v>
+      </c>
+      <c r="I1068">
+        <v>0</v>
+      </c>
+      <c r="J1068">
+        <v>1</v>
+      </c>
+      <c r="K1068" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1068">
+        <v>1</v>
+      </c>
+      <c r="M1068">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1069">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D1069">
+        <v>13</v>
+      </c>
+      <c r="E1069">
+        <v>11.86</v>
+      </c>
+      <c r="F1069">
+        <v>1</v>
+      </c>
+      <c r="G1069">
+        <v>0</v>
+      </c>
+      <c r="H1069">
+        <v>1</v>
+      </c>
+      <c r="I1069">
+        <v>1</v>
+      </c>
+      <c r="J1069">
+        <v>0</v>
+      </c>
+      <c r="K1069" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1069">
+        <v>4</v>
+      </c>
+      <c r="M1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1070">
+        <v>2.35</v>
+      </c>
+      <c r="D1070">
+        <v>2.5</v>
+      </c>
+      <c r="E1070">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F1070">
+        <v>1</v>
+      </c>
+      <c r="G1070">
+        <v>1</v>
+      </c>
+      <c r="H1070">
+        <v>1</v>
+      </c>
+      <c r="I1070">
+        <v>0</v>
+      </c>
+      <c r="J1070">
+        <v>0</v>
+      </c>
+      <c r="K1070" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1070">
+        <v>0</v>
+      </c>
+      <c r="M1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C1071">
+        <v>1.46</v>
+      </c>
+      <c r="D1071">
+        <v>6.7</v>
+      </c>
+      <c r="E1071">
+        <v>5.24</v>
+      </c>
+      <c r="F1071">
+        <v>1</v>
+      </c>
+      <c r="G1071">
+        <v>1</v>
+      </c>
+      <c r="H1071">
+        <v>0</v>
+      </c>
+      <c r="I1071">
+        <v>1</v>
+      </c>
+      <c r="J1071">
+        <v>0</v>
+      </c>
+      <c r="K1071" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1071">
+        <v>0</v>
+      </c>
+      <c r="M1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>960</v>
+      </c>
+      <c r="C1072">
+        <v>1.02</v>
+      </c>
+      <c r="D1072">
+        <v>22</v>
+      </c>
+      <c r="E1072">
+        <v>20.98</v>
+      </c>
+      <c r="F1072">
+        <v>1</v>
+      </c>
+      <c r="G1072">
+        <v>1</v>
+      </c>
+      <c r="H1072">
+        <v>0</v>
+      </c>
+      <c r="I1072">
+        <v>0</v>
+      </c>
+      <c r="J1072">
+        <v>0</v>
+      </c>
+      <c r="K1072" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1072">
+        <v>1</v>
+      </c>
+      <c r="M1072">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1073">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1073">
+        <v>3.3</v>
+      </c>
+      <c r="E1073">
+        <v>1</v>
+      </c>
+      <c r="F1073">
+        <v>1</v>
+      </c>
+      <c r="G1073">
+        <v>0</v>
+      </c>
+      <c r="H1073">
+        <v>1</v>
+      </c>
+      <c r="I1073">
+        <v>0</v>
+      </c>
+      <c r="J1073">
+        <v>1</v>
+      </c>
+      <c r="K1073" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1073">
+        <v>1</v>
+      </c>
+      <c r="M1073">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1074">
+        <v>2.8</v>
+      </c>
+      <c r="D1074">
+        <v>2.1</v>
+      </c>
+      <c r="E1074">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="F1074">
+        <v>0</v>
+      </c>
+      <c r="G1074">
+        <v>1</v>
+      </c>
+      <c r="H1074">
+        <v>0</v>
+      </c>
+      <c r="I1074">
+        <v>1</v>
+      </c>
+      <c r="J1074">
+        <v>1</v>
+      </c>
+      <c r="K1074" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1074">
+        <v>2</v>
+      </c>
+      <c r="M1074">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C1075">
+        <v>3.8</v>
+      </c>
+      <c r="D1075">
+        <v>1.85</v>
+      </c>
+      <c r="E1075">
+        <v>1.95</v>
+      </c>
+      <c r="F1075">
+        <v>1</v>
+      </c>
+      <c r="G1075">
+        <v>1</v>
+      </c>
+      <c r="H1075">
+        <v>0</v>
+      </c>
+      <c r="I1075">
+        <v>1</v>
+      </c>
+      <c r="J1075">
+        <v>0</v>
+      </c>
+      <c r="K1075" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1075">
+        <v>0</v>
+      </c>
+      <c r="M1075">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1076">
+        <v>1.26</v>
+      </c>
+      <c r="D1076">
+        <v>7.6</v>
+      </c>
+      <c r="E1076">
+        <v>6.34</v>
+      </c>
+      <c r="F1076">
+        <v>1</v>
+      </c>
+      <c r="G1076">
+        <v>0</v>
+      </c>
+      <c r="H1076">
+        <v>0</v>
+      </c>
+      <c r="I1076">
+        <v>0</v>
+      </c>
+      <c r="J1076">
+        <v>1</v>
+      </c>
+      <c r="K1076" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1076">
+        <v>1</v>
+      </c>
+      <c r="M1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1077">
+        <v>6.6</v>
+      </c>
+      <c r="D1077">
+        <v>1.31</v>
+      </c>
+      <c r="E1077">
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="F1077">
+        <v>1</v>
+      </c>
+      <c r="G1077">
+        <v>1</v>
+      </c>
+      <c r="H1077">
+        <v>0</v>
+      </c>
+      <c r="I1077">
+        <v>1</v>
+      </c>
+      <c r="J1077">
+        <v>0</v>
+      </c>
+      <c r="K1077" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1077">
+        <v>2</v>
+      </c>
+      <c r="M1077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1078">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D1078">
+        <v>1.47</v>
+      </c>
+      <c r="E1078">
+        <v>3.63</v>
+      </c>
+      <c r="F1078">
+        <v>1</v>
+      </c>
+      <c r="G1078">
+        <v>0</v>
+      </c>
+      <c r="H1078">
+        <v>0</v>
+      </c>
+      <c r="I1078">
+        <v>1</v>
+      </c>
+      <c r="J1078">
+        <v>0</v>
+      </c>
+      <c r="K1078" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1078">
+        <v>1</v>
+      </c>
+      <c r="M1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1079">
+        <v>1.75</v>
+      </c>
+      <c r="D1079">
+        <v>4.2</v>
+      </c>
+      <c r="E1079">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F1079">
+        <v>0</v>
+      </c>
+      <c r="G1079">
+        <v>1</v>
+      </c>
+      <c r="H1079">
+        <v>1</v>
+      </c>
+      <c r="I1079">
+        <v>1</v>
+      </c>
+      <c r="J1079">
+        <v>0</v>
+      </c>
+      <c r="K1079" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1079">
+        <v>3</v>
+      </c>
+      <c r="M1079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1080">
+        <v>2.1</v>
+      </c>
+      <c r="D1080">
+        <v>3.1</v>
+      </c>
+      <c r="E1080">
+        <v>1</v>
+      </c>
+      <c r="F1080">
+        <v>1</v>
+      </c>
+      <c r="G1080">
+        <v>1</v>
+      </c>
+      <c r="H1080">
+        <v>1</v>
+      </c>
+      <c r="I1080">
+        <v>0</v>
+      </c>
+      <c r="J1080">
+        <v>0</v>
+      </c>
+      <c r="K1080" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1080">
+        <v>2</v>
+      </c>
+      <c r="M1080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C1081">
+        <v>1.26</v>
+      </c>
+      <c r="D1081">
+        <v>7.8</v>
+      </c>
+      <c r="E1081">
+        <v>6.54</v>
+      </c>
+      <c r="F1081">
+        <v>1</v>
+      </c>
+      <c r="G1081">
+        <v>1</v>
+      </c>
+      <c r="H1081">
+        <v>0</v>
+      </c>
+      <c r="I1081">
+        <v>0</v>
+      </c>
+      <c r="J1081">
+        <v>1</v>
+      </c>
+      <c r="K1081" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1081">
+        <v>1</v>
+      </c>
+      <c r="M1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1082">
+        <v>7.1</v>
+      </c>
+      <c r="D1082">
+        <v>1.31</v>
+      </c>
+      <c r="E1082">
+        <v>5.7899999999999991</v>
+      </c>
+      <c r="F1082">
+        <v>1</v>
+      </c>
+      <c r="G1082">
+        <v>1</v>
+      </c>
+      <c r="H1082">
+        <v>0</v>
+      </c>
+      <c r="I1082">
+        <v>0</v>
+      </c>
+      <c r="J1082">
+        <v>1</v>
+      </c>
+      <c r="K1082" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1082">
+        <v>0</v>
+      </c>
+      <c r="M1082">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1083">
+        <v>1.76</v>
+      </c>
+      <c r="D1083">
+        <v>3.5</v>
+      </c>
+      <c r="E1083">
+        <v>1.74</v>
+      </c>
+      <c r="F1083">
+        <v>1</v>
+      </c>
+      <c r="G1083">
+        <v>0</v>
+      </c>
+      <c r="H1083">
+        <v>0</v>
+      </c>
+      <c r="I1083">
+        <v>1</v>
+      </c>
+      <c r="J1083">
+        <v>1</v>
+      </c>
+      <c r="K1083" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1083">
+        <v>0</v>
+      </c>
+      <c r="M1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1084">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D1084">
+        <v>11</v>
+      </c>
+      <c r="E1084">
+        <v>9.84</v>
+      </c>
+      <c r="F1084">
+        <v>0</v>
+      </c>
+      <c r="G1084">
+        <v>1</v>
+      </c>
+      <c r="H1084">
+        <v>1</v>
+      </c>
+      <c r="I1084">
+        <v>1</v>
+      </c>
+      <c r="J1084">
+        <v>0</v>
+      </c>
+      <c r="K1084" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1084">
+        <v>5</v>
+      </c>
+      <c r="M1084">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1085">
+        <v>1.24</v>
+      </c>
+      <c r="D1085">
+        <v>7.7</v>
+      </c>
+      <c r="E1085">
+        <v>6.46</v>
+      </c>
+      <c r="F1085">
+        <v>1</v>
+      </c>
+      <c r="G1085">
+        <v>0</v>
+      </c>
+      <c r="H1085">
+        <v>1</v>
+      </c>
+      <c r="I1085">
+        <v>0</v>
+      </c>
+      <c r="J1085">
+        <v>0</v>
+      </c>
+      <c r="K1085" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1085">
+        <v>3</v>
+      </c>
+      <c r="M1085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1086">
+        <v>1.52</v>
+      </c>
+      <c r="D1086">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E1086">
+        <v>2.88</v>
+      </c>
+      <c r="F1086">
+        <v>0</v>
+      </c>
+      <c r="G1086">
+        <v>0</v>
+      </c>
+      <c r="H1086">
+        <v>1</v>
+      </c>
+      <c r="I1086">
+        <v>0</v>
+      </c>
+      <c r="J1086">
+        <v>1</v>
+      </c>
+      <c r="K1086" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1086">
+        <v>1</v>
+      </c>
+      <c r="M1086">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1087">
+        <v>1.17</v>
+      </c>
+      <c r="D1087">
+        <v>8.9</v>
+      </c>
+      <c r="E1087">
+        <v>7.73</v>
+      </c>
+      <c r="F1087">
+        <v>1</v>
+      </c>
+      <c r="G1087">
+        <v>0</v>
+      </c>
+      <c r="H1087">
+        <v>0</v>
+      </c>
+      <c r="I1087">
+        <v>1</v>
+      </c>
+      <c r="J1087">
+        <v>0</v>
+      </c>
+      <c r="K1087" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1087">
+        <v>3</v>
+      </c>
+      <c r="M1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1088">
+        <v>1.98</v>
+      </c>
+      <c r="D1088">
+        <v>3.1</v>
+      </c>
+      <c r="E1088">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F1088">
+        <v>1</v>
+      </c>
+      <c r="G1088">
+        <v>0</v>
+      </c>
+      <c r="H1088">
+        <v>0</v>
+      </c>
+      <c r="I1088">
+        <v>0</v>
+      </c>
+      <c r="J1088">
+        <v>1</v>
+      </c>
+      <c r="K1088" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1088">
+        <v>2</v>
+      </c>
+      <c r="M1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1089">
+        <v>3.2</v>
+      </c>
+      <c r="D1089">
+        <v>1.9</v>
+      </c>
+      <c r="E1089">
+        <v>1.3</v>
+      </c>
+      <c r="F1089">
+        <v>1</v>
+      </c>
+      <c r="G1089">
+        <v>1</v>
+      </c>
+      <c r="H1089">
+        <v>0</v>
+      </c>
+      <c r="I1089">
+        <v>0</v>
+      </c>
+      <c r="J1089">
+        <v>1</v>
+      </c>
+      <c r="K1089" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1089">
+        <v>1</v>
+      </c>
+      <c r="M1089">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1090">
+        <v>1.46</v>
+      </c>
+      <c r="D1090">
+        <v>5.3</v>
+      </c>
+      <c r="E1090">
+        <v>3.84</v>
+      </c>
+      <c r="F1090">
+        <v>1</v>
+      </c>
+      <c r="G1090">
+        <v>1</v>
+      </c>
+      <c r="H1090">
+        <v>0</v>
+      </c>
+      <c r="I1090">
+        <v>0</v>
+      </c>
+      <c r="J1090">
+        <v>0</v>
+      </c>
+      <c r="K1090" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1090">
+        <v>1</v>
+      </c>
+      <c r="M1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C1091">
+        <v>3.3</v>
+      </c>
+      <c r="D1091">
+        <v>1.77</v>
+      </c>
+      <c r="E1091">
+        <v>1.53</v>
+      </c>
+      <c r="F1091">
+        <v>1</v>
+      </c>
+      <c r="G1091">
+        <v>0</v>
+      </c>
+      <c r="H1091">
+        <v>0</v>
+      </c>
+      <c r="I1091">
+        <v>0</v>
+      </c>
+      <c r="J1091">
+        <v>1</v>
+      </c>
+      <c r="K1091" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1091">
+        <v>3</v>
+      </c>
+      <c r="M1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1092">
+        <v>2.15</v>
+      </c>
+      <c r="D1092">
+        <v>3.6</v>
+      </c>
+      <c r="E1092">
+        <v>1.45</v>
+      </c>
+      <c r="F1092">
+        <v>1</v>
+      </c>
+      <c r="G1092">
+        <v>0</v>
+      </c>
+      <c r="H1092">
+        <v>0</v>
+      </c>
+      <c r="I1092">
+        <v>1</v>
+      </c>
+      <c r="J1092">
+        <v>0</v>
+      </c>
+      <c r="K1092" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1092">
+        <v>3</v>
+      </c>
+      <c r="M1092">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1093">
+        <v>1.75</v>
+      </c>
+      <c r="D1093">
+        <v>4.3</v>
+      </c>
+      <c r="E1093">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F1093">
+        <v>0</v>
+      </c>
+      <c r="G1093">
+        <v>1</v>
+      </c>
+      <c r="H1093">
+        <v>0</v>
+      </c>
+      <c r="I1093">
+        <v>0</v>
+      </c>
+      <c r="J1093">
+        <v>1</v>
+      </c>
+      <c r="K1093" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1093">
+        <v>2</v>
+      </c>
+      <c r="M1093">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C1094">
+        <v>3.7</v>
+      </c>
+      <c r="D1094">
+        <v>1.85</v>
+      </c>
+      <c r="E1094">
+        <v>1.85</v>
+      </c>
+      <c r="F1094">
+        <v>1</v>
+      </c>
+      <c r="G1094">
+        <v>0</v>
+      </c>
+      <c r="H1094">
+        <v>0</v>
+      </c>
+      <c r="I1094">
+        <v>0</v>
+      </c>
+      <c r="J1094">
+        <v>1</v>
+      </c>
+      <c r="K1094" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1094">
+        <v>0</v>
+      </c>
+      <c r="M1094">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1095">
+        <v>1.53</v>
+      </c>
+      <c r="D1095">
+        <v>5.2</v>
+      </c>
+      <c r="E1095">
+        <v>3.67</v>
+      </c>
+      <c r="F1095">
+        <v>1</v>
+      </c>
+      <c r="G1095">
+        <v>1</v>
+      </c>
+      <c r="H1095">
+        <v>0</v>
+      </c>
+      <c r="I1095">
+        <v>0</v>
+      </c>
+      <c r="J1095">
+        <v>0</v>
+      </c>
+      <c r="K1095" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1095">
+        <v>0</v>
+      </c>
+      <c r="M1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1096">
+        <v>1.92</v>
+      </c>
+      <c r="D1096">
+        <v>3.6</v>
+      </c>
+      <c r="E1096">
+        <v>1.68</v>
+      </c>
+      <c r="F1096">
+        <v>1</v>
+      </c>
+      <c r="G1096">
+        <v>0</v>
+      </c>
+      <c r="H1096">
+        <v>0</v>
+      </c>
+      <c r="I1096">
+        <v>1</v>
+      </c>
+      <c r="J1096">
+        <v>1</v>
+      </c>
+      <c r="K1096" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1096">
+        <v>2</v>
+      </c>
+      <c r="M1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C1097">
+        <v>6.67</v>
+      </c>
+      <c r="D1097">
+        <v>1.51</v>
+      </c>
+      <c r="E1097">
+        <v>5.16</v>
+      </c>
+      <c r="F1097">
+        <v>0</v>
+      </c>
+      <c r="G1097">
+        <v>1</v>
+      </c>
+      <c r="H1097">
+        <v>1</v>
+      </c>
+      <c r="I1097">
+        <v>0</v>
+      </c>
+      <c r="J1097">
+        <v>1</v>
+      </c>
+      <c r="K1097" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1097">
+        <v>0</v>
+      </c>
+      <c r="M1097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C1098">
+        <v>1.94</v>
+      </c>
+      <c r="D1098">
+        <v>3.33</v>
+      </c>
+      <c r="E1098">
+        <v>1.39</v>
+      </c>
+      <c r="F1098">
+        <v>1</v>
+      </c>
+      <c r="G1098">
+        <v>0</v>
+      </c>
+      <c r="H1098">
+        <v>1</v>
+      </c>
+      <c r="I1098">
+        <v>1</v>
+      </c>
+      <c r="J1098">
+        <v>0</v>
+      </c>
+      <c r="K1098" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1098">
+        <v>1</v>
+      </c>
+      <c r="M1098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1099">
+        <v>4</v>
+      </c>
+      <c r="D1099">
+        <v>1.7</v>
+      </c>
+      <c r="E1099">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F1099">
+        <v>1</v>
+      </c>
+      <c r="G1099">
+        <v>0</v>
+      </c>
+      <c r="H1099">
+        <v>0</v>
+      </c>
+      <c r="I1099">
+        <v>0</v>
+      </c>
+      <c r="J1099">
+        <v>1</v>
+      </c>
+      <c r="K1099" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1099">
+        <v>4</v>
+      </c>
+      <c r="M1099">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C1100">
+        <v>12.55</v>
+      </c>
+      <c r="D1100">
+        <v>1.24</v>
+      </c>
+      <c r="E1100">
+        <v>11.31</v>
+      </c>
+      <c r="F1100">
+        <v>1</v>
+      </c>
+      <c r="G1100">
+        <v>1</v>
+      </c>
+      <c r="H1100">
+        <v>0</v>
+      </c>
+      <c r="I1100">
+        <v>0</v>
+      </c>
+      <c r="J1100">
+        <v>0</v>
+      </c>
+      <c r="K1100" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1100">
+        <v>0</v>
+      </c>
+      <c r="M1100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C1101">
+        <v>1.81</v>
+      </c>
+      <c r="D1101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1101">
+        <v>2.29</v>
+      </c>
+      <c r="F1101">
+        <v>1</v>
+      </c>
+      <c r="G1101">
+        <v>0</v>
+      </c>
+      <c r="H1101">
+        <v>0</v>
+      </c>
+      <c r="I1101">
+        <v>0</v>
+      </c>
+      <c r="J1101">
+        <v>0</v>
+      </c>
+      <c r="K1101" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1101">
+        <v>2</v>
+      </c>
+      <c r="M1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C1102">
+        <v>3.7</v>
+      </c>
+      <c r="D1102">
+        <v>2</v>
+      </c>
+      <c r="E1102">
+        <v>1.7</v>
+      </c>
+      <c r="F1102">
+        <v>0</v>
+      </c>
+      <c r="G1102">
+        <v>0</v>
+      </c>
+      <c r="H1102">
+        <v>0</v>
+      </c>
+      <c r="I1102">
+        <v>1</v>
+      </c>
+      <c r="J1102">
+        <v>1</v>
+      </c>
+      <c r="K1102" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1102">
+        <v>1</v>
+      </c>
+      <c r="M1102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1103">
+        <v>4.5</v>
+      </c>
+      <c r="D1103">
+        <v>1.75</v>
+      </c>
+      <c r="E1103">
+        <v>2.75</v>
+      </c>
+      <c r="F1103">
+        <v>1</v>
+      </c>
+      <c r="G1103">
+        <v>1</v>
+      </c>
+      <c r="H1103">
+        <v>0</v>
+      </c>
+      <c r="I1103">
+        <v>1</v>
+      </c>
+      <c r="J1103">
+        <v>0</v>
+      </c>
+      <c r="K1103" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1103">
+        <v>2</v>
+      </c>
+      <c r="M1103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C1104">
+        <v>7.7</v>
+      </c>
+      <c r="D1104">
+        <v>1.41</v>
+      </c>
+      <c r="E1104">
+        <v>6.29</v>
+      </c>
+      <c r="F1104">
+        <v>0</v>
+      </c>
+      <c r="G1104">
+        <v>1</v>
+      </c>
+      <c r="H1104">
+        <v>0</v>
+      </c>
+      <c r="I1104">
+        <v>0</v>
+      </c>
+      <c r="J1104">
+        <v>1</v>
+      </c>
+      <c r="K1104" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1104">
+        <v>0</v>
+      </c>
+      <c r="M1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1105">
+        <v>1.88</v>
+      </c>
+      <c r="D1105">
+        <v>3.6</v>
+      </c>
+      <c r="E1105">
+        <v>1.72</v>
+      </c>
+      <c r="F1105">
+        <v>1</v>
+      </c>
+      <c r="G1105">
+        <v>0</v>
+      </c>
+      <c r="H1105">
+        <v>0</v>
+      </c>
+      <c r="I1105">
+        <v>1</v>
+      </c>
+      <c r="J1105">
+        <v>0</v>
+      </c>
+      <c r="K1105" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1105">
+        <v>4</v>
+      </c>
+      <c r="M1105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C1106">
+        <v>1.86</v>
+      </c>
+      <c r="D1106">
+        <v>4</v>
+      </c>
+      <c r="E1106">
+        <v>2.14</v>
+      </c>
+      <c r="F1106">
+        <v>1</v>
+      </c>
+      <c r="G1106">
+        <v>1</v>
+      </c>
+      <c r="H1106">
+        <v>0</v>
+      </c>
+      <c r="I1106">
+        <v>0</v>
+      </c>
+      <c r="J1106">
+        <v>0</v>
+      </c>
+      <c r="K1106" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1106">
+        <v>1</v>
+      </c>
+      <c r="M1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C1107">
+        <v>1.3</v>
+      </c>
+      <c r="D1107">
+        <v>10.91</v>
+      </c>
+      <c r="E1107">
+        <v>9.61</v>
+      </c>
+      <c r="F1107">
+        <v>1</v>
+      </c>
+      <c r="G1107">
+        <v>0</v>
+      </c>
+      <c r="H1107">
+        <v>0</v>
+      </c>
+      <c r="I1107">
+        <v>1</v>
+      </c>
+      <c r="J1107">
+        <v>0</v>
+      </c>
+      <c r="K1107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1107">
+        <v>3</v>
+      </c>
+      <c r="M1107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1108">
+        <v>1.92</v>
+      </c>
+      <c r="D1108">
+        <v>3.9</v>
+      </c>
+      <c r="E1108">
+        <v>1.98</v>
+      </c>
+      <c r="F1108">
+        <v>0</v>
+      </c>
+      <c r="G1108">
+        <v>1</v>
+      </c>
+      <c r="H1108">
+        <v>1</v>
+      </c>
+      <c r="I1108">
+        <v>0</v>
+      </c>
+      <c r="J1108">
+        <v>0</v>
+      </c>
+      <c r="K1108" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1108">
+        <v>1</v>
+      </c>
+      <c r="M1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C1109">
+        <v>1.54</v>
+      </c>
+      <c r="D1109">
+        <v>5.2</v>
+      </c>
+      <c r="E1109">
+        <v>3.66</v>
+      </c>
+      <c r="F1109">
+        <v>1</v>
+      </c>
+      <c r="G1109">
+        <v>0</v>
+      </c>
+      <c r="H1109">
+        <v>0</v>
+      </c>
+      <c r="I1109">
+        <v>0</v>
+      </c>
+      <c r="J1109">
+        <v>0</v>
+      </c>
+      <c r="K1109" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1109">
+        <v>1</v>
+      </c>
+      <c r="M1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C1110">
+        <v>1.85</v>
+      </c>
+      <c r="D1110">
+        <v>3.75</v>
+      </c>
+      <c r="E1110">
+        <v>1.9</v>
+      </c>
+      <c r="F1110">
+        <v>1</v>
+      </c>
+      <c r="G1110">
+        <v>0</v>
+      </c>
+      <c r="H1110">
+        <v>0</v>
+      </c>
+      <c r="I1110">
+        <v>1</v>
+      </c>
+      <c r="J1110">
+        <v>0</v>
+      </c>
+      <c r="K1110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1110">
+        <v>2</v>
+      </c>
+      <c r="M1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C1111">
+        <v>1.42</v>
+      </c>
+      <c r="D1111">
+        <v>6.4</v>
+      </c>
+      <c r="E1111">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F1111">
+        <v>1</v>
+      </c>
+      <c r="G1111">
+        <v>1</v>
+      </c>
+      <c r="H1111">
+        <v>0</v>
+      </c>
+      <c r="I1111">
+        <v>0</v>
+      </c>
+      <c r="J1111">
+        <v>0</v>
+      </c>
+      <c r="K1111" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1111">
+        <v>2</v>
+      </c>
+      <c r="M1111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1112">
+        <v>3.4</v>
+      </c>
+      <c r="D1112">
+        <v>2.15</v>
+      </c>
+      <c r="E1112">
+        <v>1.25</v>
+      </c>
+      <c r="F1112">
+        <v>1</v>
+      </c>
+      <c r="G1112">
+        <v>1</v>
+      </c>
+      <c r="H1112">
+        <v>0</v>
+      </c>
+      <c r="I1112">
+        <v>0</v>
+      </c>
+      <c r="J1112">
+        <v>0</v>
+      </c>
+      <c r="K1112" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1112">
+        <v>0</v>
+      </c>
+      <c r="M1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1113">
+        <v>2.15</v>
+      </c>
+      <c r="D1113">
+        <v>2.85</v>
+      </c>
+      <c r="E1113">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1113">
+        <v>0</v>
+      </c>
+      <c r="G1113">
+        <v>0</v>
+      </c>
+      <c r="H1113">
+        <v>1</v>
+      </c>
+      <c r="I1113">
+        <v>1</v>
+      </c>
+      <c r="J1113">
+        <v>1</v>
+      </c>
+      <c r="K1113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1113">
+        <v>2</v>
+      </c>
+      <c r="M1113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1114">
+        <v>1.8</v>
+      </c>
+      <c r="D1114">
+        <v>4.2</v>
+      </c>
+      <c r="E1114">
+        <v>2.4</v>
+      </c>
+      <c r="F1114">
+        <v>1</v>
+      </c>
+      <c r="G1114">
+        <v>0</v>
+      </c>
+      <c r="H1114">
+        <v>1</v>
+      </c>
+      <c r="I1114">
+        <v>0</v>
+      </c>
+      <c r="J1114">
+        <v>0</v>
+      </c>
+      <c r="K1114" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1114">
+        <v>0</v>
+      </c>
+      <c r="M1114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C1115">
+        <v>1.39</v>
+      </c>
+      <c r="D1115">
+        <v>7.7</v>
+      </c>
+      <c r="E1115">
+        <v>6.31</v>
+      </c>
+      <c r="F1115">
+        <v>1</v>
+      </c>
+      <c r="G1115">
+        <v>1</v>
+      </c>
+      <c r="H1115">
+        <v>0</v>
+      </c>
+      <c r="I1115">
+        <v>0</v>
+      </c>
+      <c r="J1115">
+        <v>1</v>
+      </c>
+      <c r="K1115" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1115">
+        <v>4</v>
+      </c>
+      <c r="M1115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C1116">
+        <v>1.78</v>
+      </c>
+      <c r="D1116">
+        <v>3.6</v>
+      </c>
+      <c r="E1116">
+        <v>1.82</v>
+      </c>
+      <c r="F1116">
+        <v>1</v>
+      </c>
+      <c r="G1116">
+        <v>1</v>
+      </c>
+      <c r="H1116">
+        <v>0</v>
+      </c>
+      <c r="I1116">
+        <v>0</v>
+      </c>
+      <c r="J1116">
+        <v>0</v>
+      </c>
+      <c r="K1116" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1116">
+        <v>3</v>
+      </c>
+      <c r="M1116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1117">
+        <v>1.75</v>
+      </c>
+      <c r="D1117">
+        <v>3.9</v>
+      </c>
+      <c r="E1117">
+        <v>2.15</v>
+      </c>
+      <c r="F1117">
+        <v>0</v>
+      </c>
+      <c r="G1117">
+        <v>1</v>
+      </c>
+      <c r="H1117">
+        <v>1</v>
+      </c>
+      <c r="I1117">
+        <v>1</v>
+      </c>
+      <c r="J1117">
+        <v>0</v>
+      </c>
+      <c r="K1117" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1117">
+        <v>1</v>
+      </c>
+      <c r="M1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1118">
+        <v>2.15</v>
+      </c>
+      <c r="D1118">
+        <v>3.1</v>
+      </c>
+      <c r="E1118">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F1118">
+        <v>1</v>
+      </c>
+      <c r="G1118">
+        <v>0</v>
+      </c>
+      <c r="H1118">
+        <v>1</v>
+      </c>
+      <c r="I1118">
+        <v>1</v>
+      </c>
+      <c r="J1118">
+        <v>0</v>
+      </c>
+      <c r="K1118" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1118">
+        <v>1</v>
+      </c>
+      <c r="M1118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1119">
+        <v>1.71</v>
+      </c>
+      <c r="D1119">
+        <v>3.7</v>
+      </c>
+      <c r="E1119">
+        <v>1.99</v>
+      </c>
+      <c r="F1119">
+        <v>1</v>
+      </c>
+      <c r="G1119">
+        <v>0</v>
+      </c>
+      <c r="H1119">
+        <v>0</v>
+      </c>
+      <c r="I1119">
+        <v>1</v>
+      </c>
+      <c r="J1119">
+        <v>0</v>
+      </c>
+      <c r="K1119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1119">
+        <v>1</v>
+      </c>
+      <c r="M1119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1120">
+        <v>3.8</v>
+      </c>
+      <c r="D1120">
+        <v>1.87</v>
+      </c>
+      <c r="E1120">
+        <v>1.93</v>
+      </c>
+      <c r="F1120">
+        <v>1</v>
+      </c>
+      <c r="G1120">
+        <v>1</v>
+      </c>
+      <c r="H1120">
+        <v>1</v>
+      </c>
+      <c r="I1120">
+        <v>0</v>
+      </c>
+      <c r="J1120">
+        <v>0</v>
+      </c>
+      <c r="K1120" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1120">
+        <v>1</v>
+      </c>
+      <c r="M1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C1121">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1121">
+        <v>3.1</v>
+      </c>
+      <c r="E1121">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1121">
+        <v>1</v>
+      </c>
+      <c r="G1121">
+        <v>0</v>
+      </c>
+      <c r="H1121">
+        <v>0</v>
+      </c>
+      <c r="I1121">
+        <v>0</v>
+      </c>
+      <c r="J1121">
+        <v>0</v>
+      </c>
+      <c r="K1121" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1121">
+        <v>0</v>
+      </c>
+      <c r="M1121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C1122">
+        <v>1.51</v>
+      </c>
+      <c r="D1122">
+        <v>5.8</v>
+      </c>
+      <c r="E1122">
+        <v>4.29</v>
+      </c>
+      <c r="F1122">
+        <v>0</v>
+      </c>
+      <c r="G1122">
+        <v>1</v>
+      </c>
+      <c r="H1122">
+        <v>1</v>
+      </c>
+      <c r="I1122">
+        <v>0</v>
+      </c>
+      <c r="J1122">
+        <v>1</v>
+      </c>
+      <c r="K1122" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1122">
+        <v>2</v>
+      </c>
+      <c r="M1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1123">
+        <v>1.56</v>
+      </c>
+      <c r="D1123">
+        <v>5.5</v>
+      </c>
+      <c r="E1123">
+        <v>3.94</v>
+      </c>
+      <c r="F1123">
+        <v>1</v>
+      </c>
+      <c r="G1123">
+        <v>0</v>
+      </c>
+      <c r="H1123">
+        <v>1</v>
+      </c>
+      <c r="I1123">
+        <v>0</v>
+      </c>
+      <c r="J1123">
+        <v>0</v>
+      </c>
+      <c r="K1123" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1123">
+        <v>1</v>
+      </c>
+      <c r="M1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C1124">
+        <v>2.6</v>
+      </c>
+      <c r="D1124">
+        <v>2.64</v>
+      </c>
+      <c r="E1124">
+        <v>4.0000000000000042E-2</v>
+      </c>
+      <c r="F1124">
+        <v>0</v>
+      </c>
+      <c r="G1124">
+        <v>1</v>
+      </c>
+      <c r="H1124">
+        <v>1</v>
+      </c>
+      <c r="I1124">
+        <v>1</v>
+      </c>
+      <c r="J1124">
+        <v>0</v>
+      </c>
+      <c r="K1124" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1124">
+        <v>1</v>
+      </c>
+      <c r="M1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1125">
+        <v>1.78</v>
+      </c>
+      <c r="D1125">
+        <v>4.59</v>
+      </c>
+      <c r="E1125">
+        <v>2.81</v>
+      </c>
+      <c r="F1125">
+        <v>1</v>
+      </c>
+      <c r="G1125">
+        <v>0</v>
+      </c>
+      <c r="H1125">
+        <v>0</v>
+      </c>
+      <c r="I1125">
+        <v>0</v>
+      </c>
+      <c r="J1125">
+        <v>1</v>
+      </c>
+      <c r="K1125" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1125">
+        <v>1</v>
+      </c>
+      <c r="M1125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C1126">
+        <v>1.33</v>
+      </c>
+      <c r="D1126">
+        <v>8.58</v>
+      </c>
+      <c r="E1126">
+        <v>7.25</v>
+      </c>
+      <c r="F1126">
+        <v>1</v>
+      </c>
+      <c r="G1126">
+        <v>0</v>
+      </c>
+      <c r="H1126">
+        <v>1</v>
+      </c>
+      <c r="I1126">
+        <v>0</v>
+      </c>
+      <c r="J1126">
+        <v>0</v>
+      </c>
+      <c r="K1126" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1126">
+        <v>1</v>
+      </c>
+      <c r="M1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1127">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1127">
+        <v>3</v>
+      </c>
+      <c r="E1127">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1127">
+        <v>0</v>
+      </c>
+      <c r="G1127">
+        <v>1</v>
+      </c>
+      <c r="H1127">
+        <v>0</v>
+      </c>
+      <c r="I1127">
+        <v>0</v>
+      </c>
+      <c r="J1127">
+        <v>1</v>
+      </c>
+      <c r="K1127" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1127">
+        <v>1</v>
+      </c>
+      <c r="M1127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1128">
+        <v>1.45</v>
+      </c>
+      <c r="D1128">
+        <v>7.04</v>
+      </c>
+      <c r="E1128">
+        <v>5.59</v>
+      </c>
+      <c r="F1128">
+        <v>1</v>
+      </c>
+      <c r="G1128">
+        <v>1</v>
+      </c>
+      <c r="H1128">
+        <v>1</v>
+      </c>
+      <c r="I1128">
+        <v>0</v>
+      </c>
+      <c r="J1128">
+        <v>0</v>
+      </c>
+      <c r="K1128" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1128">
+        <v>1</v>
+      </c>
+      <c r="M1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1129">
+        <v>1.6</v>
+      </c>
+      <c r="D1129">
+        <v>5.12</v>
+      </c>
+      <c r="E1129">
+        <v>3.52</v>
+      </c>
+      <c r="F1129">
+        <v>1</v>
+      </c>
+      <c r="G1129">
+        <v>0</v>
+      </c>
+      <c r="H1129">
+        <v>0</v>
+      </c>
+      <c r="I1129">
+        <v>0</v>
+      </c>
+      <c r="J1129">
+        <v>1</v>
+      </c>
+      <c r="K1129" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1129">
+        <v>1</v>
+      </c>
+      <c r="M1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1130">
+        <v>1.37</v>
+      </c>
+      <c r="D1130">
+        <v>7.57</v>
+      </c>
+      <c r="E1130">
+        <v>6.2</v>
+      </c>
+      <c r="F1130">
+        <v>1</v>
+      </c>
+      <c r="G1130">
+        <v>0</v>
+      </c>
+      <c r="H1130">
+        <v>0</v>
+      </c>
+      <c r="I1130">
+        <v>1</v>
+      </c>
+      <c r="J1130">
+        <v>1</v>
+      </c>
+      <c r="K1130" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1130">
+        <v>2</v>
+      </c>
+      <c r="M1130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1131">
+        <v>1.85</v>
+      </c>
+      <c r="D1131">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E1131">
+        <v>2.169999999999999</v>
+      </c>
+      <c r="F1131">
+        <v>1</v>
+      </c>
+      <c r="G1131">
+        <v>0</v>
+      </c>
+      <c r="H1131">
+        <v>1</v>
+      </c>
+      <c r="I1131">
+        <v>1</v>
+      </c>
+      <c r="J1131">
+        <v>0</v>
+      </c>
+      <c r="K1131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1131">
+        <v>3</v>
+      </c>
+      <c r="M1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C1132">
+        <v>1.54</v>
+      </c>
+      <c r="D1132">
+        <v>4.75</v>
+      </c>
+      <c r="E1132">
+        <v>3.21</v>
+      </c>
+      <c r="F1132">
+        <v>0</v>
+      </c>
+      <c r="G1132">
+        <v>1</v>
+      </c>
+      <c r="H1132">
+        <v>0</v>
+      </c>
+      <c r="I1132">
+        <v>1</v>
+      </c>
+      <c r="J1132">
+        <v>0</v>
+      </c>
+      <c r="K1132" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1132">
+        <v>3</v>
+      </c>
+      <c r="M1132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1133">
+        <v>1.54</v>
+      </c>
+      <c r="D1133">
+        <v>5.2</v>
+      </c>
+      <c r="E1133">
+        <v>3.66</v>
+      </c>
+      <c r="F1133">
+        <v>1</v>
+      </c>
+      <c r="G1133">
+        <v>0</v>
+      </c>
+      <c r="H1133">
+        <v>0</v>
+      </c>
+      <c r="I1133">
+        <v>0</v>
+      </c>
+      <c r="J1133">
+        <v>1</v>
+      </c>
+      <c r="K1133" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1133">
+        <v>1</v>
+      </c>
+      <c r="M1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1134">
+        <v>1.96</v>
+      </c>
+      <c r="D1134">
+        <v>3.6</v>
+      </c>
+      <c r="E1134">
+        <v>1.64</v>
+      </c>
+      <c r="F1134">
+        <v>1</v>
+      </c>
+      <c r="G1134">
+        <v>1</v>
+      </c>
+      <c r="H1134">
+        <v>0</v>
+      </c>
+      <c r="I1134">
+        <v>1</v>
+      </c>
+      <c r="J1134">
+        <v>0</v>
+      </c>
+      <c r="K1134" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1134">
+        <v>0</v>
+      </c>
+      <c r="M1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1135">
+        <v>3.8</v>
+      </c>
+      <c r="D1135">
+        <v>1.86</v>
+      </c>
+      <c r="E1135">
+        <v>1.94</v>
+      </c>
+      <c r="F1135">
+        <v>0</v>
+      </c>
+      <c r="G1135">
+        <v>1</v>
+      </c>
+      <c r="H1135">
+        <v>0</v>
+      </c>
+      <c r="I1135">
+        <v>0</v>
+      </c>
+      <c r="J1135">
+        <v>0</v>
+      </c>
+      <c r="K1135" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1135">
+        <v>0</v>
+      </c>
+      <c r="M1135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1136">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D1136">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E1136">
+        <v>0</v>
+      </c>
+      <c r="F1136">
+        <v>0</v>
+      </c>
+      <c r="G1136">
+        <v>1</v>
+      </c>
+      <c r="H1136">
+        <v>1</v>
+      </c>
+      <c r="I1136">
+        <v>1</v>
+      </c>
+      <c r="J1136">
+        <v>0</v>
+      </c>
+      <c r="K1136" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1136">
+        <v>1</v>
+      </c>
+      <c r="M1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1137">
+        <v>3.2</v>
+      </c>
+      <c r="D1137">
+        <v>2.15</v>
+      </c>
+      <c r="E1137">
+        <v>1.05</v>
+      </c>
+      <c r="F1137">
+        <v>1</v>
+      </c>
+      <c r="G1137">
+        <v>0</v>
+      </c>
+      <c r="H1137">
+        <v>1</v>
+      </c>
+      <c r="I1137">
+        <v>0</v>
+      </c>
+      <c r="J1137">
+        <v>1</v>
+      </c>
+      <c r="K1137" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1137">
+        <v>3</v>
+      </c>
+      <c r="M1137">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA469D4-A7A8-49CB-93CD-F91A9E528BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14836E3-E467-4B23-87BE-F21A8543F537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
+    <workbookView xWindow="15" yWindow="600" windowWidth="20475" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="2078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="2119">
   <si>
     <t>home</t>
   </si>
@@ -6270,6 +6270,129 @@
   </si>
   <si>
     <t xml:space="preserve">Moss FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rochedale Rovers </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brisbane City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gimcheon Sangmu FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Anyang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gimpo FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capalaba Bulldogs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SWQ Thunder FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Carl Zeiss Jena </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eintracht Frankfurt II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Sand </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SV 67 Weinberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Milan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportivo Aragon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pontevedra CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD Formentera </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Izarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK Avarta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Naesby BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Lecce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eintracht Braunschweig </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SV Wehen Wiesbaden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VfL 1899 Osnabruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karlsruher SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohemians Prague 1905 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Jablonec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Slovan Liberec </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Teplice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Dynamo Ceske Budejovice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Sigma Olomouc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Hradec Kralove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV Darmstadt 98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Celta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamarkameratene </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Haugesund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man Utd </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arsenal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juventus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gaziantep FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Besiktas Istanbul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatih Karagumruk Istanbul </t>
   </si>
 </sst>
 </file>
@@ -6645,10 +6768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M1137"/>
+  <dimension ref="A1:M1170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1053" sqref="A1053:XFD1137"/>
+    <sheetView tabSelected="1" topLeftCell="A1123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1138" sqref="A1138:XFD1170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53267,6 +53390,1359 @@
         <v>3</v>
       </c>
       <c r="M1137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1138">
+        <v>3.33</v>
+      </c>
+      <c r="D1138">
+        <v>1.86</v>
+      </c>
+      <c r="E1138">
+        <v>1.47</v>
+      </c>
+      <c r="F1138">
+        <v>1</v>
+      </c>
+      <c r="G1138">
+        <v>1</v>
+      </c>
+      <c r="H1138">
+        <v>0</v>
+      </c>
+      <c r="I1138">
+        <v>0</v>
+      </c>
+      <c r="J1138">
+        <v>0</v>
+      </c>
+      <c r="K1138" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1138">
+        <v>0</v>
+      </c>
+      <c r="M1138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1139">
+        <v>1.72</v>
+      </c>
+      <c r="D1139">
+        <v>4.8</v>
+      </c>
+      <c r="E1139">
+        <v>3.08</v>
+      </c>
+      <c r="F1139">
+        <v>1</v>
+      </c>
+      <c r="G1139">
+        <v>1</v>
+      </c>
+      <c r="H1139">
+        <v>0</v>
+      </c>
+      <c r="I1139">
+        <v>0</v>
+      </c>
+      <c r="J1139">
+        <v>1</v>
+      </c>
+      <c r="K1139" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1139">
+        <v>1</v>
+      </c>
+      <c r="M1139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1140">
+        <v>1.71</v>
+      </c>
+      <c r="D1140">
+        <v>4.8</v>
+      </c>
+      <c r="E1140">
+        <v>3.09</v>
+      </c>
+      <c r="F1140">
+        <v>1</v>
+      </c>
+      <c r="G1140">
+        <v>1</v>
+      </c>
+      <c r="H1140">
+        <v>0</v>
+      </c>
+      <c r="I1140">
+        <v>0</v>
+      </c>
+      <c r="J1140">
+        <v>1</v>
+      </c>
+      <c r="K1140" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1140">
+        <v>2</v>
+      </c>
+      <c r="M1140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1141">
+        <v>1.83</v>
+      </c>
+      <c r="D1141">
+        <v>4</v>
+      </c>
+      <c r="E1141">
+        <v>2.17</v>
+      </c>
+      <c r="F1141">
+        <v>0</v>
+      </c>
+      <c r="G1141">
+        <v>0</v>
+      </c>
+      <c r="H1141">
+        <v>1</v>
+      </c>
+      <c r="I1141">
+        <v>1</v>
+      </c>
+      <c r="J1141">
+        <v>1</v>
+      </c>
+      <c r="K1141" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1141">
+        <v>0</v>
+      </c>
+      <c r="M1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1142">
+        <v>2.1</v>
+      </c>
+      <c r="D1142">
+        <v>3.33</v>
+      </c>
+      <c r="E1142">
+        <v>1.23</v>
+      </c>
+      <c r="F1142">
+        <v>1</v>
+      </c>
+      <c r="G1142">
+        <v>0</v>
+      </c>
+      <c r="H1142">
+        <v>0</v>
+      </c>
+      <c r="I1142">
+        <v>0</v>
+      </c>
+      <c r="J1142">
+        <v>0</v>
+      </c>
+      <c r="K1142" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1142">
+        <v>0</v>
+      </c>
+      <c r="M1142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1143">
+        <v>4.2</v>
+      </c>
+      <c r="D1143">
+        <v>1.56</v>
+      </c>
+      <c r="E1143">
+        <v>2.64</v>
+      </c>
+      <c r="F1143">
+        <v>1</v>
+      </c>
+      <c r="G1143">
+        <v>0</v>
+      </c>
+      <c r="H1143">
+        <v>1</v>
+      </c>
+      <c r="I1143">
+        <v>0</v>
+      </c>
+      <c r="J1143">
+        <v>0</v>
+      </c>
+      <c r="K1143" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1143">
+        <v>2</v>
+      </c>
+      <c r="M1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1144">
+        <v>1.64</v>
+      </c>
+      <c r="D1144">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1144">
+        <v>2.46</v>
+      </c>
+      <c r="F1144">
+        <v>1</v>
+      </c>
+      <c r="G1144">
+        <v>0</v>
+      </c>
+      <c r="H1144">
+        <v>0</v>
+      </c>
+      <c r="I1144">
+        <v>1</v>
+      </c>
+      <c r="J1144">
+        <v>0</v>
+      </c>
+      <c r="K1144" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1144">
+        <v>3</v>
+      </c>
+      <c r="M1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1145">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D1145">
+        <v>2.85</v>
+      </c>
+      <c r="E1145">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F1145">
+        <v>1</v>
+      </c>
+      <c r="G1145">
+        <v>0</v>
+      </c>
+      <c r="H1145">
+        <v>1</v>
+      </c>
+      <c r="I1145">
+        <v>0</v>
+      </c>
+      <c r="J1145">
+        <v>1</v>
+      </c>
+      <c r="K1145" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1145">
+        <v>0</v>
+      </c>
+      <c r="M1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1146">
+        <v>1.17</v>
+      </c>
+      <c r="D1146">
+        <v>11</v>
+      </c>
+      <c r="E1146">
+        <v>9.83</v>
+      </c>
+      <c r="F1146">
+        <v>1</v>
+      </c>
+      <c r="G1146">
+        <v>1</v>
+      </c>
+      <c r="H1146">
+        <v>0</v>
+      </c>
+      <c r="I1146">
+        <v>0</v>
+      </c>
+      <c r="J1146">
+        <v>1</v>
+      </c>
+      <c r="K1146" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1146">
+        <v>3</v>
+      </c>
+      <c r="M1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1147">
+        <v>1.27</v>
+      </c>
+      <c r="D1147">
+        <v>7.4</v>
+      </c>
+      <c r="E1147">
+        <v>6.1300000000000008</v>
+      </c>
+      <c r="F1147">
+        <v>1</v>
+      </c>
+      <c r="G1147">
+        <v>0</v>
+      </c>
+      <c r="H1147">
+        <v>0</v>
+      </c>
+      <c r="I1147">
+        <v>0</v>
+      </c>
+      <c r="J1147">
+        <v>1</v>
+      </c>
+      <c r="K1147" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1147">
+        <v>2</v>
+      </c>
+      <c r="M1147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1148">
+        <v>3.5</v>
+      </c>
+      <c r="D1148">
+        <v>1.94</v>
+      </c>
+      <c r="E1148">
+        <v>1.56</v>
+      </c>
+      <c r="F1148">
+        <v>1</v>
+      </c>
+      <c r="G1148">
+        <v>0</v>
+      </c>
+      <c r="H1148">
+        <v>0</v>
+      </c>
+      <c r="I1148">
+        <v>1</v>
+      </c>
+      <c r="J1148">
+        <v>1</v>
+      </c>
+      <c r="K1148" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1148">
+        <v>2</v>
+      </c>
+      <c r="M1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1149">
+        <v>1.99</v>
+      </c>
+      <c r="D1149">
+        <v>3.7</v>
+      </c>
+      <c r="E1149">
+        <v>1.71</v>
+      </c>
+      <c r="F1149">
+        <v>1</v>
+      </c>
+      <c r="G1149">
+        <v>0</v>
+      </c>
+      <c r="H1149">
+        <v>0</v>
+      </c>
+      <c r="I1149">
+        <v>1</v>
+      </c>
+      <c r="J1149">
+        <v>0</v>
+      </c>
+      <c r="K1149" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1149">
+        <v>0</v>
+      </c>
+      <c r="M1149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1150">
+        <v>1.62</v>
+      </c>
+      <c r="D1150">
+        <v>6.03</v>
+      </c>
+      <c r="E1150">
+        <v>4.41</v>
+      </c>
+      <c r="F1150">
+        <v>1</v>
+      </c>
+      <c r="G1150">
+        <v>0</v>
+      </c>
+      <c r="H1150">
+        <v>0</v>
+      </c>
+      <c r="I1150">
+        <v>1</v>
+      </c>
+      <c r="J1150">
+        <v>0</v>
+      </c>
+      <c r="K1150" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1150">
+        <v>2</v>
+      </c>
+      <c r="M1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1151">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D1151">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E1151">
+        <v>0</v>
+      </c>
+      <c r="F1151">
+        <v>1</v>
+      </c>
+      <c r="G1151">
+        <v>0</v>
+      </c>
+      <c r="H1151">
+        <v>1</v>
+      </c>
+      <c r="I1151">
+        <v>0</v>
+      </c>
+      <c r="J1151">
+        <v>1</v>
+      </c>
+      <c r="K1151" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1151">
+        <v>1</v>
+      </c>
+      <c r="M1151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>800</v>
+      </c>
+      <c r="C1152">
+        <v>4.5</v>
+      </c>
+      <c r="D1152">
+        <v>1.54</v>
+      </c>
+      <c r="E1152">
+        <v>2.96</v>
+      </c>
+      <c r="F1152">
+        <v>1</v>
+      </c>
+      <c r="G1152">
+        <v>1</v>
+      </c>
+      <c r="H1152">
+        <v>0</v>
+      </c>
+      <c r="I1152">
+        <v>0</v>
+      </c>
+      <c r="J1152">
+        <v>1</v>
+      </c>
+      <c r="K1152" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1152">
+        <v>1</v>
+      </c>
+      <c r="M1152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C1153">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D1153">
+        <v>3.5</v>
+      </c>
+      <c r="E1153">
+        <v>1.45</v>
+      </c>
+      <c r="F1153">
+        <v>1</v>
+      </c>
+      <c r="G1153">
+        <v>1</v>
+      </c>
+      <c r="H1153">
+        <v>0</v>
+      </c>
+      <c r="I1153">
+        <v>0</v>
+      </c>
+      <c r="J1153">
+        <v>0</v>
+      </c>
+      <c r="K1153" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1153">
+        <v>1</v>
+      </c>
+      <c r="M1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1154">
+        <v>1.22</v>
+      </c>
+      <c r="D1154">
+        <v>12</v>
+      </c>
+      <c r="E1154">
+        <v>10.78</v>
+      </c>
+      <c r="F1154">
+        <v>1</v>
+      </c>
+      <c r="G1154">
+        <v>1</v>
+      </c>
+      <c r="H1154">
+        <v>1</v>
+      </c>
+      <c r="I1154">
+        <v>0</v>
+      </c>
+      <c r="J1154">
+        <v>0</v>
+      </c>
+      <c r="K1154" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1154">
+        <v>3</v>
+      </c>
+      <c r="M1154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1155">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D1155">
+        <v>3.25</v>
+      </c>
+      <c r="E1155">
+        <v>1.2</v>
+      </c>
+      <c r="F1155">
+        <v>1</v>
+      </c>
+      <c r="G1155">
+        <v>0</v>
+      </c>
+      <c r="H1155">
+        <v>0</v>
+      </c>
+      <c r="I1155">
+        <v>0</v>
+      </c>
+      <c r="J1155">
+        <v>1</v>
+      </c>
+      <c r="K1155" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1155">
+        <v>1</v>
+      </c>
+      <c r="M1155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1156">
+        <v>1.7</v>
+      </c>
+      <c r="D1156">
+        <v>4.7</v>
+      </c>
+      <c r="E1156">
+        <v>3</v>
+      </c>
+      <c r="F1156">
+        <v>1</v>
+      </c>
+      <c r="G1156">
+        <v>0</v>
+      </c>
+      <c r="H1156">
+        <v>0</v>
+      </c>
+      <c r="I1156">
+        <v>0</v>
+      </c>
+      <c r="J1156">
+        <v>0</v>
+      </c>
+      <c r="K1156" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1156">
+        <v>0</v>
+      </c>
+      <c r="M1156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C1157">
+        <v>1.6</v>
+      </c>
+      <c r="D1157">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E1157">
+        <v>3.3</v>
+      </c>
+      <c r="F1157">
+        <v>0</v>
+      </c>
+      <c r="G1157">
+        <v>0</v>
+      </c>
+      <c r="H1157">
+        <v>0</v>
+      </c>
+      <c r="I1157">
+        <v>1</v>
+      </c>
+      <c r="J1157">
+        <v>1</v>
+      </c>
+      <c r="K1157" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1157">
+        <v>1</v>
+      </c>
+      <c r="M1157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C1158">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1158">
+        <v>3.33</v>
+      </c>
+      <c r="E1158">
+        <v>1.03</v>
+      </c>
+      <c r="F1158">
+        <v>0</v>
+      </c>
+      <c r="G1158">
+        <v>0</v>
+      </c>
+      <c r="H1158">
+        <v>1</v>
+      </c>
+      <c r="I1158">
+        <v>1</v>
+      </c>
+      <c r="J1158">
+        <v>0</v>
+      </c>
+      <c r="K1158" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1158">
+        <v>1</v>
+      </c>
+      <c r="M1158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C1159">
+        <v>1.81</v>
+      </c>
+      <c r="D1159">
+        <v>4.2</v>
+      </c>
+      <c r="E1159">
+        <v>2.39</v>
+      </c>
+      <c r="F1159">
+        <v>1</v>
+      </c>
+      <c r="G1159">
+        <v>0</v>
+      </c>
+      <c r="H1159">
+        <v>0</v>
+      </c>
+      <c r="I1159">
+        <v>1</v>
+      </c>
+      <c r="J1159">
+        <v>1</v>
+      </c>
+      <c r="K1159" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1159">
+        <v>1</v>
+      </c>
+      <c r="M1159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C1160">
+        <v>2.1</v>
+      </c>
+      <c r="D1160">
+        <v>3.4</v>
+      </c>
+      <c r="E1160">
+        <v>1.3</v>
+      </c>
+      <c r="F1160">
+        <v>1</v>
+      </c>
+      <c r="G1160">
+        <v>1</v>
+      </c>
+      <c r="H1160">
+        <v>0</v>
+      </c>
+      <c r="I1160">
+        <v>0</v>
+      </c>
+      <c r="J1160">
+        <v>0</v>
+      </c>
+      <c r="K1160" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1160">
+        <v>3</v>
+      </c>
+      <c r="M1160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C1161">
+        <v>2.5</v>
+      </c>
+      <c r="D1161">
+        <v>2.75</v>
+      </c>
+      <c r="E1161">
+        <v>0.25</v>
+      </c>
+      <c r="F1161">
+        <v>1</v>
+      </c>
+      <c r="G1161">
+        <v>1</v>
+      </c>
+      <c r="H1161">
+        <v>0</v>
+      </c>
+      <c r="I1161">
+        <v>0</v>
+      </c>
+      <c r="J1161">
+        <v>1</v>
+      </c>
+      <c r="K1161" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1161">
+        <v>1</v>
+      </c>
+      <c r="M1161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1162">
+        <v>4.96</v>
+      </c>
+      <c r="D1162">
+        <v>1.64</v>
+      </c>
+      <c r="E1162">
+        <v>3.32</v>
+      </c>
+      <c r="F1162">
+        <v>0</v>
+      </c>
+      <c r="G1162">
+        <v>1</v>
+      </c>
+      <c r="H1162">
+        <v>0</v>
+      </c>
+      <c r="I1162">
+        <v>0</v>
+      </c>
+      <c r="J1162">
+        <v>1</v>
+      </c>
+      <c r="K1162" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1162">
+        <v>0</v>
+      </c>
+      <c r="M1162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1163">
+        <v>2.35</v>
+      </c>
+      <c r="D1163">
+        <v>2.8</v>
+      </c>
+      <c r="E1163">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F1163">
+        <v>1</v>
+      </c>
+      <c r="G1163">
+        <v>0</v>
+      </c>
+      <c r="H1163">
+        <v>1</v>
+      </c>
+      <c r="I1163">
+        <v>0</v>
+      </c>
+      <c r="J1163">
+        <v>1</v>
+      </c>
+      <c r="K1163" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1163">
+        <v>2</v>
+      </c>
+      <c r="M1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C1164">
+        <v>1.43</v>
+      </c>
+      <c r="D1164">
+        <v>7.55</v>
+      </c>
+      <c r="E1164">
+        <v>6.12</v>
+      </c>
+      <c r="F1164">
+        <v>1</v>
+      </c>
+      <c r="G1164">
+        <v>1</v>
+      </c>
+      <c r="H1164">
+        <v>1</v>
+      </c>
+      <c r="I1164">
+        <v>0</v>
+      </c>
+      <c r="J1164">
+        <v>0</v>
+      </c>
+      <c r="K1164" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1164">
+        <v>1</v>
+      </c>
+      <c r="M1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C1165">
+        <v>1.93</v>
+      </c>
+      <c r="D1165">
+        <v>3.9</v>
+      </c>
+      <c r="E1165">
+        <v>1.97</v>
+      </c>
+      <c r="F1165">
+        <v>0</v>
+      </c>
+      <c r="G1165">
+        <v>1</v>
+      </c>
+      <c r="H1165">
+        <v>1</v>
+      </c>
+      <c r="I1165">
+        <v>0</v>
+      </c>
+      <c r="J1165">
+        <v>1</v>
+      </c>
+      <c r="K1165" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1165">
+        <v>2</v>
+      </c>
+      <c r="M1165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C1166">
+        <v>6.87</v>
+      </c>
+      <c r="D1166">
+        <v>1.43</v>
+      </c>
+      <c r="E1166">
+        <v>5.44</v>
+      </c>
+      <c r="F1166">
+        <v>1</v>
+      </c>
+      <c r="G1166">
+        <v>0</v>
+      </c>
+      <c r="H1166">
+        <v>0</v>
+      </c>
+      <c r="I1166">
+        <v>1</v>
+      </c>
+      <c r="J1166">
+        <v>0</v>
+      </c>
+      <c r="K1166" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1166">
+        <v>0</v>
+      </c>
+      <c r="M1166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1167">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D1167">
+        <v>18.45</v>
+      </c>
+      <c r="E1167">
+        <v>17.29</v>
+      </c>
+      <c r="F1167">
+        <v>1</v>
+      </c>
+      <c r="G1167">
+        <v>0</v>
+      </c>
+      <c r="H1167">
+        <v>0</v>
+      </c>
+      <c r="I1167">
+        <v>1</v>
+      </c>
+      <c r="J1167">
+        <v>1</v>
+      </c>
+      <c r="K1167" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1167">
+        <v>1</v>
+      </c>
+      <c r="M1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1168">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1168">
+        <v>3.1</v>
+      </c>
+      <c r="E1168">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1168">
+        <v>1</v>
+      </c>
+      <c r="G1168">
+        <v>0</v>
+      </c>
+      <c r="H1168">
+        <v>0</v>
+      </c>
+      <c r="I1168">
+        <v>0</v>
+      </c>
+      <c r="J1168">
+        <v>1</v>
+      </c>
+      <c r="K1168" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1168">
+        <v>1</v>
+      </c>
+      <c r="M1168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1169">
+        <v>2.6</v>
+      </c>
+      <c r="D1169">
+        <v>2.6</v>
+      </c>
+      <c r="E1169">
+        <v>0</v>
+      </c>
+      <c r="F1169">
+        <v>1</v>
+      </c>
+      <c r="G1169">
+        <v>0</v>
+      </c>
+      <c r="H1169">
+        <v>1</v>
+      </c>
+      <c r="I1169">
+        <v>1</v>
+      </c>
+      <c r="J1169">
+        <v>0</v>
+      </c>
+      <c r="K1169" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1169">
+        <v>1</v>
+      </c>
+      <c r="M1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1170">
+        <v>6</v>
+      </c>
+      <c r="D1170">
+        <v>1.45</v>
+      </c>
+      <c r="E1170">
+        <v>4.55</v>
+      </c>
+      <c r="F1170">
+        <v>0</v>
+      </c>
+      <c r="G1170">
+        <v>1</v>
+      </c>
+      <c r="H1170">
+        <v>1</v>
+      </c>
+      <c r="I1170">
+        <v>0</v>
+      </c>
+      <c r="J1170">
+        <v>0</v>
+      </c>
+      <c r="K1170" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1170">
+        <v>2</v>
+      </c>
+      <c r="M1170">
         <v>3</v>
       </c>
     </row>

--- a/ml2.xlsx
+++ b/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14836E3-E467-4B23-87BE-F21A8543F537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5D5184-C642-4234-B88A-DE56B70B263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="600" windowWidth="20475" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="2144">
   <si>
     <t>home</t>
   </si>
@@ -6393,6 +6393,81 @@
   </si>
   <si>
     <t xml:space="preserve">Fatih Karagumruk Istanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nam Dinh FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Linh Ha Tinh FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania Prisons </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ihefu FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamphun Warrior </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uthai Thani FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek Dupnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PFC Dobrudzha Dobrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viettel FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Binh Dinh FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolos Kovalivka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Brann 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brattvaag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emirates Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shabab Al-Ahli Dubai FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Sigma Olomouc B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sparta Prague B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFC Etar Veliko Tarnovo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zob Ahan Isfahan FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paykan FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Borac Banja Luka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FF Jaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing Club Dabidjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPS Oulu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OTP FC</t>
   </si>
 </sst>
 </file>
@@ -6768,10 +6843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M1170"/>
+  <dimension ref="A1:M1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1138" sqref="A1138:XFD1170"/>
+    <sheetView tabSelected="1" topLeftCell="A1171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1171" sqref="A1171:XFD1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54744,6 +54819,703 @@
       </c>
       <c r="M1170">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C1171">
+        <v>3.5</v>
+      </c>
+      <c r="D1171">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E1171">
+        <v>1.45</v>
+      </c>
+      <c r="F1171">
+        <v>1</v>
+      </c>
+      <c r="G1171">
+        <v>1</v>
+      </c>
+      <c r="H1171">
+        <v>0</v>
+      </c>
+      <c r="I1171">
+        <v>1</v>
+      </c>
+      <c r="J1171">
+        <v>0</v>
+      </c>
+      <c r="K1171" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1171">
+        <v>1</v>
+      </c>
+      <c r="M1171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1172">
+        <v>3.8</v>
+      </c>
+      <c r="D1172">
+        <v>1.87</v>
+      </c>
+      <c r="E1172">
+        <v>1.93</v>
+      </c>
+      <c r="F1172">
+        <v>1</v>
+      </c>
+      <c r="G1172">
+        <v>0</v>
+      </c>
+      <c r="H1172">
+        <v>1</v>
+      </c>
+      <c r="I1172">
+        <v>0</v>
+      </c>
+      <c r="J1172">
+        <v>1</v>
+      </c>
+      <c r="K1172" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1172">
+        <v>2</v>
+      </c>
+      <c r="M1172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C1173">
+        <v>2.25</v>
+      </c>
+      <c r="D1173">
+        <v>3.3</v>
+      </c>
+      <c r="E1173">
+        <v>1.05</v>
+      </c>
+      <c r="F1173">
+        <v>0</v>
+      </c>
+      <c r="G1173">
+        <v>1</v>
+      </c>
+      <c r="H1173">
+        <v>1</v>
+      </c>
+      <c r="I1173">
+        <v>0</v>
+      </c>
+      <c r="J1173">
+        <v>1</v>
+      </c>
+      <c r="K1173" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1173">
+        <v>0</v>
+      </c>
+      <c r="M1173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C1174">
+        <v>1.92</v>
+      </c>
+      <c r="D1174">
+        <v>3.75</v>
+      </c>
+      <c r="E1174">
+        <v>1.83</v>
+      </c>
+      <c r="F1174">
+        <v>1</v>
+      </c>
+      <c r="G1174">
+        <v>0</v>
+      </c>
+      <c r="H1174">
+        <v>1</v>
+      </c>
+      <c r="I1174">
+        <v>0</v>
+      </c>
+      <c r="J1174">
+        <v>0</v>
+      </c>
+      <c r="K1174" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1174">
+        <v>1</v>
+      </c>
+      <c r="M1174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C1175">
+        <v>2.35</v>
+      </c>
+      <c r="D1175">
+        <v>2.65</v>
+      </c>
+      <c r="E1175">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F1175">
+        <v>1</v>
+      </c>
+      <c r="G1175">
+        <v>0</v>
+      </c>
+      <c r="H1175">
+        <v>0</v>
+      </c>
+      <c r="I1175">
+        <v>1</v>
+      </c>
+      <c r="J1175">
+        <v>0</v>
+      </c>
+      <c r="K1175" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1175">
+        <v>2</v>
+      </c>
+      <c r="M1175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C1176">
+        <v>2.5</v>
+      </c>
+      <c r="D1176">
+        <v>2.85</v>
+      </c>
+      <c r="E1176">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F1176">
+        <v>1</v>
+      </c>
+      <c r="G1176">
+        <v>0</v>
+      </c>
+      <c r="H1176">
+        <v>1</v>
+      </c>
+      <c r="I1176">
+        <v>0</v>
+      </c>
+      <c r="J1176">
+        <v>1</v>
+      </c>
+      <c r="K1176" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1176">
+        <v>1</v>
+      </c>
+      <c r="M1176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1177">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1177">
+        <v>3.5</v>
+      </c>
+      <c r="E1177">
+        <v>1.3</v>
+      </c>
+      <c r="F1177">
+        <v>0</v>
+      </c>
+      <c r="G1177">
+        <v>1</v>
+      </c>
+      <c r="H1177">
+        <v>0</v>
+      </c>
+      <c r="I1177">
+        <v>0</v>
+      </c>
+      <c r="J1177">
+        <v>1</v>
+      </c>
+      <c r="K1177" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1177">
+        <v>1</v>
+      </c>
+      <c r="M1177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1178">
+        <v>2.7</v>
+      </c>
+      <c r="D1178">
+        <v>2.15</v>
+      </c>
+      <c r="E1178">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="F1178">
+        <v>1</v>
+      </c>
+      <c r="G1178">
+        <v>0</v>
+      </c>
+      <c r="H1178">
+        <v>1</v>
+      </c>
+      <c r="I1178">
+        <v>0</v>
+      </c>
+      <c r="J1178">
+        <v>0</v>
+      </c>
+      <c r="K1178" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1178">
+        <v>4</v>
+      </c>
+      <c r="M1178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C1179">
+        <v>6.7</v>
+      </c>
+      <c r="D1179">
+        <v>1.32</v>
+      </c>
+      <c r="E1179">
+        <v>5.38</v>
+      </c>
+      <c r="F1179">
+        <v>1</v>
+      </c>
+      <c r="G1179">
+        <v>1</v>
+      </c>
+      <c r="H1179">
+        <v>0</v>
+      </c>
+      <c r="I1179">
+        <v>0</v>
+      </c>
+      <c r="J1179">
+        <v>1</v>
+      </c>
+      <c r="K1179" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1179">
+        <v>2</v>
+      </c>
+      <c r="M1179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1180">
+        <v>1.95</v>
+      </c>
+      <c r="D1180">
+        <v>3.4</v>
+      </c>
+      <c r="E1180">
+        <v>1.45</v>
+      </c>
+      <c r="F1180">
+        <v>1</v>
+      </c>
+      <c r="G1180">
+        <v>1</v>
+      </c>
+      <c r="H1180">
+        <v>0</v>
+      </c>
+      <c r="I1180">
+        <v>1</v>
+      </c>
+      <c r="J1180">
+        <v>0</v>
+      </c>
+      <c r="K1180" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1180">
+        <v>3</v>
+      </c>
+      <c r="M1180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1181">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D1181">
+        <v>1.69</v>
+      </c>
+      <c r="E1181">
+        <v>3.21</v>
+      </c>
+      <c r="F1181">
+        <v>1</v>
+      </c>
+      <c r="G1181">
+        <v>1</v>
+      </c>
+      <c r="H1181">
+        <v>0</v>
+      </c>
+      <c r="I1181">
+        <v>0</v>
+      </c>
+      <c r="J1181">
+        <v>0</v>
+      </c>
+      <c r="K1181" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1181">
+        <v>1</v>
+      </c>
+      <c r="M1181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C1182">
+        <v>2.4</v>
+      </c>
+      <c r="D1182">
+        <v>3.1</v>
+      </c>
+      <c r="E1182">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1182">
+        <v>0</v>
+      </c>
+      <c r="G1182">
+        <v>1</v>
+      </c>
+      <c r="H1182">
+        <v>1</v>
+      </c>
+      <c r="I1182">
+        <v>1</v>
+      </c>
+      <c r="J1182">
+        <v>0</v>
+      </c>
+      <c r="K1182" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1182">
+        <v>1</v>
+      </c>
+      <c r="M1182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C1183">
+        <v>7.1</v>
+      </c>
+      <c r="D1183">
+        <v>1.44</v>
+      </c>
+      <c r="E1183">
+        <v>5.66</v>
+      </c>
+      <c r="F1183">
+        <v>1</v>
+      </c>
+      <c r="G1183">
+        <v>0</v>
+      </c>
+      <c r="H1183">
+        <v>0</v>
+      </c>
+      <c r="I1183">
+        <v>1</v>
+      </c>
+      <c r="J1183">
+        <v>0</v>
+      </c>
+      <c r="K1183" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1183">
+        <v>2</v>
+      </c>
+      <c r="M1183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C1184">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D1184">
+        <v>3.4</v>
+      </c>
+      <c r="E1184">
+        <v>1.35</v>
+      </c>
+      <c r="F1184">
+        <v>0</v>
+      </c>
+      <c r="G1184">
+        <v>1</v>
+      </c>
+      <c r="H1184">
+        <v>1</v>
+      </c>
+      <c r="I1184">
+        <v>1</v>
+      </c>
+      <c r="J1184">
+        <v>0</v>
+      </c>
+      <c r="K1184" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1184">
+        <v>1</v>
+      </c>
+      <c r="M1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1185">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D1185">
+        <v>1.89</v>
+      </c>
+      <c r="E1185">
+        <v>2.21</v>
+      </c>
+      <c r="F1185">
+        <v>0</v>
+      </c>
+      <c r="G1185">
+        <v>1</v>
+      </c>
+      <c r="H1185">
+        <v>0</v>
+      </c>
+      <c r="I1185">
+        <v>1</v>
+      </c>
+      <c r="J1185">
+        <v>0</v>
+      </c>
+      <c r="K1185" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1185">
+        <v>0</v>
+      </c>
+      <c r="M1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C1186">
+        <v>2.6</v>
+      </c>
+      <c r="D1186">
+        <v>2.35</v>
+      </c>
+      <c r="E1186">
+        <v>0.25</v>
+      </c>
+      <c r="F1186">
+        <v>1</v>
+      </c>
+      <c r="G1186">
+        <v>0</v>
+      </c>
+      <c r="H1186">
+        <v>1</v>
+      </c>
+      <c r="I1186">
+        <v>1</v>
+      </c>
+      <c r="J1186">
+        <v>0</v>
+      </c>
+      <c r="K1186" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1186">
+        <v>1</v>
+      </c>
+      <c r="M1186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1187">
+        <v>1.44</v>
+      </c>
+      <c r="D1187">
+        <v>6.1</v>
+      </c>
+      <c r="E1187">
+        <v>4.66</v>
+      </c>
+      <c r="F1187">
+        <v>1</v>
+      </c>
+      <c r="G1187">
+        <v>1</v>
+      </c>
+      <c r="H1187">
+        <v>0</v>
+      </c>
+      <c r="I1187">
+        <v>0</v>
+      </c>
+      <c r="J1187">
+        <v>0</v>
+      </c>
+      <c r="K1187" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1187">
+        <v>4</v>
+      </c>
+      <c r="M1187">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
